--- a/docs/data/local_authority_climate_emergency_declarations/latest/local_authority_climate_emergency_declarations.xlsx
+++ b/docs/data/local_authority_climate_emergency_declarations/latest/local_authority_climate_emergency_declarations.xlsx
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Contributors</t>
@@ -1831,8 +1831,7 @@
     <t>Kettering Borough Council (defunct council)</t>
   </si>
   <si>
-    <t>King's Lynn and West Norfolk Borough
-Council</t>
+    <t>King's Lynn and West Norfolk BoroughCouncil</t>
   </si>
   <si>
     <t>Kirklees Council</t>
@@ -2252,8 +2251,7 @@
     <t>Somerset West and Taunton Council</t>
   </si>
   <si>
-    <t>South Buckinghamshire District
-Council</t>
+    <t>South Buckinghamshire DistrictCouncil</t>
   </si>
   <si>
     <t>South Cambridgeshire District Council</t>
@@ -3207,8 +3205,7 @@
     <t>Climate Change motion (not Climate Emergency)</t>
   </si>
   <si>
-    <t>Link to article
-Link to minutes</t>
+    <t>Link to articleLink to minutes</t>
   </si>
   <si>
     <t>Link (ignore wrong date in title of the document)</t>
@@ -3352,8 +3349,7 @@
     <t>Yes - Ecological Emergency (separate - Oct 2020)</t>
   </si>
   <si>
-    <t>No - but it is one of the guiding principles for the Action Plan
-A motion to declare an ecological emergency was withdrawn in December 2020</t>
+    <t>No - but it is one of the guiding principles for the Action PlanA motion to declare an ecological emergency was withdrawn in December 2020</t>
   </si>
   <si>
     <t>Yes - "Climate Change and Biodiversity Emergency"</t>
@@ -3374,14 +3370,13 @@
     <t>Yes - 'Climate and Ecological Emergency</t>
   </si>
   <si>
-    <t>Yes, "We are recognising a biodiversity or ecological crisis as_x000D_ implicit within the declaration of ‘climate emergency’."_x000D_</t>
+    <t>Yes, "We are recognising a biodiversity or ecological crisis as implicit within the declaration of ‘climate emergency’."</t>
   </si>
   <si>
     <t>Yes - climate and ecological emergency</t>
   </si>
   <si>
-    <t xml:space="preserve">Unsure - 'recognised that climate change is an ecological emergency'
-</t>
+    <t>Unsure - 'recognised that climate change is an ecological emergency'</t>
   </si>
   <si>
     <t>Yes (climate and biodiversity declaration)</t>
@@ -3414,7 +3409,7 @@
     <t>Yes - "Environmental and Climate Change"</t>
   </si>
   <si>
-    <t>Yes "promoting biodiversity;"_x000D_</t>
+    <t>Yes "promoting biodiversity;"</t>
   </si>
   <si>
     <t>Yes (Environment)</t>
@@ -3429,8 +3424,7 @@
     <t>Yes "strategic actions needed to address the environment and climate emergency"</t>
   </si>
   <si>
-    <t>Yes in preamble "loss of biodiversity including insects and vital food crop pollinators.
-"</t>
+    <t>Yes in preamble "loss of biodiversity including insects and vital food crop pollinators."</t>
   </si>
   <si>
     <t>No (deleted points 2-6 of motion that did reference biodiversity)</t>
@@ -3439,14 +3433,13 @@
     <t>Declared</t>
   </si>
   <si>
-    <t>Yes "protecting biodiversity"
-"Partnership; managing and protecting our County wildlife sites and their _x000D_biodiversity"</t>
+    <t>Yes "protecting biodiversity""Partnership; managing and protecting our County wildlife sites and their biodiversity"</t>
   </si>
   <si>
     <t>Yes - "Council Scrutiny Panels consider the impact of climate change and the environment when reviewing Council policies and strategies"</t>
   </si>
   <si>
-    <t>Declared. Also "Establish a baseline for Chelmsford’s ecological status and monitor progress year on year" _x000D_</t>
+    <t xml:space="preserve">Declared. Also "Establish a baseline for Chelmsford’s ecological status and monitor progress year on year" </t>
   </si>
   <si>
     <t>No (but useful info)</t>
@@ -3455,7 +3448,7 @@
     <t>Yes "loss of biodiversity including insects and... pollinators"</t>
   </si>
   <si>
-    <t>Yes "Commission an environmental audit which identifies pollution hotspots, wildlife biodiversity... aim to identify areas of improvement across the borough._x000D_ _x000D_</t>
+    <t xml:space="preserve">Yes "Commission an environmental audit which identifies pollution hotspots, wildlife biodiversity... aim to identify areas of improvement across the borough. </t>
   </si>
   <si>
     <t>Yes - "man made ecological crisis"; "set commitment to improve biodiversity"</t>
@@ -3482,8 +3475,7 @@
     <t>No - later added to terms of reference of CE group</t>
   </si>
   <si>
-    <t>Declared &amp; "Resolves to put sustainability, biodiversity and carbon reduction at the heart of_x000D_
-this Council’s agenda"</t>
+    <t>Declared &amp; "Resolves to put sustainability, biodiversity and carbon reduction at the heart ofthis Council’s agenda"</t>
   </si>
   <si>
     <t>Declared later - Nov 2019</t>
@@ -3492,8 +3484,7 @@
     <t>Yes - Staff report on CE "in report highlights biodiversity and actions"</t>
   </si>
   <si>
-    <t>Yes "recognise the importance of our biodiversity and natural environment."
-"will incorporate actions on loss of biodiversity and our natural environment;"_x000D__x000D_</t>
+    <t>Yes "recognise the importance of our biodiversity and natural environment.""will incorporate actions on loss of biodiversity and our natural environment;"</t>
   </si>
   <si>
     <t>Yes "recognised the serious and accelerating environmental faced by climate change and declared a climate emergency"</t>
@@ -3505,14 +3496,13 @@
     <t>Yes "Plan... to protect and enhance biodiversity"</t>
   </si>
   <si>
-    <t>Yes "Set up an Environmental and Climate Forum"
-"very best measures into the Local Plan to minimise any negative impact on the environment"</t>
+    <t>Yes "Set up an Environmental and Climate Forum""very best measures into the Local Plan to minimise any negative impact on the environment"</t>
   </si>
   <si>
     <t>No but Ecological emergency recognised as part of plan</t>
   </si>
   <si>
-    <t>Yes "Carbon off-setting measures- for example using nature to take carbon..." _x000D_</t>
+    <t xml:space="preserve">Yes "Carbon off-setting measures- for example using nature to take carbon..." </t>
   </si>
   <si>
     <t>No but referenced later</t>
@@ -3524,16 +3514,16 @@
     <t>Yes "Seek to increase the number and size of land designated as nature reserves and improve and create habitats to support insect life including bees"</t>
   </si>
   <si>
-    <t>Yes "Exeter City Council recognises the connected biodiversity crisis"_x000D_</t>
-  </si>
-  <si>
-    <t>Yes "noted the focus on increasing Biodiversity"_x000D_</t>
+    <t>Yes "Exeter City Council recognises the connected biodiversity crisis"</t>
+  </si>
+  <si>
+    <t>Yes "noted the focus on increasing Biodiversity"</t>
   </si>
   <si>
     <t>No - but later referred to as declared</t>
   </si>
   <si>
-    <t>Yes - preamble "species loss and extinction"_x000D_</t>
+    <t>Yes - preamble "species loss and extinction"</t>
   </si>
   <si>
     <t xml:space="preserve">Yes "Gwynedd's landscape presents many opportunities for... biodiversity regeneration" </t>
@@ -3551,7 +3541,7 @@
     <t>Yes - "Work to mitigate the biodiversity crisis in its actions across the Borough"</t>
   </si>
   <si>
-    <t>Yes - "and biodiversity loss and we support action to tackle these matters."_x000D_</t>
+    <t>Yes - "and biodiversity loss and we support action to tackle these matters."</t>
   </si>
   <si>
     <t>Not in CE declaration but referenced after</t>
@@ -3578,18 +3568,16 @@
     <t>Yes in preamble "danger to people and biodiversity from climate change."</t>
   </si>
   <si>
-    <t>No
-but later added to plan objectives</t>
-  </si>
-  <si>
-    <t>Later noted 19/03/20 to add on to CE 
-"(3)          the wider ecological implications of the human-induced changes that were occurring to our climate be noted;"</t>
+    <t>Nobut later added to plan objectives</t>
+  </si>
+  <si>
+    <t>Later noted 19/03/20 to add on to CE "(3)          the wider ecological implications of the human-induced changes that were occurring to our climate be noted;"</t>
   </si>
   <si>
     <t>Yes "recognise... changing climate will have severe and enduring... environmental implications"</t>
   </si>
   <si>
-    <t>Yes "9. Improve biodiversity and carbon storage (e.g. tree planting)_x000D_"</t>
+    <t>Yes "9. Improve biodiversity and carbon storage (e.g. tree planting)"</t>
   </si>
   <si>
     <t>Yes "Protecting Southwark’s biodiversity"</t>
@@ -3610,18 +3598,16 @@
     <t>Yes "This council is significantly concerned that the environmental crises must be a priority."</t>
   </si>
   <si>
-    <t>Yes "Request that Council Scrutiny Panels consider the impact of climate change and the _x000D_environment when reviewing Council policies and strategies;_x000D_"</t>
+    <t>Yes "Request that Council Scrutiny Panels consider the impact of climate change and the environment when reviewing Council policies and strategies;"</t>
   </si>
   <si>
     <t>Yes "clean air and biodiversity are key to a sustainable city"</t>
   </si>
   <si>
-    <t>Yes "increasingly erratic climate and biodiversity loss."
-And action point "make a positively beneficial impact on the _x000D_environment and biodiversity in the District."_x000D_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes "We have a strong track record in our sustainability and environment stewardship. We have engaged in climate change actions for many years and, through policies and activities, have made the district more resilient, reduced carbon emissions, created space for nature, and provided the infrastructure to enable others to make choices that reduce emissions. Going forward, we will be taking more actions in every area of our day-to-day activities, in our operations, our civic buildings and depots, improving our natural environment to support nature recovery, as well as gaining a better understanding and measurement of what the issues are and what our actions are achieving.
-A Sustainability Advisory Member Panel will now set actions to address the climate and nature emergency and will present a report to full Council in February 2022. </t>
+    <t>Yes "increasingly erratic climate and biodiversity loss."And action point "make a positively beneficial impact on the environment and biodiversity in the District."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes "We have a strong track record in our sustainability and environment stewardship. We have engaged in climate change actions for many years and, through policies and activities, have made the district more resilient, reduced carbon emissions, created space for nature, and provided the infrastructure to enable others to make choices that reduce emissions. Going forward, we will be taking more actions in every area of our day-to-day activities, in our operations, our civic buildings and depots, improving our natural environment to support nature recovery, as well as gaining a better understanding and measurement of what the issues are and what our actions are achieving.A Sustainability Advisory Member Panel will now set actions to address the climate and nature emergency and will present a report to full Council in February 2022. </t>
   </si>
   <si>
     <t>Yes, "extinctions of plant, insect and animal species"</t>
@@ -3639,7 +3625,7 @@
     <t>Yes on Sept 24th 2019.</t>
   </si>
   <si>
-    <t>Yes "harmful effects climate change has on... natural habitats and eco-systems."_x000D_</t>
+    <t>Yes "harmful effects climate change has on... natural habitats and eco-systems."</t>
   </si>
   <si>
     <t>Yes - references "climate and environmental emergency" in preamble</t>
@@ -3648,8 +3634,7 @@
     <t>Yes - "the health of ecosystems on which we depend is deteriorating more rapidly"</t>
   </si>
   <si>
-    <t>No
-Although will be addressed in Local Plan review</t>
+    <t>NoAlthough will be addressed in Local Plan review</t>
   </si>
   <si>
     <t>Reference in minutes rather than motion</t>
@@ -3667,8 +3652,7 @@
     <t>Yes, "problems of climate change, air pollution and reduction of species &amp; biodiversity need to be treated together"</t>
   </si>
   <si>
-    <t>Yes in CE declaration "greater loss of species and habitats, changing ecosystems"
-Later declared</t>
+    <t>Yes in CE declaration "greater loss of species and habitats, changing ecosystems"Later declared</t>
   </si>
   <si>
     <t>Not in CE declaration but declared separately</t>
@@ -3680,16 +3664,13 @@
     <t>Yes "changes in ecosystems"</t>
   </si>
   <si>
-    <t>Included in declaration - 'business as usual not an option in the face of the climate and biodiversity emergency'.
-Theme in Action Plan</t>
-  </si>
-  <si>
-    <t>Declared 
-Also included in action plan. And have separate biodiversity action plan (2016)</t>
-  </si>
-  <si>
-    <t>Yes "duty to limit the negative impacts of... biodiversity loss" 
-Also mentioned in Climate Action Plan</t>
+    <t>Included in declaration - 'business as usual not an option in the face of the climate and biodiversity emergency'.Theme in Action Plan</t>
+  </si>
+  <si>
+    <t>Declared Also included in action plan. And have separate biodiversity action plan (2016)</t>
+  </si>
+  <si>
+    <t>Yes "duty to limit the negative impacts of... biodiversity loss" Also mentioned in Climate Action Plan</t>
   </si>
   <si>
     <t>Yes - not in declaration but state they declared "environment and climate emergency" on plans normal page</t>
@@ -3707,19 +3688,16 @@
     <t>Yes "catastrophic consequences for humans and the natural world."</t>
   </si>
   <si>
-    <t>Declared
-Also in climate action strategy</t>
-  </si>
-  <si>
-    <t>Declared
-Also in plan - actions here</t>
+    <t>DeclaredAlso in climate action strategy</t>
+  </si>
+  <si>
+    <t>DeclaredAlso in plan - actions here</t>
   </si>
   <si>
     <t>No but mentions creation of new woodland in CE declaration.</t>
   </si>
   <si>
-    <t>Declared
-Also a section in climate plan</t>
+    <t>DeclaredAlso a section in climate plan</t>
   </si>
   <si>
     <t xml:space="preserve">Yes - separate. </t>
@@ -3728,15 +3706,13 @@
     <t>Not in declaration</t>
   </si>
   <si>
-    <t>Yes, "protect, maintain and enhance our natural environment" in climate emergency declaration_x000D_
-Climate Strategy is here. Mentions biodiversity with some actions listed.</t>
+    <t>Yes, "protect, maintain and enhance our natural environment" in climate emergency declarationClimate Strategy is here. Mentions biodiversity with some actions listed.</t>
   </si>
   <si>
     <t>Yes, policy statement here</t>
   </si>
   <si>
-    <t>Yes in declaration 'recognise that there is a Climate and Ecological Emergency; and that the Council formally declares a Climate Emergency'
-has separate Biodiversity Action Plan called Natural Woking (2016)</t>
+    <t>Yes in declaration 'recognise that there is a Climate and Ecological Emergency; and that the Council formally declares a Climate Emergency'has separate Biodiversity Action Plan called Natural Woking (2016)</t>
   </si>
   <si>
     <t>YES</t>
@@ -3772,10 +3748,7 @@
     <t>Yes - call on Lancashire County Council and Westminster</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes - Welsh and UK governments and
-"ask that Welsh and UK Government call on World Leaders to acknowledge the overwhelming scientific evidence that Climate Change has been created by human 
-activity" 
-</t>
+    <t xml:space="preserve">Yes - Welsh and UK governments and"ask that Welsh and UK Government call on World Leaders to acknowledge the overwhelming scientific evidence that Climate Change has been created by human activity" </t>
   </si>
   <si>
     <t>Yes "and local MPS"</t>
@@ -3784,7 +3757,7 @@
     <t>Yes - Welsh and UK governments</t>
   </si>
   <si>
-    <t>Yes "write to... SoS for Business, Energy &amp; Industrial Strategy; Transport; Environment, Food and Rural Affairs; and Housing, Communities and Local Government"_x000D_</t>
+    <t>Yes "write to... SoS for Business, Energy &amp; Industrial Strategy; Transport; Environment, Food and Rural Affairs; and Housing, Communities and Local Government"</t>
   </si>
   <si>
     <t>Yes "make representations to Welsh and UK"</t>
@@ -3811,8 +3784,7 @@
     <t>Yes "lobby, support and work with all relevant agencies"</t>
   </si>
   <si>
-    <t>Yes "work with"
-Detail letters and resposes from DFT here</t>
+    <t>Yes "work with"Detail letters and resposes from DFT here</t>
   </si>
   <si>
     <t>Yes "writing to... request funding"</t>
@@ -3842,7 +3814,7 @@
     <t xml:space="preserve">Yes </t>
   </si>
   <si>
-    <t>Yes "seek an urgent meeting with the Secretary of State for the Environment... to present Liverpool’s concerns and ideas raised by the dedicated Climate Change Council"_x000D__x000D_</t>
+    <t>Yes "seek an urgent meeting with the Secretary of State for the Environment... to present Liverpool’s concerns and ideas raised by the dedicated Climate Change Council"</t>
   </si>
   <si>
     <t>Yes (in their non declaration)</t>
@@ -3866,8 +3838,7 @@
     <t>Yes "urgent representations"</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes "write to Chancellor of Exchequer... funding be made available"
-Noted they wrote </t>
+    <t xml:space="preserve">Yes "write to Chancellor of Exchequer... funding be made available"Noted they wrote </t>
   </si>
   <si>
     <t>No - inform MPs, government of the commitment</t>
@@ -3921,11 +3892,10 @@
     <t>None (Vision document says target will be set with strategy)</t>
   </si>
   <si>
-    <t>2045 "Work with others across the region to ensure that Aberdeenshire reaches Net _x000D_Zero by 2045"</t>
-  </si>
-  <si>
-    <t>2050
-Also confirmed as 2050 from this Scatter report</t>
+    <t>2045 "Work with others across the region to ensure that Aberdeenshire reaches Net Zero by 2045"</t>
+  </si>
+  <si>
+    <t>2050Also confirmed as 2050 from this Scatter report</t>
   </si>
   <si>
     <t>2030 (confirmed)</t>
@@ -4033,8 +4003,7 @@
     <t>2045 (2030 is only for a singular town - Grangemouth</t>
   </si>
   <si>
-    <t xml:space="preserve">2050 (and deliver a carbon neutral county by 2050)
-</t>
+    <t>2050 (and deliver a carbon neutral county by 2050)</t>
   </si>
   <si>
     <t>2030 (prepare for the borough to be carbon neutral)</t>
@@ -4055,14 +4024,13 @@
     <t>None (2030 - "promoting community, public, business and other council partnerships to achieve this carbon neutral 2030")</t>
   </si>
   <si>
-    <t>2030 "entire area zero carbon within the same timescale._x000D_"</t>
+    <t>2030 "entire area zero carbon within the same timescale."</t>
   </si>
   <si>
     <t>2030 "District Zero Carbon within the same timescale;"</t>
   </si>
   <si>
-    <t xml:space="preserve">2030 "Agreement goal, our ambition is for Leicester to become ‘carbon neutral’ by 2030 or sooner. This means reducing the city’s and the council’s CO2 emissions to nearly zero
-</t>
+    <t>2030 "Agreement goal, our ambition is for Leicester to become ‘carbon neutral’ by 2030 or sooner. This means reducing the city’s and the council’s CO2 emissions to nearly zero</t>
   </si>
   <si>
     <t>None - Unsure as in CE declaration it states: "Support the Government’s target of Net Zero Carbon Emission by 2050"</t>
@@ -4134,12 +4102,10 @@
     <t>Council - abolished</t>
   </si>
   <si>
-    <t>2030
-Not sure if this is the date given councils plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2028 (Support and work with all partners in the City towards making the city zero carbon within the same timescale)
-</t>
+    <t>2030Not sure if this is the date given councils plan</t>
+  </si>
+  <si>
+    <t>2028 (Support and work with all partners in the City towards making the city zero carbon within the same timescale)</t>
   </si>
   <si>
     <t>*"The council supports measures to address the climate emergency"</t>
@@ -7051,7 +7017,7 @@
     <col min="6" max="6" width="132.7109375" customWidth="1"/>
     <col min="7" max="7" width="54.7109375" customWidth="1"/>
     <col min="8" max="8" width="220.7109375" customWidth="1"/>
-    <col min="9" max="9" width="849.7109375" customWidth="1"/>
+    <col min="9" max="9" width="847.7109375" customWidth="1"/>
     <col min="10" max="10" width="318.7109375" customWidth="1"/>
     <col min="11" max="11" width="23.7109375" customWidth="1"/>
     <col min="12" max="12" width="202.7109375" customWidth="1"/>

--- a/docs/data/local_authority_climate_emergency_declarations/latest/local_authority_climate_emergency_declarations.xlsx
+++ b/docs/data/local_authority_climate_emergency_declarations/latest/local_authority_climate_emergency_declarations.xlsx
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.2.3</t>
   </si>
   <si>
     <t>Contributors</t>
@@ -8638,6 +8638,9 @@
       <c r="H37" t="s">
         <v>1052</v>
       </c>
+      <c r="J37">
+        <v>2040</v>
+      </c>
       <c r="K37" t="s">
         <v>1055</v>
       </c>

--- a/docs/data/local_authority_climate_emergency_declarations/latest/local_authority_climate_emergency_declarations.xlsx
+++ b/docs/data/local_authority_climate_emergency_declarations/latest/local_authority_climate_emergency_declarations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2165">
   <si>
     <t>Dataset</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Contributors</t>
@@ -4177,6 +4177,9 @@
     <t>https://democracy.breckland.gov.uk/documents/g4454/Printed%20minutes%2019th-Sep-2019%2010.00%20Council.pdf?T=1</t>
   </si>
   <si>
+    <t>https://democratic.bridgend.gov.uk/ieListDocuments.aspx?CId=142&amp;MID=3853&amp;LLL=0#AI11073</t>
+  </si>
+  <si>
     <t>https://present.brighton-hove.gov.uk/Published/C00000117/M00008150/$$$Minutes.doc.pdf</t>
   </si>
   <si>
@@ -4681,6 +4684,9 @@
     <t>https://www.npt.gov.uk/1410?pr_id=7103</t>
   </si>
   <si>
+    <t>https://newforest.gov.uk/article/2827/Declaration-of-a-climate-change-and-nature-emergency-in-New-Forest</t>
+  </si>
+  <si>
     <t>https://democracy.newark-sherwooddc.gov.uk/documents/g311/Printed%20minutes%2016th-Jul-2019%2018.00%20Full%20Council.pdf?T=1</t>
   </si>
   <si>
@@ -4727,6 +4733,9 @@
   </si>
   <si>
     <t>https://www.chroniclelive.co.uk/news/north-east-news/new-north-tyne-mayor-jamie-16239760</t>
+  </si>
+  <si>
+    <t>http://apps.n-somerset.gov.uk/cairo/docs/doc29458.htm</t>
   </si>
   <si>
     <t>https://my.northtyneside.gov.uk/sites/default/files/meeting/related-documents/6.%202019-07-25%20Climate%20Emergency%20Declaration%20version%202%201007%20%282%29%20post%20PH%20amend.pdf</t>
@@ -7093,13 +7102,13 @@
         <v>1358</v>
       </c>
       <c r="N2" t="s">
-        <v>1710</v>
+        <v>1713</v>
       </c>
       <c r="O2" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P2" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -7134,13 +7143,13 @@
         <v>1359</v>
       </c>
       <c r="N3" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="O3" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P3" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -7181,13 +7190,13 @@
         <v>1360</v>
       </c>
       <c r="N4" t="s">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="O4" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P4" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q4" t="s">
         <v>420</v>
@@ -7231,13 +7240,13 @@
         <v>1361</v>
       </c>
       <c r="N5" t="s">
-        <v>1713</v>
+        <v>1716</v>
       </c>
       <c r="O5" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P5" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q5" t="s">
         <v>119</v>
@@ -7281,13 +7290,13 @@
         <v>1362</v>
       </c>
       <c r="N6" t="s">
-        <v>1714</v>
+        <v>1717</v>
       </c>
       <c r="O6" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P6" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q6" t="s">
         <v>125</v>
@@ -7331,13 +7340,13 @@
         <v>1363</v>
       </c>
       <c r="N7" t="s">
-        <v>1715</v>
+        <v>1718</v>
       </c>
       <c r="O7" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P7" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -7363,13 +7372,13 @@
         <v>1364</v>
       </c>
       <c r="N8" t="s">
-        <v>1716</v>
+        <v>1719</v>
       </c>
       <c r="O8" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
       <c r="P8" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -7407,13 +7416,13 @@
         <v>1365</v>
       </c>
       <c r="N9" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="O9" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
       <c r="P9" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -7451,13 +7460,13 @@
         <v>1366</v>
       </c>
       <c r="N10" t="s">
-        <v>1718</v>
+        <v>1721</v>
       </c>
       <c r="O10" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P10" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -7483,13 +7492,13 @@
         <v>1364</v>
       </c>
       <c r="N11" t="s">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="O11" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
       <c r="P11" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -7530,13 +7539,13 @@
         <v>1367</v>
       </c>
       <c r="N12" t="s">
-        <v>1720</v>
+        <v>1723</v>
       </c>
       <c r="O12" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P12" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q12" t="s">
         <v>420</v>
@@ -7565,13 +7574,13 @@
         <v>1364</v>
       </c>
       <c r="N13" t="s">
-        <v>1721</v>
+        <v>1724</v>
       </c>
       <c r="O13" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P13" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q13" t="s">
         <v>289</v>
@@ -7609,13 +7618,13 @@
         <v>1368</v>
       </c>
       <c r="N14" t="s">
-        <v>1722</v>
+        <v>1725</v>
       </c>
       <c r="O14" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P14" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q14" t="s">
         <v>200</v>
@@ -7659,13 +7668,13 @@
         <v>1369</v>
       </c>
       <c r="N15" t="s">
-        <v>1723</v>
+        <v>1726</v>
       </c>
       <c r="O15" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P15" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q15" t="s">
         <v>371</v>
@@ -7709,13 +7718,13 @@
         <v>1370</v>
       </c>
       <c r="N16" t="s">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="O16" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="P16" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R16" t="s">
         <v>335</v>
@@ -7759,13 +7768,13 @@
         <v>1371</v>
       </c>
       <c r="N17" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="O17" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P17" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q17" t="s">
         <v>119</v>
@@ -7797,13 +7806,13 @@
         <v>1364</v>
       </c>
       <c r="N18" t="s">
-        <v>1726</v>
+        <v>1729</v>
       </c>
       <c r="O18" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P18" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q18" t="s">
         <v>157</v>
@@ -7847,13 +7856,13 @@
         <v>1372</v>
       </c>
       <c r="N19" t="s">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="O19" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P19" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q19" t="s">
         <v>179</v>
@@ -7882,13 +7891,13 @@
         <v>1364</v>
       </c>
       <c r="N20" t="s">
-        <v>1728</v>
+        <v>1731</v>
       </c>
       <c r="O20" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P20" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q20" t="s">
         <v>289</v>
@@ -7932,13 +7941,13 @@
         <v>1373</v>
       </c>
       <c r="N21" t="s">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="O21" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P21" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
       <c r="R21" t="s">
         <v>417</v>
@@ -7982,13 +7991,13 @@
         <v>1374</v>
       </c>
       <c r="N22" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="O22" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P22" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -8026,13 +8035,13 @@
         <v>1375</v>
       </c>
       <c r="N23" t="s">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="O23" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
       <c r="P23" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -8073,13 +8082,13 @@
         <v>1376</v>
       </c>
       <c r="N24" t="s">
-        <v>1732</v>
+        <v>1735</v>
       </c>
       <c r="O24" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P24" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R24" t="s">
         <v>415</v>
@@ -8111,13 +8120,13 @@
         <v>1364</v>
       </c>
       <c r="N25" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="O25" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P25" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q25" t="s">
         <v>208</v>
@@ -8161,13 +8170,13 @@
         <v>1377</v>
       </c>
       <c r="N26" t="s">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="O26" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P26" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -8208,13 +8217,13 @@
         <v>1378</v>
       </c>
       <c r="N27" t="s">
-        <v>1735</v>
+        <v>1738</v>
       </c>
       <c r="O27" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P27" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -8255,13 +8264,13 @@
         <v>1379</v>
       </c>
       <c r="N28" t="s">
-        <v>1736</v>
+        <v>1739</v>
       </c>
       <c r="O28" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="P28" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -8290,13 +8299,13 @@
         <v>1364</v>
       </c>
       <c r="N29" t="s">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="O29" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P29" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q29" t="s">
         <v>125</v>
@@ -8340,13 +8349,13 @@
         <v>1380</v>
       </c>
       <c r="N30" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
       <c r="O30" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P30" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R30" t="s">
         <v>174</v>
@@ -8390,13 +8399,13 @@
         <v>1381</v>
       </c>
       <c r="N31" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="O31" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P31" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q31" t="s">
         <v>212</v>
@@ -8440,13 +8449,13 @@
         <v>1382</v>
       </c>
       <c r="N32" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="O32" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P32" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -8475,13 +8484,13 @@
         <v>1364</v>
       </c>
       <c r="N33" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="O33" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P33" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -8522,13 +8531,13 @@
         <v>1383</v>
       </c>
       <c r="N34" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="O34" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="P34" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R34" t="s">
         <v>421</v>
@@ -8572,13 +8581,13 @@
         <v>1384</v>
       </c>
       <c r="N35" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="O35" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P35" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q35" t="s">
         <v>157</v>
@@ -8622,13 +8631,13 @@
         <v>1385</v>
       </c>
       <c r="N36" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="O36" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P36" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q36" t="s">
         <v>268</v>
@@ -8660,13 +8669,13 @@
         <v>1364</v>
       </c>
       <c r="N37" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="O37" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P37" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q37" t="s">
         <v>157</v>
@@ -8706,17 +8715,17 @@
       <c r="K38" t="s">
         <v>1059</v>
       </c>
-      <c r="M38" t="s">
-        <v>1364</v>
+      <c r="M38" s="2" t="s">
+        <v>1386</v>
       </c>
       <c r="N38" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="O38" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="P38" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -8754,16 +8763,16 @@
         <v>1288</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="N39" t="s">
-        <v>1747</v>
+        <v>1750</v>
       </c>
       <c r="O39" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P39" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -8801,16 +8810,16 @@
         <v>1288</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="N40" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="O40" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P40" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
       <c r="R40" t="s">
         <v>417</v>
@@ -8839,16 +8848,16 @@
         <v>1059</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="N41" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
       <c r="O41" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P41" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q41" t="s">
         <v>268</v>
@@ -8886,16 +8895,16 @@
         <v>1059</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="N42" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="O42" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P42" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q42" t="s">
         <v>431</v>
@@ -8924,13 +8933,13 @@
         <v>1364</v>
       </c>
       <c r="N43" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="O43" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P43" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q43" t="s">
         <v>188</v>
@@ -8971,16 +8980,16 @@
         <v>1059</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="N44" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="O44" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P44" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q44" t="s">
         <v>289</v>
@@ -9021,16 +9030,16 @@
         <v>1290</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="N45" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="O45" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P45" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -9068,16 +9077,16 @@
         <v>1288</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="N46" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
       <c r="O46" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P46" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q46" t="s">
         <v>204</v>
@@ -9118,16 +9127,16 @@
         <v>1293</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="N47" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="O47" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P47" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R47" t="s">
         <v>174</v>
@@ -9168,16 +9177,16 @@
         <v>1290</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="N48" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
       <c r="O48" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="P48" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -9215,16 +9224,16 @@
         <v>1293</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="N49" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
       <c r="O49" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="P49" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R49" t="s">
         <v>421</v>
@@ -9265,16 +9274,16 @@
         <v>1290</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="N50" t="s">
-        <v>1758</v>
+        <v>1761</v>
       </c>
       <c r="O50" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P50" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q50" t="s">
         <v>86</v>
@@ -9309,13 +9318,13 @@
         <v>1364</v>
       </c>
       <c r="N51" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
       <c r="O51" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P51" t="s">
-        <v>2130</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -9353,16 +9362,16 @@
         <v>1290</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="N52" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
       <c r="O52" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P52" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
       <c r="R52" t="s">
         <v>85</v>
@@ -9403,16 +9412,16 @@
         <v>1284</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="N53" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="O53" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P53" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q53" t="s">
         <v>362</v>
@@ -9450,16 +9459,16 @@
         <v>1059</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="N54" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="O54" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P54" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q54" t="s">
         <v>200</v>
@@ -9500,16 +9509,16 @@
         <v>1295</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="N55" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
       <c r="O55" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P55" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q55" t="s">
         <v>119</v>
@@ -9550,16 +9559,16 @@
         <v>1290</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="N56" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
       <c r="O56" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="P56" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -9585,13 +9594,13 @@
         <v>1364</v>
       </c>
       <c r="N57" t="s">
-        <v>1765</v>
+        <v>1768</v>
       </c>
       <c r="O57" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P57" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q57" t="s">
         <v>157</v>
@@ -9629,16 +9638,16 @@
         <v>1059</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="N58" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
       <c r="O58" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
       <c r="P58" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -9676,16 +9685,16 @@
         <v>1059</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="N59" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
       <c r="O59" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P59" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -9723,16 +9732,16 @@
         <v>1296</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="N60" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
       <c r="O60" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="P60" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -9770,16 +9779,16 @@
         <v>1059</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="N61" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
       <c r="O61" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P61" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q61" t="s">
         <v>208</v>
@@ -9820,16 +9829,16 @@
         <v>1297</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="N62" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="O62" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P62" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q62" t="s">
         <v>157</v>
@@ -9870,16 +9879,16 @@
         <v>1288</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="N63" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="O63" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P63" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q63" t="s">
         <v>170</v>
@@ -9920,16 +9929,16 @@
         <v>1298</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="N64" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="O64" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P64" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q64" t="s">
         <v>295</v>
@@ -9970,16 +9979,16 @@
         <v>1059</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="N65" t="s">
-        <v>1773</v>
+        <v>1776</v>
       </c>
       <c r="O65" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P65" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -10017,16 +10026,16 @@
         <v>1285</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="N66" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
       <c r="O66" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P66" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -10064,16 +10073,16 @@
         <v>1290</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="N67" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
       <c r="O67" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P67" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q67" t="s">
         <v>125</v>
@@ -10111,16 +10120,16 @@
         <v>1299</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="N68" t="s">
-        <v>1776</v>
+        <v>1779</v>
       </c>
       <c r="O68" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P68" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q68" t="s">
         <v>420</v>
@@ -10161,16 +10170,16 @@
         <v>1288</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="N69" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
       <c r="O69" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P69" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q69" t="s">
         <v>204</v>
@@ -10211,16 +10220,16 @@
         <v>1290</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="N70" t="s">
-        <v>1778</v>
+        <v>1781</v>
       </c>
       <c r="O70" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="P70" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -10258,16 +10267,16 @@
         <v>1288</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="N71" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="O71" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="P71" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -10305,16 +10314,16 @@
         <v>1300</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="N72" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="O72" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P72" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -10343,13 +10352,13 @@
         <v>1364</v>
       </c>
       <c r="N73" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
       <c r="O73" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P73" t="s">
-        <v>2132</v>
+        <v>2135</v>
       </c>
       <c r="R73" t="s">
         <v>437</v>
@@ -10390,16 +10399,16 @@
         <v>1302</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="N74" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
       <c r="O74" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="P74" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -10434,16 +10443,16 @@
         <v>1059</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="N75" t="s">
-        <v>1783</v>
+        <v>1786</v>
       </c>
       <c r="O75" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P75" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -10481,16 +10490,16 @@
         <v>1059</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="N76" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="O76" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P76" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q76" t="s">
         <v>157</v>
@@ -10519,13 +10528,13 @@
         <v>1364</v>
       </c>
       <c r="N77" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="O77" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P77" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -10563,16 +10572,16 @@
         <v>1303</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="N78" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="O78" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="P78" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -10607,16 +10616,16 @@
         <v>1304</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="N79" t="s">
-        <v>1787</v>
+        <v>1790</v>
       </c>
       <c r="O79" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P79" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q79" t="s">
         <v>119</v>
@@ -10657,16 +10666,16 @@
         <v>1288</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="N80" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="O80" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P80" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -10704,16 +10713,16 @@
         <v>1305</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="N81" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
       <c r="O81" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P81" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q81" t="s">
         <v>170</v>
@@ -10751,16 +10760,16 @@
         <v>1306</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="N82" t="s">
-        <v>1790</v>
+        <v>1793</v>
       </c>
       <c r="O82" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P82" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R82" t="s">
         <v>415</v>
@@ -10801,16 +10810,16 @@
         <v>1288</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="N83" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
       <c r="O83" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="P83" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q83" t="s">
         <v>285</v>
@@ -10851,16 +10860,16 @@
         <v>1059</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="N84" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
       <c r="O84" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P84" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q84" t="s">
         <v>420</v>
@@ -10892,13 +10901,13 @@
         <v>1364</v>
       </c>
       <c r="N85" t="s">
-        <v>1793</v>
+        <v>1796</v>
       </c>
       <c r="O85" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P85" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -10933,16 +10942,16 @@
         <v>1059</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="N86" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
       <c r="O86" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P86" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q86" t="s">
         <v>188</v>
@@ -10983,19 +10992,19 @@
         <v>1059</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="N87" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
       <c r="O87" t="s">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="P87" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
       <c r="R87" t="s">
-        <v>2135</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -11033,16 +11042,16 @@
         <v>1308</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="N88" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
       <c r="O88" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P88" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q88" t="s">
         <v>200</v>
@@ -11080,16 +11089,16 @@
         <v>1059</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="N89" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="O89" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="P89" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -11124,16 +11133,16 @@
         <v>1309</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="N90" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
       <c r="O90" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P90" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -11171,16 +11180,16 @@
         <v>1310</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="N91" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="O91" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P91" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -11218,16 +11227,16 @@
         <v>1059</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="N92" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
       <c r="O92" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P92" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q92" t="s">
         <v>125</v>
@@ -11268,16 +11277,16 @@
         <v>1285</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="N93" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
       <c r="O93" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
       <c r="P93" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -11315,16 +11324,16 @@
         <v>1290</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="N94" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
       <c r="O94" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P94" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -11362,16 +11371,16 @@
         <v>1301</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="N95" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="O95" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="P95" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R95" t="s">
         <v>335</v>
@@ -11412,16 +11421,16 @@
         <v>1290</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="N96" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
       <c r="O96" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P96" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -11459,16 +11468,16 @@
         <v>1290</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="N97" t="s">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="O97" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P97" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q97" t="s">
         <v>200</v>
@@ -11509,16 +11518,16 @@
         <v>1311</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="N98" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="O98" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P98" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R98" t="s">
         <v>415</v>
@@ -11559,16 +11568,16 @@
         <v>1312</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="N99" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
       <c r="O99" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P99" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -11606,16 +11615,16 @@
         <v>1285</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="N100" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
       <c r="O100" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P100" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -11653,16 +11662,16 @@
         <v>1290</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="N101" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
       <c r="O101" t="s">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="P101" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
       <c r="R101" t="s">
         <v>271</v>
@@ -11691,13 +11700,13 @@
         <v>1364</v>
       </c>
       <c r="N102" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="O102" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P102" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -11735,16 +11744,16 @@
         <v>1313</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="N103" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
       <c r="O103" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P103" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q103" t="s">
         <v>86</v>
@@ -11788,16 +11797,16 @@
         <v>1290</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="N104" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
       <c r="O104" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P104" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q104" t="s">
         <v>128</v>
@@ -11826,13 +11835,13 @@
         <v>1364</v>
       </c>
       <c r="N105" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="O105" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P105" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -11870,16 +11879,16 @@
         <v>1290</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="N106" t="s">
-        <v>1814</v>
+        <v>1817</v>
       </c>
       <c r="O106" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P106" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q106" t="s">
         <v>179</v>
@@ -11920,16 +11929,16 @@
         <v>1288</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="N107" t="s">
-        <v>1815</v>
+        <v>1818</v>
       </c>
       <c r="O107" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P107" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q107" t="s">
         <v>188</v>
@@ -11961,13 +11970,13 @@
         <v>1364</v>
       </c>
       <c r="N108" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
       <c r="O108" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P108" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q108" t="s">
         <v>212</v>
@@ -12008,16 +12017,16 @@
         <v>1315</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="N109" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
       <c r="O109" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P109" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -12055,16 +12064,16 @@
         <v>1301</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="N110" t="s">
-        <v>1818</v>
+        <v>1821</v>
       </c>
       <c r="O110" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P110" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -12102,16 +12111,16 @@
         <v>1290</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="N111" t="s">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="O111" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="P111" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -12149,16 +12158,16 @@
         <v>1316</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="N112" t="s">
-        <v>1820</v>
+        <v>1823</v>
       </c>
       <c r="O112" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P112" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q112" t="s">
         <v>362</v>
@@ -12199,16 +12208,16 @@
         <v>1059</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="N113" t="s">
-        <v>1821</v>
+        <v>1824</v>
       </c>
       <c r="O113" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P113" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q113" t="s">
         <v>371</v>
@@ -12249,16 +12258,16 @@
         <v>1059</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="N114" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
       <c r="O114" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P114" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -12296,16 +12305,16 @@
         <v>1288</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="N115" t="s">
-        <v>1823</v>
+        <v>1826</v>
       </c>
       <c r="O115" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P115" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q115" t="s">
         <v>148</v>
@@ -12346,16 +12355,16 @@
         <v>1288</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="N116" t="s">
-        <v>1824</v>
+        <v>1827</v>
       </c>
       <c r="O116" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P116" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q116" t="s">
         <v>179</v>
@@ -12396,16 +12405,16 @@
         <v>1317</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="N117" t="s">
-        <v>1825</v>
+        <v>1828</v>
       </c>
       <c r="O117" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P117" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q117" t="s">
         <v>119</v>
@@ -12446,16 +12455,16 @@
         <v>1288</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="N118" t="s">
-        <v>1826</v>
+        <v>1829</v>
       </c>
       <c r="O118" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P118" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -12493,16 +12502,16 @@
         <v>1059</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="N119" t="s">
-        <v>1827</v>
+        <v>1830</v>
       </c>
       <c r="O119" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P119" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q119" t="s">
         <v>373</v>
@@ -12543,16 +12552,16 @@
         <v>1288</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="N120" t="s">
-        <v>1828</v>
+        <v>1831</v>
       </c>
       <c r="O120" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P120" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q120" t="s">
         <v>157</v>
@@ -12593,16 +12602,16 @@
         <v>1059</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="N121" t="s">
-        <v>1829</v>
+        <v>1832</v>
       </c>
       <c r="O121" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P121" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q121" t="s">
         <v>373</v>
@@ -12643,16 +12652,16 @@
         <v>1290</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="N122" t="s">
-        <v>1830</v>
+        <v>1833</v>
       </c>
       <c r="O122" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P122" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q122" t="s">
         <v>125</v>
@@ -12687,13 +12696,13 @@
         <v>1364</v>
       </c>
       <c r="N123" t="s">
-        <v>1831</v>
+        <v>1834</v>
       </c>
       <c r="O123" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P123" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -12731,16 +12740,16 @@
         <v>1288</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="N124" t="s">
-        <v>1832</v>
+        <v>1835</v>
       </c>
       <c r="O124" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P124" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q124" t="s">
         <v>128</v>
@@ -12781,16 +12790,16 @@
         <v>1318</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="N125" t="s">
-        <v>1833</v>
+        <v>1836</v>
       </c>
       <c r="O125" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P125" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -12828,16 +12837,16 @@
         <v>1059</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="N126" t="s">
-        <v>1834</v>
+        <v>1837</v>
       </c>
       <c r="O126" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P126" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q126" t="s">
         <v>179</v>
@@ -12866,13 +12875,13 @@
         <v>1364</v>
       </c>
       <c r="N127" t="s">
-        <v>1835</v>
+        <v>1838</v>
       </c>
       <c r="O127" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P127" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q127" t="s">
         <v>86</v>
@@ -12913,16 +12922,16 @@
         <v>1059</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="N128" t="s">
-        <v>1836</v>
+        <v>1839</v>
       </c>
       <c r="O128" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
       <c r="P128" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -12960,16 +12969,16 @@
         <v>1285</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="N129" t="s">
-        <v>1837</v>
+        <v>1840</v>
       </c>
       <c r="O129" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P129" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -13007,16 +13016,16 @@
         <v>1059</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="N130" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="O130" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P130" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q130" t="s">
         <v>200</v>
@@ -13057,16 +13066,16 @@
         <v>1288</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="N131" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="O131" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P131" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q131" t="s">
         <v>170</v>
@@ -13095,13 +13104,13 @@
         <v>1364</v>
       </c>
       <c r="N132" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="O132" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P132" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q132" t="s">
         <v>204</v>
@@ -13142,16 +13151,16 @@
         <v>1059</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="N133" t="s">
-        <v>1841</v>
+        <v>1844</v>
       </c>
       <c r="O133" t="s">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="P133" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R133" t="s">
         <v>271</v>
@@ -13192,16 +13201,16 @@
         <v>1288</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="N134" t="s">
-        <v>1842</v>
+        <v>1845</v>
       </c>
       <c r="O134" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P134" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q134" t="s">
         <v>289</v>
@@ -13242,16 +13251,16 @@
         <v>1290</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="N135" t="s">
-        <v>1843</v>
+        <v>1846</v>
       </c>
       <c r="O135" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P135" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q135" t="s">
         <v>170</v>
@@ -13292,16 +13301,16 @@
         <v>1319</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="N136" t="s">
-        <v>1844</v>
+        <v>1847</v>
       </c>
       <c r="O136" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P136" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -13330,13 +13339,13 @@
         <v>1364</v>
       </c>
       <c r="N137" t="s">
-        <v>1845</v>
+        <v>1848</v>
       </c>
       <c r="O137" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P137" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q137" t="s">
         <v>179</v>
@@ -13377,16 +13386,16 @@
         <v>1320</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="N138" t="s">
-        <v>1846</v>
+        <v>1849</v>
       </c>
       <c r="O138" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P138" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q138" t="s">
         <v>200</v>
@@ -13415,13 +13424,13 @@
         <v>1364</v>
       </c>
       <c r="N139" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
       <c r="O139" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P139" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q139" t="s">
         <v>268</v>
@@ -13462,16 +13471,16 @@
         <v>1293</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="N140" t="s">
-        <v>1848</v>
+        <v>1851</v>
       </c>
       <c r="O140" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P140" t="s">
-        <v>2130</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -13509,16 +13518,16 @@
         <v>1288</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="N141" t="s">
-        <v>1849</v>
+        <v>1852</v>
       </c>
       <c r="O141" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P141" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q141" t="s">
         <v>373</v>
@@ -13559,16 +13568,16 @@
         <v>1059</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="N142" t="s">
-        <v>1850</v>
+        <v>1853</v>
       </c>
       <c r="O142" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="P142" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -13603,16 +13612,16 @@
         <v>1059</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="N143" t="s">
-        <v>1851</v>
+        <v>1854</v>
       </c>
       <c r="O143" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P143" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
       <c r="R143" t="s">
         <v>214</v>
@@ -13653,16 +13662,16 @@
         <v>1321</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="N144" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="O144" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="P144" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q144" t="s">
         <v>285</v>
@@ -13703,16 +13712,16 @@
         <v>1290</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="N145" t="s">
-        <v>1853</v>
+        <v>1856</v>
       </c>
       <c r="O145" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P145" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -13750,16 +13759,16 @@
         <v>1059</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="N146" t="s">
-        <v>1854</v>
+        <v>1857</v>
       </c>
       <c r="O146" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P146" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q146" t="s">
         <v>208</v>
@@ -13797,16 +13806,16 @@
         <v>1059</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="N147" t="s">
-        <v>1855</v>
+        <v>1858</v>
       </c>
       <c r="O147" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P147" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q147" t="s">
         <v>157</v>
@@ -13850,16 +13859,16 @@
         <v>1354</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="N148" t="s">
-        <v>1856</v>
+        <v>1859</v>
       </c>
       <c r="O148" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="P148" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q148" t="s">
         <v>285</v>
@@ -13903,16 +13912,16 @@
         <v>1355</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="N149" t="s">
-        <v>1857</v>
+        <v>1860</v>
       </c>
       <c r="O149" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P149" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q149" t="s">
         <v>179</v>
@@ -13941,16 +13950,16 @@
         <v>1364</v>
       </c>
       <c r="N150" t="s">
-        <v>1858</v>
+        <v>1861</v>
       </c>
       <c r="O150" t="s">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="P150" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
       <c r="R150" t="s">
-        <v>2135</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -13988,16 +13997,16 @@
         <v>1288</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="N151" t="s">
-        <v>1859</v>
+        <v>1862</v>
       </c>
       <c r="O151" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P151" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q151" t="s">
         <v>148</v>
@@ -14026,13 +14035,13 @@
         <v>1364</v>
       </c>
       <c r="N152" t="s">
-        <v>1860</v>
+        <v>1863</v>
       </c>
       <c r="O152" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P152" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q152" t="s">
         <v>179</v>
@@ -14073,16 +14082,16 @@
         <v>1323</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="N153" t="s">
-        <v>1861</v>
+        <v>1864</v>
       </c>
       <c r="O153" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P153" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -14120,16 +14129,16 @@
         <v>1290</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="N154" t="s">
-        <v>1862</v>
+        <v>1865</v>
       </c>
       <c r="O154" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P154" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -14167,16 +14176,16 @@
         <v>1059</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="N155" t="s">
-        <v>1863</v>
+        <v>1866</v>
       </c>
       <c r="O155" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P155" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q155" t="s">
         <v>188</v>
@@ -14217,16 +14226,16 @@
         <v>1324</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="N156" t="s">
-        <v>1864</v>
+        <v>1867</v>
       </c>
       <c r="O156" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P156" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q156" t="s">
         <v>125</v>
@@ -14267,16 +14276,16 @@
         <v>1325</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="N157" t="s">
-        <v>1865</v>
+        <v>1868</v>
       </c>
       <c r="O157" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P157" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q157" t="s">
         <v>208</v>
@@ -14317,16 +14326,16 @@
         <v>1059</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="N158" t="s">
-        <v>1866</v>
+        <v>1869</v>
       </c>
       <c r="O158" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P158" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q158" t="s">
         <v>420</v>
@@ -14367,16 +14376,16 @@
         <v>1288</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="N159" t="s">
-        <v>1867</v>
+        <v>1870</v>
       </c>
       <c r="O159" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="P159" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -14402,13 +14411,13 @@
         <v>1364</v>
       </c>
       <c r="N160" t="s">
-        <v>1868</v>
+        <v>1871</v>
       </c>
       <c r="O160" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P160" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q160" t="s">
         <v>86</v>
@@ -14452,16 +14461,16 @@
         <v>1326</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="N161" t="s">
-        <v>1869</v>
+        <v>1872</v>
       </c>
       <c r="O161" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P161" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q161" t="s">
         <v>204</v>
@@ -14502,16 +14511,16 @@
         <v>1059</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="N162" t="s">
-        <v>1870</v>
+        <v>1873</v>
       </c>
       <c r="O162" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P162" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q162" t="s">
         <v>371</v>
@@ -14552,16 +14561,16 @@
         <v>1059</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="N163" t="s">
-        <v>1871</v>
+        <v>1874</v>
       </c>
       <c r="O163" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="P163" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -14599,16 +14608,16 @@
         <v>1288</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="N164" t="s">
-        <v>1872</v>
+        <v>1875</v>
       </c>
       <c r="O164" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P164" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -14646,16 +14655,16 @@
         <v>1059</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="N165" t="s">
-        <v>1873</v>
+        <v>1876</v>
       </c>
       <c r="O165" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P165" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -14693,16 +14702,16 @@
         <v>1290</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="N166" t="s">
-        <v>1874</v>
+        <v>1877</v>
       </c>
       <c r="O166" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P166" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -14737,7 +14746,7 @@
         <v>1288</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -14772,16 +14781,16 @@
         <v>1059</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="N168" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="O168" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P168" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q168" t="s">
         <v>268</v>
@@ -14822,16 +14831,16 @@
         <v>1293</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="N169" t="s">
-        <v>1876</v>
+        <v>1879</v>
       </c>
       <c r="O169" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="P169" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R169" t="s">
         <v>421</v>
@@ -14872,16 +14881,16 @@
         <v>1059</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="N170" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
       <c r="O170" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P170" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R170" t="s">
         <v>214</v>
@@ -14922,16 +14931,16 @@
         <v>1059</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="N171" t="s">
-        <v>1878</v>
+        <v>1881</v>
       </c>
       <c r="O171" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P171" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -14969,16 +14978,16 @@
         <v>1327</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="N172" t="s">
-        <v>1879</v>
+        <v>1882</v>
       </c>
       <c r="O172" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P172" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q172" t="s">
         <v>204</v>
@@ -15019,16 +15028,16 @@
         <v>1288</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="N173" t="s">
-        <v>1880</v>
+        <v>1883</v>
       </c>
       <c r="O173" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="P173" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R173" t="s">
         <v>421</v>
@@ -15069,16 +15078,16 @@
         <v>1328</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="N174" t="s">
-        <v>1881</v>
+        <v>1884</v>
       </c>
       <c r="O174" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P174" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -15116,16 +15125,16 @@
         <v>1059</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="N175" t="s">
-        <v>1882</v>
+        <v>1885</v>
       </c>
       <c r="O175" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P175" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -15163,16 +15172,16 @@
         <v>1288</v>
       </c>
       <c r="M176" s="2" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="N176" t="s">
-        <v>1883</v>
+        <v>1886</v>
       </c>
       <c r="O176" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P176" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q176" t="s">
         <v>148</v>
@@ -15210,16 +15219,16 @@
         <v>1329</v>
       </c>
       <c r="M177" s="2" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="N177" t="s">
-        <v>1884</v>
+        <v>1887</v>
       </c>
       <c r="O177" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P177" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q177" t="s">
         <v>362</v>
@@ -15260,16 +15269,16 @@
         <v>1288</v>
       </c>
       <c r="M178" s="2" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="N178" t="s">
-        <v>1885</v>
+        <v>1888</v>
       </c>
       <c r="O178" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P178" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q178" t="s">
         <v>212</v>
@@ -15301,13 +15310,13 @@
         <v>1364</v>
       </c>
       <c r="N179" t="s">
-        <v>1886</v>
+        <v>1889</v>
       </c>
       <c r="O179" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="P179" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -15345,16 +15354,16 @@
         <v>1288</v>
       </c>
       <c r="M180" s="2" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="N180" t="s">
-        <v>1887</v>
+        <v>1890</v>
       </c>
       <c r="O180" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P180" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R180" t="s">
         <v>214</v>
@@ -15395,16 +15404,16 @@
         <v>1301</v>
       </c>
       <c r="M181" s="2" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="N181" t="s">
-        <v>1888</v>
+        <v>1891</v>
       </c>
       <c r="O181" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P181" t="s">
-        <v>2130</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -15442,16 +15451,16 @@
         <v>1288</v>
       </c>
       <c r="M182" s="2" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="N182" t="s">
-        <v>1889</v>
+        <v>1892</v>
       </c>
       <c r="O182" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P182" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R182" t="s">
         <v>437</v>
@@ -15489,16 +15498,16 @@
         <v>1059</v>
       </c>
       <c r="M183" s="2" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="N183" t="s">
-        <v>1890</v>
+        <v>1893</v>
       </c>
       <c r="O183" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P183" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R183" t="s">
         <v>437</v>
@@ -15530,13 +15539,13 @@
         <v>1364</v>
       </c>
       <c r="N184" t="s">
-        <v>1891</v>
+        <v>1894</v>
       </c>
       <c r="O184" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P184" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R184" t="s">
         <v>437</v>
@@ -15577,16 +15586,16 @@
         <v>1059</v>
       </c>
       <c r="M185" s="2" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="N185" t="s">
-        <v>1892</v>
+        <v>1895</v>
       </c>
       <c r="O185" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P185" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R185" t="s">
         <v>437</v>
@@ -15627,16 +15636,16 @@
         <v>1288</v>
       </c>
       <c r="M186" s="2" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="N186" t="s">
-        <v>1893</v>
+        <v>1896</v>
       </c>
       <c r="O186" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P186" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R186" t="s">
         <v>437</v>
@@ -15677,16 +15686,16 @@
         <v>1288</v>
       </c>
       <c r="M187" s="2" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="N187" t="s">
-        <v>1894</v>
+        <v>1897</v>
       </c>
       <c r="O187" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P187" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R187" t="s">
         <v>437</v>
@@ -15727,16 +15736,16 @@
         <v>1288</v>
       </c>
       <c r="M188" s="2" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="N188" t="s">
-        <v>1895</v>
+        <v>1898</v>
       </c>
       <c r="O188" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P188" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R188" t="s">
         <v>437</v>
@@ -15777,16 +15786,16 @@
         <v>1301</v>
       </c>
       <c r="M189" s="2" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="N189" t="s">
-        <v>1896</v>
+        <v>1899</v>
       </c>
       <c r="O189" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P189" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R189" t="s">
         <v>437</v>
@@ -15827,16 +15836,16 @@
         <v>1059</v>
       </c>
       <c r="M190" s="2" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="N190" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="O190" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P190" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R190" t="s">
         <v>437</v>
@@ -15877,16 +15886,16 @@
         <v>1288</v>
       </c>
       <c r="M191" s="2" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="N191" t="s">
-        <v>1898</v>
+        <v>1901</v>
       </c>
       <c r="O191" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P191" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R191" t="s">
         <v>437</v>
@@ -15927,16 +15936,16 @@
         <v>1311</v>
       </c>
       <c r="M192" s="2" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="N192" t="s">
-        <v>1899</v>
+        <v>1902</v>
       </c>
       <c r="O192" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P192" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R192" t="s">
         <v>437</v>
@@ -15977,16 +15986,16 @@
         <v>1288</v>
       </c>
       <c r="M193" s="2" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="N193" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="O193" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P193" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R193" t="s">
         <v>437</v>
@@ -16018,13 +16027,13 @@
         <v>1364</v>
       </c>
       <c r="N194" t="s">
-        <v>1901</v>
+        <v>1904</v>
       </c>
       <c r="O194" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P194" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R194" t="s">
         <v>437</v>
@@ -16065,16 +16074,16 @@
         <v>1059</v>
       </c>
       <c r="M195" s="2" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="N195" t="s">
-        <v>1902</v>
+        <v>1905</v>
       </c>
       <c r="O195" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P195" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R195" t="s">
         <v>437</v>
@@ -16112,16 +16121,16 @@
         <v>1059</v>
       </c>
       <c r="M196" s="2" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="N196" t="s">
-        <v>1903</v>
+        <v>1906</v>
       </c>
       <c r="O196" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P196" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R196" t="s">
         <v>437</v>
@@ -16162,16 +16171,16 @@
         <v>1288</v>
       </c>
       <c r="M197" s="2" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="N197" t="s">
-        <v>1904</v>
+        <v>1907</v>
       </c>
       <c r="O197" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P197" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R197" t="s">
         <v>437</v>
@@ -16212,16 +16221,16 @@
         <v>1330</v>
       </c>
       <c r="M198" s="2" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="N198" t="s">
-        <v>1905</v>
+        <v>1908</v>
       </c>
       <c r="O198" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P198" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R198" t="s">
         <v>437</v>
@@ -16262,16 +16271,16 @@
         <v>1288</v>
       </c>
       <c r="M199" s="2" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="N199" t="s">
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="O199" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P199" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R199" t="s">
         <v>437</v>
@@ -16312,16 +16321,16 @@
         <v>1290</v>
       </c>
       <c r="M200" s="2" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="N200" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="O200" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P200" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R200" t="s">
         <v>437</v>
@@ -16362,16 +16371,16 @@
         <v>1331</v>
       </c>
       <c r="M201" s="2" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="N201" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="O201" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P201" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R201" t="s">
         <v>437</v>
@@ -16412,16 +16421,16 @@
         <v>1290</v>
       </c>
       <c r="M202" s="2" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="N202" t="s">
-        <v>1909</v>
+        <v>1912</v>
       </c>
       <c r="O202" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P202" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R202" t="s">
         <v>437</v>
@@ -16462,16 +16471,16 @@
         <v>1059</v>
       </c>
       <c r="M203" s="2" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="N203" t="s">
-        <v>1910</v>
+        <v>1913</v>
       </c>
       <c r="O203" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P203" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R203" t="s">
         <v>437</v>
@@ -16512,16 +16521,16 @@
         <v>1288</v>
       </c>
       <c r="M204" s="2" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="N204" t="s">
-        <v>1911</v>
+        <v>1914</v>
       </c>
       <c r="O204" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P204" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R204" t="s">
         <v>437</v>
@@ -16559,16 +16568,16 @@
         <v>1332</v>
       </c>
       <c r="M205" s="2" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="N205" t="s">
-        <v>1912</v>
+        <v>1915</v>
       </c>
       <c r="O205" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P205" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R205" t="s">
         <v>437</v>
@@ -16609,16 +16618,16 @@
         <v>1290</v>
       </c>
       <c r="M206" s="2" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="N206" t="s">
-        <v>1913</v>
+        <v>1916</v>
       </c>
       <c r="O206" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P206" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R206" t="s">
         <v>437</v>
@@ -16656,16 +16665,16 @@
         <v>1333</v>
       </c>
       <c r="M207" s="2" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="N207" t="s">
-        <v>1914</v>
+        <v>1917</v>
       </c>
       <c r="O207" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P207" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R207" t="s">
         <v>437</v>
@@ -16706,16 +16715,16 @@
         <v>1290</v>
       </c>
       <c r="M208" s="2" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="N208" t="s">
-        <v>1915</v>
+        <v>1918</v>
       </c>
       <c r="O208" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P208" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R208" t="s">
         <v>437</v>
@@ -16756,16 +16765,16 @@
         <v>1301</v>
       </c>
       <c r="M209" s="2" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="N209" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="O209" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P209" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -16803,16 +16812,16 @@
         <v>1288</v>
       </c>
       <c r="M210" s="2" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="N210" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
       <c r="O210" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P210" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q210" t="s">
         <v>200</v>
@@ -16853,16 +16862,16 @@
         <v>1334</v>
       </c>
       <c r="M211" s="2" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="N211" t="s">
-        <v>1918</v>
+        <v>1921</v>
       </c>
       <c r="O211" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P211" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q211" t="s">
         <v>157</v>
@@ -16903,16 +16912,16 @@
         <v>1290</v>
       </c>
       <c r="M212" s="2" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="N212" t="s">
-        <v>1919</v>
+        <v>1922</v>
       </c>
       <c r="O212" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P212" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q212" t="s">
         <v>431</v>
@@ -16953,16 +16962,16 @@
         <v>1293</v>
       </c>
       <c r="M213" s="2" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="N213" t="s">
-        <v>1920</v>
+        <v>1923</v>
       </c>
       <c r="O213" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P213" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R213" t="s">
         <v>174</v>
@@ -17003,16 +17012,16 @@
         <v>1301</v>
       </c>
       <c r="M214" s="2" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="N214" t="s">
-        <v>1921</v>
+        <v>1924</v>
       </c>
       <c r="O214" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P214" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q214" t="s">
         <v>289</v>
@@ -17050,16 +17059,16 @@
         <v>1335</v>
       </c>
       <c r="M215" s="2" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="N215" t="s">
-        <v>1922</v>
+        <v>1925</v>
       </c>
       <c r="O215" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P215" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -17097,16 +17106,16 @@
         <v>1059</v>
       </c>
       <c r="M216" s="2" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="N216" t="s">
-        <v>1923</v>
+        <v>1926</v>
       </c>
       <c r="O216" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P216" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q216" t="s">
         <v>208</v>
@@ -17147,16 +17156,16 @@
         <v>1288</v>
       </c>
       <c r="M217" s="2" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="N217" t="s">
-        <v>1924</v>
+        <v>1927</v>
       </c>
       <c r="O217" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P217" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q217" t="s">
         <v>340</v>
@@ -17176,13 +17185,13 @@
         <v>1050</v>
       </c>
       <c r="N218" t="s">
-        <v>1925</v>
+        <v>1928</v>
       </c>
       <c r="O218" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
       <c r="P218" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -17217,16 +17226,16 @@
         <v>1059</v>
       </c>
       <c r="M219" s="2" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="N219" t="s">
-        <v>1926</v>
+        <v>1929</v>
       </c>
       <c r="O219" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
       <c r="P219" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -17264,16 +17273,16 @@
         <v>1288</v>
       </c>
       <c r="M220" s="2" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="N220" t="s">
-        <v>1927</v>
+        <v>1930</v>
       </c>
       <c r="O220" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P220" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q220" t="s">
         <v>128</v>
@@ -17314,16 +17323,16 @@
         <v>1288</v>
       </c>
       <c r="M221" s="2" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="N221" t="s">
-        <v>1928</v>
+        <v>1931</v>
       </c>
       <c r="O221" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P221" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q221" t="s">
         <v>371</v>
@@ -17355,13 +17364,13 @@
         <v>1364</v>
       </c>
       <c r="N222" t="s">
-        <v>1929</v>
+        <v>1932</v>
       </c>
       <c r="O222" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P222" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q222" t="s">
         <v>420</v>
@@ -17402,19 +17411,19 @@
         <v>1336</v>
       </c>
       <c r="M223" s="2" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="N223" t="s">
-        <v>1930</v>
+        <v>1933</v>
       </c>
       <c r="O223" t="s">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="P223" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
       <c r="R223" t="s">
-        <v>2135</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -17452,16 +17461,16 @@
         <v>1337</v>
       </c>
       <c r="M224" s="2" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="N224" t="s">
-        <v>1931</v>
+        <v>1934</v>
       </c>
       <c r="O224" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P224" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -17499,16 +17508,16 @@
         <v>1338</v>
       </c>
       <c r="M225" s="2" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="N225" t="s">
-        <v>1932</v>
+        <v>1935</v>
       </c>
       <c r="O225" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P225" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -17546,16 +17555,16 @@
         <v>1059</v>
       </c>
       <c r="M226" s="2" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="N226" t="s">
-        <v>1933</v>
+        <v>1936</v>
       </c>
       <c r="O226" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P226" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q226" t="s">
         <v>373</v>
@@ -17596,16 +17605,16 @@
         <v>1059</v>
       </c>
       <c r="M227" s="2" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="N227" t="s">
-        <v>1934</v>
+        <v>1937</v>
       </c>
       <c r="O227" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="P227" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -17643,16 +17652,16 @@
         <v>1059</v>
       </c>
       <c r="M228" s="2" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="N228" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
       <c r="O228" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="P228" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -17687,16 +17696,16 @@
         <v>1059</v>
       </c>
       <c r="M229" s="2" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="N229" t="s">
-        <v>1936</v>
+        <v>1939</v>
       </c>
       <c r="O229" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P229" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q229" t="s">
         <v>179</v>
@@ -17737,16 +17746,16 @@
         <v>1059</v>
       </c>
       <c r="M230" s="2" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="N230" t="s">
-        <v>1937</v>
+        <v>1940</v>
       </c>
       <c r="O230" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P230" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q230" t="s">
         <v>289</v>
@@ -17787,16 +17796,16 @@
         <v>1288</v>
       </c>
       <c r="M231" s="2" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="N231" t="s">
-        <v>1938</v>
+        <v>1941</v>
       </c>
       <c r="O231" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P231" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q231" t="s">
         <v>362</v>
@@ -17837,16 +17846,16 @@
         <v>1288</v>
       </c>
       <c r="M232" s="2" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="N232" t="s">
-        <v>1939</v>
+        <v>1942</v>
       </c>
       <c r="O232" t="s">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="P232" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R232" t="s">
         <v>280</v>
@@ -17887,16 +17896,16 @@
         <v>1290</v>
       </c>
       <c r="M233" s="2" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="N233" t="s">
-        <v>1940</v>
+        <v>1943</v>
       </c>
       <c r="O233" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="P233" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -17930,17 +17939,17 @@
       <c r="K234" t="s">
         <v>1059</v>
       </c>
-      <c r="M234" t="s">
-        <v>1364</v>
+      <c r="M234" s="2" t="s">
+        <v>1560</v>
       </c>
       <c r="N234" t="s">
-        <v>1941</v>
+        <v>1944</v>
       </c>
       <c r="O234" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
       <c r="P234" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -17962,17 +17971,17 @@
       <c r="K235" t="s">
         <v>1059</v>
       </c>
-      <c r="M235" s="2" t="s">
-        <v>1559</v>
+      <c r="M235" t="s">
+        <v>1364</v>
       </c>
       <c r="N235" t="s">
-        <v>1942</v>
+        <v>1945</v>
       </c>
       <c r="O235" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P235" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -18010,16 +18019,16 @@
         <v>1288</v>
       </c>
       <c r="M236" s="2" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="N236" t="s">
-        <v>1943</v>
+        <v>1946</v>
       </c>
       <c r="O236" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P236" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -18057,16 +18066,16 @@
         <v>1288</v>
       </c>
       <c r="M237" s="2" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="N237" t="s">
-        <v>1944</v>
+        <v>1947</v>
       </c>
       <c r="O237" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P237" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q237" t="s">
         <v>128</v>
@@ -18104,16 +18113,16 @@
         <v>1059</v>
       </c>
       <c r="M238" s="2" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="N238" t="s">
-        <v>1945</v>
+        <v>1948</v>
       </c>
       <c r="O238" t="s">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="P238" t="s">
-        <v>2130</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -18151,16 +18160,16 @@
         <v>1059</v>
       </c>
       <c r="M239" s="2" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="N239" t="s">
-        <v>1946</v>
+        <v>1949</v>
       </c>
       <c r="O239" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P239" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q239" t="s">
         <v>125</v>
@@ -18201,16 +18210,16 @@
         <v>1059</v>
       </c>
       <c r="M240" s="2" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="N240" t="s">
-        <v>1947</v>
+        <v>1950</v>
       </c>
       <c r="O240" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="P240" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -18248,16 +18257,16 @@
         <v>1288</v>
       </c>
       <c r="M241" s="2" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="N241" t="s">
-        <v>1948</v>
+        <v>1951</v>
       </c>
       <c r="O241" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P241" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q241" t="s">
         <v>188</v>
@@ -18298,16 +18307,16 @@
         <v>1288</v>
       </c>
       <c r="M242" s="2" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="N242" t="s">
-        <v>1949</v>
+        <v>1952</v>
       </c>
       <c r="O242" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P242" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q242" t="s">
         <v>212</v>
@@ -18347,17 +18356,17 @@
       <c r="K243" t="s">
         <v>1285</v>
       </c>
-      <c r="M243" t="s">
-        <v>1364</v>
+      <c r="M243" s="2" t="s">
+        <v>1568</v>
       </c>
       <c r="N243" t="s">
-        <v>1950</v>
+        <v>1953</v>
       </c>
       <c r="O243" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P243" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -18382,17 +18391,17 @@
       <c r="K244" t="s">
         <v>1059</v>
       </c>
-      <c r="M244" s="2" t="s">
-        <v>1567</v>
+      <c r="M244" t="s">
+        <v>1364</v>
       </c>
       <c r="N244" t="s">
-        <v>1951</v>
+        <v>1954</v>
       </c>
       <c r="O244" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="P244" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -18430,16 +18439,16 @@
         <v>1059</v>
       </c>
       <c r="M245" s="2" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="N245" t="s">
-        <v>1952</v>
+        <v>1955</v>
       </c>
       <c r="O245" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P245" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q245" t="s">
         <v>268</v>
@@ -18480,16 +18489,16 @@
         <v>1290</v>
       </c>
       <c r="M246" s="2" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="N246" t="s">
-        <v>1953</v>
+        <v>1956</v>
       </c>
       <c r="O246" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P246" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -18527,16 +18536,16 @@
         <v>1290</v>
       </c>
       <c r="M247" s="2" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="N247" t="s">
-        <v>1954</v>
+        <v>1957</v>
       </c>
       <c r="O247" t="s">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="P247" t="s">
-        <v>2130</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -18574,16 +18583,16 @@
         <v>1288</v>
       </c>
       <c r="M248" s="2" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="N248" t="s">
-        <v>1955</v>
+        <v>1958</v>
       </c>
       <c r="O248" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P248" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -18621,16 +18630,16 @@
         <v>1290</v>
       </c>
       <c r="M249" s="2" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="N249" t="s">
-        <v>1956</v>
+        <v>1959</v>
       </c>
       <c r="O249" t="s">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="P249" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R249" t="s">
         <v>280</v>
@@ -18668,16 +18677,16 @@
         <v>1059</v>
       </c>
       <c r="M250" s="2" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="N250" t="s">
-        <v>1957</v>
+        <v>1960</v>
       </c>
       <c r="O250" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P250" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q250" t="s">
         <v>403</v>
@@ -18717,17 +18726,17 @@
       <c r="K251" t="s">
         <v>1290</v>
       </c>
-      <c r="M251" t="s">
-        <v>1364</v>
+      <c r="M251" s="2" t="s">
+        <v>1575</v>
       </c>
       <c r="N251" t="s">
-        <v>1958</v>
+        <v>1961</v>
       </c>
       <c r="O251" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P251" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q251" t="s">
         <v>208</v>
@@ -18758,17 +18767,17 @@
       <c r="K252" t="s">
         <v>1059</v>
       </c>
-      <c r="M252" s="2" t="s">
-        <v>1573</v>
+      <c r="M252" t="s">
+        <v>1364</v>
       </c>
       <c r="N252" t="s">
-        <v>1959</v>
+        <v>1962</v>
       </c>
       <c r="O252" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="P252" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -18806,16 +18815,16 @@
         <v>1288</v>
       </c>
       <c r="M253" s="2" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="N253" t="s">
-        <v>1960</v>
+        <v>1963</v>
       </c>
       <c r="O253" t="s">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="P253" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
       <c r="R253" t="s">
         <v>280</v>
@@ -18856,16 +18865,16 @@
         <v>1290</v>
       </c>
       <c r="M254" s="2" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="N254" t="s">
-        <v>1961</v>
+        <v>1964</v>
       </c>
       <c r="O254" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P254" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q254" t="s">
         <v>268</v>
@@ -18906,16 +18915,16 @@
         <v>1339</v>
       </c>
       <c r="M255" s="2" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="N255" t="s">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="O255" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P255" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -18953,16 +18962,16 @@
         <v>1059</v>
       </c>
       <c r="M256" s="2" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="N256" t="s">
-        <v>1963</v>
+        <v>1966</v>
       </c>
       <c r="O256" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P256" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -18999,17 +19008,17 @@
       <c r="K257" t="s">
         <v>1059</v>
       </c>
-      <c r="M257" t="s">
-        <v>1364</v>
+      <c r="M257" s="2" t="s">
+        <v>1580</v>
       </c>
       <c r="N257" t="s">
-        <v>1964</v>
+        <v>1967</v>
       </c>
       <c r="O257" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P257" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q257" t="s">
         <v>403</v>
@@ -19037,17 +19046,17 @@
       <c r="K258" t="s">
         <v>1059</v>
       </c>
-      <c r="M258" s="2" t="s">
-        <v>1578</v>
+      <c r="M258" t="s">
+        <v>1364</v>
       </c>
       <c r="N258" t="s">
-        <v>1965</v>
+        <v>1968</v>
       </c>
       <c r="O258" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P258" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q258" t="s">
         <v>208</v>
@@ -19088,16 +19097,16 @@
         <v>1288</v>
       </c>
       <c r="M259" s="2" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="N259" t="s">
-        <v>1966</v>
+        <v>1969</v>
       </c>
       <c r="O259" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P259" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R259" t="s">
         <v>174</v>
@@ -19138,16 +19147,16 @@
         <v>1285</v>
       </c>
       <c r="M260" s="2" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="N260" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="O260" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P260" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -19185,16 +19194,16 @@
         <v>1301</v>
       </c>
       <c r="M261" s="2" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="N261" t="s">
-        <v>1968</v>
+        <v>1971</v>
       </c>
       <c r="O261" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P261" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q261" t="s">
         <v>295</v>
@@ -19235,16 +19244,16 @@
         <v>1340</v>
       </c>
       <c r="M262" s="2" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="N262" t="s">
-        <v>1969</v>
+        <v>1972</v>
       </c>
       <c r="O262" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P262" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -19282,16 +19291,16 @@
         <v>1341</v>
       </c>
       <c r="M263" s="2" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="N263" t="s">
-        <v>1970</v>
+        <v>1973</v>
       </c>
       <c r="O263" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="P263" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -19329,16 +19338,16 @@
         <v>1288</v>
       </c>
       <c r="M264" s="2" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="N264" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="O264" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P264" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q264" t="s">
         <v>204</v>
@@ -19379,16 +19388,16 @@
         <v>1285</v>
       </c>
       <c r="M265" s="2" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="N265" t="s">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="O265" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P265" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -19426,16 +19435,16 @@
         <v>1288</v>
       </c>
       <c r="M266" s="2" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="N266" t="s">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="O266" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P266" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
       <c r="R266" t="s">
         <v>85</v>
@@ -19476,16 +19485,16 @@
         <v>1288</v>
       </c>
       <c r="M267" s="2" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="N267" t="s">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="O267" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P267" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -19523,16 +19532,16 @@
         <v>1288</v>
       </c>
       <c r="M268" s="2" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="N268" t="s">
-        <v>1975</v>
+        <v>1978</v>
       </c>
       <c r="O268" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P268" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -19570,16 +19579,16 @@
         <v>1290</v>
       </c>
       <c r="M269" s="2" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="N269" t="s">
-        <v>1976</v>
+        <v>1979</v>
       </c>
       <c r="O269" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="P269" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -19617,16 +19626,16 @@
         <v>1288</v>
       </c>
       <c r="M270" s="2" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="N270" t="s">
-        <v>1977</v>
+        <v>1980</v>
       </c>
       <c r="O270" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P270" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q270" t="s">
         <v>204</v>
@@ -19667,16 +19676,16 @@
         <v>1288</v>
       </c>
       <c r="M271" s="2" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="N271" t="s">
-        <v>1978</v>
+        <v>1981</v>
       </c>
       <c r="O271" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P271" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -19714,19 +19723,19 @@
         <v>1288</v>
       </c>
       <c r="M272" s="2" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="N272" t="s">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="O272" t="s">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="P272" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
       <c r="R272" t="s">
-        <v>2135</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -19760,17 +19769,17 @@
       <c r="K273" t="s">
         <v>1059</v>
       </c>
-      <c r="M273" t="s">
-        <v>1364</v>
+      <c r="M273" s="2" t="s">
+        <v>1595</v>
       </c>
       <c r="N273" t="s">
-        <v>1980</v>
+        <v>1983</v>
       </c>
       <c r="O273" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P273" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q273" t="s">
         <v>431</v>
@@ -19798,17 +19807,17 @@
       <c r="K274" t="s">
         <v>1290</v>
       </c>
-      <c r="M274" s="2" t="s">
-        <v>1593</v>
+      <c r="M274" t="s">
+        <v>1364</v>
       </c>
       <c r="N274" t="s">
-        <v>1981</v>
+        <v>1984</v>
       </c>
       <c r="O274" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P274" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q274" t="s">
         <v>373</v>
@@ -19848,17 +19857,17 @@
       <c r="K275" t="s">
         <v>1288</v>
       </c>
-      <c r="M275" t="s">
-        <v>1364</v>
+      <c r="M275" s="2" t="s">
+        <v>1596</v>
       </c>
       <c r="N275" t="s">
-        <v>1982</v>
+        <v>1985</v>
       </c>
       <c r="O275" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P275" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -19880,17 +19889,17 @@
       <c r="K276" t="s">
         <v>1342</v>
       </c>
-      <c r="M276" s="2" t="s">
-        <v>1594</v>
+      <c r="M276" t="s">
+        <v>1364</v>
       </c>
       <c r="N276" t="s">
-        <v>1983</v>
+        <v>1986</v>
       </c>
       <c r="O276" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P276" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q276" t="s">
         <v>204</v>
@@ -19931,16 +19940,16 @@
         <v>1343</v>
       </c>
       <c r="M277" s="2" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="N277" t="s">
-        <v>1984</v>
+        <v>1987</v>
       </c>
       <c r="O277" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="P277" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q277" t="s">
         <v>285</v>
@@ -19980,17 +19989,17 @@
       <c r="K278" t="s">
         <v>1293</v>
       </c>
-      <c r="M278" t="s">
-        <v>1364</v>
+      <c r="M278" s="2" t="s">
+        <v>1598</v>
       </c>
       <c r="N278" t="s">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="O278" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P278" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R278" t="s">
         <v>174</v>
@@ -20021,17 +20030,17 @@
       <c r="K279" t="s">
         <v>1059</v>
       </c>
-      <c r="M279" s="2" t="s">
-        <v>1596</v>
+      <c r="M279" t="s">
+        <v>1364</v>
       </c>
       <c r="N279" t="s">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="O279" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P279" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q279" t="s">
         <v>157</v>
@@ -20072,16 +20081,16 @@
         <v>1059</v>
       </c>
       <c r="M280" s="2" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="N280" t="s">
-        <v>1987</v>
+        <v>1990</v>
       </c>
       <c r="O280" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P280" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q280" t="s">
         <v>204</v>
@@ -20122,16 +20131,16 @@
         <v>1288</v>
       </c>
       <c r="M281" s="2" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="N281" t="s">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="O281" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P281" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q281" t="s">
         <v>148</v>
@@ -20172,16 +20181,16 @@
         <v>1301</v>
       </c>
       <c r="M282" s="2" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="N282" t="s">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="O282" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="P282" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R282" t="s">
         <v>335</v>
@@ -20222,16 +20231,16 @@
         <v>1288</v>
       </c>
       <c r="M283" s="2" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="N283" t="s">
-        <v>1990</v>
+        <v>1993</v>
       </c>
       <c r="O283" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P283" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R283" t="s">
         <v>437</v>
@@ -20272,16 +20281,16 @@
         <v>1301</v>
       </c>
       <c r="M284" s="2" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="N284" t="s">
-        <v>1991</v>
+        <v>1994</v>
       </c>
       <c r="O284" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P284" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R284" t="s">
         <v>437</v>
@@ -20322,16 +20331,16 @@
         <v>1293</v>
       </c>
       <c r="M285" s="2" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="N285" t="s">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="O285" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P285" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R285" t="s">
         <v>437</v>
@@ -20372,16 +20381,16 @@
         <v>1290</v>
       </c>
       <c r="M286" s="2" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="N286" t="s">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="O286" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P286" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -20419,16 +20428,16 @@
         <v>1059</v>
       </c>
       <c r="M287" s="2" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="N287" t="s">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="O287" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P287" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q287" t="s">
         <v>403</v>
@@ -20466,16 +20475,16 @@
         <v>1344</v>
       </c>
       <c r="M288" s="2" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="N288" t="s">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="O288" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P288" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q288" t="s">
         <v>373</v>
@@ -20516,16 +20525,16 @@
         <v>1059</v>
       </c>
       <c r="M289" s="2" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="N289" t="s">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="O289" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P289" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q289" t="s">
         <v>289</v>
@@ -20566,16 +20575,16 @@
         <v>1059</v>
       </c>
       <c r="M290" s="2" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="N290" t="s">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="O290" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P290" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q290" t="s">
         <v>179</v>
@@ -20613,16 +20622,16 @@
         <v>1059</v>
       </c>
       <c r="M291" s="2" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="N291" t="s">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="O291" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P291" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -20660,16 +20669,16 @@
         <v>1290</v>
       </c>
       <c r="M292" s="2" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="N292" t="s">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="O292" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="P292" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q292" t="s">
         <v>285</v>
@@ -20710,16 +20719,16 @@
         <v>1293</v>
       </c>
       <c r="M293" s="2" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="N293" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="O293" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P293" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R293" t="s">
         <v>174</v>
@@ -20760,16 +20769,16 @@
         <v>1311</v>
       </c>
       <c r="M294" s="2" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="N294" t="s">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="O294" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P294" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R294" t="s">
         <v>415</v>
@@ -20810,16 +20819,16 @@
         <v>1288</v>
       </c>
       <c r="M295" s="2" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="N295" t="s">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="O295" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="P295" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q295" t="s">
         <v>285</v>
@@ -20860,16 +20869,16 @@
         <v>1285</v>
       </c>
       <c r="M296" s="2" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="N296" t="s">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="O296" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P296" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -20907,16 +20916,16 @@
         <v>1288</v>
       </c>
       <c r="M297" s="2" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="N297" t="s">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="O297" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P297" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q297" t="s">
         <v>340</v>
@@ -20956,17 +20965,17 @@
       <c r="K298" t="s">
         <v>1059</v>
       </c>
-      <c r="M298" t="s">
-        <v>1364</v>
+      <c r="M298" s="2" t="s">
+        <v>1617</v>
       </c>
       <c r="N298" t="s">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="O298" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P298" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R298" t="s">
         <v>214</v>
@@ -21000,14 +21009,17 @@
       <c r="L299" t="s">
         <v>1356</v>
       </c>
+      <c r="M299" t="s">
+        <v>1364</v>
+      </c>
       <c r="N299" t="s">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="O299" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="P299" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q299" t="s">
         <v>285</v>
@@ -21047,17 +21059,14 @@
       <c r="K300" t="s">
         <v>1059</v>
       </c>
-      <c r="M300" s="2" t="s">
-        <v>1615</v>
-      </c>
       <c r="N300" t="s">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="O300" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P300" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q300" t="s">
         <v>200</v>
@@ -21098,16 +21107,16 @@
         <v>1288</v>
       </c>
       <c r="M301" s="2" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="N301" t="s">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="O301" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="P301" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R301" t="s">
         <v>335</v>
@@ -21148,16 +21157,16 @@
         <v>1301</v>
       </c>
       <c r="M302" s="2" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="N302" t="s">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="O302" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="P302" t="s">
-        <v>2130</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -21195,16 +21204,16 @@
         <v>1285</v>
       </c>
       <c r="M303" s="2" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="N303" t="s">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="O303" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P303" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -21242,16 +21251,16 @@
         <v>1345</v>
       </c>
       <c r="M304" s="2" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="N304" t="s">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="O304" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P304" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -21286,16 +21295,16 @@
         <v>1059</v>
       </c>
       <c r="M305" s="2" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="N305" t="s">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="O305" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P305" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -21333,16 +21342,16 @@
         <v>1346</v>
       </c>
       <c r="M306" s="2" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="N306" t="s">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="O306" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P306" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R306" t="s">
         <v>415</v>
@@ -21383,16 +21392,16 @@
         <v>1288</v>
       </c>
       <c r="M307" s="2" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="N307" t="s">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="O307" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P307" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -21429,17 +21438,17 @@
       <c r="K308" t="s">
         <v>1288</v>
       </c>
-      <c r="M308" t="s">
-        <v>1364</v>
+      <c r="M308" s="2" t="s">
+        <v>1625</v>
       </c>
       <c r="N308" t="s">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="O308" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P308" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q308" t="s">
         <v>340</v>
@@ -21449,8 +21458,8 @@
       <c r="B309" t="s">
         <v>745</v>
       </c>
-      <c r="M309" s="2" t="s">
-        <v>1623</v>
+      <c r="M309" t="s">
+        <v>1364</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -21488,16 +21497,16 @@
         <v>1290</v>
       </c>
       <c r="M310" s="2" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="N310" t="s">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="O310" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P310" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q310" t="s">
         <v>86</v>
@@ -21541,16 +21550,16 @@
         <v>1059</v>
       </c>
       <c r="M311" s="2" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="N311" t="s">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="O311" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P311" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q311" t="s">
         <v>125</v>
@@ -21591,16 +21600,16 @@
         <v>1288</v>
       </c>
       <c r="M312" s="2" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="N312" t="s">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="O312" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P312" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
       <c r="R312" t="s">
         <v>417</v>
@@ -21640,17 +21649,17 @@
       <c r="K313" t="s">
         <v>1290</v>
       </c>
-      <c r="M313" t="s">
-        <v>1364</v>
+      <c r="M313" s="2" t="s">
+        <v>1629</v>
       </c>
       <c r="N313" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="O313" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P313" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q313" t="s">
         <v>128</v>
@@ -21675,17 +21684,17 @@
       <c r="K314" t="s">
         <v>1059</v>
       </c>
-      <c r="M314" s="2" t="s">
-        <v>1627</v>
+      <c r="M314" t="s">
+        <v>1364</v>
       </c>
       <c r="N314" t="s">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="O314" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P314" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q314" t="s">
         <v>212</v>
@@ -21726,16 +21735,16 @@
         <v>1347</v>
       </c>
       <c r="M315" s="2" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="N315" t="s">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="O315" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P315" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q315" t="s">
         <v>212</v>
@@ -21776,16 +21785,16 @@
         <v>1289</v>
       </c>
       <c r="M316" s="2" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="N316" t="s">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="O316" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P316" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q316" t="s">
         <v>119</v>
@@ -21825,17 +21834,17 @@
       <c r="K317" t="s">
         <v>1285</v>
       </c>
-      <c r="M317" t="s">
-        <v>1364</v>
+      <c r="M317" s="2" t="s">
+        <v>1632</v>
       </c>
       <c r="N317" t="s">
-        <v>2023</v>
+        <v>2026</v>
       </c>
       <c r="O317" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P317" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -21860,17 +21869,17 @@
       <c r="K318" t="s">
         <v>1059</v>
       </c>
-      <c r="M318" s="2" t="s">
-        <v>1630</v>
+      <c r="M318" t="s">
+        <v>1364</v>
       </c>
       <c r="N318" t="s">
-        <v>2024</v>
+        <v>2027</v>
       </c>
       <c r="O318" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P318" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q318" t="s">
         <v>268</v>
@@ -21911,16 +21920,16 @@
         <v>1288</v>
       </c>
       <c r="M319" s="2" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="N319" t="s">
-        <v>2025</v>
+        <v>2028</v>
       </c>
       <c r="O319" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P319" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q319" t="s">
         <v>295</v>
@@ -21961,16 +21970,16 @@
         <v>1288</v>
       </c>
       <c r="M320" s="2" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="N320" t="s">
-        <v>2026</v>
+        <v>2029</v>
       </c>
       <c r="O320" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P320" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q320" t="s">
         <v>204</v>
@@ -22011,16 +22020,16 @@
         <v>1059</v>
       </c>
       <c r="M321" s="2" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="N321" t="s">
-        <v>2027</v>
+        <v>2030</v>
       </c>
       <c r="O321" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P321" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q321" t="s">
         <v>340</v>
@@ -22058,16 +22067,16 @@
         <v>1059</v>
       </c>
       <c r="M322" s="2" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="N322" t="s">
-        <v>2028</v>
+        <v>2031</v>
       </c>
       <c r="O322" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P322" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q322" t="s">
         <v>362</v>
@@ -22108,16 +22117,16 @@
         <v>1059</v>
       </c>
       <c r="M323" s="2" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="N323" t="s">
-        <v>2029</v>
+        <v>2032</v>
       </c>
       <c r="O323" t="s">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="P323" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R323" t="s">
         <v>271</v>
@@ -22158,16 +22167,16 @@
         <v>1059</v>
       </c>
       <c r="M324" s="2" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="N324" t="s">
-        <v>2030</v>
+        <v>2033</v>
       </c>
       <c r="O324" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P324" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -22205,16 +22214,16 @@
         <v>1290</v>
       </c>
       <c r="M325" s="2" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="N325" t="s">
-        <v>2031</v>
+        <v>2034</v>
       </c>
       <c r="O325" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P325" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -22249,16 +22258,16 @@
         <v>1348</v>
       </c>
       <c r="M326" s="2" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="N326" t="s">
-        <v>2032</v>
+        <v>2035</v>
       </c>
       <c r="O326" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P326" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q326" t="s">
         <v>373</v>
@@ -22299,16 +22308,16 @@
         <v>1288</v>
       </c>
       <c r="M327" s="2" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="N327" t="s">
-        <v>2033</v>
+        <v>2036</v>
       </c>
       <c r="O327" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P327" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q327" t="s">
         <v>188</v>
@@ -22349,16 +22358,16 @@
         <v>1301</v>
       </c>
       <c r="M328" s="2" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="N328" t="s">
-        <v>2034</v>
+        <v>2037</v>
       </c>
       <c r="O328" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P328" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R328" t="s">
         <v>214</v>
@@ -22399,16 +22408,16 @@
         <v>1301</v>
       </c>
       <c r="M329" s="2" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="N329" t="s">
-        <v>2035</v>
+        <v>2038</v>
       </c>
       <c r="O329" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P329" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q329" t="s">
         <v>362</v>
@@ -22449,16 +22458,16 @@
         <v>1059</v>
       </c>
       <c r="M330" s="2" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="N330" t="s">
-        <v>2036</v>
+        <v>2039</v>
       </c>
       <c r="O330" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P330" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -22496,16 +22505,16 @@
         <v>1288</v>
       </c>
       <c r="M331" s="2" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="N331" t="s">
-        <v>2037</v>
+        <v>2040</v>
       </c>
       <c r="O331" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P331" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q331" t="s">
         <v>362</v>
@@ -22546,16 +22555,16 @@
         <v>1288</v>
       </c>
       <c r="M332" s="2" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="N332" t="s">
-        <v>2038</v>
+        <v>2041</v>
       </c>
       <c r="O332" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P332" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q332" t="s">
         <v>188</v>
@@ -22596,16 +22605,16 @@
         <v>1285</v>
       </c>
       <c r="M333" s="2" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="N333" t="s">
-        <v>2039</v>
+        <v>2042</v>
       </c>
       <c r="O333" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P333" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -22642,17 +22651,17 @@
       <c r="K334" t="s">
         <v>1293</v>
       </c>
-      <c r="M334" t="s">
-        <v>1364</v>
+      <c r="M334" s="2" t="s">
+        <v>1648</v>
       </c>
       <c r="N334" t="s">
-        <v>2040</v>
+        <v>2043</v>
       </c>
       <c r="O334" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P334" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R334" t="s">
         <v>174</v>
@@ -22680,20 +22689,20 @@
       <c r="K335" t="s">
         <v>1059</v>
       </c>
-      <c r="M335" s="2" t="s">
-        <v>1646</v>
+      <c r="M335" t="s">
+        <v>1364</v>
       </c>
       <c r="N335" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
       <c r="O335" t="s">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="P335" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
       <c r="R335" t="s">
-        <v>2135</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -22728,16 +22737,16 @@
         <v>1059</v>
       </c>
       <c r="M336" s="2" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="N336" t="s">
-        <v>2042</v>
+        <v>2045</v>
       </c>
       <c r="O336" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P336" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -22775,16 +22784,16 @@
         <v>1288</v>
       </c>
       <c r="M337" s="2" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="N337" t="s">
-        <v>2043</v>
+        <v>2046</v>
       </c>
       <c r="O337" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P337" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q337" t="s">
         <v>403</v>
@@ -22825,16 +22834,16 @@
         <v>1288</v>
       </c>
       <c r="M338" s="2" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="N338" t="s">
-        <v>2044</v>
+        <v>2047</v>
       </c>
       <c r="O338" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P338" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q338" t="s">
         <v>170</v>
@@ -22875,16 +22884,16 @@
         <v>1349</v>
       </c>
       <c r="M339" s="2" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="N339" t="s">
-        <v>2045</v>
+        <v>2048</v>
       </c>
       <c r="O339" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P339" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -22922,16 +22931,16 @@
         <v>1301</v>
       </c>
       <c r="M340" s="2" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="N340" t="s">
-        <v>2046</v>
+        <v>2049</v>
       </c>
       <c r="O340" t="s">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="P340" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R340" t="s">
         <v>271</v>
@@ -22972,16 +22981,16 @@
         <v>1290</v>
       </c>
       <c r="M341" s="2" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="N341" t="s">
-        <v>2047</v>
+        <v>2050</v>
       </c>
       <c r="O341" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P341" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -23019,16 +23028,16 @@
         <v>1059</v>
       </c>
       <c r="M342" s="2" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="N342" t="s">
-        <v>2048</v>
+        <v>2051</v>
       </c>
       <c r="O342" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P342" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q342" t="s">
         <v>373</v>
@@ -23068,17 +23077,17 @@
       <c r="K343" t="s">
         <v>1288</v>
       </c>
-      <c r="M343" t="s">
-        <v>1364</v>
+      <c r="M343" s="2" t="s">
+        <v>1656</v>
       </c>
       <c r="N343" t="s">
-        <v>2049</v>
+        <v>2052</v>
       </c>
       <c r="O343" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P343" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q343" t="s">
         <v>200</v>
@@ -23103,17 +23112,17 @@
       <c r="K344" t="s">
         <v>1059</v>
       </c>
-      <c r="M344" s="2" t="s">
-        <v>1654</v>
+      <c r="M344" t="s">
+        <v>1364</v>
       </c>
       <c r="N344" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="O344" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P344" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -23151,16 +23160,16 @@
         <v>1293</v>
       </c>
       <c r="M345" s="2" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="N345" t="s">
-        <v>2051</v>
+        <v>2054</v>
       </c>
       <c r="O345" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P345" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R345" t="s">
         <v>174</v>
@@ -23201,16 +23210,16 @@
         <v>1059</v>
       </c>
       <c r="M346" s="2" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="N346" t="s">
-        <v>2052</v>
+        <v>2055</v>
       </c>
       <c r="O346" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P346" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q346" t="s">
         <v>362</v>
@@ -23251,16 +23260,16 @@
         <v>1059</v>
       </c>
       <c r="M347" s="2" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="N347" t="s">
-        <v>2053</v>
+        <v>2056</v>
       </c>
       <c r="O347" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P347" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q347" t="s">
         <v>373</v>
@@ -23301,16 +23310,16 @@
         <v>1288</v>
       </c>
       <c r="M348" s="2" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="N348" t="s">
-        <v>2054</v>
+        <v>2057</v>
       </c>
       <c r="O348" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P348" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q348" t="s">
         <v>128</v>
@@ -23351,16 +23360,16 @@
         <v>1059</v>
       </c>
       <c r="M349" s="2" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="N349" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="O349" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P349" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -23398,16 +23407,16 @@
         <v>1059</v>
       </c>
       <c r="M350" s="2" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="N350" t="s">
-        <v>2056</v>
+        <v>2059</v>
       </c>
       <c r="O350" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P350" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q350" t="s">
         <v>157</v>
@@ -23448,16 +23457,16 @@
         <v>1059</v>
       </c>
       <c r="M351" s="2" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="N351" t="s">
-        <v>2057</v>
+        <v>2060</v>
       </c>
       <c r="O351" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P351" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q351" t="s">
         <v>179</v>
@@ -23495,16 +23504,16 @@
         <v>1059</v>
       </c>
       <c r="M352" s="2" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="N352" t="s">
-        <v>2058</v>
+        <v>2061</v>
       </c>
       <c r="O352" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P352" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q352" t="s">
         <v>170</v>
@@ -23545,16 +23554,16 @@
         <v>1059</v>
       </c>
       <c r="M353" s="2" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="N353" t="s">
-        <v>2059</v>
+        <v>2062</v>
       </c>
       <c r="O353" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P353" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q353" t="s">
         <v>200</v>
@@ -23595,16 +23604,16 @@
         <v>1285</v>
       </c>
       <c r="M354" s="2" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="N354" t="s">
-        <v>2060</v>
+        <v>2063</v>
       </c>
       <c r="O354" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P354" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -23642,16 +23651,16 @@
         <v>1285</v>
       </c>
       <c r="M355" s="2" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="N355" t="s">
-        <v>2061</v>
+        <v>2064</v>
       </c>
       <c r="O355" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P355" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -23689,16 +23698,16 @@
         <v>1288</v>
       </c>
       <c r="M356" s="2" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="N356" t="s">
-        <v>2062</v>
+        <v>2065</v>
       </c>
       <c r="O356" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P356" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q356" t="s">
         <v>188</v>
@@ -23739,16 +23748,16 @@
         <v>1059</v>
       </c>
       <c r="M357" s="2" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="N357" t="s">
-        <v>2063</v>
+        <v>2066</v>
       </c>
       <c r="O357" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P357" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -23786,16 +23795,16 @@
         <v>1288</v>
       </c>
       <c r="M358" s="2" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="N358" t="s">
-        <v>2064</v>
+        <v>2067</v>
       </c>
       <c r="O358" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P358" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q358" t="s">
         <v>200</v>
@@ -23836,16 +23845,16 @@
         <v>1290</v>
       </c>
       <c r="M359" s="2" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="N359" t="s">
-        <v>2065</v>
+        <v>2068</v>
       </c>
       <c r="O359" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P359" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -23880,16 +23889,16 @@
         <v>1059</v>
       </c>
       <c r="M360" s="2" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="N360" t="s">
-        <v>2066</v>
+        <v>2069</v>
       </c>
       <c r="O360" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="P360" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -23927,16 +23936,16 @@
         <v>1059</v>
       </c>
       <c r="M361" s="2" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="N361" t="s">
-        <v>2067</v>
+        <v>2070</v>
       </c>
       <c r="O361" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P361" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q361" t="s">
         <v>128</v>
@@ -23977,16 +23986,16 @@
         <v>1293</v>
       </c>
       <c r="M362" s="2" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="N362" t="s">
-        <v>2068</v>
+        <v>2071</v>
       </c>
       <c r="O362" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P362" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R362" t="s">
         <v>174</v>
@@ -24027,16 +24036,16 @@
         <v>1288</v>
       </c>
       <c r="M363" s="2" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="N363" t="s">
-        <v>2069</v>
+        <v>2072</v>
       </c>
       <c r="O363" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P363" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q363" t="s">
         <v>200</v>
@@ -24077,16 +24086,16 @@
         <v>1288</v>
       </c>
       <c r="M364" s="2" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="N364" t="s">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="O364" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P364" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q364" t="s">
         <v>157</v>
@@ -24127,16 +24136,16 @@
         <v>1290</v>
       </c>
       <c r="M365" s="2" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="N365" t="s">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="O365" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="P365" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -24174,16 +24183,16 @@
         <v>1285</v>
       </c>
       <c r="M366" s="2" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="N366" t="s">
-        <v>2072</v>
+        <v>2075</v>
       </c>
       <c r="O366" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P366" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q366" t="s">
         <v>295</v>
@@ -24224,16 +24233,16 @@
         <v>1290</v>
       </c>
       <c r="M367" s="2" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="N367" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="O367" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="P367" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R367" t="s">
         <v>421</v>
@@ -24274,16 +24283,16 @@
         <v>1290</v>
       </c>
       <c r="M368" s="2" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="N368" t="s">
-        <v>2074</v>
+        <v>2077</v>
       </c>
       <c r="O368" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P368" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R368" t="s">
         <v>415</v>
@@ -24321,16 +24330,16 @@
         <v>1350</v>
       </c>
       <c r="M369" s="2" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="N369" t="s">
-        <v>2075</v>
+        <v>2078</v>
       </c>
       <c r="O369" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P369" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="370" spans="1:17">
@@ -24368,16 +24377,16 @@
         <v>1288</v>
       </c>
       <c r="M370" s="2" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="N370" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="O370" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P370" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q370" t="s">
         <v>403</v>
@@ -24418,16 +24427,16 @@
         <v>1290</v>
       </c>
       <c r="M371" s="2" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="N371" t="s">
-        <v>2077</v>
+        <v>2080</v>
       </c>
       <c r="O371" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P371" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="372" spans="1:17">
@@ -24465,16 +24474,16 @@
         <v>1288</v>
       </c>
       <c r="M372" s="2" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="N372" t="s">
-        <v>2078</v>
+        <v>2081</v>
       </c>
       <c r="O372" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P372" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q372" t="s">
         <v>188</v>
@@ -24515,16 +24524,16 @@
         <v>1288</v>
       </c>
       <c r="M373" s="2" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="N373" t="s">
-        <v>2079</v>
+        <v>2082</v>
       </c>
       <c r="O373" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P373" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q373" t="s">
         <v>373</v>
@@ -24564,17 +24573,17 @@
       <c r="K374" t="s">
         <v>1290</v>
       </c>
-      <c r="M374" t="s">
-        <v>1364</v>
+      <c r="M374" s="2" t="s">
+        <v>1686</v>
       </c>
       <c r="N374" t="s">
-        <v>2080</v>
+        <v>2083</v>
       </c>
       <c r="O374" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P374" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q374" t="s">
         <v>148</v>
@@ -24602,11 +24611,11 @@
       <c r="K375" t="s">
         <v>1351</v>
       </c>
-      <c r="M375" s="2" t="s">
-        <v>1684</v>
+      <c r="M375" t="s">
+        <v>1364</v>
       </c>
       <c r="N375" t="s">
-        <v>2081</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="376" spans="1:17">
@@ -24644,16 +24653,16 @@
         <v>1352</v>
       </c>
       <c r="M376" s="2" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="N376" t="s">
-        <v>2082</v>
+        <v>2085</v>
       </c>
       <c r="O376" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P376" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q376" t="s">
         <v>188</v>
@@ -24694,16 +24703,16 @@
         <v>1288</v>
       </c>
       <c r="M377" s="2" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="N377" t="s">
-        <v>2083</v>
+        <v>2086</v>
       </c>
       <c r="O377" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P377" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="378" spans="1:17">
@@ -24741,16 +24750,16 @@
         <v>1290</v>
       </c>
       <c r="M378" s="2" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="N378" t="s">
-        <v>2084</v>
+        <v>2087</v>
       </c>
       <c r="O378" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P378" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q378" t="s">
         <v>128</v>
@@ -24791,16 +24800,16 @@
         <v>1285</v>
       </c>
       <c r="M379" s="2" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="N379" t="s">
-        <v>2085</v>
+        <v>2088</v>
       </c>
       <c r="O379" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P379" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="380" spans="1:17">
@@ -24837,17 +24846,17 @@
       <c r="K380" t="s">
         <v>1059</v>
       </c>
-      <c r="M380" t="s">
-        <v>1364</v>
+      <c r="M380" s="2" t="s">
+        <v>1691</v>
       </c>
       <c r="N380" t="s">
-        <v>2086</v>
+        <v>2089</v>
       </c>
       <c r="O380" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P380" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q380" t="s">
         <v>204</v>
@@ -24875,17 +24884,17 @@
       <c r="K381" t="s">
         <v>1059</v>
       </c>
-      <c r="M381" s="2" t="s">
-        <v>1689</v>
+      <c r="M381" t="s">
+        <v>1364</v>
       </c>
       <c r="N381" t="s">
-        <v>2087</v>
+        <v>2090</v>
       </c>
       <c r="O381" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P381" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q381" t="s">
         <v>212</v>
@@ -24926,16 +24935,16 @@
         <v>1285</v>
       </c>
       <c r="M382" s="2" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="N382" t="s">
-        <v>2088</v>
+        <v>2091</v>
       </c>
       <c r="O382" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="P382" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="383" spans="1:17">
@@ -24972,17 +24981,17 @@
       <c r="K383" t="s">
         <v>1311</v>
       </c>
-      <c r="M383" t="s">
-        <v>1364</v>
+      <c r="M383" s="2" t="s">
+        <v>1693</v>
       </c>
       <c r="N383" t="s">
-        <v>2089</v>
+        <v>2092</v>
       </c>
       <c r="O383" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P383" t="s">
-        <v>2130</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="384" spans="1:17">
@@ -25007,17 +25016,17 @@
       <c r="K384" t="s">
         <v>1118</v>
       </c>
-      <c r="M384" s="2" t="s">
-        <v>1691</v>
+      <c r="M384" t="s">
+        <v>1364</v>
       </c>
       <c r="N384" t="s">
-        <v>2090</v>
+        <v>2093</v>
       </c>
       <c r="O384" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P384" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -25055,16 +25064,16 @@
         <v>1288</v>
       </c>
       <c r="M385" s="2" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="N385" t="s">
-        <v>2091</v>
+        <v>2094</v>
       </c>
       <c r="O385" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P385" t="s">
-        <v>2130</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -25102,16 +25111,16 @@
         <v>1290</v>
       </c>
       <c r="M386" s="2" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="N386" t="s">
-        <v>2092</v>
+        <v>2095</v>
       </c>
       <c r="O386" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P386" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q386" t="s">
         <v>295</v>
@@ -25152,16 +25161,16 @@
         <v>1059</v>
       </c>
       <c r="M387" s="2" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="N387" t="s">
-        <v>2093</v>
+        <v>2096</v>
       </c>
       <c r="O387" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="P387" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q387" t="s">
         <v>371</v>
@@ -25202,16 +25211,16 @@
         <v>1290</v>
       </c>
       <c r="M388" s="2" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="N388" t="s">
-        <v>2094</v>
+        <v>2097</v>
       </c>
       <c r="O388" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P388" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -25249,16 +25258,16 @@
         <v>1293</v>
       </c>
       <c r="M389" s="2" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="N389" t="s">
-        <v>2095</v>
+        <v>2098</v>
       </c>
       <c r="O389" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="P389" t="s">
-        <v>2130</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -25296,16 +25305,16 @@
         <v>1301</v>
       </c>
       <c r="M390" s="2" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="N390" t="s">
-        <v>2096</v>
+        <v>2099</v>
       </c>
       <c r="O390" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P390" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="R390" t="s">
         <v>437</v>
@@ -25346,16 +25355,16 @@
         <v>1293</v>
       </c>
       <c r="M391" s="2" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="N391" t="s">
-        <v>2097</v>
+        <v>2100</v>
       </c>
       <c r="O391" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P391" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R391" t="s">
         <v>174</v>
@@ -25396,16 +25405,16 @@
         <v>1288</v>
       </c>
       <c r="M392" s="2" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="N392" t="s">
-        <v>2098</v>
+        <v>2101</v>
       </c>
       <c r="O392" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="P392" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -25443,16 +25452,16 @@
         <v>1288</v>
       </c>
       <c r="M393" s="2" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="N393" t="s">
-        <v>2099</v>
+        <v>2102</v>
       </c>
       <c r="O393" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P393" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q393" t="s">
         <v>179</v>
@@ -25493,16 +25502,16 @@
         <v>1311</v>
       </c>
       <c r="M394" s="2" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="N394" t="s">
-        <v>2100</v>
+        <v>2103</v>
       </c>
       <c r="O394" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P394" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R394" t="s">
         <v>214</v>
@@ -25543,16 +25552,16 @@
         <v>1290</v>
       </c>
       <c r="M395" s="2" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="N395" t="s">
-        <v>2101</v>
+        <v>2104</v>
       </c>
       <c r="O395" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P395" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q395" t="s">
         <v>373</v>
@@ -25593,16 +25602,16 @@
         <v>1288</v>
       </c>
       <c r="M396" s="2" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="N396" t="s">
-        <v>2102</v>
+        <v>2105</v>
       </c>
       <c r="O396" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P396" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -25640,16 +25649,16 @@
         <v>1353</v>
       </c>
       <c r="M397" s="2" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="N397" t="s">
-        <v>2103</v>
+        <v>2106</v>
       </c>
       <c r="O397" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P397" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="R397" t="s">
         <v>415</v>
@@ -25689,17 +25698,17 @@
       <c r="K398" t="s">
         <v>1288</v>
       </c>
-      <c r="M398" t="s">
-        <v>1364</v>
+      <c r="M398" s="2" t="s">
+        <v>1707</v>
       </c>
       <c r="N398" t="s">
-        <v>2104</v>
+        <v>2107</v>
       </c>
       <c r="O398" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P398" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q398" t="s">
         <v>431</v>
@@ -25733,17 +25742,17 @@
       <c r="L399" t="s">
         <v>1357</v>
       </c>
-      <c r="M399" s="2" t="s">
-        <v>1705</v>
+      <c r="M399" t="s">
+        <v>1364</v>
       </c>
       <c r="N399" t="s">
-        <v>2105</v>
+        <v>2108</v>
       </c>
       <c r="O399" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P399" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -25781,16 +25790,16 @@
         <v>1059</v>
       </c>
       <c r="M400" s="2" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="N400" t="s">
-        <v>2106</v>
+        <v>2109</v>
       </c>
       <c r="O400" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="P400" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q400" t="s">
         <v>420</v>
@@ -25830,17 +25839,17 @@
       <c r="K401" t="s">
         <v>1290</v>
       </c>
-      <c r="M401" t="s">
-        <v>1364</v>
+      <c r="M401" s="2" t="s">
+        <v>1709</v>
       </c>
       <c r="N401" t="s">
-        <v>2107</v>
+        <v>2110</v>
       </c>
       <c r="O401" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="P401" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="402" spans="1:17">
@@ -25865,17 +25874,17 @@
       <c r="K402" t="s">
         <v>1290</v>
       </c>
-      <c r="M402" s="2" t="s">
-        <v>1707</v>
+      <c r="M402" t="s">
+        <v>1364</v>
       </c>
       <c r="N402" t="s">
-        <v>2108</v>
+        <v>2111</v>
       </c>
       <c r="O402" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P402" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q402" t="s">
         <v>431</v>
@@ -25916,16 +25925,16 @@
         <v>1290</v>
       </c>
       <c r="M403" s="2" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="N403" t="s">
-        <v>2109</v>
+        <v>2112</v>
       </c>
       <c r="O403" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="P403" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q403" t="s">
         <v>204</v>
@@ -25963,16 +25972,16 @@
         <v>1059</v>
       </c>
       <c r="M404" s="2" t="s">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="N404" t="s">
-        <v>2110</v>
+        <v>2113</v>
       </c>
       <c r="O404" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="P404" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Q404" t="s">
         <v>431</v>
@@ -26010,16 +26019,16 @@
         <v>1288</v>
       </c>
       <c r="M405" s="2" t="s">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="N405" t="s">
-        <v>2111</v>
+        <v>2114</v>
       </c>
       <c r="O405" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="P405" t="s">
-        <v>2134</v>
+        <v>2137</v>
       </c>
     </row>
   </sheetData>
@@ -26051,333 +26060,334 @@
     <hyperlink ref="M34" r:id="rId25"/>
     <hyperlink ref="M35" r:id="rId26"/>
     <hyperlink ref="M36" r:id="rId27"/>
-    <hyperlink ref="M39" r:id="rId28"/>
-    <hyperlink ref="M40" r:id="rId29" location="AI13269"/>
-    <hyperlink ref="M41" r:id="rId30"/>
-    <hyperlink ref="M42" r:id="rId31"/>
-    <hyperlink ref="M44" r:id="rId32"/>
-    <hyperlink ref="M45" r:id="rId33"/>
-    <hyperlink ref="M46" r:id="rId34"/>
-    <hyperlink ref="M47" r:id="rId35"/>
-    <hyperlink ref="M48" r:id="rId36"/>
-    <hyperlink ref="M49" r:id="rId37"/>
-    <hyperlink ref="M50" r:id="rId38"/>
-    <hyperlink ref="M52" r:id="rId39"/>
-    <hyperlink ref="M53" r:id="rId40"/>
-    <hyperlink ref="M54" r:id="rId41"/>
-    <hyperlink ref="M55" r:id="rId42"/>
-    <hyperlink ref="M56" r:id="rId43"/>
-    <hyperlink ref="M58" r:id="rId44"/>
-    <hyperlink ref="M59" r:id="rId45"/>
-    <hyperlink ref="M60" r:id="rId46"/>
-    <hyperlink ref="M61" r:id="rId47"/>
-    <hyperlink ref="M62" r:id="rId48"/>
-    <hyperlink ref="M63" r:id="rId49"/>
-    <hyperlink ref="M64" r:id="rId50"/>
-    <hyperlink ref="M65" r:id="rId51"/>
-    <hyperlink ref="M66" r:id="rId52" location="AI49515"/>
-    <hyperlink ref="M67" r:id="rId53"/>
-    <hyperlink ref="M68" r:id="rId54"/>
-    <hyperlink ref="M69" r:id="rId55"/>
-    <hyperlink ref="M70" r:id="rId56"/>
-    <hyperlink ref="M71" r:id="rId57"/>
-    <hyperlink ref="M72" r:id="rId58"/>
-    <hyperlink ref="M74" r:id="rId59"/>
-    <hyperlink ref="M75" r:id="rId60"/>
-    <hyperlink ref="M76" r:id="rId61"/>
-    <hyperlink ref="M78" r:id="rId62"/>
-    <hyperlink ref="M79" r:id="rId63"/>
-    <hyperlink ref="M80" r:id="rId64"/>
-    <hyperlink ref="M81" r:id="rId65"/>
-    <hyperlink ref="M82" r:id="rId66"/>
-    <hyperlink ref="M83" r:id="rId67"/>
-    <hyperlink ref="M84" r:id="rId68"/>
-    <hyperlink ref="M86" r:id="rId69"/>
-    <hyperlink ref="M87" r:id="rId70"/>
-    <hyperlink ref="M88" r:id="rId71"/>
-    <hyperlink ref="M89" r:id="rId72"/>
-    <hyperlink ref="M90" r:id="rId73"/>
-    <hyperlink ref="M91" r:id="rId74"/>
-    <hyperlink ref="M92" r:id="rId75"/>
-    <hyperlink ref="M93" r:id="rId76"/>
-    <hyperlink ref="M94" r:id="rId77"/>
-    <hyperlink ref="M95" r:id="rId78"/>
-    <hyperlink ref="M96" r:id="rId79"/>
-    <hyperlink ref="M97" r:id="rId80"/>
-    <hyperlink ref="M98" r:id="rId81"/>
-    <hyperlink ref="M99" r:id="rId82"/>
-    <hyperlink ref="M100" r:id="rId83"/>
-    <hyperlink ref="M101" r:id="rId84"/>
-    <hyperlink ref="M103" r:id="rId85"/>
-    <hyperlink ref="M104" r:id="rId86"/>
-    <hyperlink ref="M106" r:id="rId87"/>
-    <hyperlink ref="M107" r:id="rId88"/>
-    <hyperlink ref="M109" r:id="rId89"/>
-    <hyperlink ref="M110" r:id="rId90"/>
-    <hyperlink ref="M111" r:id="rId91"/>
-    <hyperlink ref="M112" r:id="rId92"/>
-    <hyperlink ref="M113" r:id="rId93"/>
-    <hyperlink ref="M114" r:id="rId94"/>
-    <hyperlink ref="M115" r:id="rId95"/>
-    <hyperlink ref="M116" r:id="rId96"/>
-    <hyperlink ref="M117" r:id="rId97"/>
-    <hyperlink ref="M118" r:id="rId98"/>
-    <hyperlink ref="M119" r:id="rId99"/>
-    <hyperlink ref="M120" r:id="rId100"/>
-    <hyperlink ref="M121" r:id="rId101"/>
-    <hyperlink ref="M122" r:id="rId102"/>
-    <hyperlink ref="M124" r:id="rId103"/>
-    <hyperlink ref="M125" r:id="rId104"/>
-    <hyperlink ref="M126" r:id="rId105"/>
-    <hyperlink ref="M128" r:id="rId106"/>
-    <hyperlink ref="M129" r:id="rId107"/>
-    <hyperlink ref="M130" r:id="rId108"/>
-    <hyperlink ref="M131" r:id="rId109"/>
-    <hyperlink ref="M133" r:id="rId110"/>
-    <hyperlink ref="M134" r:id="rId111"/>
-    <hyperlink ref="M135" r:id="rId112"/>
-    <hyperlink ref="M136" r:id="rId113"/>
-    <hyperlink ref="M138" r:id="rId114"/>
-    <hyperlink ref="M140" r:id="rId115"/>
-    <hyperlink ref="M141" r:id="rId116"/>
-    <hyperlink ref="M142" r:id="rId117"/>
-    <hyperlink ref="M143" r:id="rId118"/>
-    <hyperlink ref="M144" r:id="rId119"/>
-    <hyperlink ref="M145" r:id="rId120"/>
-    <hyperlink ref="M146" r:id="rId121"/>
-    <hyperlink ref="M147" r:id="rId122"/>
-    <hyperlink ref="M148" r:id="rId123"/>
-    <hyperlink ref="M149" r:id="rId124"/>
-    <hyperlink ref="M151" r:id="rId125"/>
-    <hyperlink ref="M153" r:id="rId126"/>
-    <hyperlink ref="M154" r:id="rId127"/>
-    <hyperlink ref="M155" r:id="rId128"/>
-    <hyperlink ref="M156" r:id="rId129"/>
-    <hyperlink ref="M157" r:id="rId130"/>
-    <hyperlink ref="M158" r:id="rId131"/>
-    <hyperlink ref="M159" r:id="rId132"/>
-    <hyperlink ref="M161" r:id="rId133"/>
-    <hyperlink ref="M162" r:id="rId134"/>
-    <hyperlink ref="M163" r:id="rId135"/>
-    <hyperlink ref="M164" r:id="rId136"/>
-    <hyperlink ref="M165" r:id="rId137"/>
-    <hyperlink ref="M166" r:id="rId138"/>
-    <hyperlink ref="M167" r:id="rId139"/>
-    <hyperlink ref="M168" r:id="rId140"/>
-    <hyperlink ref="M169" r:id="rId141"/>
-    <hyperlink ref="M170" r:id="rId142"/>
-    <hyperlink ref="M171" r:id="rId143"/>
-    <hyperlink ref="M172" r:id="rId144"/>
-    <hyperlink ref="M173" r:id="rId145"/>
-    <hyperlink ref="M174" r:id="rId146"/>
-    <hyperlink ref="M175" r:id="rId147"/>
-    <hyperlink ref="M176" r:id="rId148"/>
-    <hyperlink ref="M177" r:id="rId149"/>
-    <hyperlink ref="M178" r:id="rId150"/>
-    <hyperlink ref="M180" r:id="rId151"/>
-    <hyperlink ref="M181" r:id="rId152"/>
-    <hyperlink ref="M182" r:id="rId153"/>
-    <hyperlink ref="M183" r:id="rId154"/>
-    <hyperlink ref="M185" r:id="rId155"/>
-    <hyperlink ref="M186" r:id="rId156"/>
-    <hyperlink ref="M187" r:id="rId157"/>
-    <hyperlink ref="M188" r:id="rId158"/>
-    <hyperlink ref="M189" r:id="rId159"/>
-    <hyperlink ref="M190" r:id="rId160"/>
-    <hyperlink ref="M191" r:id="rId161"/>
-    <hyperlink ref="M192" r:id="rId162"/>
-    <hyperlink ref="M193" r:id="rId163"/>
-    <hyperlink ref="M195" r:id="rId164"/>
-    <hyperlink ref="M196" r:id="rId165" location=":~:text=At%20a%20meeting%20of%20Borough,Act%20Environmental%20and%20Sustainability%20Strategy."/>
-    <hyperlink ref="M197" r:id="rId166"/>
-    <hyperlink ref="M198" r:id="rId167"/>
-    <hyperlink ref="M199" r:id="rId168"/>
-    <hyperlink ref="M200" r:id="rId169"/>
-    <hyperlink ref="M201" r:id="rId170"/>
-    <hyperlink ref="M202" r:id="rId171"/>
-    <hyperlink ref="M203" r:id="rId172"/>
-    <hyperlink ref="M204" r:id="rId173"/>
-    <hyperlink ref="M205" r:id="rId174"/>
-    <hyperlink ref="M206" r:id="rId175"/>
-    <hyperlink ref="M207" r:id="rId176"/>
-    <hyperlink ref="M208" r:id="rId177"/>
-    <hyperlink ref="M209" r:id="rId178"/>
-    <hyperlink ref="M210" r:id="rId179"/>
-    <hyperlink ref="M211" r:id="rId180"/>
-    <hyperlink ref="M212" r:id="rId181"/>
-    <hyperlink ref="M213" r:id="rId182"/>
-    <hyperlink ref="M214" r:id="rId183"/>
-    <hyperlink ref="M215" r:id="rId184"/>
-    <hyperlink ref="M216" r:id="rId185"/>
-    <hyperlink ref="M217" r:id="rId186"/>
-    <hyperlink ref="E218" r:id="rId187"/>
-    <hyperlink ref="M219" r:id="rId188"/>
-    <hyperlink ref="M220" r:id="rId189"/>
-    <hyperlink ref="M221" r:id="rId190"/>
-    <hyperlink ref="M223" r:id="rId191"/>
-    <hyperlink ref="M224" r:id="rId192"/>
-    <hyperlink ref="M225" r:id="rId193"/>
-    <hyperlink ref="M226" r:id="rId194"/>
-    <hyperlink ref="M227" r:id="rId195"/>
-    <hyperlink ref="M228" r:id="rId196"/>
-    <hyperlink ref="M229" r:id="rId197"/>
-    <hyperlink ref="M230" r:id="rId198"/>
-    <hyperlink ref="M231" r:id="rId199"/>
-    <hyperlink ref="M232" r:id="rId200"/>
-    <hyperlink ref="M233" r:id="rId201"/>
-    <hyperlink ref="M235" r:id="rId202"/>
-    <hyperlink ref="M236" r:id="rId203"/>
-    <hyperlink ref="M237" r:id="rId204"/>
-    <hyperlink ref="M238" r:id="rId205"/>
-    <hyperlink ref="M239" r:id="rId206"/>
-    <hyperlink ref="M240" r:id="rId207"/>
-    <hyperlink ref="M241" r:id="rId208"/>
-    <hyperlink ref="M242" r:id="rId209"/>
-    <hyperlink ref="M244" r:id="rId210"/>
-    <hyperlink ref="M245" r:id="rId211"/>
-    <hyperlink ref="M246" r:id="rId212"/>
-    <hyperlink ref="M247" r:id="rId213"/>
-    <hyperlink ref="M248" r:id="rId214"/>
-    <hyperlink ref="M249" r:id="rId215"/>
-    <hyperlink ref="M250" r:id="rId216"/>
-    <hyperlink ref="M252" r:id="rId217"/>
-    <hyperlink ref="M253" r:id="rId218"/>
-    <hyperlink ref="M254" r:id="rId219"/>
-    <hyperlink ref="M255" r:id="rId220"/>
-    <hyperlink ref="M256" r:id="rId221"/>
-    <hyperlink ref="M258" r:id="rId222"/>
-    <hyperlink ref="M259" r:id="rId223"/>
-    <hyperlink ref="M260" r:id="rId224"/>
-    <hyperlink ref="M261" r:id="rId225"/>
-    <hyperlink ref="M262" r:id="rId226"/>
-    <hyperlink ref="M263" r:id="rId227"/>
-    <hyperlink ref="M264" r:id="rId228"/>
-    <hyperlink ref="M265" r:id="rId229"/>
-    <hyperlink ref="M266" r:id="rId230"/>
-    <hyperlink ref="M267" r:id="rId231"/>
-    <hyperlink ref="M268" r:id="rId232"/>
-    <hyperlink ref="M269" r:id="rId233"/>
-    <hyperlink ref="M270" r:id="rId234"/>
-    <hyperlink ref="M271" r:id="rId235"/>
-    <hyperlink ref="M272" r:id="rId236"/>
-    <hyperlink ref="M274" r:id="rId237"/>
-    <hyperlink ref="M276" r:id="rId238"/>
-    <hyperlink ref="M277" r:id="rId239"/>
-    <hyperlink ref="M279" r:id="rId240"/>
-    <hyperlink ref="M280" r:id="rId241"/>
-    <hyperlink ref="M281" r:id="rId242"/>
-    <hyperlink ref="M282" r:id="rId243"/>
-    <hyperlink ref="M283" r:id="rId244"/>
-    <hyperlink ref="M284" r:id="rId245"/>
-    <hyperlink ref="M285" r:id="rId246"/>
-    <hyperlink ref="M286" r:id="rId247"/>
-    <hyperlink ref="M287" r:id="rId248"/>
-    <hyperlink ref="M288" r:id="rId249"/>
-    <hyperlink ref="M289" r:id="rId250"/>
-    <hyperlink ref="M290" r:id="rId251"/>
-    <hyperlink ref="M291" r:id="rId252"/>
-    <hyperlink ref="M292" r:id="rId253"/>
-    <hyperlink ref="M293" r:id="rId254"/>
-    <hyperlink ref="M294" r:id="rId255"/>
-    <hyperlink ref="M295" r:id="rId256"/>
-    <hyperlink ref="M296" r:id="rId257"/>
-    <hyperlink ref="M297" r:id="rId258"/>
-    <hyperlink ref="M300" r:id="rId259" location="AI18587"/>
-    <hyperlink ref="M301" r:id="rId260"/>
-    <hyperlink ref="M302" r:id="rId261"/>
-    <hyperlink ref="M303" r:id="rId262"/>
-    <hyperlink ref="M304" r:id="rId263"/>
-    <hyperlink ref="M305" r:id="rId264"/>
-    <hyperlink ref="M306" r:id="rId265"/>
-    <hyperlink ref="M307" r:id="rId266"/>
-    <hyperlink ref="M309" r:id="rId267"/>
-    <hyperlink ref="M310" r:id="rId268"/>
-    <hyperlink ref="M311" r:id="rId269"/>
-    <hyperlink ref="M312" r:id="rId270"/>
-    <hyperlink ref="M314" r:id="rId271"/>
-    <hyperlink ref="M315" r:id="rId272"/>
-    <hyperlink ref="M316" r:id="rId273"/>
-    <hyperlink ref="M318" r:id="rId274"/>
-    <hyperlink ref="M319" r:id="rId275"/>
-    <hyperlink ref="M320" r:id="rId276"/>
-    <hyperlink ref="M321" r:id="rId277"/>
-    <hyperlink ref="M322" r:id="rId278"/>
-    <hyperlink ref="M323" r:id="rId279"/>
-    <hyperlink ref="M324" r:id="rId280"/>
-    <hyperlink ref="M325" r:id="rId281"/>
-    <hyperlink ref="M326" r:id="rId282"/>
-    <hyperlink ref="M327" r:id="rId283"/>
-    <hyperlink ref="M328" r:id="rId284"/>
-    <hyperlink ref="M329" r:id="rId285"/>
-    <hyperlink ref="M330" r:id="rId286"/>
-    <hyperlink ref="M331" r:id="rId287"/>
-    <hyperlink ref="M332" r:id="rId288"/>
-    <hyperlink ref="M333" r:id="rId289"/>
-    <hyperlink ref="M335" r:id="rId290"/>
-    <hyperlink ref="M336" r:id="rId291"/>
-    <hyperlink ref="M337" r:id="rId292"/>
-    <hyperlink ref="M338" r:id="rId293"/>
-    <hyperlink ref="M339" r:id="rId294"/>
-    <hyperlink ref="M340" r:id="rId295"/>
-    <hyperlink ref="M341" r:id="rId296"/>
-    <hyperlink ref="M342" r:id="rId297"/>
-    <hyperlink ref="M344" r:id="rId298"/>
-    <hyperlink ref="M345" r:id="rId299"/>
-    <hyperlink ref="M346" r:id="rId300"/>
-    <hyperlink ref="M347" r:id="rId301"/>
-    <hyperlink ref="M348" r:id="rId302"/>
-    <hyperlink ref="M349" r:id="rId303"/>
-    <hyperlink ref="M350" r:id="rId304"/>
-    <hyperlink ref="M351" r:id="rId305"/>
-    <hyperlink ref="M352" r:id="rId306"/>
-    <hyperlink ref="M353" r:id="rId307"/>
-    <hyperlink ref="M354" r:id="rId308"/>
-    <hyperlink ref="M355" r:id="rId309"/>
-    <hyperlink ref="M356" r:id="rId310"/>
-    <hyperlink ref="M357" r:id="rId311"/>
-    <hyperlink ref="M358" r:id="rId312"/>
-    <hyperlink ref="M359" r:id="rId313"/>
-    <hyperlink ref="M360" r:id="rId314"/>
-    <hyperlink ref="M361" r:id="rId315"/>
-    <hyperlink ref="M362" r:id="rId316"/>
-    <hyperlink ref="M363" r:id="rId317"/>
-    <hyperlink ref="M364" r:id="rId318"/>
-    <hyperlink ref="M365" r:id="rId319"/>
-    <hyperlink ref="M366" r:id="rId320"/>
-    <hyperlink ref="M367" r:id="rId321"/>
-    <hyperlink ref="M368" r:id="rId322"/>
-    <hyperlink ref="M369" r:id="rId323"/>
-    <hyperlink ref="M370" r:id="rId324"/>
-    <hyperlink ref="M371" r:id="rId325"/>
-    <hyperlink ref="M372" r:id="rId326"/>
-    <hyperlink ref="M373" r:id="rId327"/>
-    <hyperlink ref="M375" r:id="rId328"/>
-    <hyperlink ref="M376" r:id="rId329"/>
-    <hyperlink ref="M377" r:id="rId330"/>
-    <hyperlink ref="M378" r:id="rId331"/>
-    <hyperlink ref="M379" r:id="rId332"/>
-    <hyperlink ref="M381" r:id="rId333"/>
-    <hyperlink ref="M382" r:id="rId334" location=":~:text=The%20West%20Midlands%20has%20declared,pledge%20to%20safeguard%20the%20environment."/>
-    <hyperlink ref="M384" r:id="rId335"/>
-    <hyperlink ref="M385" r:id="rId336"/>
-    <hyperlink ref="M386" r:id="rId337"/>
-    <hyperlink ref="M387" r:id="rId338"/>
-    <hyperlink ref="M388" r:id="rId339"/>
-    <hyperlink ref="M389" r:id="rId340"/>
-    <hyperlink ref="M390" r:id="rId341"/>
-    <hyperlink ref="M391" r:id="rId342"/>
-    <hyperlink ref="M392" r:id="rId343"/>
-    <hyperlink ref="M393" r:id="rId344"/>
-    <hyperlink ref="M394" r:id="rId345"/>
-    <hyperlink ref="M395" r:id="rId346"/>
-    <hyperlink ref="M396" r:id="rId347"/>
-    <hyperlink ref="M397" r:id="rId348"/>
-    <hyperlink ref="M399" r:id="rId349"/>
-    <hyperlink ref="M400" r:id="rId350"/>
-    <hyperlink ref="M402" r:id="rId351" location="AI3743"/>
-    <hyperlink ref="M403" r:id="rId352"/>
-    <hyperlink ref="M404" r:id="rId353"/>
-    <hyperlink ref="M405" r:id="rId354"/>
+    <hyperlink ref="M38" r:id="rId28" location="AI11073"/>
+    <hyperlink ref="M39" r:id="rId29"/>
+    <hyperlink ref="M40" r:id="rId30" location="AI13269"/>
+    <hyperlink ref="M41" r:id="rId31"/>
+    <hyperlink ref="M42" r:id="rId32"/>
+    <hyperlink ref="M44" r:id="rId33"/>
+    <hyperlink ref="M45" r:id="rId34"/>
+    <hyperlink ref="M46" r:id="rId35"/>
+    <hyperlink ref="M47" r:id="rId36"/>
+    <hyperlink ref="M48" r:id="rId37"/>
+    <hyperlink ref="M49" r:id="rId38"/>
+    <hyperlink ref="M50" r:id="rId39"/>
+    <hyperlink ref="M52" r:id="rId40"/>
+    <hyperlink ref="M53" r:id="rId41"/>
+    <hyperlink ref="M54" r:id="rId42"/>
+    <hyperlink ref="M55" r:id="rId43"/>
+    <hyperlink ref="M56" r:id="rId44"/>
+    <hyperlink ref="M58" r:id="rId45"/>
+    <hyperlink ref="M59" r:id="rId46"/>
+    <hyperlink ref="M60" r:id="rId47"/>
+    <hyperlink ref="M61" r:id="rId48"/>
+    <hyperlink ref="M62" r:id="rId49"/>
+    <hyperlink ref="M63" r:id="rId50"/>
+    <hyperlink ref="M64" r:id="rId51"/>
+    <hyperlink ref="M65" r:id="rId52"/>
+    <hyperlink ref="M66" r:id="rId53" location="AI49515"/>
+    <hyperlink ref="M67" r:id="rId54"/>
+    <hyperlink ref="M68" r:id="rId55"/>
+    <hyperlink ref="M69" r:id="rId56"/>
+    <hyperlink ref="M70" r:id="rId57"/>
+    <hyperlink ref="M71" r:id="rId58"/>
+    <hyperlink ref="M72" r:id="rId59"/>
+    <hyperlink ref="M74" r:id="rId60"/>
+    <hyperlink ref="M75" r:id="rId61"/>
+    <hyperlink ref="M76" r:id="rId62"/>
+    <hyperlink ref="M78" r:id="rId63"/>
+    <hyperlink ref="M79" r:id="rId64"/>
+    <hyperlink ref="M80" r:id="rId65"/>
+    <hyperlink ref="M81" r:id="rId66"/>
+    <hyperlink ref="M82" r:id="rId67"/>
+    <hyperlink ref="M83" r:id="rId68"/>
+    <hyperlink ref="M84" r:id="rId69"/>
+    <hyperlink ref="M86" r:id="rId70"/>
+    <hyperlink ref="M87" r:id="rId71"/>
+    <hyperlink ref="M88" r:id="rId72"/>
+    <hyperlink ref="M89" r:id="rId73"/>
+    <hyperlink ref="M90" r:id="rId74"/>
+    <hyperlink ref="M91" r:id="rId75"/>
+    <hyperlink ref="M92" r:id="rId76"/>
+    <hyperlink ref="M93" r:id="rId77"/>
+    <hyperlink ref="M94" r:id="rId78"/>
+    <hyperlink ref="M95" r:id="rId79"/>
+    <hyperlink ref="M96" r:id="rId80"/>
+    <hyperlink ref="M97" r:id="rId81"/>
+    <hyperlink ref="M98" r:id="rId82"/>
+    <hyperlink ref="M99" r:id="rId83"/>
+    <hyperlink ref="M100" r:id="rId84"/>
+    <hyperlink ref="M101" r:id="rId85"/>
+    <hyperlink ref="M103" r:id="rId86"/>
+    <hyperlink ref="M104" r:id="rId87"/>
+    <hyperlink ref="M106" r:id="rId88"/>
+    <hyperlink ref="M107" r:id="rId89"/>
+    <hyperlink ref="M109" r:id="rId90"/>
+    <hyperlink ref="M110" r:id="rId91"/>
+    <hyperlink ref="M111" r:id="rId92"/>
+    <hyperlink ref="M112" r:id="rId93"/>
+    <hyperlink ref="M113" r:id="rId94"/>
+    <hyperlink ref="M114" r:id="rId95"/>
+    <hyperlink ref="M115" r:id="rId96"/>
+    <hyperlink ref="M116" r:id="rId97"/>
+    <hyperlink ref="M117" r:id="rId98"/>
+    <hyperlink ref="M118" r:id="rId99"/>
+    <hyperlink ref="M119" r:id="rId100"/>
+    <hyperlink ref="M120" r:id="rId101"/>
+    <hyperlink ref="M121" r:id="rId102"/>
+    <hyperlink ref="M122" r:id="rId103"/>
+    <hyperlink ref="M124" r:id="rId104"/>
+    <hyperlink ref="M125" r:id="rId105"/>
+    <hyperlink ref="M126" r:id="rId106"/>
+    <hyperlink ref="M128" r:id="rId107"/>
+    <hyperlink ref="M129" r:id="rId108"/>
+    <hyperlink ref="M130" r:id="rId109"/>
+    <hyperlink ref="M131" r:id="rId110"/>
+    <hyperlink ref="M133" r:id="rId111"/>
+    <hyperlink ref="M134" r:id="rId112"/>
+    <hyperlink ref="M135" r:id="rId113"/>
+    <hyperlink ref="M136" r:id="rId114"/>
+    <hyperlink ref="M138" r:id="rId115"/>
+    <hyperlink ref="M140" r:id="rId116"/>
+    <hyperlink ref="M141" r:id="rId117"/>
+    <hyperlink ref="M142" r:id="rId118"/>
+    <hyperlink ref="M143" r:id="rId119"/>
+    <hyperlink ref="M144" r:id="rId120"/>
+    <hyperlink ref="M145" r:id="rId121"/>
+    <hyperlink ref="M146" r:id="rId122"/>
+    <hyperlink ref="M147" r:id="rId123"/>
+    <hyperlink ref="M148" r:id="rId124"/>
+    <hyperlink ref="M149" r:id="rId125"/>
+    <hyperlink ref="M151" r:id="rId126"/>
+    <hyperlink ref="M153" r:id="rId127"/>
+    <hyperlink ref="M154" r:id="rId128"/>
+    <hyperlink ref="M155" r:id="rId129"/>
+    <hyperlink ref="M156" r:id="rId130"/>
+    <hyperlink ref="M157" r:id="rId131"/>
+    <hyperlink ref="M158" r:id="rId132"/>
+    <hyperlink ref="M159" r:id="rId133"/>
+    <hyperlink ref="M161" r:id="rId134"/>
+    <hyperlink ref="M162" r:id="rId135"/>
+    <hyperlink ref="M163" r:id="rId136"/>
+    <hyperlink ref="M164" r:id="rId137"/>
+    <hyperlink ref="M165" r:id="rId138"/>
+    <hyperlink ref="M166" r:id="rId139"/>
+    <hyperlink ref="M167" r:id="rId140"/>
+    <hyperlink ref="M168" r:id="rId141"/>
+    <hyperlink ref="M169" r:id="rId142"/>
+    <hyperlink ref="M170" r:id="rId143"/>
+    <hyperlink ref="M171" r:id="rId144"/>
+    <hyperlink ref="M172" r:id="rId145"/>
+    <hyperlink ref="M173" r:id="rId146"/>
+    <hyperlink ref="M174" r:id="rId147"/>
+    <hyperlink ref="M175" r:id="rId148"/>
+    <hyperlink ref="M176" r:id="rId149"/>
+    <hyperlink ref="M177" r:id="rId150"/>
+    <hyperlink ref="M178" r:id="rId151"/>
+    <hyperlink ref="M180" r:id="rId152"/>
+    <hyperlink ref="M181" r:id="rId153"/>
+    <hyperlink ref="M182" r:id="rId154"/>
+    <hyperlink ref="M183" r:id="rId155"/>
+    <hyperlink ref="M185" r:id="rId156"/>
+    <hyperlink ref="M186" r:id="rId157"/>
+    <hyperlink ref="M187" r:id="rId158"/>
+    <hyperlink ref="M188" r:id="rId159"/>
+    <hyperlink ref="M189" r:id="rId160"/>
+    <hyperlink ref="M190" r:id="rId161"/>
+    <hyperlink ref="M191" r:id="rId162"/>
+    <hyperlink ref="M192" r:id="rId163"/>
+    <hyperlink ref="M193" r:id="rId164"/>
+    <hyperlink ref="M195" r:id="rId165"/>
+    <hyperlink ref="M196" r:id="rId166" location=":~:text=At%20a%20meeting%20of%20Borough,Act%20Environmental%20and%20Sustainability%20Strategy."/>
+    <hyperlink ref="M197" r:id="rId167"/>
+    <hyperlink ref="M198" r:id="rId168"/>
+    <hyperlink ref="M199" r:id="rId169"/>
+    <hyperlink ref="M200" r:id="rId170"/>
+    <hyperlink ref="M201" r:id="rId171"/>
+    <hyperlink ref="M202" r:id="rId172"/>
+    <hyperlink ref="M203" r:id="rId173"/>
+    <hyperlink ref="M204" r:id="rId174"/>
+    <hyperlink ref="M205" r:id="rId175"/>
+    <hyperlink ref="M206" r:id="rId176"/>
+    <hyperlink ref="M207" r:id="rId177"/>
+    <hyperlink ref="M208" r:id="rId178"/>
+    <hyperlink ref="M209" r:id="rId179"/>
+    <hyperlink ref="M210" r:id="rId180"/>
+    <hyperlink ref="M211" r:id="rId181"/>
+    <hyperlink ref="M212" r:id="rId182"/>
+    <hyperlink ref="M213" r:id="rId183"/>
+    <hyperlink ref="M214" r:id="rId184"/>
+    <hyperlink ref="M215" r:id="rId185"/>
+    <hyperlink ref="M216" r:id="rId186"/>
+    <hyperlink ref="M217" r:id="rId187"/>
+    <hyperlink ref="E218" r:id="rId188"/>
+    <hyperlink ref="M219" r:id="rId189"/>
+    <hyperlink ref="M220" r:id="rId190"/>
+    <hyperlink ref="M221" r:id="rId191"/>
+    <hyperlink ref="M223" r:id="rId192"/>
+    <hyperlink ref="M224" r:id="rId193"/>
+    <hyperlink ref="M225" r:id="rId194"/>
+    <hyperlink ref="M226" r:id="rId195"/>
+    <hyperlink ref="M227" r:id="rId196"/>
+    <hyperlink ref="M228" r:id="rId197"/>
+    <hyperlink ref="M229" r:id="rId198"/>
+    <hyperlink ref="M230" r:id="rId199"/>
+    <hyperlink ref="M231" r:id="rId200"/>
+    <hyperlink ref="M232" r:id="rId201"/>
+    <hyperlink ref="M233" r:id="rId202"/>
+    <hyperlink ref="M234" r:id="rId203"/>
+    <hyperlink ref="M236" r:id="rId204"/>
+    <hyperlink ref="M237" r:id="rId205"/>
+    <hyperlink ref="M238" r:id="rId206"/>
+    <hyperlink ref="M239" r:id="rId207"/>
+    <hyperlink ref="M240" r:id="rId208"/>
+    <hyperlink ref="M241" r:id="rId209"/>
+    <hyperlink ref="M242" r:id="rId210"/>
+    <hyperlink ref="M243" r:id="rId211"/>
+    <hyperlink ref="M245" r:id="rId212"/>
+    <hyperlink ref="M246" r:id="rId213"/>
+    <hyperlink ref="M247" r:id="rId214"/>
+    <hyperlink ref="M248" r:id="rId215"/>
+    <hyperlink ref="M249" r:id="rId216"/>
+    <hyperlink ref="M250" r:id="rId217"/>
+    <hyperlink ref="M251" r:id="rId218"/>
+    <hyperlink ref="M253" r:id="rId219"/>
+    <hyperlink ref="M254" r:id="rId220"/>
+    <hyperlink ref="M255" r:id="rId221"/>
+    <hyperlink ref="M256" r:id="rId222"/>
+    <hyperlink ref="M257" r:id="rId223"/>
+    <hyperlink ref="M259" r:id="rId224"/>
+    <hyperlink ref="M260" r:id="rId225"/>
+    <hyperlink ref="M261" r:id="rId226"/>
+    <hyperlink ref="M262" r:id="rId227"/>
+    <hyperlink ref="M263" r:id="rId228"/>
+    <hyperlink ref="M264" r:id="rId229"/>
+    <hyperlink ref="M265" r:id="rId230"/>
+    <hyperlink ref="M266" r:id="rId231"/>
+    <hyperlink ref="M267" r:id="rId232"/>
+    <hyperlink ref="M268" r:id="rId233"/>
+    <hyperlink ref="M269" r:id="rId234"/>
+    <hyperlink ref="M270" r:id="rId235"/>
+    <hyperlink ref="M271" r:id="rId236"/>
+    <hyperlink ref="M272" r:id="rId237"/>
+    <hyperlink ref="M273" r:id="rId238"/>
+    <hyperlink ref="M275" r:id="rId239"/>
+    <hyperlink ref="M277" r:id="rId240"/>
+    <hyperlink ref="M278" r:id="rId241"/>
+    <hyperlink ref="M280" r:id="rId242"/>
+    <hyperlink ref="M281" r:id="rId243"/>
+    <hyperlink ref="M282" r:id="rId244"/>
+    <hyperlink ref="M283" r:id="rId245"/>
+    <hyperlink ref="M284" r:id="rId246"/>
+    <hyperlink ref="M285" r:id="rId247"/>
+    <hyperlink ref="M286" r:id="rId248"/>
+    <hyperlink ref="M287" r:id="rId249"/>
+    <hyperlink ref="M288" r:id="rId250"/>
+    <hyperlink ref="M289" r:id="rId251"/>
+    <hyperlink ref="M290" r:id="rId252"/>
+    <hyperlink ref="M291" r:id="rId253"/>
+    <hyperlink ref="M292" r:id="rId254"/>
+    <hyperlink ref="M293" r:id="rId255"/>
+    <hyperlink ref="M294" r:id="rId256"/>
+    <hyperlink ref="M295" r:id="rId257"/>
+    <hyperlink ref="M296" r:id="rId258"/>
+    <hyperlink ref="M297" r:id="rId259"/>
+    <hyperlink ref="M298" r:id="rId260"/>
+    <hyperlink ref="M301" r:id="rId261" location="AI18587"/>
+    <hyperlink ref="M302" r:id="rId262"/>
+    <hyperlink ref="M303" r:id="rId263"/>
+    <hyperlink ref="M304" r:id="rId264"/>
+    <hyperlink ref="M305" r:id="rId265"/>
+    <hyperlink ref="M306" r:id="rId266"/>
+    <hyperlink ref="M307" r:id="rId267"/>
+    <hyperlink ref="M308" r:id="rId268"/>
+    <hyperlink ref="M310" r:id="rId269"/>
+    <hyperlink ref="M311" r:id="rId270"/>
+    <hyperlink ref="M312" r:id="rId271"/>
+    <hyperlink ref="M313" r:id="rId272"/>
+    <hyperlink ref="M315" r:id="rId273"/>
+    <hyperlink ref="M316" r:id="rId274"/>
+    <hyperlink ref="M317" r:id="rId275"/>
+    <hyperlink ref="M319" r:id="rId276"/>
+    <hyperlink ref="M320" r:id="rId277"/>
+    <hyperlink ref="M321" r:id="rId278"/>
+    <hyperlink ref="M322" r:id="rId279"/>
+    <hyperlink ref="M323" r:id="rId280"/>
+    <hyperlink ref="M324" r:id="rId281"/>
+    <hyperlink ref="M325" r:id="rId282"/>
+    <hyperlink ref="M326" r:id="rId283"/>
+    <hyperlink ref="M327" r:id="rId284"/>
+    <hyperlink ref="M328" r:id="rId285"/>
+    <hyperlink ref="M329" r:id="rId286"/>
+    <hyperlink ref="M330" r:id="rId287"/>
+    <hyperlink ref="M331" r:id="rId288"/>
+    <hyperlink ref="M332" r:id="rId289"/>
+    <hyperlink ref="M333" r:id="rId290"/>
+    <hyperlink ref="M334" r:id="rId291"/>
+    <hyperlink ref="M336" r:id="rId292"/>
+    <hyperlink ref="M337" r:id="rId293"/>
+    <hyperlink ref="M338" r:id="rId294"/>
+    <hyperlink ref="M339" r:id="rId295"/>
+    <hyperlink ref="M340" r:id="rId296"/>
+    <hyperlink ref="M341" r:id="rId297"/>
+    <hyperlink ref="M342" r:id="rId298"/>
+    <hyperlink ref="M343" r:id="rId299"/>
+    <hyperlink ref="M345" r:id="rId300"/>
+    <hyperlink ref="M346" r:id="rId301"/>
+    <hyperlink ref="M347" r:id="rId302"/>
+    <hyperlink ref="M348" r:id="rId303"/>
+    <hyperlink ref="M349" r:id="rId304"/>
+    <hyperlink ref="M350" r:id="rId305"/>
+    <hyperlink ref="M351" r:id="rId306"/>
+    <hyperlink ref="M352" r:id="rId307"/>
+    <hyperlink ref="M353" r:id="rId308"/>
+    <hyperlink ref="M354" r:id="rId309"/>
+    <hyperlink ref="M355" r:id="rId310"/>
+    <hyperlink ref="M356" r:id="rId311"/>
+    <hyperlink ref="M357" r:id="rId312"/>
+    <hyperlink ref="M358" r:id="rId313"/>
+    <hyperlink ref="M359" r:id="rId314"/>
+    <hyperlink ref="M360" r:id="rId315"/>
+    <hyperlink ref="M361" r:id="rId316"/>
+    <hyperlink ref="M362" r:id="rId317"/>
+    <hyperlink ref="M363" r:id="rId318"/>
+    <hyperlink ref="M364" r:id="rId319"/>
+    <hyperlink ref="M365" r:id="rId320"/>
+    <hyperlink ref="M366" r:id="rId321"/>
+    <hyperlink ref="M367" r:id="rId322"/>
+    <hyperlink ref="M368" r:id="rId323"/>
+    <hyperlink ref="M369" r:id="rId324"/>
+    <hyperlink ref="M370" r:id="rId325"/>
+    <hyperlink ref="M371" r:id="rId326"/>
+    <hyperlink ref="M372" r:id="rId327"/>
+    <hyperlink ref="M373" r:id="rId328"/>
+    <hyperlink ref="M374" r:id="rId329"/>
+    <hyperlink ref="M376" r:id="rId330"/>
+    <hyperlink ref="M377" r:id="rId331"/>
+    <hyperlink ref="M378" r:id="rId332"/>
+    <hyperlink ref="M379" r:id="rId333"/>
+    <hyperlink ref="M380" r:id="rId334"/>
+    <hyperlink ref="M382" r:id="rId335"/>
+    <hyperlink ref="M383" r:id="rId336" location=":~:text=The%20West%20Midlands%20has%20declared,pledge%20to%20safeguard%20the%20environment."/>
+    <hyperlink ref="M385" r:id="rId337"/>
+    <hyperlink ref="M386" r:id="rId338"/>
+    <hyperlink ref="M387" r:id="rId339"/>
+    <hyperlink ref="M388" r:id="rId340"/>
+    <hyperlink ref="M389" r:id="rId341"/>
+    <hyperlink ref="M390" r:id="rId342"/>
+    <hyperlink ref="M391" r:id="rId343"/>
+    <hyperlink ref="M392" r:id="rId344"/>
+    <hyperlink ref="M393" r:id="rId345"/>
+    <hyperlink ref="M394" r:id="rId346"/>
+    <hyperlink ref="M395" r:id="rId347"/>
+    <hyperlink ref="M396" r:id="rId348"/>
+    <hyperlink ref="M397" r:id="rId349"/>
+    <hyperlink ref="M398" r:id="rId350"/>
+    <hyperlink ref="M400" r:id="rId351"/>
+    <hyperlink ref="M401" r:id="rId352"/>
+    <hyperlink ref="M403" r:id="rId353" location="AI3743"/>
+    <hyperlink ref="M404" r:id="rId354"/>
+    <hyperlink ref="M405" r:id="rId355"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26401,22 +26411,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>2136</v>
+        <v>2139</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2137</v>
+        <v>2140</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2138</v>
+        <v>2141</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2139</v>
+        <v>2142</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2140</v>
+        <v>2143</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>2141</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -26424,10 +26434,10 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>2142</v>
+        <v>2145</v>
       </c>
       <c r="C2" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
@@ -26441,10 +26451,10 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>2143</v>
+        <v>2146</v>
       </c>
       <c r="C3" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="D3" t="s">
         <v>438</v>
@@ -26458,10 +26468,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>2144</v>
+        <v>2147</v>
       </c>
       <c r="C4" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="D4" t="s">
         <v>842</v>
@@ -26475,10 +26485,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>2145</v>
+        <v>2148</v>
       </c>
       <c r="C5" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="D5" t="s">
         <v>862</v>
@@ -26492,10 +26502,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>2146</v>
+        <v>2149</v>
       </c>
       <c r="C6" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="D6" t="s">
         <v>1032</v>
@@ -26509,10 +26519,10 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>2147</v>
+        <v>2150</v>
       </c>
       <c r="C7" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="D7" t="s">
         <v>1056</v>
@@ -26526,10 +26536,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>2148</v>
+        <v>2151</v>
       </c>
       <c r="C8" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="D8" t="s">
         <v>1056</v>
@@ -26543,10 +26553,10 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>2149</v>
+        <v>2152</v>
       </c>
       <c r="C9" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="D9" t="s">
         <v>1059</v>
@@ -26560,10 +26570,10 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>2150</v>
+        <v>2153</v>
       </c>
       <c r="C10" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="D10" t="s">
         <v>1056</v>
@@ -26577,10 +26587,10 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>2151</v>
+        <v>2154</v>
       </c>
       <c r="C11" t="s">
-        <v>2161</v>
+        <v>2164</v>
       </c>
       <c r="D11">
         <v>2045</v>
@@ -26594,10 +26604,10 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>2152</v>
+        <v>2155</v>
       </c>
       <c r="C12" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="D12" t="s">
         <v>1281</v>
@@ -26611,10 +26621,10 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>2153</v>
+        <v>2156</v>
       </c>
       <c r="C13" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="D13" t="s">
         <v>1354</v>
@@ -26628,10 +26638,10 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>2154</v>
+        <v>2157</v>
       </c>
       <c r="C14" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>1358</v>
@@ -26645,13 +26655,13 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>2155</v>
+        <v>2158</v>
       </c>
       <c r="C15" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="D15" t="s">
-        <v>1710</v>
+        <v>1713</v>
       </c>
       <c r="E15" t="s">
         <v>1056</v>
@@ -26662,13 +26672,13 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>2156</v>
+        <v>2159</v>
       </c>
       <c r="C16" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="D16" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="E16" t="s">
         <v>1056</v>
@@ -26679,13 +26689,13 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>2157</v>
+        <v>2160</v>
       </c>
       <c r="C17" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="D17" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
       <c r="E17" t="s">
         <v>1056</v>
@@ -26696,10 +26706,10 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>2158</v>
+        <v>2161</v>
       </c>
       <c r="C18" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="D18" t="s">
         <v>420</v>
@@ -26713,10 +26723,10 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>2159</v>
+        <v>2162</v>
       </c>
       <c r="C19" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="D19" t="s">
         <v>335</v>

--- a/docs/data/local_authority_climate_emergency_declarations/latest/local_authority_climate_emergency_declarations.xlsx
+++ b/docs/data/local_authority_climate_emergency_declarations/latest/local_authority_climate_emergency_declarations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5849" uniqueCount="2166">
   <si>
     <t>Dataset</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Contributors</t>
@@ -4745,6 +4745,9 @@
   </si>
   <si>
     <t>https://minutes-1.nwleics.gov.uk/ieListDocuments.aspx?CId=129&amp;MId=1915&amp;Ver=4</t>
+  </si>
+  <si>
+    <t>https://edemocracy.northyorks.gov.uk/ieListDocuments.aspx?CId=1147&amp;MId=6413&amp;Ver=4</t>
   </si>
   <si>
     <t>https://northumberland.moderngov.co.uk/CeListDocuments.aspx?CommitteeId=140&amp;MeetingId=214&amp;DF=11%2f06%2f2019&amp;Ver=2</t>
@@ -7102,13 +7105,13 @@
         <v>1358</v>
       </c>
       <c r="N2" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="O2" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P2" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -7143,13 +7146,13 @@
         <v>1359</v>
       </c>
       <c r="N3" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="O3" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P3" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -7190,13 +7193,13 @@
         <v>1360</v>
       </c>
       <c r="N4" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="O4" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P4" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q4" t="s">
         <v>420</v>
@@ -7240,13 +7243,13 @@
         <v>1361</v>
       </c>
       <c r="N5" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="O5" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P5" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q5" t="s">
         <v>119</v>
@@ -7290,13 +7293,13 @@
         <v>1362</v>
       </c>
       <c r="N6" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="O6" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P6" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q6" t="s">
         <v>125</v>
@@ -7340,13 +7343,13 @@
         <v>1363</v>
       </c>
       <c r="N7" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="O7" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P7" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -7372,13 +7375,13 @@
         <v>1364</v>
       </c>
       <c r="N8" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="O8" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="P8" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -7416,13 +7419,13 @@
         <v>1365</v>
       </c>
       <c r="N9" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="O9" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="P9" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -7460,13 +7463,13 @@
         <v>1366</v>
       </c>
       <c r="N10" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="O10" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P10" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -7492,13 +7495,13 @@
         <v>1364</v>
       </c>
       <c r="N11" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="O11" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="P11" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -7539,13 +7542,13 @@
         <v>1367</v>
       </c>
       <c r="N12" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="O12" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P12" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q12" t="s">
         <v>420</v>
@@ -7574,13 +7577,13 @@
         <v>1364</v>
       </c>
       <c r="N13" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="O13" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P13" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q13" t="s">
         <v>289</v>
@@ -7618,13 +7621,13 @@
         <v>1368</v>
       </c>
       <c r="N14" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="O14" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P14" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q14" t="s">
         <v>200</v>
@@ -7668,13 +7671,13 @@
         <v>1369</v>
       </c>
       <c r="N15" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="O15" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P15" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q15" t="s">
         <v>371</v>
@@ -7718,13 +7721,13 @@
         <v>1370</v>
       </c>
       <c r="N16" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="O16" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="P16" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R16" t="s">
         <v>335</v>
@@ -7768,13 +7771,13 @@
         <v>1371</v>
       </c>
       <c r="N17" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="O17" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P17" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q17" t="s">
         <v>119</v>
@@ -7806,13 +7809,13 @@
         <v>1364</v>
       </c>
       <c r="N18" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="O18" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P18" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q18" t="s">
         <v>157</v>
@@ -7856,13 +7859,13 @@
         <v>1372</v>
       </c>
       <c r="N19" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="O19" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P19" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q19" t="s">
         <v>179</v>
@@ -7891,13 +7894,13 @@
         <v>1364</v>
       </c>
       <c r="N20" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="O20" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P20" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q20" t="s">
         <v>289</v>
@@ -7941,13 +7944,13 @@
         <v>1373</v>
       </c>
       <c r="N21" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="O21" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P21" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="R21" t="s">
         <v>417</v>
@@ -7991,13 +7994,13 @@
         <v>1374</v>
       </c>
       <c r="N22" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="O22" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P22" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -8035,13 +8038,13 @@
         <v>1375</v>
       </c>
       <c r="N23" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="O23" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="P23" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -8082,13 +8085,13 @@
         <v>1376</v>
       </c>
       <c r="N24" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="O24" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P24" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R24" t="s">
         <v>415</v>
@@ -8120,13 +8123,13 @@
         <v>1364</v>
       </c>
       <c r="N25" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="O25" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P25" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q25" t="s">
         <v>208</v>
@@ -8170,13 +8173,13 @@
         <v>1377</v>
       </c>
       <c r="N26" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="O26" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P26" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -8217,13 +8220,13 @@
         <v>1378</v>
       </c>
       <c r="N27" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="O27" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P27" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -8264,13 +8267,13 @@
         <v>1379</v>
       </c>
       <c r="N28" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="O28" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="P28" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -8299,13 +8302,13 @@
         <v>1364</v>
       </c>
       <c r="N29" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="O29" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P29" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q29" t="s">
         <v>125</v>
@@ -8349,13 +8352,13 @@
         <v>1380</v>
       </c>
       <c r="N30" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="O30" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P30" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R30" t="s">
         <v>174</v>
@@ -8399,13 +8402,13 @@
         <v>1381</v>
       </c>
       <c r="N31" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="O31" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P31" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q31" t="s">
         <v>212</v>
@@ -8449,13 +8452,13 @@
         <v>1382</v>
       </c>
       <c r="N32" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="O32" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P32" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -8484,13 +8487,13 @@
         <v>1364</v>
       </c>
       <c r="N33" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="O33" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P33" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -8531,13 +8534,13 @@
         <v>1383</v>
       </c>
       <c r="N34" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="O34" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="P34" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R34" t="s">
         <v>421</v>
@@ -8581,13 +8584,13 @@
         <v>1384</v>
       </c>
       <c r="N35" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="O35" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P35" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q35" t="s">
         <v>157</v>
@@ -8631,13 +8634,13 @@
         <v>1385</v>
       </c>
       <c r="N36" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="O36" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P36" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q36" t="s">
         <v>268</v>
@@ -8669,13 +8672,13 @@
         <v>1364</v>
       </c>
       <c r="N37" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="O37" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P37" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q37" t="s">
         <v>157</v>
@@ -8719,13 +8722,13 @@
         <v>1386</v>
       </c>
       <c r="N38" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="O38" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="P38" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -8766,13 +8769,13 @@
         <v>1387</v>
       </c>
       <c r="N39" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="O39" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P39" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -8813,13 +8816,13 @@
         <v>1388</v>
       </c>
       <c r="N40" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="O40" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P40" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="R40" t="s">
         <v>417</v>
@@ -8851,13 +8854,13 @@
         <v>1389</v>
       </c>
       <c r="N41" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="O41" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P41" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q41" t="s">
         <v>268</v>
@@ -8898,13 +8901,13 @@
         <v>1390</v>
       </c>
       <c r="N42" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="O42" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P42" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q42" t="s">
         <v>431</v>
@@ -8933,13 +8936,13 @@
         <v>1364</v>
       </c>
       <c r="N43" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="O43" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P43" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q43" t="s">
         <v>188</v>
@@ -8983,13 +8986,13 @@
         <v>1391</v>
       </c>
       <c r="N44" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="O44" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P44" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q44" t="s">
         <v>289</v>
@@ -9033,13 +9036,13 @@
         <v>1392</v>
       </c>
       <c r="N45" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="O45" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P45" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -9080,13 +9083,13 @@
         <v>1393</v>
       </c>
       <c r="N46" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="O46" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P46" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q46" t="s">
         <v>204</v>
@@ -9130,13 +9133,13 @@
         <v>1394</v>
       </c>
       <c r="N47" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="O47" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P47" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R47" t="s">
         <v>174</v>
@@ -9180,13 +9183,13 @@
         <v>1395</v>
       </c>
       <c r="N48" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="O48" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="P48" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -9227,13 +9230,13 @@
         <v>1396</v>
       </c>
       <c r="N49" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="O49" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="P49" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R49" t="s">
         <v>421</v>
@@ -9277,13 +9280,13 @@
         <v>1397</v>
       </c>
       <c r="N50" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="O50" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P50" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q50" t="s">
         <v>86</v>
@@ -9318,13 +9321,13 @@
         <v>1364</v>
       </c>
       <c r="N51" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="O51" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P51" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -9365,13 +9368,13 @@
         <v>1398</v>
       </c>
       <c r="N52" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="O52" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P52" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="R52" t="s">
         <v>85</v>
@@ -9415,13 +9418,13 @@
         <v>1399</v>
       </c>
       <c r="N53" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="O53" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P53" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q53" t="s">
         <v>362</v>
@@ -9462,13 +9465,13 @@
         <v>1400</v>
       </c>
       <c r="N54" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="O54" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P54" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q54" t="s">
         <v>200</v>
@@ -9512,13 +9515,13 @@
         <v>1401</v>
       </c>
       <c r="N55" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="O55" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P55" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q55" t="s">
         <v>119</v>
@@ -9562,13 +9565,13 @@
         <v>1402</v>
       </c>
       <c r="N56" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="O56" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="P56" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -9594,13 +9597,13 @@
         <v>1364</v>
       </c>
       <c r="N57" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="O57" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P57" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q57" t="s">
         <v>157</v>
@@ -9641,13 +9644,13 @@
         <v>1403</v>
       </c>
       <c r="N58" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="O58" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="P58" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -9688,13 +9691,13 @@
         <v>1404</v>
       </c>
       <c r="N59" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="O59" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P59" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -9735,13 +9738,13 @@
         <v>1405</v>
       </c>
       <c r="N60" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="O60" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="P60" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -9782,13 +9785,13 @@
         <v>1406</v>
       </c>
       <c r="N61" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="O61" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P61" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q61" t="s">
         <v>208</v>
@@ -9832,13 +9835,13 @@
         <v>1407</v>
       </c>
       <c r="N62" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="O62" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P62" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q62" t="s">
         <v>157</v>
@@ -9882,13 +9885,13 @@
         <v>1408</v>
       </c>
       <c r="N63" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="O63" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P63" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q63" t="s">
         <v>170</v>
@@ -9932,13 +9935,13 @@
         <v>1409</v>
       </c>
       <c r="N64" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="O64" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P64" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q64" t="s">
         <v>295</v>
@@ -9982,13 +9985,13 @@
         <v>1410</v>
       </c>
       <c r="N65" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="O65" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P65" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -10029,13 +10032,13 @@
         <v>1411</v>
       </c>
       <c r="N66" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="O66" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P66" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -10076,13 +10079,13 @@
         <v>1412</v>
       </c>
       <c r="N67" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="O67" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P67" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q67" t="s">
         <v>125</v>
@@ -10123,13 +10126,13 @@
         <v>1413</v>
       </c>
       <c r="N68" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="O68" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P68" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q68" t="s">
         <v>420</v>
@@ -10173,13 +10176,13 @@
         <v>1414</v>
       </c>
       <c r="N69" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="O69" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P69" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q69" t="s">
         <v>204</v>
@@ -10223,13 +10226,13 @@
         <v>1415</v>
       </c>
       <c r="N70" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="O70" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="P70" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -10270,13 +10273,13 @@
         <v>1416</v>
       </c>
       <c r="N71" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="O71" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="P71" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -10317,13 +10320,13 @@
         <v>1417</v>
       </c>
       <c r="N72" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="O72" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P72" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -10352,13 +10355,13 @@
         <v>1364</v>
       </c>
       <c r="N73" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="O73" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P73" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="R73" t="s">
         <v>437</v>
@@ -10402,13 +10405,13 @@
         <v>1418</v>
       </c>
       <c r="N74" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="O74" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="P74" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -10446,13 +10449,13 @@
         <v>1419</v>
       </c>
       <c r="N75" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="O75" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P75" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -10493,13 +10496,13 @@
         <v>1420</v>
       </c>
       <c r="N76" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="O76" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P76" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q76" t="s">
         <v>157</v>
@@ -10528,13 +10531,13 @@
         <v>1364</v>
       </c>
       <c r="N77" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="O77" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P77" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -10575,13 +10578,13 @@
         <v>1421</v>
       </c>
       <c r="N78" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="O78" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="P78" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -10619,13 +10622,13 @@
         <v>1422</v>
       </c>
       <c r="N79" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="O79" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P79" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q79" t="s">
         <v>119</v>
@@ -10669,13 +10672,13 @@
         <v>1423</v>
       </c>
       <c r="N80" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="O80" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P80" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -10716,13 +10719,13 @@
         <v>1424</v>
       </c>
       <c r="N81" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="O81" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P81" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q81" t="s">
         <v>170</v>
@@ -10763,13 +10766,13 @@
         <v>1425</v>
       </c>
       <c r="N82" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="O82" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P82" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R82" t="s">
         <v>415</v>
@@ -10813,13 +10816,13 @@
         <v>1426</v>
       </c>
       <c r="N83" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="O83" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="P83" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q83" t="s">
         <v>285</v>
@@ -10863,13 +10866,13 @@
         <v>1427</v>
       </c>
       <c r="N84" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="O84" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P84" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q84" t="s">
         <v>420</v>
@@ -10901,13 +10904,13 @@
         <v>1364</v>
       </c>
       <c r="N85" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="O85" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P85" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -10945,13 +10948,13 @@
         <v>1428</v>
       </c>
       <c r="N86" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="O86" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P86" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q86" t="s">
         <v>188</v>
@@ -10995,16 +10998,16 @@
         <v>1429</v>
       </c>
       <c r="N87" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="O87" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="P87" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="R87" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -11045,13 +11048,13 @@
         <v>1430</v>
       </c>
       <c r="N88" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="O88" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P88" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q88" t="s">
         <v>200</v>
@@ -11092,13 +11095,13 @@
         <v>1431</v>
       </c>
       <c r="N89" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="O89" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="P89" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -11136,13 +11139,13 @@
         <v>1432</v>
       </c>
       <c r="N90" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="O90" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P90" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -11183,13 +11186,13 @@
         <v>1433</v>
       </c>
       <c r="N91" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="O91" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P91" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -11230,13 +11233,13 @@
         <v>1434</v>
       </c>
       <c r="N92" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="O92" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P92" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q92" t="s">
         <v>125</v>
@@ -11280,13 +11283,13 @@
         <v>1435</v>
       </c>
       <c r="N93" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="O93" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="P93" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -11327,13 +11330,13 @@
         <v>1436</v>
       </c>
       <c r="N94" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="O94" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P94" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -11374,13 +11377,13 @@
         <v>1437</v>
       </c>
       <c r="N95" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="O95" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="P95" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R95" t="s">
         <v>335</v>
@@ -11424,13 +11427,13 @@
         <v>1438</v>
       </c>
       <c r="N96" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="O96" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P96" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -11471,13 +11474,13 @@
         <v>1439</v>
       </c>
       <c r="N97" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="O97" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P97" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q97" t="s">
         <v>200</v>
@@ -11521,13 +11524,13 @@
         <v>1440</v>
       </c>
       <c r="N98" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="O98" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P98" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R98" t="s">
         <v>415</v>
@@ -11571,13 +11574,13 @@
         <v>1441</v>
       </c>
       <c r="N99" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="O99" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P99" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -11618,13 +11621,13 @@
         <v>1442</v>
       </c>
       <c r="N100" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="O100" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P100" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -11665,13 +11668,13 @@
         <v>1443</v>
       </c>
       <c r="N101" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="O101" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="P101" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="R101" t="s">
         <v>271</v>
@@ -11700,13 +11703,13 @@
         <v>1364</v>
       </c>
       <c r="N102" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="O102" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P102" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -11747,13 +11750,13 @@
         <v>1444</v>
       </c>
       <c r="N103" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="O103" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P103" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q103" t="s">
         <v>86</v>
@@ -11800,13 +11803,13 @@
         <v>1445</v>
       </c>
       <c r="N104" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="O104" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P104" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q104" t="s">
         <v>128</v>
@@ -11835,13 +11838,13 @@
         <v>1364</v>
       </c>
       <c r="N105" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="O105" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P105" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -11882,13 +11885,13 @@
         <v>1446</v>
       </c>
       <c r="N106" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="O106" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P106" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q106" t="s">
         <v>179</v>
@@ -11932,13 +11935,13 @@
         <v>1447</v>
       </c>
       <c r="N107" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="O107" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P107" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q107" t="s">
         <v>188</v>
@@ -11970,13 +11973,13 @@
         <v>1364</v>
       </c>
       <c r="N108" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="O108" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P108" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q108" t="s">
         <v>212</v>
@@ -12020,13 +12023,13 @@
         <v>1448</v>
       </c>
       <c r="N109" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="O109" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P109" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -12067,13 +12070,13 @@
         <v>1449</v>
       </c>
       <c r="N110" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="O110" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P110" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -12114,13 +12117,13 @@
         <v>1450</v>
       </c>
       <c r="N111" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="O111" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="P111" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -12161,13 +12164,13 @@
         <v>1451</v>
       </c>
       <c r="N112" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="O112" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P112" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q112" t="s">
         <v>362</v>
@@ -12211,13 +12214,13 @@
         <v>1452</v>
       </c>
       <c r="N113" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="O113" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P113" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q113" t="s">
         <v>371</v>
@@ -12261,13 +12264,13 @@
         <v>1453</v>
       </c>
       <c r="N114" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="O114" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P114" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -12308,13 +12311,13 @@
         <v>1454</v>
       </c>
       <c r="N115" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="O115" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P115" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q115" t="s">
         <v>148</v>
@@ -12358,13 +12361,13 @@
         <v>1455</v>
       </c>
       <c r="N116" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="O116" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P116" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q116" t="s">
         <v>179</v>
@@ -12408,13 +12411,13 @@
         <v>1456</v>
       </c>
       <c r="N117" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="O117" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P117" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q117" t="s">
         <v>119</v>
@@ -12458,13 +12461,13 @@
         <v>1457</v>
       </c>
       <c r="N118" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="O118" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P118" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -12505,13 +12508,13 @@
         <v>1458</v>
       </c>
       <c r="N119" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="O119" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P119" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q119" t="s">
         <v>373</v>
@@ -12555,13 +12558,13 @@
         <v>1459</v>
       </c>
       <c r="N120" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="O120" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P120" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q120" t="s">
         <v>157</v>
@@ -12605,13 +12608,13 @@
         <v>1460</v>
       </c>
       <c r="N121" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="O121" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P121" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q121" t="s">
         <v>373</v>
@@ -12655,13 +12658,13 @@
         <v>1461</v>
       </c>
       <c r="N122" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="O122" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P122" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q122" t="s">
         <v>125</v>
@@ -12696,13 +12699,13 @@
         <v>1364</v>
       </c>
       <c r="N123" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="O123" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P123" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -12743,13 +12746,13 @@
         <v>1462</v>
       </c>
       <c r="N124" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="O124" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P124" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q124" t="s">
         <v>128</v>
@@ -12793,13 +12796,13 @@
         <v>1463</v>
       </c>
       <c r="N125" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="O125" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P125" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -12840,13 +12843,13 @@
         <v>1464</v>
       </c>
       <c r="N126" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="O126" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P126" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q126" t="s">
         <v>179</v>
@@ -12875,13 +12878,13 @@
         <v>1364</v>
       </c>
       <c r="N127" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="O127" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P127" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q127" t="s">
         <v>86</v>
@@ -12925,13 +12928,13 @@
         <v>1465</v>
       </c>
       <c r="N128" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="O128" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="P128" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -12972,13 +12975,13 @@
         <v>1466</v>
       </c>
       <c r="N129" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="O129" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P129" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -13019,13 +13022,13 @@
         <v>1467</v>
       </c>
       <c r="N130" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="O130" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P130" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q130" t="s">
         <v>200</v>
@@ -13069,13 +13072,13 @@
         <v>1468</v>
       </c>
       <c r="N131" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="O131" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P131" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q131" t="s">
         <v>170</v>
@@ -13104,13 +13107,13 @@
         <v>1364</v>
       </c>
       <c r="N132" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="O132" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P132" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q132" t="s">
         <v>204</v>
@@ -13154,13 +13157,13 @@
         <v>1469</v>
       </c>
       <c r="N133" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="O133" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="P133" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R133" t="s">
         <v>271</v>
@@ -13204,13 +13207,13 @@
         <v>1470</v>
       </c>
       <c r="N134" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="O134" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P134" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q134" t="s">
         <v>289</v>
@@ -13254,13 +13257,13 @@
         <v>1471</v>
       </c>
       <c r="N135" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="O135" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P135" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q135" t="s">
         <v>170</v>
@@ -13304,13 +13307,13 @@
         <v>1472</v>
       </c>
       <c r="N136" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="O136" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P136" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -13339,13 +13342,13 @@
         <v>1364</v>
       </c>
       <c r="N137" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="O137" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P137" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q137" t="s">
         <v>179</v>
@@ -13389,13 +13392,13 @@
         <v>1473</v>
       </c>
       <c r="N138" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="O138" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P138" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q138" t="s">
         <v>200</v>
@@ -13424,13 +13427,13 @@
         <v>1364</v>
       </c>
       <c r="N139" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="O139" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P139" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q139" t="s">
         <v>268</v>
@@ -13474,13 +13477,13 @@
         <v>1474</v>
       </c>
       <c r="N140" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="O140" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P140" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -13521,13 +13524,13 @@
         <v>1475</v>
       </c>
       <c r="N141" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="O141" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P141" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q141" t="s">
         <v>373</v>
@@ -13571,13 +13574,13 @@
         <v>1476</v>
       </c>
       <c r="N142" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="O142" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="P142" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -13615,13 +13618,13 @@
         <v>1477</v>
       </c>
       <c r="N143" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="O143" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P143" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="R143" t="s">
         <v>214</v>
@@ -13665,13 +13668,13 @@
         <v>1478</v>
       </c>
       <c r="N144" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="O144" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="P144" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q144" t="s">
         <v>285</v>
@@ -13715,13 +13718,13 @@
         <v>1479</v>
       </c>
       <c r="N145" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="O145" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P145" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -13762,13 +13765,13 @@
         <v>1480</v>
       </c>
       <c r="N146" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="O146" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P146" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q146" t="s">
         <v>208</v>
@@ -13809,13 +13812,13 @@
         <v>1481</v>
       </c>
       <c r="N147" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="O147" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P147" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q147" t="s">
         <v>157</v>
@@ -13862,13 +13865,13 @@
         <v>1482</v>
       </c>
       <c r="N148" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="O148" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="P148" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q148" t="s">
         <v>285</v>
@@ -13915,13 +13918,13 @@
         <v>1483</v>
       </c>
       <c r="N149" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="O149" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P149" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q149" t="s">
         <v>179</v>
@@ -13950,16 +13953,16 @@
         <v>1364</v>
       </c>
       <c r="N150" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="O150" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="P150" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="R150" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -14000,13 +14003,13 @@
         <v>1484</v>
       </c>
       <c r="N151" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O151" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P151" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q151" t="s">
         <v>148</v>
@@ -14035,13 +14038,13 @@
         <v>1364</v>
       </c>
       <c r="N152" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="O152" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P152" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q152" t="s">
         <v>179</v>
@@ -14085,13 +14088,13 @@
         <v>1485</v>
       </c>
       <c r="N153" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="O153" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P153" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -14132,13 +14135,13 @@
         <v>1486</v>
       </c>
       <c r="N154" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="O154" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P154" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -14179,13 +14182,13 @@
         <v>1487</v>
       </c>
       <c r="N155" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="O155" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P155" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q155" t="s">
         <v>188</v>
@@ -14229,13 +14232,13 @@
         <v>1488</v>
       </c>
       <c r="N156" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="O156" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P156" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q156" t="s">
         <v>125</v>
@@ -14279,13 +14282,13 @@
         <v>1489</v>
       </c>
       <c r="N157" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="O157" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P157" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q157" t="s">
         <v>208</v>
@@ -14329,13 +14332,13 @@
         <v>1490</v>
       </c>
       <c r="N158" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="O158" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P158" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q158" t="s">
         <v>420</v>
@@ -14379,13 +14382,13 @@
         <v>1491</v>
       </c>
       <c r="N159" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="O159" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="P159" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -14411,13 +14414,13 @@
         <v>1364</v>
       </c>
       <c r="N160" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="O160" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P160" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q160" t="s">
         <v>86</v>
@@ -14464,13 +14467,13 @@
         <v>1492</v>
       </c>
       <c r="N161" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="O161" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P161" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q161" t="s">
         <v>204</v>
@@ -14514,13 +14517,13 @@
         <v>1493</v>
       </c>
       <c r="N162" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="O162" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P162" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q162" t="s">
         <v>371</v>
@@ -14564,13 +14567,13 @@
         <v>1494</v>
       </c>
       <c r="N163" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="O163" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="P163" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -14611,13 +14614,13 @@
         <v>1495</v>
       </c>
       <c r="N164" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="O164" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P164" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -14658,13 +14661,13 @@
         <v>1496</v>
       </c>
       <c r="N165" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="O165" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P165" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -14705,13 +14708,13 @@
         <v>1497</v>
       </c>
       <c r="N166" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="O166" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P166" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -14784,13 +14787,13 @@
         <v>1499</v>
       </c>
       <c r="N168" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="O168" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P168" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q168" t="s">
         <v>268</v>
@@ -14834,13 +14837,13 @@
         <v>1500</v>
       </c>
       <c r="N169" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="O169" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="P169" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R169" t="s">
         <v>421</v>
@@ -14884,13 +14887,13 @@
         <v>1501</v>
       </c>
       <c r="N170" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="O170" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P170" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R170" t="s">
         <v>214</v>
@@ -14934,13 +14937,13 @@
         <v>1502</v>
       </c>
       <c r="N171" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="O171" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P171" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -14981,13 +14984,13 @@
         <v>1503</v>
       </c>
       <c r="N172" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="O172" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P172" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q172" t="s">
         <v>204</v>
@@ -15031,13 +15034,13 @@
         <v>1504</v>
       </c>
       <c r="N173" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="O173" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="P173" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R173" t="s">
         <v>421</v>
@@ -15081,13 +15084,13 @@
         <v>1505</v>
       </c>
       <c r="N174" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="O174" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P174" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -15128,13 +15131,13 @@
         <v>1506</v>
       </c>
       <c r="N175" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="O175" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P175" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -15175,13 +15178,13 @@
         <v>1507</v>
       </c>
       <c r="N176" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="O176" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P176" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q176" t="s">
         <v>148</v>
@@ -15222,13 +15225,13 @@
         <v>1508</v>
       </c>
       <c r="N177" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="O177" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P177" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q177" t="s">
         <v>362</v>
@@ -15272,13 +15275,13 @@
         <v>1509</v>
       </c>
       <c r="N178" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="O178" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P178" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q178" t="s">
         <v>212</v>
@@ -15310,13 +15313,13 @@
         <v>1364</v>
       </c>
       <c r="N179" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="O179" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="P179" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -15357,13 +15360,13 @@
         <v>1510</v>
       </c>
       <c r="N180" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="O180" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P180" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R180" t="s">
         <v>214</v>
@@ -15407,13 +15410,13 @@
         <v>1511</v>
       </c>
       <c r="N181" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="O181" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P181" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -15454,13 +15457,13 @@
         <v>1512</v>
       </c>
       <c r="N182" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="O182" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P182" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R182" t="s">
         <v>437</v>
@@ -15501,13 +15504,13 @@
         <v>1513</v>
       </c>
       <c r="N183" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="O183" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P183" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R183" t="s">
         <v>437</v>
@@ -15539,13 +15542,13 @@
         <v>1364</v>
       </c>
       <c r="N184" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="O184" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P184" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R184" t="s">
         <v>437</v>
@@ -15589,13 +15592,13 @@
         <v>1514</v>
       </c>
       <c r="N185" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="O185" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P185" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R185" t="s">
         <v>437</v>
@@ -15639,13 +15642,13 @@
         <v>1515</v>
       </c>
       <c r="N186" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="O186" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P186" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R186" t="s">
         <v>437</v>
@@ -15689,13 +15692,13 @@
         <v>1516</v>
       </c>
       <c r="N187" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="O187" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P187" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R187" t="s">
         <v>437</v>
@@ -15739,13 +15742,13 @@
         <v>1517</v>
       </c>
       <c r="N188" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="O188" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P188" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R188" t="s">
         <v>437</v>
@@ -15789,13 +15792,13 @@
         <v>1518</v>
       </c>
       <c r="N189" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="O189" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P189" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R189" t="s">
         <v>437</v>
@@ -15839,13 +15842,13 @@
         <v>1519</v>
       </c>
       <c r="N190" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="O190" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P190" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R190" t="s">
         <v>437</v>
@@ -15889,13 +15892,13 @@
         <v>1520</v>
       </c>
       <c r="N191" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="O191" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P191" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R191" t="s">
         <v>437</v>
@@ -15939,13 +15942,13 @@
         <v>1521</v>
       </c>
       <c r="N192" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="O192" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P192" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R192" t="s">
         <v>437</v>
@@ -15989,13 +15992,13 @@
         <v>1522</v>
       </c>
       <c r="N193" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="O193" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P193" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R193" t="s">
         <v>437</v>
@@ -16027,13 +16030,13 @@
         <v>1364</v>
       </c>
       <c r="N194" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="O194" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P194" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R194" t="s">
         <v>437</v>
@@ -16077,13 +16080,13 @@
         <v>1523</v>
       </c>
       <c r="N195" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="O195" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P195" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R195" t="s">
         <v>437</v>
@@ -16124,13 +16127,13 @@
         <v>1524</v>
       </c>
       <c r="N196" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="O196" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P196" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R196" t="s">
         <v>437</v>
@@ -16174,13 +16177,13 @@
         <v>1525</v>
       </c>
       <c r="N197" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="O197" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P197" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R197" t="s">
         <v>437</v>
@@ -16224,13 +16227,13 @@
         <v>1526</v>
       </c>
       <c r="N198" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="O198" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P198" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R198" t="s">
         <v>437</v>
@@ -16274,13 +16277,13 @@
         <v>1527</v>
       </c>
       <c r="N199" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="O199" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P199" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R199" t="s">
         <v>437</v>
@@ -16324,13 +16327,13 @@
         <v>1528</v>
       </c>
       <c r="N200" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="O200" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P200" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R200" t="s">
         <v>437</v>
@@ -16374,13 +16377,13 @@
         <v>1529</v>
       </c>
       <c r="N201" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="O201" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P201" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R201" t="s">
         <v>437</v>
@@ -16424,13 +16427,13 @@
         <v>1530</v>
       </c>
       <c r="N202" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="O202" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P202" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R202" t="s">
         <v>437</v>
@@ -16474,13 +16477,13 @@
         <v>1531</v>
       </c>
       <c r="N203" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="O203" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P203" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R203" t="s">
         <v>437</v>
@@ -16524,13 +16527,13 @@
         <v>1532</v>
       </c>
       <c r="N204" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="O204" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P204" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R204" t="s">
         <v>437</v>
@@ -16571,13 +16574,13 @@
         <v>1533</v>
       </c>
       <c r="N205" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="O205" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P205" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R205" t="s">
         <v>437</v>
@@ -16621,13 +16624,13 @@
         <v>1534</v>
       </c>
       <c r="N206" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="O206" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P206" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R206" t="s">
         <v>437</v>
@@ -16668,13 +16671,13 @@
         <v>1535</v>
       </c>
       <c r="N207" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="O207" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P207" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R207" t="s">
         <v>437</v>
@@ -16718,13 +16721,13 @@
         <v>1536</v>
       </c>
       <c r="N208" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="O208" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P208" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R208" t="s">
         <v>437</v>
@@ -16768,13 +16771,13 @@
         <v>1537</v>
       </c>
       <c r="N209" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="O209" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P209" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -16815,13 +16818,13 @@
         <v>1538</v>
       </c>
       <c r="N210" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="O210" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P210" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q210" t="s">
         <v>200</v>
@@ -16865,13 +16868,13 @@
         <v>1539</v>
       </c>
       <c r="N211" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="O211" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P211" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q211" t="s">
         <v>157</v>
@@ -16915,13 +16918,13 @@
         <v>1540</v>
       </c>
       <c r="N212" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="O212" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P212" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q212" t="s">
         <v>431</v>
@@ -16965,13 +16968,13 @@
         <v>1541</v>
       </c>
       <c r="N213" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="O213" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P213" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R213" t="s">
         <v>174</v>
@@ -17015,13 +17018,13 @@
         <v>1542</v>
       </c>
       <c r="N214" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="O214" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P214" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q214" t="s">
         <v>289</v>
@@ -17062,13 +17065,13 @@
         <v>1543</v>
       </c>
       <c r="N215" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="O215" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P215" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -17109,13 +17112,13 @@
         <v>1544</v>
       </c>
       <c r="N216" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="O216" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P216" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q216" t="s">
         <v>208</v>
@@ -17159,13 +17162,13 @@
         <v>1545</v>
       </c>
       <c r="N217" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="O217" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P217" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q217" t="s">
         <v>340</v>
@@ -17185,13 +17188,13 @@
         <v>1050</v>
       </c>
       <c r="N218" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="O218" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="P218" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -17229,13 +17232,13 @@
         <v>1546</v>
       </c>
       <c r="N219" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="O219" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="P219" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -17276,13 +17279,13 @@
         <v>1547</v>
       </c>
       <c r="N220" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="O220" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P220" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q220" t="s">
         <v>128</v>
@@ -17326,13 +17329,13 @@
         <v>1548</v>
       </c>
       <c r="N221" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="O221" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P221" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q221" t="s">
         <v>371</v>
@@ -17364,13 +17367,13 @@
         <v>1364</v>
       </c>
       <c r="N222" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="O222" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P222" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q222" t="s">
         <v>420</v>
@@ -17414,16 +17417,16 @@
         <v>1549</v>
       </c>
       <c r="N223" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="O223" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="P223" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="R223" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -17464,13 +17467,13 @@
         <v>1550</v>
       </c>
       <c r="N224" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="O224" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P224" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -17511,13 +17514,13 @@
         <v>1551</v>
       </c>
       <c r="N225" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="O225" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P225" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -17558,13 +17561,13 @@
         <v>1552</v>
       </c>
       <c r="N226" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="O226" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P226" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q226" t="s">
         <v>373</v>
@@ -17608,13 +17611,13 @@
         <v>1553</v>
       </c>
       <c r="N227" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="O227" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="P227" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -17655,13 +17658,13 @@
         <v>1554</v>
       </c>
       <c r="N228" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="O228" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="P228" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -17699,13 +17702,13 @@
         <v>1555</v>
       </c>
       <c r="N229" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="O229" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P229" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q229" t="s">
         <v>179</v>
@@ -17749,13 +17752,13 @@
         <v>1556</v>
       </c>
       <c r="N230" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="O230" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P230" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q230" t="s">
         <v>289</v>
@@ -17799,13 +17802,13 @@
         <v>1557</v>
       </c>
       <c r="N231" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="O231" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P231" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q231" t="s">
         <v>362</v>
@@ -17849,13 +17852,13 @@
         <v>1558</v>
       </c>
       <c r="N232" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="O232" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="P232" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R232" t="s">
         <v>280</v>
@@ -17899,13 +17902,13 @@
         <v>1559</v>
       </c>
       <c r="N233" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="O233" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="P233" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -17943,13 +17946,13 @@
         <v>1560</v>
       </c>
       <c r="N234" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="O234" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="P234" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -17975,13 +17978,13 @@
         <v>1364</v>
       </c>
       <c r="N235" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="O235" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P235" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -18022,13 +18025,13 @@
         <v>1561</v>
       </c>
       <c r="N236" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="O236" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P236" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -18069,13 +18072,13 @@
         <v>1562</v>
       </c>
       <c r="N237" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="O237" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P237" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q237" t="s">
         <v>128</v>
@@ -18116,13 +18119,13 @@
         <v>1563</v>
       </c>
       <c r="N238" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="O238" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="P238" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -18163,13 +18166,13 @@
         <v>1564</v>
       </c>
       <c r="N239" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="O239" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P239" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q239" t="s">
         <v>125</v>
@@ -18213,13 +18216,13 @@
         <v>1565</v>
       </c>
       <c r="N240" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="O240" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="P240" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -18260,13 +18263,13 @@
         <v>1566</v>
       </c>
       <c r="N241" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="O241" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P241" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q241" t="s">
         <v>188</v>
@@ -18310,13 +18313,13 @@
         <v>1567</v>
       </c>
       <c r="N242" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="O242" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P242" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q242" t="s">
         <v>212</v>
@@ -18360,13 +18363,13 @@
         <v>1568</v>
       </c>
       <c r="N243" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="O243" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P243" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -18395,13 +18398,13 @@
         <v>1364</v>
       </c>
       <c r="N244" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="O244" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="P244" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -18442,13 +18445,13 @@
         <v>1569</v>
       </c>
       <c r="N245" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="O245" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P245" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q245" t="s">
         <v>268</v>
@@ -18492,13 +18495,13 @@
         <v>1570</v>
       </c>
       <c r="N246" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="O246" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P246" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -18539,13 +18542,13 @@
         <v>1571</v>
       </c>
       <c r="N247" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="O247" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="P247" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -18586,13 +18589,13 @@
         <v>1572</v>
       </c>
       <c r="N248" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="O248" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P248" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -18633,13 +18636,13 @@
         <v>1573</v>
       </c>
       <c r="N249" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="O249" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="P249" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R249" t="s">
         <v>280</v>
@@ -18680,13 +18683,13 @@
         <v>1574</v>
       </c>
       <c r="N250" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="O250" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P250" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q250" t="s">
         <v>403</v>
@@ -18730,13 +18733,13 @@
         <v>1575</v>
       </c>
       <c r="N251" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="O251" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P251" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q251" t="s">
         <v>208</v>
@@ -18752,6 +18755,9 @@
       <c r="C252" t="s">
         <v>842</v>
       </c>
+      <c r="E252" t="s">
+        <v>1034</v>
+      </c>
       <c r="G252" t="s">
         <v>1056</v>
       </c>
@@ -18767,17 +18773,17 @@
       <c r="K252" t="s">
         <v>1059</v>
       </c>
-      <c r="M252" t="s">
-        <v>1364</v>
+      <c r="M252" s="2" t="s">
+        <v>1576</v>
       </c>
       <c r="N252" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="O252" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="P252" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -18815,16 +18821,16 @@
         <v>1288</v>
       </c>
       <c r="M253" s="2" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="N253" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="O253" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="P253" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="R253" t="s">
         <v>280</v>
@@ -18865,16 +18871,16 @@
         <v>1290</v>
       </c>
       <c r="M254" s="2" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="N254" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="O254" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P254" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q254" t="s">
         <v>268</v>
@@ -18915,16 +18921,16 @@
         <v>1339</v>
       </c>
       <c r="M255" s="2" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="N255" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="O255" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P255" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -18962,16 +18968,16 @@
         <v>1059</v>
       </c>
       <c r="M256" s="2" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="N256" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="O256" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P256" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -19009,16 +19015,16 @@
         <v>1059</v>
       </c>
       <c r="M257" s="2" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="N257" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="O257" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P257" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q257" t="s">
         <v>403</v>
@@ -19050,13 +19056,13 @@
         <v>1364</v>
       </c>
       <c r="N258" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="O258" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P258" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q258" t="s">
         <v>208</v>
@@ -19097,16 +19103,16 @@
         <v>1288</v>
       </c>
       <c r="M259" s="2" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="N259" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="O259" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P259" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R259" t="s">
         <v>174</v>
@@ -19147,16 +19153,16 @@
         <v>1285</v>
       </c>
       <c r="M260" s="2" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="N260" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="O260" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P260" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -19194,16 +19200,16 @@
         <v>1301</v>
       </c>
       <c r="M261" s="2" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="N261" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="O261" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P261" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q261" t="s">
         <v>295</v>
@@ -19244,16 +19250,16 @@
         <v>1340</v>
       </c>
       <c r="M262" s="2" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="N262" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="O262" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P262" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -19291,16 +19297,16 @@
         <v>1341</v>
       </c>
       <c r="M263" s="2" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="N263" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="O263" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="P263" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -19338,16 +19344,16 @@
         <v>1288</v>
       </c>
       <c r="M264" s="2" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="N264" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="O264" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P264" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q264" t="s">
         <v>204</v>
@@ -19388,16 +19394,16 @@
         <v>1285</v>
       </c>
       <c r="M265" s="2" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="N265" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="O265" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P265" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -19435,16 +19441,16 @@
         <v>1288</v>
       </c>
       <c r="M266" s="2" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="N266" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="O266" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P266" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="R266" t="s">
         <v>85</v>
@@ -19485,16 +19491,16 @@
         <v>1288</v>
       </c>
       <c r="M267" s="2" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="N267" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="O267" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P267" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -19532,16 +19538,16 @@
         <v>1288</v>
       </c>
       <c r="M268" s="2" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="N268" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="O268" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P268" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -19579,16 +19585,16 @@
         <v>1290</v>
       </c>
       <c r="M269" s="2" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="N269" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="O269" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="P269" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -19626,16 +19632,16 @@
         <v>1288</v>
       </c>
       <c r="M270" s="2" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="N270" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="O270" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P270" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q270" t="s">
         <v>204</v>
@@ -19676,16 +19682,16 @@
         <v>1288</v>
       </c>
       <c r="M271" s="2" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="N271" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="O271" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P271" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -19723,19 +19729,19 @@
         <v>1288</v>
       </c>
       <c r="M272" s="2" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="N272" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="O272" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="P272" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="R272" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -19770,16 +19776,16 @@
         <v>1059</v>
       </c>
       <c r="M273" s="2" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="N273" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="O273" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P273" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q273" t="s">
         <v>431</v>
@@ -19811,13 +19817,13 @@
         <v>1364</v>
       </c>
       <c r="N274" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="O274" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P274" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q274" t="s">
         <v>373</v>
@@ -19858,16 +19864,16 @@
         <v>1288</v>
       </c>
       <c r="M275" s="2" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="N275" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="O275" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P275" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -19893,13 +19899,13 @@
         <v>1364</v>
       </c>
       <c r="N276" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="O276" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P276" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q276" t="s">
         <v>204</v>
@@ -19940,16 +19946,16 @@
         <v>1343</v>
       </c>
       <c r="M277" s="2" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="N277" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="O277" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="P277" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q277" t="s">
         <v>285</v>
@@ -19990,16 +19996,16 @@
         <v>1293</v>
       </c>
       <c r="M278" s="2" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="N278" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="O278" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P278" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R278" t="s">
         <v>174</v>
@@ -20034,13 +20040,13 @@
         <v>1364</v>
       </c>
       <c r="N279" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="O279" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P279" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q279" t="s">
         <v>157</v>
@@ -20081,16 +20087,16 @@
         <v>1059</v>
       </c>
       <c r="M280" s="2" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="N280" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="O280" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P280" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q280" t="s">
         <v>204</v>
@@ -20131,16 +20137,16 @@
         <v>1288</v>
       </c>
       <c r="M281" s="2" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="N281" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="O281" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P281" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q281" t="s">
         <v>148</v>
@@ -20181,16 +20187,16 @@
         <v>1301</v>
       </c>
       <c r="M282" s="2" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="N282" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="O282" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="P282" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R282" t="s">
         <v>335</v>
@@ -20231,16 +20237,16 @@
         <v>1288</v>
       </c>
       <c r="M283" s="2" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="N283" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="O283" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P283" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R283" t="s">
         <v>437</v>
@@ -20281,16 +20287,16 @@
         <v>1301</v>
       </c>
       <c r="M284" s="2" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="N284" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="O284" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P284" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R284" t="s">
         <v>437</v>
@@ -20331,16 +20337,16 @@
         <v>1293</v>
       </c>
       <c r="M285" s="2" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="N285" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="O285" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P285" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R285" t="s">
         <v>437</v>
@@ -20381,16 +20387,16 @@
         <v>1290</v>
       </c>
       <c r="M286" s="2" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="N286" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="O286" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P286" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -20428,16 +20434,16 @@
         <v>1059</v>
       </c>
       <c r="M287" s="2" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="N287" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="O287" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P287" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q287" t="s">
         <v>403</v>
@@ -20475,16 +20481,16 @@
         <v>1344</v>
       </c>
       <c r="M288" s="2" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="N288" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="O288" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P288" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q288" t="s">
         <v>373</v>
@@ -20525,16 +20531,16 @@
         <v>1059</v>
       </c>
       <c r="M289" s="2" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="N289" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="O289" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P289" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q289" t="s">
         <v>289</v>
@@ -20575,16 +20581,16 @@
         <v>1059</v>
       </c>
       <c r="M290" s="2" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="N290" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="O290" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P290" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q290" t="s">
         <v>179</v>
@@ -20622,16 +20628,16 @@
         <v>1059</v>
       </c>
       <c r="M291" s="2" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="N291" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="O291" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P291" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -20669,16 +20675,16 @@
         <v>1290</v>
       </c>
       <c r="M292" s="2" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="N292" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="O292" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="P292" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q292" t="s">
         <v>285</v>
@@ -20719,16 +20725,16 @@
         <v>1293</v>
       </c>
       <c r="M293" s="2" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="N293" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="O293" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P293" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R293" t="s">
         <v>174</v>
@@ -20769,16 +20775,16 @@
         <v>1311</v>
       </c>
       <c r="M294" s="2" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="N294" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="O294" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P294" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R294" t="s">
         <v>415</v>
@@ -20819,16 +20825,16 @@
         <v>1288</v>
       </c>
       <c r="M295" s="2" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="N295" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O295" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="P295" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q295" t="s">
         <v>285</v>
@@ -20869,16 +20875,16 @@
         <v>1285</v>
       </c>
       <c r="M296" s="2" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="N296" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O296" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P296" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -20916,16 +20922,16 @@
         <v>1288</v>
       </c>
       <c r="M297" s="2" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="N297" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O297" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P297" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q297" t="s">
         <v>340</v>
@@ -20966,16 +20972,16 @@
         <v>1059</v>
       </c>
       <c r="M298" s="2" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="N298" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O298" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P298" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R298" t="s">
         <v>214</v>
@@ -21013,13 +21019,13 @@
         <v>1364</v>
       </c>
       <c r="N299" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="O299" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="P299" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q299" t="s">
         <v>285</v>
@@ -21060,13 +21066,13 @@
         <v>1059</v>
       </c>
       <c r="N300" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="O300" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P300" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q300" t="s">
         <v>200</v>
@@ -21107,16 +21113,16 @@
         <v>1288</v>
       </c>
       <c r="M301" s="2" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="N301" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="O301" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="P301" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R301" t="s">
         <v>335</v>
@@ -21157,16 +21163,16 @@
         <v>1301</v>
       </c>
       <c r="M302" s="2" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="N302" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="O302" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="P302" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -21204,16 +21210,16 @@
         <v>1285</v>
       </c>
       <c r="M303" s="2" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="N303" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="O303" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P303" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -21251,16 +21257,16 @@
         <v>1345</v>
       </c>
       <c r="M304" s="2" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="N304" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="O304" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P304" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -21295,16 +21301,16 @@
         <v>1059</v>
       </c>
       <c r="M305" s="2" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="N305" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="O305" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P305" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -21342,16 +21348,16 @@
         <v>1346</v>
       </c>
       <c r="M306" s="2" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="N306" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="O306" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P306" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R306" t="s">
         <v>415</v>
@@ -21392,16 +21398,16 @@
         <v>1288</v>
       </c>
       <c r="M307" s="2" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="N307" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="O307" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P307" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -21439,16 +21445,16 @@
         <v>1288</v>
       </c>
       <c r="M308" s="2" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="N308" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="O308" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P308" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q308" t="s">
         <v>340</v>
@@ -21497,16 +21503,16 @@
         <v>1290</v>
       </c>
       <c r="M310" s="2" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="N310" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="O310" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P310" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q310" t="s">
         <v>86</v>
@@ -21550,16 +21556,16 @@
         <v>1059</v>
       </c>
       <c r="M311" s="2" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="N311" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="O311" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P311" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q311" t="s">
         <v>125</v>
@@ -21600,16 +21606,16 @@
         <v>1288</v>
       </c>
       <c r="M312" s="2" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="N312" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="O312" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P312" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="R312" t="s">
         <v>417</v>
@@ -21650,16 +21656,16 @@
         <v>1290</v>
       </c>
       <c r="M313" s="2" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="N313" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="O313" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P313" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q313" t="s">
         <v>128</v>
@@ -21688,13 +21694,13 @@
         <v>1364</v>
       </c>
       <c r="N314" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="O314" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P314" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q314" t="s">
         <v>212</v>
@@ -21735,16 +21741,16 @@
         <v>1347</v>
       </c>
       <c r="M315" s="2" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="N315" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="O315" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P315" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q315" t="s">
         <v>212</v>
@@ -21785,16 +21791,16 @@
         <v>1289</v>
       </c>
       <c r="M316" s="2" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="N316" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="O316" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P316" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q316" t="s">
         <v>119</v>
@@ -21835,16 +21841,16 @@
         <v>1285</v>
       </c>
       <c r="M317" s="2" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="N317" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="O317" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P317" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -21873,13 +21879,13 @@
         <v>1364</v>
       </c>
       <c r="N318" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="O318" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P318" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q318" t="s">
         <v>268</v>
@@ -21920,16 +21926,16 @@
         <v>1288</v>
       </c>
       <c r="M319" s="2" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="N319" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="O319" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P319" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q319" t="s">
         <v>295</v>
@@ -21970,16 +21976,16 @@
         <v>1288</v>
       </c>
       <c r="M320" s="2" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="N320" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="O320" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P320" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q320" t="s">
         <v>204</v>
@@ -22020,16 +22026,16 @@
         <v>1059</v>
       </c>
       <c r="M321" s="2" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="N321" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="O321" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P321" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q321" t="s">
         <v>340</v>
@@ -22067,16 +22073,16 @@
         <v>1059</v>
       </c>
       <c r="M322" s="2" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="N322" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="O322" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P322" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q322" t="s">
         <v>362</v>
@@ -22117,16 +22123,16 @@
         <v>1059</v>
       </c>
       <c r="M323" s="2" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="N323" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="O323" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="P323" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R323" t="s">
         <v>271</v>
@@ -22167,16 +22173,16 @@
         <v>1059</v>
       </c>
       <c r="M324" s="2" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="N324" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O324" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P324" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -22214,16 +22220,16 @@
         <v>1290</v>
       </c>
       <c r="M325" s="2" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="N325" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="O325" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P325" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -22258,16 +22264,16 @@
         <v>1348</v>
       </c>
       <c r="M326" s="2" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="N326" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="O326" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P326" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q326" t="s">
         <v>373</v>
@@ -22308,16 +22314,16 @@
         <v>1288</v>
       </c>
       <c r="M327" s="2" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="N327" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="O327" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P327" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q327" t="s">
         <v>188</v>
@@ -22358,16 +22364,16 @@
         <v>1301</v>
       </c>
       <c r="M328" s="2" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="N328" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="O328" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P328" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R328" t="s">
         <v>214</v>
@@ -22408,16 +22414,16 @@
         <v>1301</v>
       </c>
       <c r="M329" s="2" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="N329" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="O329" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P329" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q329" t="s">
         <v>362</v>
@@ -22458,16 +22464,16 @@
         <v>1059</v>
       </c>
       <c r="M330" s="2" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="N330" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="O330" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P330" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -22505,16 +22511,16 @@
         <v>1288</v>
       </c>
       <c r="M331" s="2" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="N331" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="O331" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P331" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q331" t="s">
         <v>362</v>
@@ -22555,16 +22561,16 @@
         <v>1288</v>
       </c>
       <c r="M332" s="2" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="N332" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="O332" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P332" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q332" t="s">
         <v>188</v>
@@ -22605,16 +22611,16 @@
         <v>1285</v>
       </c>
       <c r="M333" s="2" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="N333" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="O333" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P333" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -22652,16 +22658,16 @@
         <v>1293</v>
       </c>
       <c r="M334" s="2" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="N334" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="O334" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P334" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R334" t="s">
         <v>174</v>
@@ -22693,16 +22699,16 @@
         <v>1364</v>
       </c>
       <c r="N335" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="O335" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="P335" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="R335" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -22737,16 +22743,16 @@
         <v>1059</v>
       </c>
       <c r="M336" s="2" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="N336" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="O336" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P336" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -22784,16 +22790,16 @@
         <v>1288</v>
       </c>
       <c r="M337" s="2" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="N337" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="O337" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P337" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q337" t="s">
         <v>403</v>
@@ -22834,16 +22840,16 @@
         <v>1288</v>
       </c>
       <c r="M338" s="2" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="N338" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="O338" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P338" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q338" t="s">
         <v>170</v>
@@ -22884,16 +22890,16 @@
         <v>1349</v>
       </c>
       <c r="M339" s="2" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="N339" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="O339" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P339" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -22931,16 +22937,16 @@
         <v>1301</v>
       </c>
       <c r="M340" s="2" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="N340" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="O340" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="P340" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R340" t="s">
         <v>271</v>
@@ -22981,16 +22987,16 @@
         <v>1290</v>
       </c>
       <c r="M341" s="2" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="N341" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="O341" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P341" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -23028,16 +23034,16 @@
         <v>1059</v>
       </c>
       <c r="M342" s="2" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="N342" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="O342" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P342" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q342" t="s">
         <v>373</v>
@@ -23078,16 +23084,16 @@
         <v>1288</v>
       </c>
       <c r="M343" s="2" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="N343" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="O343" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P343" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q343" t="s">
         <v>200</v>
@@ -23116,13 +23122,13 @@
         <v>1364</v>
       </c>
       <c r="N344" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="O344" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P344" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -23160,16 +23166,16 @@
         <v>1293</v>
       </c>
       <c r="M345" s="2" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="N345" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="O345" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P345" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R345" t="s">
         <v>174</v>
@@ -23210,16 +23216,16 @@
         <v>1059</v>
       </c>
       <c r="M346" s="2" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="N346" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="O346" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P346" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q346" t="s">
         <v>362</v>
@@ -23260,16 +23266,16 @@
         <v>1059</v>
       </c>
       <c r="M347" s="2" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="N347" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="O347" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P347" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q347" t="s">
         <v>373</v>
@@ -23310,16 +23316,16 @@
         <v>1288</v>
       </c>
       <c r="M348" s="2" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="N348" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="O348" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P348" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q348" t="s">
         <v>128</v>
@@ -23360,16 +23366,16 @@
         <v>1059</v>
       </c>
       <c r="M349" s="2" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="N349" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="O349" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P349" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -23407,16 +23413,16 @@
         <v>1059</v>
       </c>
       <c r="M350" s="2" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="N350" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="O350" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P350" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q350" t="s">
         <v>157</v>
@@ -23457,16 +23463,16 @@
         <v>1059</v>
       </c>
       <c r="M351" s="2" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="N351" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="O351" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P351" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q351" t="s">
         <v>179</v>
@@ -23504,16 +23510,16 @@
         <v>1059</v>
       </c>
       <c r="M352" s="2" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="N352" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="O352" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P352" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q352" t="s">
         <v>170</v>
@@ -23554,16 +23560,16 @@
         <v>1059</v>
       </c>
       <c r="M353" s="2" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="N353" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="O353" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P353" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q353" t="s">
         <v>200</v>
@@ -23604,16 +23610,16 @@
         <v>1285</v>
       </c>
       <c r="M354" s="2" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="N354" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="O354" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P354" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -23651,16 +23657,16 @@
         <v>1285</v>
       </c>
       <c r="M355" s="2" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="N355" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="O355" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P355" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -23698,16 +23704,16 @@
         <v>1288</v>
       </c>
       <c r="M356" s="2" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="N356" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="O356" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P356" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q356" t="s">
         <v>188</v>
@@ -23748,16 +23754,16 @@
         <v>1059</v>
       </c>
       <c r="M357" s="2" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="N357" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="O357" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P357" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -23795,16 +23801,16 @@
         <v>1288</v>
       </c>
       <c r="M358" s="2" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="N358" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="O358" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P358" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q358" t="s">
         <v>200</v>
@@ -23845,16 +23851,16 @@
         <v>1290</v>
       </c>
       <c r="M359" s="2" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="N359" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="O359" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P359" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -23889,16 +23895,16 @@
         <v>1059</v>
       </c>
       <c r="M360" s="2" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="N360" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="O360" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="P360" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -23936,16 +23942,16 @@
         <v>1059</v>
       </c>
       <c r="M361" s="2" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="N361" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="O361" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P361" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q361" t="s">
         <v>128</v>
@@ -23986,16 +23992,16 @@
         <v>1293</v>
       </c>
       <c r="M362" s="2" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="N362" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="O362" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P362" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R362" t="s">
         <v>174</v>
@@ -24036,16 +24042,16 @@
         <v>1288</v>
       </c>
       <c r="M363" s="2" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="N363" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="O363" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P363" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q363" t="s">
         <v>200</v>
@@ -24086,16 +24092,16 @@
         <v>1288</v>
       </c>
       <c r="M364" s="2" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="N364" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="O364" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P364" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q364" t="s">
         <v>157</v>
@@ -24136,16 +24142,16 @@
         <v>1290</v>
       </c>
       <c r="M365" s="2" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="N365" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="O365" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="P365" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -24183,16 +24189,16 @@
         <v>1285</v>
       </c>
       <c r="M366" s="2" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="N366" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="O366" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P366" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q366" t="s">
         <v>295</v>
@@ -24233,16 +24239,16 @@
         <v>1290</v>
       </c>
       <c r="M367" s="2" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="N367" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="O367" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="P367" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R367" t="s">
         <v>421</v>
@@ -24283,16 +24289,16 @@
         <v>1290</v>
       </c>
       <c r="M368" s="2" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="N368" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="O368" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P368" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R368" t="s">
         <v>415</v>
@@ -24330,16 +24336,16 @@
         <v>1350</v>
       </c>
       <c r="M369" s="2" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="N369" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="O369" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P369" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="370" spans="1:17">
@@ -24377,16 +24383,16 @@
         <v>1288</v>
       </c>
       <c r="M370" s="2" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="N370" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="O370" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P370" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q370" t="s">
         <v>403</v>
@@ -24427,16 +24433,16 @@
         <v>1290</v>
       </c>
       <c r="M371" s="2" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="N371" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="O371" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P371" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="372" spans="1:17">
@@ -24474,16 +24480,16 @@
         <v>1288</v>
       </c>
       <c r="M372" s="2" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="N372" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="O372" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P372" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q372" t="s">
         <v>188</v>
@@ -24524,16 +24530,16 @@
         <v>1288</v>
       </c>
       <c r="M373" s="2" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="N373" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="O373" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P373" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q373" t="s">
         <v>373</v>
@@ -24574,16 +24580,16 @@
         <v>1290</v>
       </c>
       <c r="M374" s="2" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="N374" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="O374" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P374" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q374" t="s">
         <v>148</v>
@@ -24615,7 +24621,7 @@
         <v>1364</v>
       </c>
       <c r="N375" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="376" spans="1:17">
@@ -24653,16 +24659,16 @@
         <v>1352</v>
       </c>
       <c r="M376" s="2" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="N376" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="O376" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P376" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q376" t="s">
         <v>188</v>
@@ -24703,16 +24709,16 @@
         <v>1288</v>
       </c>
       <c r="M377" s="2" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="N377" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="O377" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P377" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="378" spans="1:17">
@@ -24750,16 +24756,16 @@
         <v>1290</v>
       </c>
       <c r="M378" s="2" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="N378" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="O378" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P378" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q378" t="s">
         <v>128</v>
@@ -24800,16 +24806,16 @@
         <v>1285</v>
       </c>
       <c r="M379" s="2" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="N379" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="O379" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P379" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="380" spans="1:17">
@@ -24847,16 +24853,16 @@
         <v>1059</v>
       </c>
       <c r="M380" s="2" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="N380" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="O380" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P380" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q380" t="s">
         <v>204</v>
@@ -24888,13 +24894,13 @@
         <v>1364</v>
       </c>
       <c r="N381" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="O381" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P381" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q381" t="s">
         <v>212</v>
@@ -24935,16 +24941,16 @@
         <v>1285</v>
       </c>
       <c r="M382" s="2" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="N382" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="O382" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P382" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="383" spans="1:17">
@@ -24982,16 +24988,16 @@
         <v>1311</v>
       </c>
       <c r="M383" s="2" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="N383" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="O383" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P383" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="384" spans="1:17">
@@ -25020,13 +25026,13 @@
         <v>1364</v>
       </c>
       <c r="N384" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="O384" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="P384" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -25064,16 +25070,16 @@
         <v>1288</v>
       </c>
       <c r="M385" s="2" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="N385" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="O385" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P385" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -25111,16 +25117,16 @@
         <v>1290</v>
       </c>
       <c r="M386" s="2" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="N386" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="O386" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P386" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q386" t="s">
         <v>295</v>
@@ -25161,16 +25167,16 @@
         <v>1059</v>
       </c>
       <c r="M387" s="2" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="N387" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="O387" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P387" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q387" t="s">
         <v>371</v>
@@ -25211,16 +25217,16 @@
         <v>1290</v>
       </c>
       <c r="M388" s="2" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="N388" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="O388" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P388" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -25258,16 +25264,16 @@
         <v>1293</v>
       </c>
       <c r="M389" s="2" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="N389" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="O389" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="P389" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -25305,16 +25311,16 @@
         <v>1301</v>
       </c>
       <c r="M390" s="2" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="N390" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="O390" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P390" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="R390" t="s">
         <v>437</v>
@@ -25355,16 +25361,16 @@
         <v>1293</v>
       </c>
       <c r="M391" s="2" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="N391" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="O391" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P391" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R391" t="s">
         <v>174</v>
@@ -25405,16 +25411,16 @@
         <v>1288</v>
       </c>
       <c r="M392" s="2" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="N392" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="O392" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="P392" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -25452,16 +25458,16 @@
         <v>1288</v>
       </c>
       <c r="M393" s="2" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="N393" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="O393" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P393" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q393" t="s">
         <v>179</v>
@@ -25502,16 +25508,16 @@
         <v>1311</v>
       </c>
       <c r="M394" s="2" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="N394" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="O394" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P394" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R394" t="s">
         <v>214</v>
@@ -25552,16 +25558,16 @@
         <v>1290</v>
       </c>
       <c r="M395" s="2" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="N395" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="O395" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P395" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q395" t="s">
         <v>373</v>
@@ -25602,16 +25608,16 @@
         <v>1288</v>
       </c>
       <c r="M396" s="2" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="N396" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="O396" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P396" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -25649,16 +25655,16 @@
         <v>1353</v>
       </c>
       <c r="M397" s="2" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="N397" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="O397" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P397" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="R397" t="s">
         <v>415</v>
@@ -25699,16 +25705,16 @@
         <v>1288</v>
       </c>
       <c r="M398" s="2" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="N398" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="O398" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P398" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q398" t="s">
         <v>431</v>
@@ -25746,13 +25752,13 @@
         <v>1364</v>
       </c>
       <c r="N399" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="O399" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P399" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -25790,16 +25796,16 @@
         <v>1059</v>
       </c>
       <c r="M400" s="2" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="N400" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="O400" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P400" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q400" t="s">
         <v>420</v>
@@ -25840,16 +25846,16 @@
         <v>1290</v>
       </c>
       <c r="M401" s="2" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="N401" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="O401" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="P401" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="402" spans="1:17">
@@ -25878,13 +25884,13 @@
         <v>1364</v>
       </c>
       <c r="N402" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="O402" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P402" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q402" t="s">
         <v>431</v>
@@ -25925,16 +25931,16 @@
         <v>1290</v>
       </c>
       <c r="M403" s="2" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="N403" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="O403" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="P403" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q403" t="s">
         <v>204</v>
@@ -25972,16 +25978,16 @@
         <v>1059</v>
       </c>
       <c r="M404" s="2" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="N404" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="O404" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P404" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="Q404" t="s">
         <v>431</v>
@@ -26019,16 +26025,16 @@
         <v>1288</v>
       </c>
       <c r="M405" s="2" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="N405" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="O405" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="P405" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
     </row>
   </sheetData>
@@ -26251,143 +26257,144 @@
     <hyperlink ref="M249" r:id="rId216"/>
     <hyperlink ref="M250" r:id="rId217"/>
     <hyperlink ref="M251" r:id="rId218"/>
-    <hyperlink ref="M253" r:id="rId219"/>
-    <hyperlink ref="M254" r:id="rId220"/>
-    <hyperlink ref="M255" r:id="rId221"/>
-    <hyperlink ref="M256" r:id="rId222"/>
-    <hyperlink ref="M257" r:id="rId223"/>
-    <hyperlink ref="M259" r:id="rId224"/>
-    <hyperlink ref="M260" r:id="rId225"/>
-    <hyperlink ref="M261" r:id="rId226"/>
-    <hyperlink ref="M262" r:id="rId227"/>
-    <hyperlink ref="M263" r:id="rId228"/>
-    <hyperlink ref="M264" r:id="rId229"/>
-    <hyperlink ref="M265" r:id="rId230"/>
-    <hyperlink ref="M266" r:id="rId231"/>
-    <hyperlink ref="M267" r:id="rId232"/>
-    <hyperlink ref="M268" r:id="rId233"/>
-    <hyperlink ref="M269" r:id="rId234"/>
-    <hyperlink ref="M270" r:id="rId235"/>
-    <hyperlink ref="M271" r:id="rId236"/>
-    <hyperlink ref="M272" r:id="rId237"/>
-    <hyperlink ref="M273" r:id="rId238"/>
-    <hyperlink ref="M275" r:id="rId239"/>
-    <hyperlink ref="M277" r:id="rId240"/>
-    <hyperlink ref="M278" r:id="rId241"/>
-    <hyperlink ref="M280" r:id="rId242"/>
-    <hyperlink ref="M281" r:id="rId243"/>
-    <hyperlink ref="M282" r:id="rId244"/>
-    <hyperlink ref="M283" r:id="rId245"/>
-    <hyperlink ref="M284" r:id="rId246"/>
-    <hyperlink ref="M285" r:id="rId247"/>
-    <hyperlink ref="M286" r:id="rId248"/>
-    <hyperlink ref="M287" r:id="rId249"/>
-    <hyperlink ref="M288" r:id="rId250"/>
-    <hyperlink ref="M289" r:id="rId251"/>
-    <hyperlink ref="M290" r:id="rId252"/>
-    <hyperlink ref="M291" r:id="rId253"/>
-    <hyperlink ref="M292" r:id="rId254"/>
-    <hyperlink ref="M293" r:id="rId255"/>
-    <hyperlink ref="M294" r:id="rId256"/>
-    <hyperlink ref="M295" r:id="rId257"/>
-    <hyperlink ref="M296" r:id="rId258"/>
-    <hyperlink ref="M297" r:id="rId259"/>
-    <hyperlink ref="M298" r:id="rId260"/>
-    <hyperlink ref="M301" r:id="rId261" location="AI18587"/>
-    <hyperlink ref="M302" r:id="rId262"/>
-    <hyperlink ref="M303" r:id="rId263"/>
-    <hyperlink ref="M304" r:id="rId264"/>
-    <hyperlink ref="M305" r:id="rId265"/>
-    <hyperlink ref="M306" r:id="rId266"/>
-    <hyperlink ref="M307" r:id="rId267"/>
-    <hyperlink ref="M308" r:id="rId268"/>
-    <hyperlink ref="M310" r:id="rId269"/>
-    <hyperlink ref="M311" r:id="rId270"/>
-    <hyperlink ref="M312" r:id="rId271"/>
-    <hyperlink ref="M313" r:id="rId272"/>
-    <hyperlink ref="M315" r:id="rId273"/>
-    <hyperlink ref="M316" r:id="rId274"/>
-    <hyperlink ref="M317" r:id="rId275"/>
-    <hyperlink ref="M319" r:id="rId276"/>
-    <hyperlink ref="M320" r:id="rId277"/>
-    <hyperlink ref="M321" r:id="rId278"/>
-    <hyperlink ref="M322" r:id="rId279"/>
-    <hyperlink ref="M323" r:id="rId280"/>
-    <hyperlink ref="M324" r:id="rId281"/>
-    <hyperlink ref="M325" r:id="rId282"/>
-    <hyperlink ref="M326" r:id="rId283"/>
-    <hyperlink ref="M327" r:id="rId284"/>
-    <hyperlink ref="M328" r:id="rId285"/>
-    <hyperlink ref="M329" r:id="rId286"/>
-    <hyperlink ref="M330" r:id="rId287"/>
-    <hyperlink ref="M331" r:id="rId288"/>
-    <hyperlink ref="M332" r:id="rId289"/>
-    <hyperlink ref="M333" r:id="rId290"/>
-    <hyperlink ref="M334" r:id="rId291"/>
-    <hyperlink ref="M336" r:id="rId292"/>
-    <hyperlink ref="M337" r:id="rId293"/>
-    <hyperlink ref="M338" r:id="rId294"/>
-    <hyperlink ref="M339" r:id="rId295"/>
-    <hyperlink ref="M340" r:id="rId296"/>
-    <hyperlink ref="M341" r:id="rId297"/>
-    <hyperlink ref="M342" r:id="rId298"/>
-    <hyperlink ref="M343" r:id="rId299"/>
-    <hyperlink ref="M345" r:id="rId300"/>
-    <hyperlink ref="M346" r:id="rId301"/>
-    <hyperlink ref="M347" r:id="rId302"/>
-    <hyperlink ref="M348" r:id="rId303"/>
-    <hyperlink ref="M349" r:id="rId304"/>
-    <hyperlink ref="M350" r:id="rId305"/>
-    <hyperlink ref="M351" r:id="rId306"/>
-    <hyperlink ref="M352" r:id="rId307"/>
-    <hyperlink ref="M353" r:id="rId308"/>
-    <hyperlink ref="M354" r:id="rId309"/>
-    <hyperlink ref="M355" r:id="rId310"/>
-    <hyperlink ref="M356" r:id="rId311"/>
-    <hyperlink ref="M357" r:id="rId312"/>
-    <hyperlink ref="M358" r:id="rId313"/>
-    <hyperlink ref="M359" r:id="rId314"/>
-    <hyperlink ref="M360" r:id="rId315"/>
-    <hyperlink ref="M361" r:id="rId316"/>
-    <hyperlink ref="M362" r:id="rId317"/>
-    <hyperlink ref="M363" r:id="rId318"/>
-    <hyperlink ref="M364" r:id="rId319"/>
-    <hyperlink ref="M365" r:id="rId320"/>
-    <hyperlink ref="M366" r:id="rId321"/>
-    <hyperlink ref="M367" r:id="rId322"/>
-    <hyperlink ref="M368" r:id="rId323"/>
-    <hyperlink ref="M369" r:id="rId324"/>
-    <hyperlink ref="M370" r:id="rId325"/>
-    <hyperlink ref="M371" r:id="rId326"/>
-    <hyperlink ref="M372" r:id="rId327"/>
-    <hyperlink ref="M373" r:id="rId328"/>
-    <hyperlink ref="M374" r:id="rId329"/>
-    <hyperlink ref="M376" r:id="rId330"/>
-    <hyperlink ref="M377" r:id="rId331"/>
-    <hyperlink ref="M378" r:id="rId332"/>
-    <hyperlink ref="M379" r:id="rId333"/>
-    <hyperlink ref="M380" r:id="rId334"/>
-    <hyperlink ref="M382" r:id="rId335"/>
-    <hyperlink ref="M383" r:id="rId336" location=":~:text=The%20West%20Midlands%20has%20declared,pledge%20to%20safeguard%20the%20environment."/>
-    <hyperlink ref="M385" r:id="rId337"/>
-    <hyperlink ref="M386" r:id="rId338"/>
-    <hyperlink ref="M387" r:id="rId339"/>
-    <hyperlink ref="M388" r:id="rId340"/>
-    <hyperlink ref="M389" r:id="rId341"/>
-    <hyperlink ref="M390" r:id="rId342"/>
-    <hyperlink ref="M391" r:id="rId343"/>
-    <hyperlink ref="M392" r:id="rId344"/>
-    <hyperlink ref="M393" r:id="rId345"/>
-    <hyperlink ref="M394" r:id="rId346"/>
-    <hyperlink ref="M395" r:id="rId347"/>
-    <hyperlink ref="M396" r:id="rId348"/>
-    <hyperlink ref="M397" r:id="rId349"/>
-    <hyperlink ref="M398" r:id="rId350"/>
-    <hyperlink ref="M400" r:id="rId351"/>
-    <hyperlink ref="M401" r:id="rId352"/>
-    <hyperlink ref="M403" r:id="rId353" location="AI3743"/>
-    <hyperlink ref="M404" r:id="rId354"/>
-    <hyperlink ref="M405" r:id="rId355"/>
+    <hyperlink ref="M252" r:id="rId219"/>
+    <hyperlink ref="M253" r:id="rId220"/>
+    <hyperlink ref="M254" r:id="rId221"/>
+    <hyperlink ref="M255" r:id="rId222"/>
+    <hyperlink ref="M256" r:id="rId223"/>
+    <hyperlink ref="M257" r:id="rId224"/>
+    <hyperlink ref="M259" r:id="rId225"/>
+    <hyperlink ref="M260" r:id="rId226"/>
+    <hyperlink ref="M261" r:id="rId227"/>
+    <hyperlink ref="M262" r:id="rId228"/>
+    <hyperlink ref="M263" r:id="rId229"/>
+    <hyperlink ref="M264" r:id="rId230"/>
+    <hyperlink ref="M265" r:id="rId231"/>
+    <hyperlink ref="M266" r:id="rId232"/>
+    <hyperlink ref="M267" r:id="rId233"/>
+    <hyperlink ref="M268" r:id="rId234"/>
+    <hyperlink ref="M269" r:id="rId235"/>
+    <hyperlink ref="M270" r:id="rId236"/>
+    <hyperlink ref="M271" r:id="rId237"/>
+    <hyperlink ref="M272" r:id="rId238"/>
+    <hyperlink ref="M273" r:id="rId239"/>
+    <hyperlink ref="M275" r:id="rId240"/>
+    <hyperlink ref="M277" r:id="rId241"/>
+    <hyperlink ref="M278" r:id="rId242"/>
+    <hyperlink ref="M280" r:id="rId243"/>
+    <hyperlink ref="M281" r:id="rId244"/>
+    <hyperlink ref="M282" r:id="rId245"/>
+    <hyperlink ref="M283" r:id="rId246"/>
+    <hyperlink ref="M284" r:id="rId247"/>
+    <hyperlink ref="M285" r:id="rId248"/>
+    <hyperlink ref="M286" r:id="rId249"/>
+    <hyperlink ref="M287" r:id="rId250"/>
+    <hyperlink ref="M288" r:id="rId251"/>
+    <hyperlink ref="M289" r:id="rId252"/>
+    <hyperlink ref="M290" r:id="rId253"/>
+    <hyperlink ref="M291" r:id="rId254"/>
+    <hyperlink ref="M292" r:id="rId255"/>
+    <hyperlink ref="M293" r:id="rId256"/>
+    <hyperlink ref="M294" r:id="rId257"/>
+    <hyperlink ref="M295" r:id="rId258"/>
+    <hyperlink ref="M296" r:id="rId259"/>
+    <hyperlink ref="M297" r:id="rId260"/>
+    <hyperlink ref="M298" r:id="rId261"/>
+    <hyperlink ref="M301" r:id="rId262" location="AI18587"/>
+    <hyperlink ref="M302" r:id="rId263"/>
+    <hyperlink ref="M303" r:id="rId264"/>
+    <hyperlink ref="M304" r:id="rId265"/>
+    <hyperlink ref="M305" r:id="rId266"/>
+    <hyperlink ref="M306" r:id="rId267"/>
+    <hyperlink ref="M307" r:id="rId268"/>
+    <hyperlink ref="M308" r:id="rId269"/>
+    <hyperlink ref="M310" r:id="rId270"/>
+    <hyperlink ref="M311" r:id="rId271"/>
+    <hyperlink ref="M312" r:id="rId272"/>
+    <hyperlink ref="M313" r:id="rId273"/>
+    <hyperlink ref="M315" r:id="rId274"/>
+    <hyperlink ref="M316" r:id="rId275"/>
+    <hyperlink ref="M317" r:id="rId276"/>
+    <hyperlink ref="M319" r:id="rId277"/>
+    <hyperlink ref="M320" r:id="rId278"/>
+    <hyperlink ref="M321" r:id="rId279"/>
+    <hyperlink ref="M322" r:id="rId280"/>
+    <hyperlink ref="M323" r:id="rId281"/>
+    <hyperlink ref="M324" r:id="rId282"/>
+    <hyperlink ref="M325" r:id="rId283"/>
+    <hyperlink ref="M326" r:id="rId284"/>
+    <hyperlink ref="M327" r:id="rId285"/>
+    <hyperlink ref="M328" r:id="rId286"/>
+    <hyperlink ref="M329" r:id="rId287"/>
+    <hyperlink ref="M330" r:id="rId288"/>
+    <hyperlink ref="M331" r:id="rId289"/>
+    <hyperlink ref="M332" r:id="rId290"/>
+    <hyperlink ref="M333" r:id="rId291"/>
+    <hyperlink ref="M334" r:id="rId292"/>
+    <hyperlink ref="M336" r:id="rId293"/>
+    <hyperlink ref="M337" r:id="rId294"/>
+    <hyperlink ref="M338" r:id="rId295"/>
+    <hyperlink ref="M339" r:id="rId296"/>
+    <hyperlink ref="M340" r:id="rId297"/>
+    <hyperlink ref="M341" r:id="rId298"/>
+    <hyperlink ref="M342" r:id="rId299"/>
+    <hyperlink ref="M343" r:id="rId300"/>
+    <hyperlink ref="M345" r:id="rId301"/>
+    <hyperlink ref="M346" r:id="rId302"/>
+    <hyperlink ref="M347" r:id="rId303"/>
+    <hyperlink ref="M348" r:id="rId304"/>
+    <hyperlink ref="M349" r:id="rId305"/>
+    <hyperlink ref="M350" r:id="rId306"/>
+    <hyperlink ref="M351" r:id="rId307"/>
+    <hyperlink ref="M352" r:id="rId308"/>
+    <hyperlink ref="M353" r:id="rId309"/>
+    <hyperlink ref="M354" r:id="rId310"/>
+    <hyperlink ref="M355" r:id="rId311"/>
+    <hyperlink ref="M356" r:id="rId312"/>
+    <hyperlink ref="M357" r:id="rId313"/>
+    <hyperlink ref="M358" r:id="rId314"/>
+    <hyperlink ref="M359" r:id="rId315"/>
+    <hyperlink ref="M360" r:id="rId316"/>
+    <hyperlink ref="M361" r:id="rId317"/>
+    <hyperlink ref="M362" r:id="rId318"/>
+    <hyperlink ref="M363" r:id="rId319"/>
+    <hyperlink ref="M364" r:id="rId320"/>
+    <hyperlink ref="M365" r:id="rId321"/>
+    <hyperlink ref="M366" r:id="rId322"/>
+    <hyperlink ref="M367" r:id="rId323"/>
+    <hyperlink ref="M368" r:id="rId324"/>
+    <hyperlink ref="M369" r:id="rId325"/>
+    <hyperlink ref="M370" r:id="rId326"/>
+    <hyperlink ref="M371" r:id="rId327"/>
+    <hyperlink ref="M372" r:id="rId328"/>
+    <hyperlink ref="M373" r:id="rId329"/>
+    <hyperlink ref="M374" r:id="rId330"/>
+    <hyperlink ref="M376" r:id="rId331"/>
+    <hyperlink ref="M377" r:id="rId332"/>
+    <hyperlink ref="M378" r:id="rId333"/>
+    <hyperlink ref="M379" r:id="rId334"/>
+    <hyperlink ref="M380" r:id="rId335"/>
+    <hyperlink ref="M382" r:id="rId336"/>
+    <hyperlink ref="M383" r:id="rId337" location=":~:text=The%20West%20Midlands%20has%20declared,pledge%20to%20safeguard%20the%20environment."/>
+    <hyperlink ref="M385" r:id="rId338"/>
+    <hyperlink ref="M386" r:id="rId339"/>
+    <hyperlink ref="M387" r:id="rId340"/>
+    <hyperlink ref="M388" r:id="rId341"/>
+    <hyperlink ref="M389" r:id="rId342"/>
+    <hyperlink ref="M390" r:id="rId343"/>
+    <hyperlink ref="M391" r:id="rId344"/>
+    <hyperlink ref="M392" r:id="rId345"/>
+    <hyperlink ref="M393" r:id="rId346"/>
+    <hyperlink ref="M394" r:id="rId347"/>
+    <hyperlink ref="M395" r:id="rId348"/>
+    <hyperlink ref="M396" r:id="rId349"/>
+    <hyperlink ref="M397" r:id="rId350"/>
+    <hyperlink ref="M398" r:id="rId351"/>
+    <hyperlink ref="M400" r:id="rId352"/>
+    <hyperlink ref="M401" r:id="rId353"/>
+    <hyperlink ref="M403" r:id="rId354" location="AI3743"/>
+    <hyperlink ref="M404" r:id="rId355"/>
+    <hyperlink ref="M405" r:id="rId356"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26411,22 +26418,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -26434,10 +26441,10 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="C2" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
@@ -26451,10 +26458,10 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="C3" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="D3" t="s">
         <v>438</v>
@@ -26468,10 +26475,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="C4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="D4" t="s">
         <v>842</v>
@@ -26485,10 +26492,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="C5" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="D5" t="s">
         <v>862</v>
@@ -26502,10 +26509,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="C6" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="D6" t="s">
         <v>1032</v>
@@ -26519,10 +26526,10 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="C7" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="D7" t="s">
         <v>1056</v>
@@ -26536,10 +26543,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="C8" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="D8" t="s">
         <v>1056</v>
@@ -26553,10 +26560,10 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C9" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="D9" t="s">
         <v>1059</v>
@@ -26570,10 +26577,10 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="C10" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="D10" t="s">
         <v>1056</v>
@@ -26587,10 +26594,10 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="C11" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="D11">
         <v>2045</v>
@@ -26604,10 +26611,10 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="C12" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="D12" t="s">
         <v>1281</v>
@@ -26621,10 +26628,10 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="C13" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="D13" t="s">
         <v>1354</v>
@@ -26638,10 +26645,10 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="C14" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>1358</v>
@@ -26655,13 +26662,13 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="C15" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="D15" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="E15" t="s">
         <v>1056</v>
@@ -26672,13 +26679,13 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="C16" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="D16" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="E16" t="s">
         <v>1056</v>
@@ -26689,13 +26696,13 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="C17" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="D17" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="E17" t="s">
         <v>1056</v>
@@ -26706,10 +26713,10 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="C18" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="D18" t="s">
         <v>420</v>
@@ -26723,10 +26730,10 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="C19" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="D19" t="s">
         <v>335</v>

--- a/docs/data/local_authority_climate_emergency_declarations/latest/local_authority_climate_emergency_declarations.xlsx
+++ b/docs/data/local_authority_climate_emergency_declarations/latest/local_authority_climate_emergency_declarations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5849" uniqueCount="2166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5849" uniqueCount="2146">
   <si>
     <t>Dataset</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Contributors</t>
@@ -4210,7 +4210,7 @@
     <t>https://www.calderdale.gov.uk/nweb/COUNCIL.minutes_pkg.view_doc?p_ID=55294&amp;p_Type=A</t>
   </si>
   <si>
-    <t>https://democracy.cambridge.gov.uk/documents/g3405/Printed%20minutes%2021st-Feb-2019%2018.00%20Council.pdf?T=1</t>
+    <t>Loading...</t>
   </si>
   <si>
     <t>https://cambridgeshire.cmis.uk.com/CCC_live/Document.ashx?czJKcaeAi5tUFL1DTL2UE4zNRBcoShgo=oSKQW2tLJiZqt0n%2fhBWiq9t3TvOnL5%2fC6ayCT2JROp2g%2bE0QDs8yWg%3d%3d&amp;rUzwRPf%2bZ3zd4E7Ikn8Lyw%3d%3d=pwRE6AGJFLDNlh225F5QMaQWCtPHwdhUfCZ%2fLUQzgA2uL5jNRG4jdQ%3d%3d&amp;mCTIbCubSFfXsDGW9IXnlg%3d%3d=hFflUdN3100%3d&amp;kCx1AnS9%2fpWZQ40DXFvdEw%3d%3d=hFflUdN3100%3d&amp;uJovDxwdjMPoYv%2bAJvYtyA%3d%3d=ctNJFf55vVA%3d&amp;FgPlIEJYlotS%2bYGoBi5olA%3d%3d=NHdURQburHA%3d&amp;d9Qjj0ag1Pd993jsyOJqFvmyB7X0CSQK=ctNJFf55vVA%3d&amp;WGewmoAfeNR9xqBux0r1Q8Za60lavYmz=ctNJFf55vVA%3d&amp;WGewmoAfeNQ16B2MHuCpMRKZMwaG1PaO=ctNJFf55vVA%3d</t>
@@ -4222,9 +4222,6 @@
     <t>https://democracy.canterbury.gov.uk/documents/g12133/Printed%20minutes%2018th-Jul-2019%2019.00%20Council.pdf?T=1</t>
   </si>
   <si>
-    <t>https://carlisle.cmis.uk.com/Meetings/tabid/73/ctl/ViewMeetingPublic/mid/410/Meeting/4573/Committee/823/Default.aspx</t>
-  </si>
-  <si>
     <t>http://democracy.carmarthenshire.gov.wales/ieListDocuments.aspx?CId=155&amp;MId=2178&amp;Ver=4</t>
   </si>
   <si>
@@ -4294,9 +4291,6 @@
     <t>https://meetings.cotswold.gov.uk/Data/Council/201907031800/Agenda/vjwBsCdK4RwpmDERT4Uw3jMyxAJnj1.pdf</t>
   </si>
   <si>
-    <t>https://edemocracy.coventry.gov.uk/ieListDocuments.aspx?CId=130&amp;MId=11931&amp;Ver=4</t>
-  </si>
-  <si>
     <t>https://www.cravendc.gov.uk/media/8395/council-meeting-6-august-2019-agenda-and-report-pack.pdf</t>
   </si>
   <si>
@@ -4306,9 +4300,6 @@
     <t>https://democracy.dacorum.gov.uk/mgAi.aspx?ID=12434</t>
   </si>
   <si>
-    <t>https://democracy.darlington.gov.uk/ieListDocuments.aspx?CId=136&amp;MId=1961</t>
-  </si>
-  <si>
     <t>http://committeedmz.dartford.gov.uk/documents/g2858/Printed%20minutes%20Monday%2007-Oct-2019%2019.00%20General%20Assembly%20of%20the%20Council.pdf?T=1</t>
   </si>
   <si>
@@ -4324,9 +4315,6 @@
     <t>https://www.derbyshiredales.gov.uk/environment-and-waste/energy-advice-2</t>
   </si>
   <si>
-    <t>http://meetings.derrycityandstrabanedistrict.com/documents/g1375/Printed%20minutes%20Thursday%2027-Jun-2019%2016.00%20Derry%20City%20and%20Strabane%20District%20Council.pdf?T=1</t>
-  </si>
-  <si>
     <t>https://democracy.devon.gov.uk/documents/g2791/Public%20minutes%2021st-Feb-2019%2014.15%20Council.pdf?T=11</t>
   </si>
   <si>
@@ -4477,15 +4465,9 @@
     <t>http://councillors.herefordshire.gov.uk/mgAi.aspx?ID=52573</t>
   </si>
   <si>
-    <t>https://democracy.hertfordshire.gov.uk/documents/g217/Public%20minutes%20Tuesday%2016-Jul-2019%2010.00%20County%20Council.pdf?T=11</t>
-  </si>
-  <si>
     <t>https://hertsmere.moderngov.co.uk/ieListDocuments.aspx?CId=106&amp;MId=10541&amp;Ver=4</t>
   </si>
   <si>
-    <t>https://democracy.highpeak.gov.uk/documents/g1358/Printed%20minutes%2015th-Oct-2019%2019.15%20Council%20HPBC.pdf?T=1</t>
-  </si>
-  <si>
     <t>https://www.hinckley-bosworth.gov.uk/press/article/2068/climate_emergency_declared_by_hinckley_and_bosworth_borough_council</t>
   </si>
   <si>
@@ -4495,9 +4477,6 @@
     <t>https://cmis.hullcc.gov.uk/CMIS/Document.ashx?czJKcaeAi5tUFL1DTL2UE4zNRBcoShgo=FsXwxVhdYyl0ta%2fZUrHTbVs4giu0oomUsx%2fZyHbVS%2f8rRay254AWuA%3d%3d&amp;rUzwRPf%2bZ3zd4E7Ikn8Lyw%3d%3d=pwRE6AGJFLDNlh225F5QMaQWCtPHwdhUfCZ%2fLUQzgA2uL5jNRG4jdQ%3d%3d&amp;mCTIbCubSFfXsDGW9IXnlg%3d%3d=hFflUdN3100%3d&amp;kCx1AnS9%2fpWZQ40DXFvdEw%3d%3d=hFflUdN3100%3d&amp;uJovDxwdjMPoYv%2bAJvYtyA%3d%3d=ctNJFf55vVA%3d&amp;FgPlIEJYlotS%2bYGoBi5olA%3d%3d=NHdURQburHA%3d&amp;d9Qjj0ag1Pd993jsyOJqFvmyB7X0CSQK=ctNJFf55vVA%3d&amp;WGewmoAfeNR9xqBux0r1Q8Za60lavYmz=ctNJFf55vVA%3d&amp;WGewmoAfeNQ16B2MHuCpMRKZMwaG1PaO=ctNJFf55vVA%3d</t>
   </si>
   <si>
-    <t>https://democracy.hyndburnbc.gov.uk/documents/g2461/Printed%20minutes%2019th-Sep-2019%2019.00%20Council.pdf?T=1</t>
-  </si>
-  <si>
     <t>https://democracy.ipswich.gov.uk/mgAi.aspx?ID=13762</t>
   </si>
   <si>
@@ -4546,9 +4525,6 @@
     <t>https://democracy.lichfielddc.gov.uk/documents/s8191/3%20-%20Draft%20Minutes%20-%2010%20December%202019.pdf</t>
   </si>
   <si>
-    <t>http://democratic.lincoln.gov.uk/documents/g4225/Printed%20minutes%2023rd-Jul-2019%2018.30%20Council.pdf?T=1</t>
-  </si>
-  <si>
     <t>http://councillors.liverpool.gov.uk/documents/g17299/Printed%20minutes%2017th-Jul-2019%2017.00%20City%20Council%20Meeting.pdf?T=1</t>
   </si>
   <si>
@@ -4588,9 +4564,6 @@
     <t>https://www2.harrow.gov.uk/(S(l2rac3j0gsxsevi5ajrujwms))/documents/s160080/Reference%20to%20Cabinet%20-%20Climate%20Change%20Motion.pdf</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1iYAwFQ3NuSP5uxBbEyhwMtAET464sPdO/view</t>
-  </si>
-  <si>
     <t>https://www.hounslow.gov.uk/news/article/828/council_commits_to_action_on_climate_emergency#:~:text=At%20a%20meeting%20of%20Borough,Act%20Environmental%20and%20Sustainability%20Strategy.</t>
   </si>
   <si>
@@ -4660,9 +4633,6 @@
     <t>https://mea.public-minutes.info/reader/view/422374</t>
   </si>
   <si>
-    <t>https://democracy.middevon.gov.uk/documents/g1181/Public%20minutes%2026th-Jun-2019%2018.00%20Council.pdf?T=11</t>
-  </si>
-  <si>
     <t>https://baberghmidsuffolk.moderngov.co.uk/documents/g2503/Printed%20minutes%2023rd-Jul-2019%2017.30%20Babergh%20Council.pdf?T=1</t>
   </si>
   <si>
@@ -4756,9 +4726,6 @@
     <t>https://cmis.norwich.gov.uk/Live/Document.ashx?czJKcaeAi5tUFL1DTL2UE4zNRBcoShgo=hllhbMKESqC%2fr9zTKIK08PUYoGy1Zl6YraERB55yhv9TwZMQdaCl6A%3d%3d&amp;rUzwRPf%2bZ3zd4E7Ikn8Lyw%3d%3d=pwRE6AGJFLDNlh225F5QMaQWCtPHwdhUfCZ%2fLUQzgA2uL5jNRG4jdQ%3d%3d&amp;mCTIbCubSFfXsDGW9IXnlg%3d%3d=hFflUdN3100%3d&amp;kCx1AnS9%2fpWZQ40DXFvdEw%3d%3d=hFflUdN3100%3d&amp;uJovDxwdjMPoYv%2bAJvYtyA%3d%3d=ctNJFf55vVA%3d&amp;FgPlIEJYlotS%2bYGoBi5olA%3d%3d=NHdURQburHA%3d&amp;d9Qjj0ag1Pd993jsyOJqFvmyB7X0CSQK=ctNJFf55vVA%3d&amp;WGewmoAfeNR9xqBux0r1Q8Za60lavYmz=ctNJFf55vVA%3d&amp;WGewmoAfeNQ16B2MHuCpMRKZMwaG1PaO=ctNJFf55vVA%3d</t>
   </si>
   <si>
-    <t>https://committee.nottinghamcity.gov.uk/documents/g7955/Public%20minutes%2013th-Jan-2020%2014.00%20City%20Council.pdf?T=11</t>
-  </si>
-  <si>
     <t>https://www.nottinghamshire.gov.uk/dms/Meetings/tabid/70/ctl/ViewMeetingPublic/mid/397/Meeting/5417/Committee/513/SelectedTab/Documents/Default.aspx</t>
   </si>
   <si>
@@ -4831,9 +4798,6 @@
     <t>https://committees.royalgreenwich.gov.uk/Document.ashx?czJKcaeAi5tUFL1DTL2UE4zNRBcoShgo=U8uODRt%2flf2HFutOcc5sJS4%2f%2bAH1pfZtawFsK7iz7thvT%2blYuZrtZw%3d%3d&amp;rUzwRPf%2bZ3zd4E7Ikn8Lyw%3d%3d=pwRE6AGJFLDNlh225F5QMaQWCtPHwdhUfCZ%2fLUQzgA2uL5jNRG4jdQ%3d%3d&amp;mCTIbCubSFfXsDGW9IXnlg%3d%3d=hFflUdN3100%3d&amp;kCx1AnS9%2fpWZQ40DXFvdEw%3d%3d=hFflUdN3100%3d&amp;uJovDxwdjMPoYv%2bAJvYtyA%3d%3d=ctNJFf55vVA%3d&amp;FgPlIEJYlotS%2bYGoBi5olA%3d%3d=NHdURQburHA%3d&amp;d9Qjj0ag1Pd993jsyOJqFvmyB7X0CSQK=ctNJFf55vVA%3d&amp;WGewmoAfeNR9xqBux0r1Q8Za60lavYmz=ctNJFf55vVA%3d&amp;WGewmoAfeNQ16B2MHuCpMRKZMwaG1PaO=ctNJFf55vVA%3d</t>
   </si>
   <si>
-    <t>https://www.rbkc.gov.uk/sites/default/files/atoms/files/Agenda%2022%20Jan.pdf</t>
-  </si>
-  <si>
     <t>https://moderngov.kingston.gov.uk/documents/g8824/Printed%20minutes%20Tuesday%2025-Jun-2019%2019.30%20Environment%20and%20Sustainable%20Transport%20Committee.htm?T=1&amp;CT=2</t>
   </si>
   <si>
@@ -4861,9 +4825,6 @@
     <t>https://www.salford.gov.uk/your-council/climate-change/salford-s-climate-emergency-declaration/</t>
   </si>
   <si>
-    <t>https://cmis.sandwell.gov.uk/cmis5/Meetings/tabid/73/ctl/ViewMeetingPublic/mid/410/Meeting/37363/Committee/6025/SelectedTab/Documents/Default.aspx</t>
-  </si>
-  <si>
     <t>https://democracy.scarborough.gov.uk/documents/g10551/Printed%20minutes%2007th-Jan-2019%2014.00%20Council.pdf?T=1</t>
   </si>
   <si>
@@ -4906,9 +4867,6 @@
     <t>https://southderbyshire.cmis.uk.com/Southderbyshire/Document.ashx?czJKcaeAi5tUFL1DTL2UE4zNRBcoShgo=%2bvjjUMGYRr1ETVRDKct7U0kI%2fPnhFU0QALY1s04XDHzh83IjTw5HDA%3d%3d&amp;rUzwRPf%2bZ3zd4E7Ikn8Lyw%3d%3d=pwRE6AGJFLDNlh225F5QMaQWCtPHwdhUfCZ%2fLUQzgA2uL5jNRG4jdQ%3d%3d&amp;mCTIbCubSFfXsDGW9IXnlg%3d%3d=hFflUdN3100%3d&amp;kCx1AnS9%2fpWZQ40DXFvdEw%3d%3d=hFflUdN3100%3d&amp;uJovDxwdjMPoYv%2bAJvYtyA%3d%3d=ctNJFf55vVA%3d&amp;FgPlIEJYlotS%2bYGoBi5olA%3d%3d=NHdURQburHA%3d&amp;d9Qjj0ag1Pd993jsyOJqFvmyB7X0CSQK=ctNJFf55vVA%3d&amp;WGewmoAfeNR9xqBux0r1Q8Za60lavYmz=ctNJFf55vVA%3d&amp;WGewmoAfeNQ16B2MHuCpMRKZMwaG1PaO=ctNJFf55vVA%3d</t>
   </si>
   <si>
-    <t>https://www.climateemergency.uk/wp-content/uploads/2019/07/South-Glos.pdf</t>
-  </si>
-  <si>
     <t>https://mg.swdevon.gov.uk/documents/g1386/Printed%20minutes%2025th-Jul-2019%2014.00%20South%20Hams%20Council.pdf?T=1</t>
   </si>
   <si>
@@ -4951,9 +4909,6 @@
     <t>http://moderngov.sthelens.gov.uk/documents/g5852/Printed%20minutes%2010th-Jul-2019%2018.15%20Council.pdf?T=1</t>
   </si>
   <si>
-    <t>https://www.staffordbc.gov.uk/sites/default/files/cme/DocMan1/Committee%20Minutes%2019-20/Council/MCouncil%20-%2023%20July%202019.pdf</t>
-  </si>
-  <si>
     <t>http://moderngov.staffordshire.gov.uk/documents/g10643/Public%20reports%20pack%2025th-Jul-2019%2010.00%20County%20Council.pdf?T=10</t>
   </si>
   <si>
@@ -4990,9 +4945,6 @@
     <t>https://surreyheath.moderngov.co.uk/documents/g3190/Printed%20minutes%2009th-Oct-2019%2019.00%20Council.pdf?T=1</t>
   </si>
   <si>
-    <t>https://services.swale.gov.uk/meetings/ieListDocuments.aspx?CId=128&amp;MId=2156&amp;Ver=4</t>
-  </si>
-  <si>
     <t>https://tameside.moderngov.co.uk/mgAi.aspx?ID=44691</t>
   </si>
   <si>
@@ -5014,9 +4966,6 @@
     <t>https://democracy.testvalley.gov.uk/documents/g200/Printed%20minutes%20Wednesday%2004-Sep-2019%2017.30%20Council.pdf?T=1</t>
   </si>
   <si>
-    <t>https://minutes.tewkesbury.gov.uk/documents/g3727/Printed%20minutes%20Tuesday%2013-Aug-2019%2016.30%20Overview%20and%20Scrutiny.pdf?T=1</t>
-  </si>
-  <si>
     <t>https://democracy.thanet.gov.uk/documents/g5213/Printed%20minutes%2011th-Jul-2019%2019.00%20Council.pdf?T=1</t>
   </si>
   <si>
@@ -5110,9 +5059,6 @@
     <t>https://meetings.westoxon.gov.uk/Data/Council/201906261400/Agenda/s0QiDS4f1lFA4mhhkS8Irvz1FSMRxq.pdf</t>
   </si>
   <si>
-    <t>https://democracy.westsuffolk.gov.uk/documents/g4511/Printed%20minutes%20Thursday%2019-Sep-2019%2018.30%20Council.pdf?T=1</t>
-  </si>
-  <si>
     <t>https://westsussex.moderngov.co.uk/documents/g2004/Public%20minutes%2005th-Apr-2019%2010.30%20County%20Council.pdf?T=11</t>
   </si>
   <si>
@@ -5134,13 +5080,7 @@
     <t>https://democracy.wirral.gov.uk/documents/g7412/Printed%20minutes%2010th-Dec-2018%2018.00%20Council.pdf?T=1</t>
   </si>
   <si>
-    <t>https://moderngov.woking.gov.uk/documents/g688/Printed%20minutes%2025th-Jul-2019%2019.00%20Council.pdf?T=1</t>
-  </si>
-  <si>
     <t>https://wokingham.moderngov.co.uk/documents/g3269/Public%20reports%20pack%2018th-Jul-2019%2019.30%20Council.pdf?T=10</t>
-  </si>
-  <si>
-    <t>https://wolverhampton.moderngov.co.uk/documents/s115271/Motions%20on%20Notice%20170719.pdf</t>
   </si>
   <si>
     <t>http://committee.worcester.gov.uk/documents/g4430/Printed%20minutes%2016th-Jul-2019%2019.00%20Council.pdf?T=1</t>
@@ -7105,13 +7045,13 @@
         <v>1358</v>
       </c>
       <c r="N2" t="s">
-        <v>1714</v>
+        <v>1694</v>
       </c>
       <c r="O2" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P2" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -7146,13 +7086,13 @@
         <v>1359</v>
       </c>
       <c r="N3" t="s">
-        <v>1715</v>
+        <v>1695</v>
       </c>
       <c r="O3" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P3" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -7193,13 +7133,13 @@
         <v>1360</v>
       </c>
       <c r="N4" t="s">
-        <v>1716</v>
+        <v>1696</v>
       </c>
       <c r="O4" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P4" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q4" t="s">
         <v>420</v>
@@ -7243,13 +7183,13 @@
         <v>1361</v>
       </c>
       <c r="N5" t="s">
-        <v>1717</v>
+        <v>1697</v>
       </c>
       <c r="O5" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P5" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q5" t="s">
         <v>119</v>
@@ -7293,13 +7233,13 @@
         <v>1362</v>
       </c>
       <c r="N6" t="s">
-        <v>1718</v>
+        <v>1698</v>
       </c>
       <c r="O6" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P6" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q6" t="s">
         <v>125</v>
@@ -7343,13 +7283,13 @@
         <v>1363</v>
       </c>
       <c r="N7" t="s">
-        <v>1719</v>
+        <v>1699</v>
       </c>
       <c r="O7" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P7" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -7375,13 +7315,13 @@
         <v>1364</v>
       </c>
       <c r="N8" t="s">
-        <v>1720</v>
+        <v>1700</v>
       </c>
       <c r="O8" t="s">
-        <v>2120</v>
+        <v>2100</v>
       </c>
       <c r="P8" t="s">
-        <v>2130</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -7419,13 +7359,13 @@
         <v>1365</v>
       </c>
       <c r="N9" t="s">
-        <v>1721</v>
+        <v>1701</v>
       </c>
       <c r="O9" t="s">
-        <v>2120</v>
+        <v>2100</v>
       </c>
       <c r="P9" t="s">
-        <v>2130</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -7463,13 +7403,13 @@
         <v>1366</v>
       </c>
       <c r="N10" t="s">
-        <v>1722</v>
+        <v>1702</v>
       </c>
       <c r="O10" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P10" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -7495,13 +7435,13 @@
         <v>1364</v>
       </c>
       <c r="N11" t="s">
-        <v>1723</v>
+        <v>1703</v>
       </c>
       <c r="O11" t="s">
-        <v>2120</v>
+        <v>2100</v>
       </c>
       <c r="P11" t="s">
-        <v>2130</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -7542,13 +7482,13 @@
         <v>1367</v>
       </c>
       <c r="N12" t="s">
-        <v>1724</v>
+        <v>1704</v>
       </c>
       <c r="O12" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P12" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q12" t="s">
         <v>420</v>
@@ -7577,13 +7517,13 @@
         <v>1364</v>
       </c>
       <c r="N13" t="s">
-        <v>1725</v>
+        <v>1705</v>
       </c>
       <c r="O13" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P13" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q13" t="s">
         <v>289</v>
@@ -7621,13 +7561,13 @@
         <v>1368</v>
       </c>
       <c r="N14" t="s">
-        <v>1726</v>
+        <v>1706</v>
       </c>
       <c r="O14" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P14" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q14" t="s">
         <v>200</v>
@@ -7671,13 +7611,13 @@
         <v>1369</v>
       </c>
       <c r="N15" t="s">
-        <v>1727</v>
+        <v>1707</v>
       </c>
       <c r="O15" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P15" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q15" t="s">
         <v>371</v>
@@ -7721,13 +7661,13 @@
         <v>1370</v>
       </c>
       <c r="N16" t="s">
-        <v>1728</v>
+        <v>1708</v>
       </c>
       <c r="O16" t="s">
-        <v>2122</v>
+        <v>2102</v>
       </c>
       <c r="P16" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R16" t="s">
         <v>335</v>
@@ -7771,13 +7711,13 @@
         <v>1371</v>
       </c>
       <c r="N17" t="s">
-        <v>1729</v>
+        <v>1709</v>
       </c>
       <c r="O17" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P17" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q17" t="s">
         <v>119</v>
@@ -7809,13 +7749,13 @@
         <v>1364</v>
       </c>
       <c r="N18" t="s">
-        <v>1730</v>
+        <v>1710</v>
       </c>
       <c r="O18" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P18" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q18" t="s">
         <v>157</v>
@@ -7859,13 +7799,13 @@
         <v>1372</v>
       </c>
       <c r="N19" t="s">
-        <v>1731</v>
+        <v>1711</v>
       </c>
       <c r="O19" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P19" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q19" t="s">
         <v>179</v>
@@ -7894,13 +7834,13 @@
         <v>1364</v>
       </c>
       <c r="N20" t="s">
-        <v>1732</v>
+        <v>1712</v>
       </c>
       <c r="O20" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P20" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q20" t="s">
         <v>289</v>
@@ -7944,13 +7884,13 @@
         <v>1373</v>
       </c>
       <c r="N21" t="s">
-        <v>1733</v>
+        <v>1713</v>
       </c>
       <c r="O21" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P21" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
       <c r="R21" t="s">
         <v>417</v>
@@ -7994,13 +7934,13 @@
         <v>1374</v>
       </c>
       <c r="N22" t="s">
-        <v>1734</v>
+        <v>1714</v>
       </c>
       <c r="O22" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P22" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -8038,13 +7978,13 @@
         <v>1375</v>
       </c>
       <c r="N23" t="s">
-        <v>1735</v>
+        <v>1715</v>
       </c>
       <c r="O23" t="s">
-        <v>2120</v>
+        <v>2100</v>
       </c>
       <c r="P23" t="s">
-        <v>2130</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -8085,13 +8025,13 @@
         <v>1376</v>
       </c>
       <c r="N24" t="s">
-        <v>1736</v>
+        <v>1716</v>
       </c>
       <c r="O24" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P24" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R24" t="s">
         <v>415</v>
@@ -8123,13 +8063,13 @@
         <v>1364</v>
       </c>
       <c r="N25" t="s">
-        <v>1737</v>
+        <v>1717</v>
       </c>
       <c r="O25" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P25" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q25" t="s">
         <v>208</v>
@@ -8173,13 +8113,13 @@
         <v>1377</v>
       </c>
       <c r="N26" t="s">
-        <v>1738</v>
+        <v>1718</v>
       </c>
       <c r="O26" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P26" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -8220,13 +8160,13 @@
         <v>1378</v>
       </c>
       <c r="N27" t="s">
-        <v>1739</v>
+        <v>1719</v>
       </c>
       <c r="O27" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P27" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -8267,13 +8207,13 @@
         <v>1379</v>
       </c>
       <c r="N28" t="s">
-        <v>1740</v>
+        <v>1720</v>
       </c>
       <c r="O28" t="s">
-        <v>2125</v>
+        <v>2105</v>
       </c>
       <c r="P28" t="s">
-        <v>2133</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -8302,13 +8242,13 @@
         <v>1364</v>
       </c>
       <c r="N29" t="s">
-        <v>1741</v>
+        <v>1721</v>
       </c>
       <c r="O29" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P29" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q29" t="s">
         <v>125</v>
@@ -8352,13 +8292,13 @@
         <v>1380</v>
       </c>
       <c r="N30" t="s">
-        <v>1742</v>
+        <v>1722</v>
       </c>
       <c r="O30" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P30" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R30" t="s">
         <v>174</v>
@@ -8402,13 +8342,13 @@
         <v>1381</v>
       </c>
       <c r="N31" t="s">
-        <v>1743</v>
+        <v>1723</v>
       </c>
       <c r="O31" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P31" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q31" t="s">
         <v>212</v>
@@ -8452,13 +8392,13 @@
         <v>1382</v>
       </c>
       <c r="N32" t="s">
-        <v>1744</v>
+        <v>1724</v>
       </c>
       <c r="O32" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P32" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -8487,13 +8427,13 @@
         <v>1364</v>
       </c>
       <c r="N33" t="s">
-        <v>1745</v>
+        <v>1725</v>
       </c>
       <c r="O33" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P33" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -8534,13 +8474,13 @@
         <v>1383</v>
       </c>
       <c r="N34" t="s">
-        <v>1746</v>
+        <v>1726</v>
       </c>
       <c r="O34" t="s">
-        <v>2122</v>
+        <v>2102</v>
       </c>
       <c r="P34" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R34" t="s">
         <v>421</v>
@@ -8584,13 +8524,13 @@
         <v>1384</v>
       </c>
       <c r="N35" t="s">
-        <v>1747</v>
+        <v>1727</v>
       </c>
       <c r="O35" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P35" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q35" t="s">
         <v>157</v>
@@ -8634,13 +8574,13 @@
         <v>1385</v>
       </c>
       <c r="N36" t="s">
-        <v>1748</v>
+        <v>1728</v>
       </c>
       <c r="O36" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P36" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q36" t="s">
         <v>268</v>
@@ -8672,13 +8612,13 @@
         <v>1364</v>
       </c>
       <c r="N37" t="s">
-        <v>1749</v>
+        <v>1729</v>
       </c>
       <c r="O37" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P37" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q37" t="s">
         <v>157</v>
@@ -8722,13 +8662,13 @@
         <v>1386</v>
       </c>
       <c r="N38" t="s">
-        <v>1750</v>
+        <v>1730</v>
       </c>
       <c r="O38" t="s">
-        <v>2125</v>
+        <v>2105</v>
       </c>
       <c r="P38" t="s">
-        <v>2133</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -8769,13 +8709,13 @@
         <v>1387</v>
       </c>
       <c r="N39" t="s">
-        <v>1751</v>
+        <v>1731</v>
       </c>
       <c r="O39" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P39" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -8816,13 +8756,13 @@
         <v>1388</v>
       </c>
       <c r="N40" t="s">
-        <v>1752</v>
+        <v>1732</v>
       </c>
       <c r="O40" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P40" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
       <c r="R40" t="s">
         <v>417</v>
@@ -8854,13 +8794,13 @@
         <v>1389</v>
       </c>
       <c r="N41" t="s">
-        <v>1753</v>
+        <v>1733</v>
       </c>
       <c r="O41" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P41" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q41" t="s">
         <v>268</v>
@@ -8901,13 +8841,13 @@
         <v>1390</v>
       </c>
       <c r="N42" t="s">
-        <v>1754</v>
+        <v>1734</v>
       </c>
       <c r="O42" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P42" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q42" t="s">
         <v>431</v>
@@ -8936,13 +8876,13 @@
         <v>1364</v>
       </c>
       <c r="N43" t="s">
-        <v>1755</v>
+        <v>1735</v>
       </c>
       <c r="O43" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P43" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q43" t="s">
         <v>188</v>
@@ -8986,13 +8926,13 @@
         <v>1391</v>
       </c>
       <c r="N44" t="s">
-        <v>1756</v>
+        <v>1736</v>
       </c>
       <c r="O44" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P44" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q44" t="s">
         <v>289</v>
@@ -9036,13 +8976,13 @@
         <v>1392</v>
       </c>
       <c r="N45" t="s">
-        <v>1757</v>
+        <v>1737</v>
       </c>
       <c r="O45" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P45" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -9083,13 +9023,13 @@
         <v>1393</v>
       </c>
       <c r="N46" t="s">
-        <v>1758</v>
+        <v>1738</v>
       </c>
       <c r="O46" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P46" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q46" t="s">
         <v>204</v>
@@ -9133,13 +9073,13 @@
         <v>1394</v>
       </c>
       <c r="N47" t="s">
-        <v>1759</v>
+        <v>1739</v>
       </c>
       <c r="O47" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P47" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R47" t="s">
         <v>174</v>
@@ -9183,13 +9123,13 @@
         <v>1395</v>
       </c>
       <c r="N48" t="s">
-        <v>1760</v>
+        <v>1740</v>
       </c>
       <c r="O48" t="s">
-        <v>2125</v>
+        <v>2105</v>
       </c>
       <c r="P48" t="s">
-        <v>2133</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -9230,13 +9170,13 @@
         <v>1396</v>
       </c>
       <c r="N49" t="s">
-        <v>1761</v>
+        <v>1741</v>
       </c>
       <c r="O49" t="s">
-        <v>2122</v>
+        <v>2102</v>
       </c>
       <c r="P49" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R49" t="s">
         <v>421</v>
@@ -9276,17 +9216,17 @@
       <c r="K50" t="s">
         <v>1290</v>
       </c>
-      <c r="M50" s="2" t="s">
+      <c r="M50" t="s">
         <v>1397</v>
       </c>
       <c r="N50" t="s">
-        <v>1762</v>
+        <v>1742</v>
       </c>
       <c r="O50" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P50" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q50" t="s">
         <v>86</v>
@@ -9321,13 +9261,13 @@
         <v>1364</v>
       </c>
       <c r="N51" t="s">
-        <v>1763</v>
+        <v>1743</v>
       </c>
       <c r="O51" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P51" t="s">
-        <v>2134</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -9368,13 +9308,13 @@
         <v>1398</v>
       </c>
       <c r="N52" t="s">
-        <v>1764</v>
+        <v>1744</v>
       </c>
       <c r="O52" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P52" t="s">
-        <v>2135</v>
+        <v>2115</v>
       </c>
       <c r="R52" t="s">
         <v>85</v>
@@ -9418,13 +9358,13 @@
         <v>1399</v>
       </c>
       <c r="N53" t="s">
-        <v>1765</v>
+        <v>1745</v>
       </c>
       <c r="O53" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P53" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q53" t="s">
         <v>362</v>
@@ -9465,13 +9405,13 @@
         <v>1400</v>
       </c>
       <c r="N54" t="s">
-        <v>1766</v>
+        <v>1746</v>
       </c>
       <c r="O54" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P54" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q54" t="s">
         <v>200</v>
@@ -9511,17 +9451,17 @@
       <c r="K55" t="s">
         <v>1295</v>
       </c>
-      <c r="M55" s="2" t="s">
-        <v>1401</v>
+      <c r="M55" t="s">
+        <v>1397</v>
       </c>
       <c r="N55" t="s">
-        <v>1767</v>
+        <v>1747</v>
       </c>
       <c r="O55" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P55" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q55" t="s">
         <v>119</v>
@@ -9562,16 +9502,16 @@
         <v>1290</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="N56" t="s">
-        <v>1768</v>
+        <v>1748</v>
       </c>
       <c r="O56" t="s">
-        <v>2125</v>
+        <v>2105</v>
       </c>
       <c r="P56" t="s">
-        <v>2133</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -9597,13 +9537,13 @@
         <v>1364</v>
       </c>
       <c r="N57" t="s">
-        <v>1769</v>
+        <v>1749</v>
       </c>
       <c r="O57" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P57" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q57" t="s">
         <v>157</v>
@@ -9641,16 +9581,16 @@
         <v>1059</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="N58" t="s">
-        <v>1770</v>
+        <v>1750</v>
       </c>
       <c r="O58" t="s">
-        <v>2120</v>
+        <v>2100</v>
       </c>
       <c r="P58" t="s">
-        <v>2130</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -9688,16 +9628,16 @@
         <v>1059</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="N59" t="s">
-        <v>1771</v>
+        <v>1751</v>
       </c>
       <c r="O59" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P59" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -9735,16 +9675,16 @@
         <v>1296</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="N60" t="s">
-        <v>1772</v>
+        <v>1752</v>
       </c>
       <c r="O60" t="s">
-        <v>2125</v>
+        <v>2105</v>
       </c>
       <c r="P60" t="s">
-        <v>2133</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -9782,16 +9722,16 @@
         <v>1059</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="N61" t="s">
-        <v>1773</v>
+        <v>1753</v>
       </c>
       <c r="O61" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P61" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q61" t="s">
         <v>208</v>
@@ -9832,16 +9772,16 @@
         <v>1297</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="N62" t="s">
-        <v>1774</v>
+        <v>1754</v>
       </c>
       <c r="O62" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P62" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q62" t="s">
         <v>157</v>
@@ -9882,16 +9822,16 @@
         <v>1288</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="N63" t="s">
-        <v>1775</v>
+        <v>1755</v>
       </c>
       <c r="O63" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P63" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q63" t="s">
         <v>170</v>
@@ -9932,16 +9872,16 @@
         <v>1298</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="N64" t="s">
-        <v>1776</v>
+        <v>1756</v>
       </c>
       <c r="O64" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P64" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q64" t="s">
         <v>295</v>
@@ -9982,16 +9922,16 @@
         <v>1059</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="N65" t="s">
-        <v>1777</v>
+        <v>1757</v>
       </c>
       <c r="O65" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P65" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -10029,16 +9969,16 @@
         <v>1285</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="N66" t="s">
-        <v>1778</v>
+        <v>1758</v>
       </c>
       <c r="O66" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P66" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -10076,16 +10016,16 @@
         <v>1290</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="N67" t="s">
-        <v>1779</v>
+        <v>1759</v>
       </c>
       <c r="O67" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P67" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q67" t="s">
         <v>125</v>
@@ -10123,16 +10063,16 @@
         <v>1299</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="N68" t="s">
-        <v>1780</v>
+        <v>1760</v>
       </c>
       <c r="O68" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P68" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q68" t="s">
         <v>420</v>
@@ -10173,16 +10113,16 @@
         <v>1288</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="N69" t="s">
-        <v>1781</v>
+        <v>1761</v>
       </c>
       <c r="O69" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P69" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q69" t="s">
         <v>204</v>
@@ -10223,16 +10163,16 @@
         <v>1290</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="N70" t="s">
-        <v>1782</v>
+        <v>1762</v>
       </c>
       <c r="O70" t="s">
-        <v>2125</v>
+        <v>2105</v>
       </c>
       <c r="P70" t="s">
-        <v>2133</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -10270,16 +10210,16 @@
         <v>1288</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="N71" t="s">
-        <v>1783</v>
+        <v>1763</v>
       </c>
       <c r="O71" t="s">
-        <v>2125</v>
+        <v>2105</v>
       </c>
       <c r="P71" t="s">
-        <v>2133</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -10317,16 +10257,16 @@
         <v>1300</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="N72" t="s">
-        <v>1784</v>
+        <v>1764</v>
       </c>
       <c r="O72" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P72" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -10355,13 +10295,13 @@
         <v>1364</v>
       </c>
       <c r="N73" t="s">
-        <v>1785</v>
+        <v>1765</v>
       </c>
       <c r="O73" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P73" t="s">
-        <v>2136</v>
+        <v>2116</v>
       </c>
       <c r="R73" t="s">
         <v>437</v>
@@ -10402,16 +10342,16 @@
         <v>1302</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="N74" t="s">
-        <v>1786</v>
+        <v>1766</v>
       </c>
       <c r="O74" t="s">
-        <v>2122</v>
+        <v>2102</v>
       </c>
       <c r="P74" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -10446,16 +10386,16 @@
         <v>1059</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="N75" t="s">
-        <v>1787</v>
+        <v>1767</v>
       </c>
       <c r="O75" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P75" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -10493,16 +10433,16 @@
         <v>1059</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="N76" t="s">
-        <v>1788</v>
+        <v>1768</v>
       </c>
       <c r="O76" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P76" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q76" t="s">
         <v>157</v>
@@ -10531,13 +10471,13 @@
         <v>1364</v>
       </c>
       <c r="N77" t="s">
-        <v>1789</v>
+        <v>1769</v>
       </c>
       <c r="O77" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P77" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -10575,16 +10515,16 @@
         <v>1303</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="N78" t="s">
-        <v>1790</v>
+        <v>1770</v>
       </c>
       <c r="O78" t="s">
-        <v>2125</v>
+        <v>2105</v>
       </c>
       <c r="P78" t="s">
-        <v>2133</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -10619,16 +10559,16 @@
         <v>1304</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="N79" t="s">
-        <v>1791</v>
+        <v>1771</v>
       </c>
       <c r="O79" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P79" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q79" t="s">
         <v>119</v>
@@ -10669,16 +10609,16 @@
         <v>1288</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="N80" t="s">
-        <v>1792</v>
+        <v>1772</v>
       </c>
       <c r="O80" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P80" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -10716,16 +10656,16 @@
         <v>1305</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="N81" t="s">
-        <v>1793</v>
+        <v>1773</v>
       </c>
       <c r="O81" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P81" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q81" t="s">
         <v>170</v>
@@ -10762,17 +10702,17 @@
       <c r="K82" t="s">
         <v>1306</v>
       </c>
-      <c r="M82" s="2" t="s">
-        <v>1425</v>
+      <c r="M82" t="s">
+        <v>1397</v>
       </c>
       <c r="N82" t="s">
-        <v>1794</v>
+        <v>1774</v>
       </c>
       <c r="O82" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P82" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R82" t="s">
         <v>415</v>
@@ -10813,16 +10753,16 @@
         <v>1288</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="N83" t="s">
-        <v>1795</v>
+        <v>1775</v>
       </c>
       <c r="O83" t="s">
-        <v>2122</v>
+        <v>2102</v>
       </c>
       <c r="P83" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q83" t="s">
         <v>285</v>
@@ -10863,16 +10803,16 @@
         <v>1059</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="N84" t="s">
-        <v>1796</v>
+        <v>1776</v>
       </c>
       <c r="O84" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P84" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q84" t="s">
         <v>420</v>
@@ -10904,13 +10844,13 @@
         <v>1364</v>
       </c>
       <c r="N85" t="s">
-        <v>1797</v>
+        <v>1777</v>
       </c>
       <c r="O85" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P85" t="s">
-        <v>2135</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -10945,16 +10885,16 @@
         <v>1059</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="N86" t="s">
-        <v>1798</v>
+        <v>1778</v>
       </c>
       <c r="O86" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P86" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q86" t="s">
         <v>188</v>
@@ -10994,20 +10934,20 @@
       <c r="K87" t="s">
         <v>1059</v>
       </c>
-      <c r="M87" s="2" t="s">
-        <v>1429</v>
+      <c r="M87" t="s">
+        <v>1397</v>
       </c>
       <c r="N87" t="s">
-        <v>1799</v>
+        <v>1779</v>
       </c>
       <c r="O87" t="s">
-        <v>2127</v>
+        <v>2107</v>
       </c>
       <c r="P87" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
       <c r="R87" t="s">
-        <v>2139</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -11045,16 +10985,16 @@
         <v>1308</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="N88" t="s">
-        <v>1800</v>
+        <v>1780</v>
       </c>
       <c r="O88" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P88" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q88" t="s">
         <v>200</v>
@@ -11092,16 +11032,16 @@
         <v>1059</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="N89" t="s">
-        <v>1801</v>
+        <v>1781</v>
       </c>
       <c r="O89" t="s">
-        <v>2125</v>
+        <v>2105</v>
       </c>
       <c r="P89" t="s">
-        <v>2133</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -11136,16 +11076,16 @@
         <v>1309</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="N90" t="s">
-        <v>1802</v>
+        <v>1782</v>
       </c>
       <c r="O90" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P90" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -11183,16 +11123,16 @@
         <v>1310</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="N91" t="s">
-        <v>1803</v>
+        <v>1783</v>
       </c>
       <c r="O91" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P91" t="s">
-        <v>2135</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -11230,16 +11170,16 @@
         <v>1059</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="N92" t="s">
-        <v>1804</v>
+        <v>1784</v>
       </c>
       <c r="O92" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P92" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q92" t="s">
         <v>125</v>
@@ -11279,17 +11219,17 @@
       <c r="K93" t="s">
         <v>1285</v>
       </c>
-      <c r="M93" s="2" t="s">
-        <v>1435</v>
+      <c r="M93" t="s">
+        <v>1397</v>
       </c>
       <c r="N93" t="s">
-        <v>1805</v>
+        <v>1785</v>
       </c>
       <c r="O93" t="s">
-        <v>2120</v>
+        <v>2100</v>
       </c>
       <c r="P93" t="s">
-        <v>2130</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -11327,16 +11267,16 @@
         <v>1290</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="N94" t="s">
-        <v>1806</v>
+        <v>1786</v>
       </c>
       <c r="O94" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P94" t="s">
-        <v>2135</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -11374,16 +11314,16 @@
         <v>1301</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="N95" t="s">
-        <v>1807</v>
+        <v>1787</v>
       </c>
       <c r="O95" t="s">
-        <v>2122</v>
+        <v>2102</v>
       </c>
       <c r="P95" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R95" t="s">
         <v>335</v>
@@ -11424,16 +11364,16 @@
         <v>1290</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="N96" t="s">
-        <v>1808</v>
+        <v>1788</v>
       </c>
       <c r="O96" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P96" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -11471,16 +11411,16 @@
         <v>1290</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="N97" t="s">
-        <v>1809</v>
+        <v>1789</v>
       </c>
       <c r="O97" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P97" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q97" t="s">
         <v>200</v>
@@ -11521,16 +11461,16 @@
         <v>1311</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="N98" t="s">
-        <v>1810</v>
+        <v>1790</v>
       </c>
       <c r="O98" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P98" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R98" t="s">
         <v>415</v>
@@ -11571,16 +11511,16 @@
         <v>1312</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="N99" t="s">
-        <v>1811</v>
+        <v>1791</v>
       </c>
       <c r="O99" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P99" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -11618,16 +11558,16 @@
         <v>1285</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="N100" t="s">
-        <v>1812</v>
+        <v>1792</v>
       </c>
       <c r="O100" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P100" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -11665,16 +11605,16 @@
         <v>1290</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="N101" t="s">
-        <v>1813</v>
+        <v>1793</v>
       </c>
       <c r="O101" t="s">
-        <v>2127</v>
+        <v>2107</v>
       </c>
       <c r="P101" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
       <c r="R101" t="s">
         <v>271</v>
@@ -11703,13 +11643,13 @@
         <v>1364</v>
       </c>
       <c r="N102" t="s">
-        <v>1814</v>
+        <v>1794</v>
       </c>
       <c r="O102" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P102" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -11747,16 +11687,16 @@
         <v>1313</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="N103" t="s">
-        <v>1815</v>
+        <v>1795</v>
       </c>
       <c r="O103" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P103" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q103" t="s">
         <v>86</v>
@@ -11800,16 +11740,16 @@
         <v>1290</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="N104" t="s">
-        <v>1816</v>
+        <v>1796</v>
       </c>
       <c r="O104" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P104" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q104" t="s">
         <v>128</v>
@@ -11838,13 +11778,13 @@
         <v>1364</v>
       </c>
       <c r="N105" t="s">
-        <v>1817</v>
+        <v>1797</v>
       </c>
       <c r="O105" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P105" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -11882,16 +11822,16 @@
         <v>1290</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="N106" t="s">
-        <v>1818</v>
+        <v>1798</v>
       </c>
       <c r="O106" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P106" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q106" t="s">
         <v>179</v>
@@ -11932,16 +11872,16 @@
         <v>1288</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="N107" t="s">
-        <v>1819</v>
+        <v>1799</v>
       </c>
       <c r="O107" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P107" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q107" t="s">
         <v>188</v>
@@ -11973,13 +11913,13 @@
         <v>1364</v>
       </c>
       <c r="N108" t="s">
-        <v>1820</v>
+        <v>1800</v>
       </c>
       <c r="O108" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P108" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q108" t="s">
         <v>212</v>
@@ -12020,16 +11960,16 @@
         <v>1315</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="N109" t="s">
-        <v>1821</v>
+        <v>1801</v>
       </c>
       <c r="O109" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P109" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -12067,16 +12007,16 @@
         <v>1301</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="N110" t="s">
-        <v>1822</v>
+        <v>1802</v>
       </c>
       <c r="O110" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P110" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -12114,16 +12054,16 @@
         <v>1290</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="N111" t="s">
-        <v>1823</v>
+        <v>1803</v>
       </c>
       <c r="O111" t="s">
-        <v>2122</v>
+        <v>2102</v>
       </c>
       <c r="P111" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -12161,16 +12101,16 @@
         <v>1316</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="N112" t="s">
-        <v>1824</v>
+        <v>1804</v>
       </c>
       <c r="O112" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P112" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q112" t="s">
         <v>362</v>
@@ -12211,16 +12151,16 @@
         <v>1059</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="N113" t="s">
-        <v>1825</v>
+        <v>1805</v>
       </c>
       <c r="O113" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P113" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q113" t="s">
         <v>371</v>
@@ -12261,16 +12201,16 @@
         <v>1059</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="N114" t="s">
-        <v>1826</v>
+        <v>1806</v>
       </c>
       <c r="O114" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P114" t="s">
-        <v>2135</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -12308,16 +12248,16 @@
         <v>1288</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="N115" t="s">
-        <v>1827</v>
+        <v>1807</v>
       </c>
       <c r="O115" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P115" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q115" t="s">
         <v>148</v>
@@ -12358,16 +12298,16 @@
         <v>1288</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="N116" t="s">
-        <v>1828</v>
+        <v>1808</v>
       </c>
       <c r="O116" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P116" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q116" t="s">
         <v>179</v>
@@ -12408,16 +12348,16 @@
         <v>1317</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="N117" t="s">
-        <v>1829</v>
+        <v>1809</v>
       </c>
       <c r="O117" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P117" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q117" t="s">
         <v>119</v>
@@ -12458,16 +12398,16 @@
         <v>1288</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="N118" t="s">
-        <v>1830</v>
+        <v>1810</v>
       </c>
       <c r="O118" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P118" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -12505,16 +12445,16 @@
         <v>1059</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="N119" t="s">
-        <v>1831</v>
+        <v>1811</v>
       </c>
       <c r="O119" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P119" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q119" t="s">
         <v>373</v>
@@ -12555,16 +12495,16 @@
         <v>1288</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="N120" t="s">
-        <v>1832</v>
+        <v>1812</v>
       </c>
       <c r="O120" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P120" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q120" t="s">
         <v>157</v>
@@ -12605,16 +12545,16 @@
         <v>1059</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="N121" t="s">
-        <v>1833</v>
+        <v>1813</v>
       </c>
       <c r="O121" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P121" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q121" t="s">
         <v>373</v>
@@ -12655,16 +12595,16 @@
         <v>1290</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="N122" t="s">
-        <v>1834</v>
+        <v>1814</v>
       </c>
       <c r="O122" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P122" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q122" t="s">
         <v>125</v>
@@ -12699,13 +12639,13 @@
         <v>1364</v>
       </c>
       <c r="N123" t="s">
-        <v>1835</v>
+        <v>1815</v>
       </c>
       <c r="O123" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P123" t="s">
-        <v>2135</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -12743,16 +12683,16 @@
         <v>1288</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="N124" t="s">
-        <v>1836</v>
+        <v>1816</v>
       </c>
       <c r="O124" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P124" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q124" t="s">
         <v>128</v>
@@ -12793,16 +12733,16 @@
         <v>1318</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="N125" t="s">
-        <v>1837</v>
+        <v>1817</v>
       </c>
       <c r="O125" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P125" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -12840,16 +12780,16 @@
         <v>1059</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="N126" t="s">
-        <v>1838</v>
+        <v>1818</v>
       </c>
       <c r="O126" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P126" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q126" t="s">
         <v>179</v>
@@ -12878,13 +12818,13 @@
         <v>1364</v>
       </c>
       <c r="N127" t="s">
-        <v>1839</v>
+        <v>1819</v>
       </c>
       <c r="O127" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P127" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q127" t="s">
         <v>86</v>
@@ -12925,16 +12865,16 @@
         <v>1059</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="N128" t="s">
-        <v>1840</v>
+        <v>1820</v>
       </c>
       <c r="O128" t="s">
-        <v>2120</v>
+        <v>2100</v>
       </c>
       <c r="P128" t="s">
-        <v>2130</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -12972,16 +12912,16 @@
         <v>1285</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="N129" t="s">
-        <v>1841</v>
+        <v>1821</v>
       </c>
       <c r="O129" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P129" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -13019,16 +12959,16 @@
         <v>1059</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="N130" t="s">
-        <v>1842</v>
+        <v>1822</v>
       </c>
       <c r="O130" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P130" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q130" t="s">
         <v>200</v>
@@ -13069,16 +13009,16 @@
         <v>1288</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="N131" t="s">
-        <v>1843</v>
+        <v>1823</v>
       </c>
       <c r="O131" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P131" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q131" t="s">
         <v>170</v>
@@ -13107,13 +13047,13 @@
         <v>1364</v>
       </c>
       <c r="N132" t="s">
-        <v>1844</v>
+        <v>1824</v>
       </c>
       <c r="O132" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P132" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q132" t="s">
         <v>204</v>
@@ -13154,16 +13094,16 @@
         <v>1059</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="N133" t="s">
-        <v>1845</v>
+        <v>1825</v>
       </c>
       <c r="O133" t="s">
-        <v>2127</v>
+        <v>2107</v>
       </c>
       <c r="P133" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R133" t="s">
         <v>271</v>
@@ -13204,16 +13144,16 @@
         <v>1288</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="N134" t="s">
-        <v>1846</v>
+        <v>1826</v>
       </c>
       <c r="O134" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P134" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q134" t="s">
         <v>289</v>
@@ -13254,16 +13194,16 @@
         <v>1290</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="N135" t="s">
-        <v>1847</v>
+        <v>1827</v>
       </c>
       <c r="O135" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P135" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q135" t="s">
         <v>170</v>
@@ -13304,16 +13244,16 @@
         <v>1319</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="N136" t="s">
-        <v>1848</v>
+        <v>1828</v>
       </c>
       <c r="O136" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P136" t="s">
-        <v>2135</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -13342,13 +13282,13 @@
         <v>1364</v>
       </c>
       <c r="N137" t="s">
-        <v>1849</v>
+        <v>1829</v>
       </c>
       <c r="O137" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P137" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q137" t="s">
         <v>179</v>
@@ -13389,16 +13329,16 @@
         <v>1320</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="N138" t="s">
-        <v>1850</v>
+        <v>1830</v>
       </c>
       <c r="O138" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P138" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q138" t="s">
         <v>200</v>
@@ -13427,13 +13367,13 @@
         <v>1364</v>
       </c>
       <c r="N139" t="s">
-        <v>1851</v>
+        <v>1831</v>
       </c>
       <c r="O139" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P139" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q139" t="s">
         <v>268</v>
@@ -13474,16 +13414,16 @@
         <v>1293</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="N140" t="s">
-        <v>1852</v>
+        <v>1832</v>
       </c>
       <c r="O140" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P140" t="s">
-        <v>2134</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -13521,16 +13461,16 @@
         <v>1288</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="N141" t="s">
-        <v>1853</v>
+        <v>1833</v>
       </c>
       <c r="O141" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P141" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q141" t="s">
         <v>373</v>
@@ -13571,16 +13511,16 @@
         <v>1059</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="N142" t="s">
-        <v>1854</v>
+        <v>1834</v>
       </c>
       <c r="O142" t="s">
-        <v>2125</v>
+        <v>2105</v>
       </c>
       <c r="P142" t="s">
-        <v>2133</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -13615,16 +13555,16 @@
         <v>1059</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="N143" t="s">
-        <v>1855</v>
+        <v>1835</v>
       </c>
       <c r="O143" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P143" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
       <c r="R143" t="s">
         <v>214</v>
@@ -13665,16 +13605,16 @@
         <v>1321</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="N144" t="s">
-        <v>1856</v>
+        <v>1836</v>
       </c>
       <c r="O144" t="s">
-        <v>2122</v>
+        <v>2102</v>
       </c>
       <c r="P144" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q144" t="s">
         <v>285</v>
@@ -13715,16 +13655,16 @@
         <v>1290</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="N145" t="s">
-        <v>1857</v>
+        <v>1837</v>
       </c>
       <c r="O145" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P145" t="s">
-        <v>2135</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -13762,16 +13702,16 @@
         <v>1059</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="N146" t="s">
-        <v>1858</v>
+        <v>1838</v>
       </c>
       <c r="O146" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P146" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q146" t="s">
         <v>208</v>
@@ -13809,16 +13749,16 @@
         <v>1059</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="N147" t="s">
-        <v>1859</v>
+        <v>1839</v>
       </c>
       <c r="O147" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P147" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q147" t="s">
         <v>157</v>
@@ -13862,16 +13802,16 @@
         <v>1354</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="N148" t="s">
-        <v>1860</v>
+        <v>1840</v>
       </c>
       <c r="O148" t="s">
-        <v>2122</v>
+        <v>2102</v>
       </c>
       <c r="P148" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q148" t="s">
         <v>285</v>
@@ -13915,16 +13855,16 @@
         <v>1355</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="N149" t="s">
-        <v>1861</v>
+        <v>1841</v>
       </c>
       <c r="O149" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P149" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q149" t="s">
         <v>179</v>
@@ -13953,16 +13893,16 @@
         <v>1364</v>
       </c>
       <c r="N150" t="s">
-        <v>1862</v>
+        <v>1842</v>
       </c>
       <c r="O150" t="s">
-        <v>2127</v>
+        <v>2107</v>
       </c>
       <c r="P150" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
       <c r="R150" t="s">
-        <v>2139</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -14000,16 +13940,16 @@
         <v>1288</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="N151" t="s">
-        <v>1863</v>
+        <v>1843</v>
       </c>
       <c r="O151" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P151" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q151" t="s">
         <v>148</v>
@@ -14038,13 +13978,13 @@
         <v>1364</v>
       </c>
       <c r="N152" t="s">
-        <v>1864</v>
+        <v>1844</v>
       </c>
       <c r="O152" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P152" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q152" t="s">
         <v>179</v>
@@ -14085,16 +14025,16 @@
         <v>1323</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="N153" t="s">
-        <v>1865</v>
+        <v>1845</v>
       </c>
       <c r="O153" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P153" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -14131,17 +14071,17 @@
       <c r="K154" t="s">
         <v>1290</v>
       </c>
-      <c r="M154" s="2" t="s">
-        <v>1486</v>
+      <c r="M154" t="s">
+        <v>1397</v>
       </c>
       <c r="N154" t="s">
-        <v>1866</v>
+        <v>1846</v>
       </c>
       <c r="O154" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P154" t="s">
-        <v>2135</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -14179,16 +14119,16 @@
         <v>1059</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
       <c r="N155" t="s">
-        <v>1867</v>
+        <v>1847</v>
       </c>
       <c r="O155" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P155" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q155" t="s">
         <v>188</v>
@@ -14228,17 +14168,17 @@
       <c r="K156" t="s">
         <v>1324</v>
       </c>
-      <c r="M156" s="2" t="s">
-        <v>1488</v>
+      <c r="M156" t="s">
+        <v>1397</v>
       </c>
       <c r="N156" t="s">
-        <v>1868</v>
+        <v>1848</v>
       </c>
       <c r="O156" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P156" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q156" t="s">
         <v>125</v>
@@ -14279,16 +14219,16 @@
         <v>1325</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="N157" t="s">
-        <v>1869</v>
+        <v>1849</v>
       </c>
       <c r="O157" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P157" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q157" t="s">
         <v>208</v>
@@ -14329,16 +14269,16 @@
         <v>1059</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="N158" t="s">
-        <v>1870</v>
+        <v>1850</v>
       </c>
       <c r="O158" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P158" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q158" t="s">
         <v>420</v>
@@ -14379,16 +14319,16 @@
         <v>1288</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="N159" t="s">
-        <v>1871</v>
+        <v>1851</v>
       </c>
       <c r="O159" t="s">
-        <v>2122</v>
+        <v>2102</v>
       </c>
       <c r="P159" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -14414,13 +14354,13 @@
         <v>1364</v>
       </c>
       <c r="N160" t="s">
-        <v>1872</v>
+        <v>1852</v>
       </c>
       <c r="O160" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P160" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q160" t="s">
         <v>86</v>
@@ -14463,17 +14403,17 @@
       <c r="K161" t="s">
         <v>1326</v>
       </c>
-      <c r="M161" s="2" t="s">
-        <v>1492</v>
+      <c r="M161" t="s">
+        <v>1397</v>
       </c>
       <c r="N161" t="s">
-        <v>1873</v>
+        <v>1853</v>
       </c>
       <c r="O161" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P161" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q161" t="s">
         <v>204</v>
@@ -14514,16 +14454,16 @@
         <v>1059</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>1493</v>
+        <v>1486</v>
       </c>
       <c r="N162" t="s">
-        <v>1874</v>
+        <v>1854</v>
       </c>
       <c r="O162" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P162" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q162" t="s">
         <v>371</v>
@@ -14564,16 +14504,16 @@
         <v>1059</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>1494</v>
+        <v>1487</v>
       </c>
       <c r="N163" t="s">
-        <v>1875</v>
+        <v>1855</v>
       </c>
       <c r="O163" t="s">
-        <v>2125</v>
+        <v>2105</v>
       </c>
       <c r="P163" t="s">
-        <v>2133</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -14611,16 +14551,16 @@
         <v>1288</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>1495</v>
+        <v>1488</v>
       </c>
       <c r="N164" t="s">
-        <v>1876</v>
+        <v>1856</v>
       </c>
       <c r="O164" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P164" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -14658,16 +14598,16 @@
         <v>1059</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>1496</v>
+        <v>1489</v>
       </c>
       <c r="N165" t="s">
-        <v>1877</v>
+        <v>1857</v>
       </c>
       <c r="O165" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P165" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -14705,16 +14645,16 @@
         <v>1290</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>1497</v>
+        <v>1490</v>
       </c>
       <c r="N166" t="s">
-        <v>1878</v>
+        <v>1858</v>
       </c>
       <c r="O166" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P166" t="s">
-        <v>2135</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -14749,7 +14689,7 @@
         <v>1288</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>1498</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -14784,16 +14724,16 @@
         <v>1059</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>1499</v>
+        <v>1492</v>
       </c>
       <c r="N168" t="s">
-        <v>1879</v>
+        <v>1859</v>
       </c>
       <c r="O168" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P168" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q168" t="s">
         <v>268</v>
@@ -14834,16 +14774,16 @@
         <v>1293</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>1500</v>
+        <v>1493</v>
       </c>
       <c r="N169" t="s">
-        <v>1880</v>
+        <v>1860</v>
       </c>
       <c r="O169" t="s">
-        <v>2122</v>
+        <v>2102</v>
       </c>
       <c r="P169" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R169" t="s">
         <v>421</v>
@@ -14884,16 +14824,16 @@
         <v>1059</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>1501</v>
+        <v>1494</v>
       </c>
       <c r="N170" t="s">
-        <v>1881</v>
+        <v>1861</v>
       </c>
       <c r="O170" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P170" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R170" t="s">
         <v>214</v>
@@ -14934,16 +14874,16 @@
         <v>1059</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="N171" t="s">
-        <v>1882</v>
+        <v>1862</v>
       </c>
       <c r="O171" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P171" t="s">
-        <v>2135</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -14981,16 +14921,16 @@
         <v>1327</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>1503</v>
+        <v>1496</v>
       </c>
       <c r="N172" t="s">
-        <v>1883</v>
+        <v>1863</v>
       </c>
       <c r="O172" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P172" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q172" t="s">
         <v>204</v>
@@ -15031,16 +14971,16 @@
         <v>1288</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
       <c r="N173" t="s">
-        <v>1884</v>
+        <v>1864</v>
       </c>
       <c r="O173" t="s">
-        <v>2122</v>
+        <v>2102</v>
       </c>
       <c r="P173" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R173" t="s">
         <v>421</v>
@@ -15081,16 +15021,16 @@
         <v>1328</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>1505</v>
+        <v>1498</v>
       </c>
       <c r="N174" t="s">
-        <v>1885</v>
+        <v>1865</v>
       </c>
       <c r="O174" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P174" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -15128,16 +15068,16 @@
         <v>1059</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>1506</v>
+        <v>1499</v>
       </c>
       <c r="N175" t="s">
-        <v>1886</v>
+        <v>1866</v>
       </c>
       <c r="O175" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P175" t="s">
-        <v>2135</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -15175,16 +15115,16 @@
         <v>1288</v>
       </c>
       <c r="M176" s="2" t="s">
-        <v>1507</v>
+        <v>1500</v>
       </c>
       <c r="N176" t="s">
-        <v>1887</v>
+        <v>1867</v>
       </c>
       <c r="O176" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P176" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q176" t="s">
         <v>148</v>
@@ -15222,16 +15162,16 @@
         <v>1329</v>
       </c>
       <c r="M177" s="2" t="s">
-        <v>1508</v>
+        <v>1501</v>
       </c>
       <c r="N177" t="s">
-        <v>1888</v>
+        <v>1868</v>
       </c>
       <c r="O177" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P177" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q177" t="s">
         <v>362</v>
@@ -15271,17 +15211,17 @@
       <c r="K178" t="s">
         <v>1288</v>
       </c>
-      <c r="M178" s="2" t="s">
-        <v>1509</v>
+      <c r="M178" t="s">
+        <v>1397</v>
       </c>
       <c r="N178" t="s">
-        <v>1889</v>
+        <v>1869</v>
       </c>
       <c r="O178" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P178" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q178" t="s">
         <v>212</v>
@@ -15313,13 +15253,13 @@
         <v>1364</v>
       </c>
       <c r="N179" t="s">
-        <v>1890</v>
+        <v>1870</v>
       </c>
       <c r="O179" t="s">
-        <v>2122</v>
+        <v>2102</v>
       </c>
       <c r="P179" t="s">
-        <v>2135</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -15357,16 +15297,16 @@
         <v>1288</v>
       </c>
       <c r="M180" s="2" t="s">
-        <v>1510</v>
+        <v>1502</v>
       </c>
       <c r="N180" t="s">
-        <v>1891</v>
+        <v>1871</v>
       </c>
       <c r="O180" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P180" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R180" t="s">
         <v>214</v>
@@ -15407,16 +15347,16 @@
         <v>1301</v>
       </c>
       <c r="M181" s="2" t="s">
-        <v>1511</v>
+        <v>1503</v>
       </c>
       <c r="N181" t="s">
-        <v>1892</v>
+        <v>1872</v>
       </c>
       <c r="O181" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P181" t="s">
-        <v>2134</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -15454,16 +15394,16 @@
         <v>1288</v>
       </c>
       <c r="M182" s="2" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
       <c r="N182" t="s">
-        <v>1893</v>
+        <v>1873</v>
       </c>
       <c r="O182" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P182" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R182" t="s">
         <v>437</v>
@@ -15501,16 +15441,16 @@
         <v>1059</v>
       </c>
       <c r="M183" s="2" t="s">
-        <v>1513</v>
+        <v>1505</v>
       </c>
       <c r="N183" t="s">
-        <v>1894</v>
+        <v>1874</v>
       </c>
       <c r="O183" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P183" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R183" t="s">
         <v>437</v>
@@ -15542,13 +15482,13 @@
         <v>1364</v>
       </c>
       <c r="N184" t="s">
-        <v>1895</v>
+        <v>1875</v>
       </c>
       <c r="O184" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P184" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R184" t="s">
         <v>437</v>
@@ -15589,16 +15529,16 @@
         <v>1059</v>
       </c>
       <c r="M185" s="2" t="s">
-        <v>1514</v>
+        <v>1506</v>
       </c>
       <c r="N185" t="s">
-        <v>1896</v>
+        <v>1876</v>
       </c>
       <c r="O185" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P185" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R185" t="s">
         <v>437</v>
@@ -15639,16 +15579,16 @@
         <v>1288</v>
       </c>
       <c r="M186" s="2" t="s">
-        <v>1515</v>
+        <v>1507</v>
       </c>
       <c r="N186" t="s">
-        <v>1897</v>
+        <v>1877</v>
       </c>
       <c r="O186" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P186" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R186" t="s">
         <v>437</v>
@@ -15689,16 +15629,16 @@
         <v>1288</v>
       </c>
       <c r="M187" s="2" t="s">
-        <v>1516</v>
+        <v>1508</v>
       </c>
       <c r="N187" t="s">
-        <v>1898</v>
+        <v>1878</v>
       </c>
       <c r="O187" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P187" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R187" t="s">
         <v>437</v>
@@ -15739,16 +15679,16 @@
         <v>1288</v>
       </c>
       <c r="M188" s="2" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="N188" t="s">
-        <v>1899</v>
+        <v>1879</v>
       </c>
       <c r="O188" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P188" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R188" t="s">
         <v>437</v>
@@ -15789,16 +15729,16 @@
         <v>1301</v>
       </c>
       <c r="M189" s="2" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
       <c r="N189" t="s">
-        <v>1900</v>
+        <v>1880</v>
       </c>
       <c r="O189" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P189" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R189" t="s">
         <v>437</v>
@@ -15839,16 +15779,16 @@
         <v>1059</v>
       </c>
       <c r="M190" s="2" t="s">
-        <v>1519</v>
+        <v>1511</v>
       </c>
       <c r="N190" t="s">
-        <v>1901</v>
+        <v>1881</v>
       </c>
       <c r="O190" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P190" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R190" t="s">
         <v>437</v>
@@ -15889,16 +15829,16 @@
         <v>1288</v>
       </c>
       <c r="M191" s="2" t="s">
-        <v>1520</v>
+        <v>1512</v>
       </c>
       <c r="N191" t="s">
-        <v>1902</v>
+        <v>1882</v>
       </c>
       <c r="O191" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P191" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R191" t="s">
         <v>437</v>
@@ -15939,16 +15879,16 @@
         <v>1311</v>
       </c>
       <c r="M192" s="2" t="s">
-        <v>1521</v>
+        <v>1513</v>
       </c>
       <c r="N192" t="s">
-        <v>1903</v>
+        <v>1883</v>
       </c>
       <c r="O192" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P192" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R192" t="s">
         <v>437</v>
@@ -15989,16 +15929,16 @@
         <v>1288</v>
       </c>
       <c r="M193" s="2" t="s">
-        <v>1522</v>
+        <v>1514</v>
       </c>
       <c r="N193" t="s">
-        <v>1904</v>
+        <v>1884</v>
       </c>
       <c r="O193" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P193" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R193" t="s">
         <v>437</v>
@@ -16030,13 +15970,13 @@
         <v>1364</v>
       </c>
       <c r="N194" t="s">
-        <v>1905</v>
+        <v>1885</v>
       </c>
       <c r="O194" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P194" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R194" t="s">
         <v>437</v>
@@ -16076,17 +16016,17 @@
       <c r="K195" t="s">
         <v>1059</v>
       </c>
-      <c r="M195" s="2" t="s">
-        <v>1523</v>
+      <c r="M195" t="s">
+        <v>1397</v>
       </c>
       <c r="N195" t="s">
-        <v>1906</v>
+        <v>1886</v>
       </c>
       <c r="O195" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P195" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R195" t="s">
         <v>437</v>
@@ -16124,16 +16064,16 @@
         <v>1059</v>
       </c>
       <c r="M196" s="2" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
       <c r="N196" t="s">
-        <v>1907</v>
+        <v>1887</v>
       </c>
       <c r="O196" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P196" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R196" t="s">
         <v>437</v>
@@ -16174,16 +16114,16 @@
         <v>1288</v>
       </c>
       <c r="M197" s="2" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
       <c r="N197" t="s">
-        <v>1908</v>
+        <v>1888</v>
       </c>
       <c r="O197" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P197" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R197" t="s">
         <v>437</v>
@@ -16224,16 +16164,16 @@
         <v>1330</v>
       </c>
       <c r="M198" s="2" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
       <c r="N198" t="s">
-        <v>1909</v>
+        <v>1889</v>
       </c>
       <c r="O198" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P198" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R198" t="s">
         <v>437</v>
@@ -16274,16 +16214,16 @@
         <v>1288</v>
       </c>
       <c r="M199" s="2" t="s">
-        <v>1527</v>
+        <v>1518</v>
       </c>
       <c r="N199" t="s">
-        <v>1910</v>
+        <v>1890</v>
       </c>
       <c r="O199" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P199" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R199" t="s">
         <v>437</v>
@@ -16324,16 +16264,16 @@
         <v>1290</v>
       </c>
       <c r="M200" s="2" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
       <c r="N200" t="s">
-        <v>1911</v>
+        <v>1891</v>
       </c>
       <c r="O200" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P200" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R200" t="s">
         <v>437</v>
@@ -16374,16 +16314,16 @@
         <v>1331</v>
       </c>
       <c r="M201" s="2" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
       <c r="N201" t="s">
-        <v>1912</v>
+        <v>1892</v>
       </c>
       <c r="O201" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P201" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R201" t="s">
         <v>437</v>
@@ -16424,16 +16364,16 @@
         <v>1290</v>
       </c>
       <c r="M202" s="2" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
       <c r="N202" t="s">
-        <v>1913</v>
+        <v>1893</v>
       </c>
       <c r="O202" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P202" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R202" t="s">
         <v>437</v>
@@ -16474,16 +16414,16 @@
         <v>1059</v>
       </c>
       <c r="M203" s="2" t="s">
-        <v>1531</v>
+        <v>1522</v>
       </c>
       <c r="N203" t="s">
-        <v>1914</v>
+        <v>1894</v>
       </c>
       <c r="O203" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P203" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R203" t="s">
         <v>437</v>
@@ -16524,16 +16464,16 @@
         <v>1288</v>
       </c>
       <c r="M204" s="2" t="s">
-        <v>1532</v>
+        <v>1523</v>
       </c>
       <c r="N204" t="s">
-        <v>1915</v>
+        <v>1895</v>
       </c>
       <c r="O204" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P204" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R204" t="s">
         <v>437</v>
@@ -16571,16 +16511,16 @@
         <v>1332</v>
       </c>
       <c r="M205" s="2" t="s">
-        <v>1533</v>
+        <v>1524</v>
       </c>
       <c r="N205" t="s">
-        <v>1916</v>
+        <v>1896</v>
       </c>
       <c r="O205" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P205" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R205" t="s">
         <v>437</v>
@@ -16621,16 +16561,16 @@
         <v>1290</v>
       </c>
       <c r="M206" s="2" t="s">
-        <v>1534</v>
+        <v>1525</v>
       </c>
       <c r="N206" t="s">
-        <v>1917</v>
+        <v>1897</v>
       </c>
       <c r="O206" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P206" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R206" t="s">
         <v>437</v>
@@ -16668,16 +16608,16 @@
         <v>1333</v>
       </c>
       <c r="M207" s="2" t="s">
-        <v>1535</v>
+        <v>1526</v>
       </c>
       <c r="N207" t="s">
-        <v>1918</v>
+        <v>1898</v>
       </c>
       <c r="O207" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P207" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R207" t="s">
         <v>437</v>
@@ -16718,16 +16658,16 @@
         <v>1290</v>
       </c>
       <c r="M208" s="2" t="s">
-        <v>1536</v>
+        <v>1527</v>
       </c>
       <c r="N208" t="s">
-        <v>1919</v>
+        <v>1899</v>
       </c>
       <c r="O208" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P208" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R208" t="s">
         <v>437</v>
@@ -16768,16 +16708,16 @@
         <v>1301</v>
       </c>
       <c r="M209" s="2" t="s">
-        <v>1537</v>
+        <v>1528</v>
       </c>
       <c r="N209" t="s">
-        <v>1920</v>
+        <v>1900</v>
       </c>
       <c r="O209" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P209" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -16815,16 +16755,16 @@
         <v>1288</v>
       </c>
       <c r="M210" s="2" t="s">
-        <v>1538</v>
+        <v>1529</v>
       </c>
       <c r="N210" t="s">
-        <v>1921</v>
+        <v>1901</v>
       </c>
       <c r="O210" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P210" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q210" t="s">
         <v>200</v>
@@ -16865,16 +16805,16 @@
         <v>1334</v>
       </c>
       <c r="M211" s="2" t="s">
-        <v>1539</v>
+        <v>1530</v>
       </c>
       <c r="N211" t="s">
-        <v>1922</v>
+        <v>1902</v>
       </c>
       <c r="O211" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P211" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q211" t="s">
         <v>157</v>
@@ -16915,16 +16855,16 @@
         <v>1290</v>
       </c>
       <c r="M212" s="2" t="s">
-        <v>1540</v>
+        <v>1531</v>
       </c>
       <c r="N212" t="s">
-        <v>1923</v>
+        <v>1903</v>
       </c>
       <c r="O212" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P212" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q212" t="s">
         <v>431</v>
@@ -16965,16 +16905,16 @@
         <v>1293</v>
       </c>
       <c r="M213" s="2" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
       <c r="N213" t="s">
-        <v>1924</v>
+        <v>1904</v>
       </c>
       <c r="O213" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P213" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R213" t="s">
         <v>174</v>
@@ -17015,16 +16955,16 @@
         <v>1301</v>
       </c>
       <c r="M214" s="2" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
       <c r="N214" t="s">
-        <v>1925</v>
+        <v>1905</v>
       </c>
       <c r="O214" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P214" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q214" t="s">
         <v>289</v>
@@ -17062,16 +17002,16 @@
         <v>1335</v>
       </c>
       <c r="M215" s="2" t="s">
-        <v>1543</v>
+        <v>1534</v>
       </c>
       <c r="N215" t="s">
-        <v>1926</v>
+        <v>1906</v>
       </c>
       <c r="O215" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P215" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -17109,16 +17049,16 @@
         <v>1059</v>
       </c>
       <c r="M216" s="2" t="s">
-        <v>1544</v>
+        <v>1535</v>
       </c>
       <c r="N216" t="s">
-        <v>1927</v>
+        <v>1907</v>
       </c>
       <c r="O216" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P216" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q216" t="s">
         <v>208</v>
@@ -17159,16 +17099,16 @@
         <v>1288</v>
       </c>
       <c r="M217" s="2" t="s">
-        <v>1545</v>
+        <v>1536</v>
       </c>
       <c r="N217" t="s">
-        <v>1928</v>
+        <v>1908</v>
       </c>
       <c r="O217" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P217" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q217" t="s">
         <v>340</v>
@@ -17188,13 +17128,13 @@
         <v>1050</v>
       </c>
       <c r="N218" t="s">
-        <v>1929</v>
+        <v>1909</v>
       </c>
       <c r="O218" t="s">
-        <v>2120</v>
+        <v>2100</v>
       </c>
       <c r="P218" t="s">
-        <v>2130</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -17229,16 +17169,16 @@
         <v>1059</v>
       </c>
       <c r="M219" s="2" t="s">
-        <v>1546</v>
+        <v>1537</v>
       </c>
       <c r="N219" t="s">
-        <v>1930</v>
+        <v>1910</v>
       </c>
       <c r="O219" t="s">
-        <v>2120</v>
+        <v>2100</v>
       </c>
       <c r="P219" t="s">
-        <v>2130</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -17275,17 +17215,17 @@
       <c r="K220" t="s">
         <v>1288</v>
       </c>
-      <c r="M220" s="2" t="s">
-        <v>1547</v>
+      <c r="M220" t="s">
+        <v>1397</v>
       </c>
       <c r="N220" t="s">
-        <v>1931</v>
+        <v>1911</v>
       </c>
       <c r="O220" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P220" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q220" t="s">
         <v>128</v>
@@ -17326,16 +17266,16 @@
         <v>1288</v>
       </c>
       <c r="M221" s="2" t="s">
-        <v>1548</v>
+        <v>1538</v>
       </c>
       <c r="N221" t="s">
-        <v>1932</v>
+        <v>1912</v>
       </c>
       <c r="O221" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P221" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q221" t="s">
         <v>371</v>
@@ -17364,16 +17304,16 @@
         <v>1059</v>
       </c>
       <c r="M222" t="s">
-        <v>1364</v>
+        <v>1397</v>
       </c>
       <c r="N222" t="s">
-        <v>1933</v>
+        <v>1913</v>
       </c>
       <c r="O222" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P222" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q222" t="s">
         <v>420</v>
@@ -17414,19 +17354,19 @@
         <v>1336</v>
       </c>
       <c r="M223" s="2" t="s">
-        <v>1549</v>
+        <v>1539</v>
       </c>
       <c r="N223" t="s">
-        <v>1934</v>
+        <v>1914</v>
       </c>
       <c r="O223" t="s">
-        <v>2127</v>
+        <v>2107</v>
       </c>
       <c r="P223" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
       <c r="R223" t="s">
-        <v>2139</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -17464,16 +17404,16 @@
         <v>1337</v>
       </c>
       <c r="M224" s="2" t="s">
-        <v>1550</v>
+        <v>1540</v>
       </c>
       <c r="N224" t="s">
-        <v>1935</v>
+        <v>1915</v>
       </c>
       <c r="O224" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P224" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -17511,16 +17451,16 @@
         <v>1338</v>
       </c>
       <c r="M225" s="2" t="s">
-        <v>1551</v>
+        <v>1541</v>
       </c>
       <c r="N225" t="s">
-        <v>1936</v>
+        <v>1916</v>
       </c>
       <c r="O225" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P225" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -17558,16 +17498,16 @@
         <v>1059</v>
       </c>
       <c r="M226" s="2" t="s">
-        <v>1552</v>
+        <v>1542</v>
       </c>
       <c r="N226" t="s">
-        <v>1937</v>
+        <v>1917</v>
       </c>
       <c r="O226" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P226" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q226" t="s">
         <v>373</v>
@@ -17608,16 +17548,16 @@
         <v>1059</v>
       </c>
       <c r="M227" s="2" t="s">
-        <v>1553</v>
+        <v>1543</v>
       </c>
       <c r="N227" t="s">
-        <v>1938</v>
+        <v>1918</v>
       </c>
       <c r="O227" t="s">
-        <v>2125</v>
+        <v>2105</v>
       </c>
       <c r="P227" t="s">
-        <v>2133</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -17655,16 +17595,16 @@
         <v>1059</v>
       </c>
       <c r="M228" s="2" t="s">
-        <v>1554</v>
+        <v>1544</v>
       </c>
       <c r="N228" t="s">
-        <v>1939</v>
+        <v>1919</v>
       </c>
       <c r="O228" t="s">
-        <v>2125</v>
+        <v>2105</v>
       </c>
       <c r="P228" t="s">
-        <v>2133</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -17699,16 +17639,16 @@
         <v>1059</v>
       </c>
       <c r="M229" s="2" t="s">
-        <v>1555</v>
+        <v>1545</v>
       </c>
       <c r="N229" t="s">
-        <v>1940</v>
+        <v>1920</v>
       </c>
       <c r="O229" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P229" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q229" t="s">
         <v>179</v>
@@ -17749,16 +17689,16 @@
         <v>1059</v>
       </c>
       <c r="M230" s="2" t="s">
-        <v>1556</v>
+        <v>1546</v>
       </c>
       <c r="N230" t="s">
-        <v>1941</v>
+        <v>1921</v>
       </c>
       <c r="O230" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P230" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q230" t="s">
         <v>289</v>
@@ -17799,16 +17739,16 @@
         <v>1288</v>
       </c>
       <c r="M231" s="2" t="s">
-        <v>1557</v>
+        <v>1547</v>
       </c>
       <c r="N231" t="s">
-        <v>1942</v>
+        <v>1922</v>
       </c>
       <c r="O231" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P231" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q231" t="s">
         <v>362</v>
@@ -17849,16 +17789,16 @@
         <v>1288</v>
       </c>
       <c r="M232" s="2" t="s">
-        <v>1558</v>
+        <v>1548</v>
       </c>
       <c r="N232" t="s">
-        <v>1943</v>
+        <v>1923</v>
       </c>
       <c r="O232" t="s">
-        <v>2127</v>
+        <v>2107</v>
       </c>
       <c r="P232" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R232" t="s">
         <v>280</v>
@@ -17899,16 +17839,16 @@
         <v>1290</v>
       </c>
       <c r="M233" s="2" t="s">
-        <v>1559</v>
+        <v>1549</v>
       </c>
       <c r="N233" t="s">
-        <v>1944</v>
+        <v>1924</v>
       </c>
       <c r="O233" t="s">
-        <v>2125</v>
+        <v>2105</v>
       </c>
       <c r="P233" t="s">
-        <v>2133</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -17943,16 +17883,16 @@
         <v>1059</v>
       </c>
       <c r="M234" s="2" t="s">
-        <v>1560</v>
+        <v>1550</v>
       </c>
       <c r="N234" t="s">
-        <v>1945</v>
+        <v>1925</v>
       </c>
       <c r="O234" t="s">
-        <v>2120</v>
+        <v>2100</v>
       </c>
       <c r="P234" t="s">
-        <v>2130</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -17978,13 +17918,13 @@
         <v>1364</v>
       </c>
       <c r="N235" t="s">
-        <v>1946</v>
+        <v>1926</v>
       </c>
       <c r="O235" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P235" t="s">
-        <v>2135</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -18022,16 +17962,16 @@
         <v>1288</v>
       </c>
       <c r="M236" s="2" t="s">
-        <v>1561</v>
+        <v>1551</v>
       </c>
       <c r="N236" t="s">
-        <v>1947</v>
+        <v>1927</v>
       </c>
       <c r="O236" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P236" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -18069,16 +18009,16 @@
         <v>1288</v>
       </c>
       <c r="M237" s="2" t="s">
-        <v>1562</v>
+        <v>1552</v>
       </c>
       <c r="N237" t="s">
-        <v>1948</v>
+        <v>1928</v>
       </c>
       <c r="O237" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P237" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q237" t="s">
         <v>128</v>
@@ -18116,16 +18056,16 @@
         <v>1059</v>
       </c>
       <c r="M238" s="2" t="s">
-        <v>1563</v>
+        <v>1553</v>
       </c>
       <c r="N238" t="s">
-        <v>1949</v>
+        <v>1929</v>
       </c>
       <c r="O238" t="s">
-        <v>2127</v>
+        <v>2107</v>
       </c>
       <c r="P238" t="s">
-        <v>2134</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -18163,16 +18103,16 @@
         <v>1059</v>
       </c>
       <c r="M239" s="2" t="s">
-        <v>1564</v>
+        <v>1554</v>
       </c>
       <c r="N239" t="s">
-        <v>1950</v>
+        <v>1930</v>
       </c>
       <c r="O239" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P239" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q239" t="s">
         <v>125</v>
@@ -18213,16 +18153,16 @@
         <v>1059</v>
       </c>
       <c r="M240" s="2" t="s">
-        <v>1565</v>
+        <v>1555</v>
       </c>
       <c r="N240" t="s">
-        <v>1951</v>
+        <v>1931</v>
       </c>
       <c r="O240" t="s">
-        <v>2122</v>
+        <v>2102</v>
       </c>
       <c r="P240" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -18260,16 +18200,16 @@
         <v>1288</v>
       </c>
       <c r="M241" s="2" t="s">
-        <v>1566</v>
+        <v>1556</v>
       </c>
       <c r="N241" t="s">
-        <v>1952</v>
+        <v>1932</v>
       </c>
       <c r="O241" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P241" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q241" t="s">
         <v>188</v>
@@ -18310,16 +18250,16 @@
         <v>1288</v>
       </c>
       <c r="M242" s="2" t="s">
-        <v>1567</v>
+        <v>1557</v>
       </c>
       <c r="N242" t="s">
-        <v>1953</v>
+        <v>1933</v>
       </c>
       <c r="O242" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P242" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q242" t="s">
         <v>212</v>
@@ -18360,16 +18300,16 @@
         <v>1285</v>
       </c>
       <c r="M243" s="2" t="s">
-        <v>1568</v>
+        <v>1558</v>
       </c>
       <c r="N243" t="s">
-        <v>1954</v>
+        <v>1934</v>
       </c>
       <c r="O243" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P243" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -18398,13 +18338,13 @@
         <v>1364</v>
       </c>
       <c r="N244" t="s">
-        <v>1955</v>
+        <v>1935</v>
       </c>
       <c r="O244" t="s">
-        <v>2122</v>
+        <v>2102</v>
       </c>
       <c r="P244" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -18442,16 +18382,16 @@
         <v>1059</v>
       </c>
       <c r="M245" s="2" t="s">
-        <v>1569</v>
+        <v>1559</v>
       </c>
       <c r="N245" t="s">
-        <v>1956</v>
+        <v>1936</v>
       </c>
       <c r="O245" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P245" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q245" t="s">
         <v>268</v>
@@ -18492,16 +18432,16 @@
         <v>1290</v>
       </c>
       <c r="M246" s="2" t="s">
-        <v>1570</v>
+        <v>1560</v>
       </c>
       <c r="N246" t="s">
-        <v>1957</v>
+        <v>1937</v>
       </c>
       <c r="O246" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P246" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -18539,16 +18479,16 @@
         <v>1290</v>
       </c>
       <c r="M247" s="2" t="s">
-        <v>1571</v>
+        <v>1561</v>
       </c>
       <c r="N247" t="s">
-        <v>1958</v>
+        <v>1938</v>
       </c>
       <c r="O247" t="s">
-        <v>2127</v>
+        <v>2107</v>
       </c>
       <c r="P247" t="s">
-        <v>2134</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -18586,16 +18526,16 @@
         <v>1288</v>
       </c>
       <c r="M248" s="2" t="s">
-        <v>1572</v>
+        <v>1562</v>
       </c>
       <c r="N248" t="s">
-        <v>1959</v>
+        <v>1939</v>
       </c>
       <c r="O248" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P248" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -18633,16 +18573,16 @@
         <v>1290</v>
       </c>
       <c r="M249" s="2" t="s">
-        <v>1573</v>
+        <v>1563</v>
       </c>
       <c r="N249" t="s">
-        <v>1960</v>
+        <v>1940</v>
       </c>
       <c r="O249" t="s">
-        <v>2127</v>
+        <v>2107</v>
       </c>
       <c r="P249" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R249" t="s">
         <v>280</v>
@@ -18680,16 +18620,16 @@
         <v>1059</v>
       </c>
       <c r="M250" s="2" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
       <c r="N250" t="s">
-        <v>1961</v>
+        <v>1941</v>
       </c>
       <c r="O250" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P250" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q250" t="s">
         <v>403</v>
@@ -18730,16 +18670,16 @@
         <v>1290</v>
       </c>
       <c r="M251" s="2" t="s">
-        <v>1575</v>
+        <v>1565</v>
       </c>
       <c r="N251" t="s">
-        <v>1962</v>
+        <v>1942</v>
       </c>
       <c r="O251" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P251" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q251" t="s">
         <v>208</v>
@@ -18774,16 +18714,16 @@
         <v>1059</v>
       </c>
       <c r="M252" s="2" t="s">
-        <v>1576</v>
+        <v>1566</v>
       </c>
       <c r="N252" t="s">
-        <v>1963</v>
+        <v>1943</v>
       </c>
       <c r="O252" t="s">
-        <v>2122</v>
+        <v>2102</v>
       </c>
       <c r="P252" t="s">
-        <v>2135</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -18821,16 +18761,16 @@
         <v>1288</v>
       </c>
       <c r="M253" s="2" t="s">
-        <v>1577</v>
+        <v>1567</v>
       </c>
       <c r="N253" t="s">
-        <v>1964</v>
+        <v>1944</v>
       </c>
       <c r="O253" t="s">
-        <v>2127</v>
+        <v>2107</v>
       </c>
       <c r="P253" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
       <c r="R253" t="s">
         <v>280</v>
@@ -18871,16 +18811,16 @@
         <v>1290</v>
       </c>
       <c r="M254" s="2" t="s">
-        <v>1578</v>
+        <v>1568</v>
       </c>
       <c r="N254" t="s">
-        <v>1965</v>
+        <v>1945</v>
       </c>
       <c r="O254" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P254" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q254" t="s">
         <v>268</v>
@@ -18920,17 +18860,17 @@
       <c r="K255" t="s">
         <v>1339</v>
       </c>
-      <c r="M255" s="2" t="s">
-        <v>1579</v>
+      <c r="M255" t="s">
+        <v>1397</v>
       </c>
       <c r="N255" t="s">
-        <v>1966</v>
+        <v>1946</v>
       </c>
       <c r="O255" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P255" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -18968,16 +18908,16 @@
         <v>1059</v>
       </c>
       <c r="M256" s="2" t="s">
-        <v>1580</v>
+        <v>1569</v>
       </c>
       <c r="N256" t="s">
-        <v>1967</v>
+        <v>1947</v>
       </c>
       <c r="O256" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P256" t="s">
-        <v>2135</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -19015,16 +18955,16 @@
         <v>1059</v>
       </c>
       <c r="M257" s="2" t="s">
-        <v>1581</v>
+        <v>1570</v>
       </c>
       <c r="N257" t="s">
-        <v>1968</v>
+        <v>1948</v>
       </c>
       <c r="O257" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P257" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q257" t="s">
         <v>403</v>
@@ -19056,13 +18996,13 @@
         <v>1364</v>
       </c>
       <c r="N258" t="s">
-        <v>1969</v>
+        <v>1949</v>
       </c>
       <c r="O258" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P258" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q258" t="s">
         <v>208</v>
@@ -19103,16 +19043,16 @@
         <v>1288</v>
       </c>
       <c r="M259" s="2" t="s">
-        <v>1582</v>
+        <v>1571</v>
       </c>
       <c r="N259" t="s">
-        <v>1970</v>
+        <v>1950</v>
       </c>
       <c r="O259" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P259" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R259" t="s">
         <v>174</v>
@@ -19153,16 +19093,16 @@
         <v>1285</v>
       </c>
       <c r="M260" s="2" t="s">
-        <v>1583</v>
+        <v>1572</v>
       </c>
       <c r="N260" t="s">
-        <v>1971</v>
+        <v>1951</v>
       </c>
       <c r="O260" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P260" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -19200,16 +19140,16 @@
         <v>1301</v>
       </c>
       <c r="M261" s="2" t="s">
-        <v>1584</v>
+        <v>1573</v>
       </c>
       <c r="N261" t="s">
-        <v>1972</v>
+        <v>1952</v>
       </c>
       <c r="O261" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P261" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q261" t="s">
         <v>295</v>
@@ -19250,16 +19190,16 @@
         <v>1340</v>
       </c>
       <c r="M262" s="2" t="s">
-        <v>1585</v>
+        <v>1574</v>
       </c>
       <c r="N262" t="s">
-        <v>1973</v>
+        <v>1953</v>
       </c>
       <c r="O262" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P262" t="s">
-        <v>2135</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -19297,16 +19237,16 @@
         <v>1341</v>
       </c>
       <c r="M263" s="2" t="s">
-        <v>1586</v>
+        <v>1575</v>
       </c>
       <c r="N263" t="s">
-        <v>1974</v>
+        <v>1954</v>
       </c>
       <c r="O263" t="s">
-        <v>2125</v>
+        <v>2105</v>
       </c>
       <c r="P263" t="s">
-        <v>2133</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -19344,16 +19284,16 @@
         <v>1288</v>
       </c>
       <c r="M264" s="2" t="s">
-        <v>1587</v>
+        <v>1576</v>
       </c>
       <c r="N264" t="s">
-        <v>1975</v>
+        <v>1955</v>
       </c>
       <c r="O264" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P264" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q264" t="s">
         <v>204</v>
@@ -19394,16 +19334,16 @@
         <v>1285</v>
       </c>
       <c r="M265" s="2" t="s">
-        <v>1588</v>
+        <v>1577</v>
       </c>
       <c r="N265" t="s">
-        <v>1976</v>
+        <v>1956</v>
       </c>
       <c r="O265" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P265" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -19441,16 +19381,16 @@
         <v>1288</v>
       </c>
       <c r="M266" s="2" t="s">
-        <v>1589</v>
+        <v>1578</v>
       </c>
       <c r="N266" t="s">
-        <v>1977</v>
+        <v>1957</v>
       </c>
       <c r="O266" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P266" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
       <c r="R266" t="s">
         <v>85</v>
@@ -19491,16 +19431,16 @@
         <v>1288</v>
       </c>
       <c r="M267" s="2" t="s">
-        <v>1590</v>
+        <v>1579</v>
       </c>
       <c r="N267" t="s">
-        <v>1978</v>
+        <v>1958</v>
       </c>
       <c r="O267" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P267" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -19538,16 +19478,16 @@
         <v>1288</v>
       </c>
       <c r="M268" s="2" t="s">
-        <v>1591</v>
+        <v>1580</v>
       </c>
       <c r="N268" t="s">
-        <v>1979</v>
+        <v>1959</v>
       </c>
       <c r="O268" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P268" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -19585,16 +19525,16 @@
         <v>1290</v>
       </c>
       <c r="M269" s="2" t="s">
-        <v>1592</v>
+        <v>1581</v>
       </c>
       <c r="N269" t="s">
-        <v>1980</v>
+        <v>1960</v>
       </c>
       <c r="O269" t="s">
-        <v>2125</v>
+        <v>2105</v>
       </c>
       <c r="P269" t="s">
-        <v>2133</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -19632,16 +19572,16 @@
         <v>1288</v>
       </c>
       <c r="M270" s="2" t="s">
-        <v>1593</v>
+        <v>1582</v>
       </c>
       <c r="N270" t="s">
-        <v>1981</v>
+        <v>1961</v>
       </c>
       <c r="O270" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P270" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q270" t="s">
         <v>204</v>
@@ -19682,16 +19622,16 @@
         <v>1288</v>
       </c>
       <c r="M271" s="2" t="s">
-        <v>1594</v>
+        <v>1583</v>
       </c>
       <c r="N271" t="s">
-        <v>1982</v>
+        <v>1962</v>
       </c>
       <c r="O271" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P271" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -19729,19 +19669,19 @@
         <v>1288</v>
       </c>
       <c r="M272" s="2" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="N272" t="s">
-        <v>1983</v>
+        <v>1963</v>
       </c>
       <c r="O272" t="s">
-        <v>2127</v>
+        <v>2107</v>
       </c>
       <c r="P272" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
       <c r="R272" t="s">
-        <v>2139</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -19776,16 +19716,16 @@
         <v>1059</v>
       </c>
       <c r="M273" s="2" t="s">
-        <v>1596</v>
+        <v>1585</v>
       </c>
       <c r="N273" t="s">
-        <v>1984</v>
+        <v>1964</v>
       </c>
       <c r="O273" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P273" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q273" t="s">
         <v>431</v>
@@ -19817,13 +19757,13 @@
         <v>1364</v>
       </c>
       <c r="N274" t="s">
-        <v>1985</v>
+        <v>1965</v>
       </c>
       <c r="O274" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P274" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q274" t="s">
         <v>373</v>
@@ -19864,16 +19804,16 @@
         <v>1288</v>
       </c>
       <c r="M275" s="2" t="s">
-        <v>1597</v>
+        <v>1586</v>
       </c>
       <c r="N275" t="s">
-        <v>1986</v>
+        <v>1966</v>
       </c>
       <c r="O275" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P275" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -19899,13 +19839,13 @@
         <v>1364</v>
       </c>
       <c r="N276" t="s">
-        <v>1987</v>
+        <v>1967</v>
       </c>
       <c r="O276" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P276" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q276" t="s">
         <v>204</v>
@@ -19946,16 +19886,16 @@
         <v>1343</v>
       </c>
       <c r="M277" s="2" t="s">
-        <v>1598</v>
+        <v>1587</v>
       </c>
       <c r="N277" t="s">
-        <v>1988</v>
+        <v>1968</v>
       </c>
       <c r="O277" t="s">
-        <v>2122</v>
+        <v>2102</v>
       </c>
       <c r="P277" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q277" t="s">
         <v>285</v>
@@ -19996,16 +19936,16 @@
         <v>1293</v>
       </c>
       <c r="M278" s="2" t="s">
-        <v>1599</v>
+        <v>1588</v>
       </c>
       <c r="N278" t="s">
-        <v>1989</v>
+        <v>1969</v>
       </c>
       <c r="O278" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P278" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R278" t="s">
         <v>174</v>
@@ -20040,13 +19980,13 @@
         <v>1364</v>
       </c>
       <c r="N279" t="s">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="O279" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P279" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q279" t="s">
         <v>157</v>
@@ -20087,16 +20027,16 @@
         <v>1059</v>
       </c>
       <c r="M280" s="2" t="s">
-        <v>1600</v>
+        <v>1589</v>
       </c>
       <c r="N280" t="s">
-        <v>1991</v>
+        <v>1971</v>
       </c>
       <c r="O280" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P280" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q280" t="s">
         <v>204</v>
@@ -20137,16 +20077,16 @@
         <v>1288</v>
       </c>
       <c r="M281" s="2" t="s">
-        <v>1601</v>
+        <v>1590</v>
       </c>
       <c r="N281" t="s">
-        <v>1992</v>
+        <v>1972</v>
       </c>
       <c r="O281" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P281" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q281" t="s">
         <v>148</v>
@@ -20187,16 +20127,16 @@
         <v>1301</v>
       </c>
       <c r="M282" s="2" t="s">
-        <v>1602</v>
+        <v>1591</v>
       </c>
       <c r="N282" t="s">
-        <v>1993</v>
+        <v>1973</v>
       </c>
       <c r="O282" t="s">
-        <v>2122</v>
+        <v>2102</v>
       </c>
       <c r="P282" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R282" t="s">
         <v>335</v>
@@ -20237,16 +20177,16 @@
         <v>1288</v>
       </c>
       <c r="M283" s="2" t="s">
-        <v>1603</v>
+        <v>1592</v>
       </c>
       <c r="N283" t="s">
-        <v>1994</v>
+        <v>1974</v>
       </c>
       <c r="O283" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P283" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R283" t="s">
         <v>437</v>
@@ -20286,17 +20226,17 @@
       <c r="K284" t="s">
         <v>1301</v>
       </c>
-      <c r="M284" s="2" t="s">
-        <v>1604</v>
+      <c r="M284" t="s">
+        <v>1397</v>
       </c>
       <c r="N284" t="s">
-        <v>1995</v>
+        <v>1975</v>
       </c>
       <c r="O284" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P284" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R284" t="s">
         <v>437</v>
@@ -20337,16 +20277,16 @@
         <v>1293</v>
       </c>
       <c r="M285" s="2" t="s">
-        <v>1605</v>
+        <v>1593</v>
       </c>
       <c r="N285" t="s">
-        <v>1996</v>
+        <v>1976</v>
       </c>
       <c r="O285" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P285" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R285" t="s">
         <v>437</v>
@@ -20387,16 +20327,16 @@
         <v>1290</v>
       </c>
       <c r="M286" s="2" t="s">
-        <v>1606</v>
+        <v>1594</v>
       </c>
       <c r="N286" t="s">
-        <v>1997</v>
+        <v>1977</v>
       </c>
       <c r="O286" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P286" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -20434,16 +20374,16 @@
         <v>1059</v>
       </c>
       <c r="M287" s="2" t="s">
-        <v>1607</v>
+        <v>1595</v>
       </c>
       <c r="N287" t="s">
-        <v>1998</v>
+        <v>1978</v>
       </c>
       <c r="O287" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P287" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q287" t="s">
         <v>403</v>
@@ -20481,16 +20421,16 @@
         <v>1344</v>
       </c>
       <c r="M288" s="2" t="s">
-        <v>1608</v>
+        <v>1596</v>
       </c>
       <c r="N288" t="s">
-        <v>1999</v>
+        <v>1979</v>
       </c>
       <c r="O288" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P288" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q288" t="s">
         <v>373</v>
@@ -20531,16 +20471,16 @@
         <v>1059</v>
       </c>
       <c r="M289" s="2" t="s">
-        <v>1609</v>
+        <v>1597</v>
       </c>
       <c r="N289" t="s">
-        <v>2000</v>
+        <v>1980</v>
       </c>
       <c r="O289" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P289" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q289" t="s">
         <v>289</v>
@@ -20581,16 +20521,16 @@
         <v>1059</v>
       </c>
       <c r="M290" s="2" t="s">
-        <v>1610</v>
+        <v>1598</v>
       </c>
       <c r="N290" t="s">
-        <v>2001</v>
+        <v>1981</v>
       </c>
       <c r="O290" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P290" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q290" t="s">
         <v>179</v>
@@ -20628,16 +20568,16 @@
         <v>1059</v>
       </c>
       <c r="M291" s="2" t="s">
-        <v>1611</v>
+        <v>1599</v>
       </c>
       <c r="N291" t="s">
-        <v>2002</v>
+        <v>1982</v>
       </c>
       <c r="O291" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P291" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -20675,16 +20615,16 @@
         <v>1290</v>
       </c>
       <c r="M292" s="2" t="s">
-        <v>1612</v>
+        <v>1600</v>
       </c>
       <c r="N292" t="s">
-        <v>2003</v>
+        <v>1983</v>
       </c>
       <c r="O292" t="s">
-        <v>2122</v>
+        <v>2102</v>
       </c>
       <c r="P292" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q292" t="s">
         <v>285</v>
@@ -20725,16 +20665,16 @@
         <v>1293</v>
       </c>
       <c r="M293" s="2" t="s">
-        <v>1613</v>
+        <v>1601</v>
       </c>
       <c r="N293" t="s">
-        <v>2004</v>
+        <v>1984</v>
       </c>
       <c r="O293" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P293" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R293" t="s">
         <v>174</v>
@@ -20774,17 +20714,17 @@
       <c r="K294" t="s">
         <v>1311</v>
       </c>
-      <c r="M294" s="2" t="s">
-        <v>1614</v>
+      <c r="M294" t="s">
+        <v>1397</v>
       </c>
       <c r="N294" t="s">
-        <v>2005</v>
+        <v>1985</v>
       </c>
       <c r="O294" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P294" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R294" t="s">
         <v>415</v>
@@ -20825,16 +20765,16 @@
         <v>1288</v>
       </c>
       <c r="M295" s="2" t="s">
-        <v>1615</v>
+        <v>1602</v>
       </c>
       <c r="N295" t="s">
-        <v>2006</v>
+        <v>1986</v>
       </c>
       <c r="O295" t="s">
-        <v>2122</v>
+        <v>2102</v>
       </c>
       <c r="P295" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q295" t="s">
         <v>285</v>
@@ -20875,16 +20815,16 @@
         <v>1285</v>
       </c>
       <c r="M296" s="2" t="s">
-        <v>1616</v>
+        <v>1603</v>
       </c>
       <c r="N296" t="s">
-        <v>2007</v>
+        <v>1987</v>
       </c>
       <c r="O296" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P296" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -20922,16 +20862,16 @@
         <v>1288</v>
       </c>
       <c r="M297" s="2" t="s">
-        <v>1617</v>
+        <v>1604</v>
       </c>
       <c r="N297" t="s">
-        <v>2008</v>
+        <v>1988</v>
       </c>
       <c r="O297" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P297" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q297" t="s">
         <v>340</v>
@@ -20972,16 +20912,16 @@
         <v>1059</v>
       </c>
       <c r="M298" s="2" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
       <c r="N298" t="s">
-        <v>2009</v>
+        <v>1989</v>
       </c>
       <c r="O298" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P298" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R298" t="s">
         <v>214</v>
@@ -21019,13 +20959,13 @@
         <v>1364</v>
       </c>
       <c r="N299" t="s">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="O299" t="s">
-        <v>2122</v>
+        <v>2102</v>
       </c>
       <c r="P299" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q299" t="s">
         <v>285</v>
@@ -21066,13 +21006,13 @@
         <v>1059</v>
       </c>
       <c r="N300" t="s">
-        <v>2011</v>
+        <v>1991</v>
       </c>
       <c r="O300" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P300" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q300" t="s">
         <v>200</v>
@@ -21113,16 +21053,16 @@
         <v>1288</v>
       </c>
       <c r="M301" s="2" t="s">
-        <v>1619</v>
+        <v>1606</v>
       </c>
       <c r="N301" t="s">
-        <v>2012</v>
+        <v>1992</v>
       </c>
       <c r="O301" t="s">
-        <v>2122</v>
+        <v>2102</v>
       </c>
       <c r="P301" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R301" t="s">
         <v>335</v>
@@ -21163,16 +21103,16 @@
         <v>1301</v>
       </c>
       <c r="M302" s="2" t="s">
-        <v>1620</v>
+        <v>1607</v>
       </c>
       <c r="N302" t="s">
-        <v>2013</v>
+        <v>1993</v>
       </c>
       <c r="O302" t="s">
-        <v>2122</v>
+        <v>2102</v>
       </c>
       <c r="P302" t="s">
-        <v>2134</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -21210,16 +21150,16 @@
         <v>1285</v>
       </c>
       <c r="M303" s="2" t="s">
-        <v>1621</v>
+        <v>1608</v>
       </c>
       <c r="N303" t="s">
-        <v>2014</v>
+        <v>1994</v>
       </c>
       <c r="O303" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P303" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -21257,16 +21197,16 @@
         <v>1345</v>
       </c>
       <c r="M304" s="2" t="s">
-        <v>1622</v>
+        <v>1609</v>
       </c>
       <c r="N304" t="s">
-        <v>2015</v>
+        <v>1995</v>
       </c>
       <c r="O304" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P304" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -21301,16 +21241,16 @@
         <v>1059</v>
       </c>
       <c r="M305" s="2" t="s">
-        <v>1623</v>
+        <v>1610</v>
       </c>
       <c r="N305" t="s">
-        <v>2016</v>
+        <v>1996</v>
       </c>
       <c r="O305" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P305" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -21348,16 +21288,16 @@
         <v>1346</v>
       </c>
       <c r="M306" s="2" t="s">
-        <v>1624</v>
+        <v>1611</v>
       </c>
       <c r="N306" t="s">
-        <v>2017</v>
+        <v>1997</v>
       </c>
       <c r="O306" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P306" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R306" t="s">
         <v>415</v>
@@ -21398,16 +21338,16 @@
         <v>1288</v>
       </c>
       <c r="M307" s="2" t="s">
-        <v>1625</v>
+        <v>1612</v>
       </c>
       <c r="N307" t="s">
-        <v>2018</v>
+        <v>1998</v>
       </c>
       <c r="O307" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P307" t="s">
-        <v>2135</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -21445,16 +21385,16 @@
         <v>1288</v>
       </c>
       <c r="M308" s="2" t="s">
-        <v>1626</v>
+        <v>1613</v>
       </c>
       <c r="N308" t="s">
-        <v>2019</v>
+        <v>1999</v>
       </c>
       <c r="O308" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P308" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q308" t="s">
         <v>340</v>
@@ -21503,16 +21443,16 @@
         <v>1290</v>
       </c>
       <c r="M310" s="2" t="s">
-        <v>1627</v>
+        <v>1614</v>
       </c>
       <c r="N310" t="s">
-        <v>2020</v>
+        <v>2000</v>
       </c>
       <c r="O310" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P310" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q310" t="s">
         <v>86</v>
@@ -21556,16 +21496,16 @@
         <v>1059</v>
       </c>
       <c r="M311" s="2" t="s">
-        <v>1628</v>
+        <v>1615</v>
       </c>
       <c r="N311" t="s">
-        <v>2021</v>
+        <v>2001</v>
       </c>
       <c r="O311" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P311" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q311" t="s">
         <v>125</v>
@@ -21605,17 +21545,17 @@
       <c r="K312" t="s">
         <v>1288</v>
       </c>
-      <c r="M312" s="2" t="s">
-        <v>1629</v>
+      <c r="M312" t="s">
+        <v>1397</v>
       </c>
       <c r="N312" t="s">
-        <v>2022</v>
+        <v>2002</v>
       </c>
       <c r="O312" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P312" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
       <c r="R312" t="s">
         <v>417</v>
@@ -21656,16 +21596,16 @@
         <v>1290</v>
       </c>
       <c r="M313" s="2" t="s">
-        <v>1630</v>
+        <v>1616</v>
       </c>
       <c r="N313" t="s">
-        <v>2023</v>
+        <v>2003</v>
       </c>
       <c r="O313" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P313" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q313" t="s">
         <v>128</v>
@@ -21694,13 +21634,13 @@
         <v>1364</v>
       </c>
       <c r="N314" t="s">
-        <v>2024</v>
+        <v>2004</v>
       </c>
       <c r="O314" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P314" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q314" t="s">
         <v>212</v>
@@ -21741,16 +21681,16 @@
         <v>1347</v>
       </c>
       <c r="M315" s="2" t="s">
-        <v>1631</v>
+        <v>1617</v>
       </c>
       <c r="N315" t="s">
-        <v>2025</v>
+        <v>2005</v>
       </c>
       <c r="O315" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P315" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q315" t="s">
         <v>212</v>
@@ -21791,16 +21731,16 @@
         <v>1289</v>
       </c>
       <c r="M316" s="2" t="s">
-        <v>1632</v>
+        <v>1618</v>
       </c>
       <c r="N316" t="s">
-        <v>2026</v>
+        <v>2006</v>
       </c>
       <c r="O316" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P316" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q316" t="s">
         <v>119</v>
@@ -21841,16 +21781,16 @@
         <v>1285</v>
       </c>
       <c r="M317" s="2" t="s">
-        <v>1633</v>
+        <v>1619</v>
       </c>
       <c r="N317" t="s">
-        <v>2027</v>
+        <v>2007</v>
       </c>
       <c r="O317" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P317" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -21879,13 +21819,13 @@
         <v>1364</v>
       </c>
       <c r="N318" t="s">
-        <v>2028</v>
+        <v>2008</v>
       </c>
       <c r="O318" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P318" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q318" t="s">
         <v>268</v>
@@ -21926,16 +21866,16 @@
         <v>1288</v>
       </c>
       <c r="M319" s="2" t="s">
-        <v>1634</v>
+        <v>1620</v>
       </c>
       <c r="N319" t="s">
-        <v>2029</v>
+        <v>2009</v>
       </c>
       <c r="O319" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P319" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q319" t="s">
         <v>295</v>
@@ -21976,16 +21916,16 @@
         <v>1288</v>
       </c>
       <c r="M320" s="2" t="s">
-        <v>1635</v>
+        <v>1621</v>
       </c>
       <c r="N320" t="s">
-        <v>2030</v>
+        <v>2010</v>
       </c>
       <c r="O320" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P320" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q320" t="s">
         <v>204</v>
@@ -22026,16 +21966,16 @@
         <v>1059</v>
       </c>
       <c r="M321" s="2" t="s">
-        <v>1636</v>
+        <v>1622</v>
       </c>
       <c r="N321" t="s">
-        <v>2031</v>
+        <v>2011</v>
       </c>
       <c r="O321" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P321" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q321" t="s">
         <v>340</v>
@@ -22073,16 +22013,16 @@
         <v>1059</v>
       </c>
       <c r="M322" s="2" t="s">
-        <v>1637</v>
+        <v>1623</v>
       </c>
       <c r="N322" t="s">
-        <v>2032</v>
+        <v>2012</v>
       </c>
       <c r="O322" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P322" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q322" t="s">
         <v>362</v>
@@ -22123,16 +22063,16 @@
         <v>1059</v>
       </c>
       <c r="M323" s="2" t="s">
-        <v>1638</v>
+        <v>1624</v>
       </c>
       <c r="N323" t="s">
-        <v>2033</v>
+        <v>2013</v>
       </c>
       <c r="O323" t="s">
-        <v>2127</v>
+        <v>2107</v>
       </c>
       <c r="P323" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R323" t="s">
         <v>271</v>
@@ -22173,16 +22113,16 @@
         <v>1059</v>
       </c>
       <c r="M324" s="2" t="s">
-        <v>1639</v>
+        <v>1625</v>
       </c>
       <c r="N324" t="s">
-        <v>2034</v>
+        <v>2014</v>
       </c>
       <c r="O324" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P324" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -22220,16 +22160,16 @@
         <v>1290</v>
       </c>
       <c r="M325" s="2" t="s">
-        <v>1640</v>
+        <v>1626</v>
       </c>
       <c r="N325" t="s">
-        <v>2035</v>
+        <v>2015</v>
       </c>
       <c r="O325" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P325" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -22264,16 +22204,16 @@
         <v>1348</v>
       </c>
       <c r="M326" s="2" t="s">
-        <v>1641</v>
+        <v>1627</v>
       </c>
       <c r="N326" t="s">
-        <v>2036</v>
+        <v>2016</v>
       </c>
       <c r="O326" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P326" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q326" t="s">
         <v>373</v>
@@ -22314,16 +22254,16 @@
         <v>1288</v>
       </c>
       <c r="M327" s="2" t="s">
-        <v>1642</v>
+        <v>1628</v>
       </c>
       <c r="N327" t="s">
-        <v>2037</v>
+        <v>2017</v>
       </c>
       <c r="O327" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P327" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q327" t="s">
         <v>188</v>
@@ -22364,16 +22304,16 @@
         <v>1301</v>
       </c>
       <c r="M328" s="2" t="s">
-        <v>1643</v>
+        <v>1629</v>
       </c>
       <c r="N328" t="s">
-        <v>2038</v>
+        <v>2018</v>
       </c>
       <c r="O328" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P328" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R328" t="s">
         <v>214</v>
@@ -22413,17 +22353,17 @@
       <c r="K329" t="s">
         <v>1301</v>
       </c>
-      <c r="M329" s="2" t="s">
-        <v>1644</v>
+      <c r="M329" t="s">
+        <v>1397</v>
       </c>
       <c r="N329" t="s">
-        <v>2039</v>
+        <v>2019</v>
       </c>
       <c r="O329" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P329" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q329" t="s">
         <v>362</v>
@@ -22464,16 +22404,16 @@
         <v>1059</v>
       </c>
       <c r="M330" s="2" t="s">
-        <v>1645</v>
+        <v>1630</v>
       </c>
       <c r="N330" t="s">
-        <v>2040</v>
+        <v>2020</v>
       </c>
       <c r="O330" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P330" t="s">
-        <v>2135</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -22511,16 +22451,16 @@
         <v>1288</v>
       </c>
       <c r="M331" s="2" t="s">
-        <v>1646</v>
+        <v>1631</v>
       </c>
       <c r="N331" t="s">
-        <v>2041</v>
+        <v>2021</v>
       </c>
       <c r="O331" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P331" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q331" t="s">
         <v>362</v>
@@ -22561,16 +22501,16 @@
         <v>1288</v>
       </c>
       <c r="M332" s="2" t="s">
-        <v>1647</v>
+        <v>1632</v>
       </c>
       <c r="N332" t="s">
-        <v>2042</v>
+        <v>2022</v>
       </c>
       <c r="O332" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P332" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q332" t="s">
         <v>188</v>
@@ -22611,16 +22551,16 @@
         <v>1285</v>
       </c>
       <c r="M333" s="2" t="s">
-        <v>1648</v>
+        <v>1633</v>
       </c>
       <c r="N333" t="s">
-        <v>2043</v>
+        <v>2023</v>
       </c>
       <c r="O333" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P333" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -22658,16 +22598,16 @@
         <v>1293</v>
       </c>
       <c r="M334" s="2" t="s">
-        <v>1649</v>
+        <v>1634</v>
       </c>
       <c r="N334" t="s">
-        <v>2044</v>
+        <v>2024</v>
       </c>
       <c r="O334" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P334" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R334" t="s">
         <v>174</v>
@@ -22699,16 +22639,16 @@
         <v>1364</v>
       </c>
       <c r="N335" t="s">
-        <v>2045</v>
+        <v>2025</v>
       </c>
       <c r="O335" t="s">
-        <v>2127</v>
+        <v>2107</v>
       </c>
       <c r="P335" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
       <c r="R335" t="s">
-        <v>2139</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -22743,16 +22683,16 @@
         <v>1059</v>
       </c>
       <c r="M336" s="2" t="s">
-        <v>1650</v>
+        <v>1635</v>
       </c>
       <c r="N336" t="s">
-        <v>2046</v>
+        <v>2026</v>
       </c>
       <c r="O336" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P336" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -22790,16 +22730,16 @@
         <v>1288</v>
       </c>
       <c r="M337" s="2" t="s">
-        <v>1651</v>
+        <v>1636</v>
       </c>
       <c r="N337" t="s">
-        <v>2047</v>
+        <v>2027</v>
       </c>
       <c r="O337" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P337" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q337" t="s">
         <v>403</v>
@@ -22840,16 +22780,16 @@
         <v>1288</v>
       </c>
       <c r="M338" s="2" t="s">
-        <v>1652</v>
+        <v>1637</v>
       </c>
       <c r="N338" t="s">
-        <v>2048</v>
+        <v>2028</v>
       </c>
       <c r="O338" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P338" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q338" t="s">
         <v>170</v>
@@ -22890,16 +22830,16 @@
         <v>1349</v>
       </c>
       <c r="M339" s="2" t="s">
-        <v>1653</v>
+        <v>1638</v>
       </c>
       <c r="N339" t="s">
-        <v>2049</v>
+        <v>2029</v>
       </c>
       <c r="O339" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P339" t="s">
-        <v>2135</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -22937,16 +22877,16 @@
         <v>1301</v>
       </c>
       <c r="M340" s="2" t="s">
-        <v>1654</v>
+        <v>1639</v>
       </c>
       <c r="N340" t="s">
-        <v>2050</v>
+        <v>2030</v>
       </c>
       <c r="O340" t="s">
-        <v>2127</v>
+        <v>2107</v>
       </c>
       <c r="P340" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R340" t="s">
         <v>271</v>
@@ -22987,16 +22927,16 @@
         <v>1290</v>
       </c>
       <c r="M341" s="2" t="s">
-        <v>1655</v>
+        <v>1640</v>
       </c>
       <c r="N341" t="s">
-        <v>2051</v>
+        <v>2031</v>
       </c>
       <c r="O341" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P341" t="s">
-        <v>2135</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -23034,16 +22974,16 @@
         <v>1059</v>
       </c>
       <c r="M342" s="2" t="s">
-        <v>1656</v>
+        <v>1641</v>
       </c>
       <c r="N342" t="s">
-        <v>2052</v>
+        <v>2032</v>
       </c>
       <c r="O342" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P342" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q342" t="s">
         <v>373</v>
@@ -23083,17 +23023,17 @@
       <c r="K343" t="s">
         <v>1288</v>
       </c>
-      <c r="M343" s="2" t="s">
-        <v>1657</v>
+      <c r="M343" t="s">
+        <v>1397</v>
       </c>
       <c r="N343" t="s">
-        <v>2053</v>
+        <v>2033</v>
       </c>
       <c r="O343" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P343" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q343" t="s">
         <v>200</v>
@@ -23122,13 +23062,13 @@
         <v>1364</v>
       </c>
       <c r="N344" t="s">
-        <v>2054</v>
+        <v>2034</v>
       </c>
       <c r="O344" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P344" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -23166,16 +23106,16 @@
         <v>1293</v>
       </c>
       <c r="M345" s="2" t="s">
-        <v>1658</v>
+        <v>1642</v>
       </c>
       <c r="N345" t="s">
-        <v>2055</v>
+        <v>2035</v>
       </c>
       <c r="O345" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P345" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R345" t="s">
         <v>174</v>
@@ -23216,16 +23156,16 @@
         <v>1059</v>
       </c>
       <c r="M346" s="2" t="s">
-        <v>1659</v>
+        <v>1643</v>
       </c>
       <c r="N346" t="s">
-        <v>2056</v>
+        <v>2036</v>
       </c>
       <c r="O346" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P346" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q346" t="s">
         <v>362</v>
@@ -23266,16 +23206,16 @@
         <v>1059</v>
       </c>
       <c r="M347" s="2" t="s">
-        <v>1660</v>
+        <v>1644</v>
       </c>
       <c r="N347" t="s">
-        <v>2057</v>
+        <v>2037</v>
       </c>
       <c r="O347" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P347" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q347" t="s">
         <v>373</v>
@@ -23316,16 +23256,16 @@
         <v>1288</v>
       </c>
       <c r="M348" s="2" t="s">
-        <v>1661</v>
+        <v>1645</v>
       </c>
       <c r="N348" t="s">
-        <v>2058</v>
+        <v>2038</v>
       </c>
       <c r="O348" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P348" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q348" t="s">
         <v>128</v>
@@ -23366,16 +23306,16 @@
         <v>1059</v>
       </c>
       <c r="M349" s="2" t="s">
-        <v>1662</v>
+        <v>1646</v>
       </c>
       <c r="N349" t="s">
-        <v>2059</v>
+        <v>2039</v>
       </c>
       <c r="O349" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P349" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -23413,16 +23353,16 @@
         <v>1059</v>
       </c>
       <c r="M350" s="2" t="s">
-        <v>1663</v>
+        <v>1647</v>
       </c>
       <c r="N350" t="s">
-        <v>2060</v>
+        <v>2040</v>
       </c>
       <c r="O350" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P350" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q350" t="s">
         <v>157</v>
@@ -23463,16 +23403,16 @@
         <v>1059</v>
       </c>
       <c r="M351" s="2" t="s">
-        <v>1664</v>
+        <v>1648</v>
       </c>
       <c r="N351" t="s">
-        <v>2061</v>
+        <v>2041</v>
       </c>
       <c r="O351" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P351" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q351" t="s">
         <v>179</v>
@@ -23509,17 +23449,17 @@
       <c r="K352" t="s">
         <v>1059</v>
       </c>
-      <c r="M352" s="2" t="s">
-        <v>1665</v>
+      <c r="M352" t="s">
+        <v>1397</v>
       </c>
       <c r="N352" t="s">
-        <v>2062</v>
+        <v>2042</v>
       </c>
       <c r="O352" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P352" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q352" t="s">
         <v>170</v>
@@ -23560,16 +23500,16 @@
         <v>1059</v>
       </c>
       <c r="M353" s="2" t="s">
-        <v>1666</v>
+        <v>1649</v>
       </c>
       <c r="N353" t="s">
-        <v>2063</v>
+        <v>2043</v>
       </c>
       <c r="O353" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P353" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q353" t="s">
         <v>200</v>
@@ -23610,16 +23550,16 @@
         <v>1285</v>
       </c>
       <c r="M354" s="2" t="s">
-        <v>1667</v>
+        <v>1650</v>
       </c>
       <c r="N354" t="s">
-        <v>2064</v>
+        <v>2044</v>
       </c>
       <c r="O354" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P354" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -23657,16 +23597,16 @@
         <v>1285</v>
       </c>
       <c r="M355" s="2" t="s">
-        <v>1668</v>
+        <v>1651</v>
       </c>
       <c r="N355" t="s">
-        <v>2065</v>
+        <v>2045</v>
       </c>
       <c r="O355" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P355" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -23704,16 +23644,16 @@
         <v>1288</v>
       </c>
       <c r="M356" s="2" t="s">
-        <v>1669</v>
+        <v>1652</v>
       </c>
       <c r="N356" t="s">
-        <v>2066</v>
+        <v>2046</v>
       </c>
       <c r="O356" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P356" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q356" t="s">
         <v>188</v>
@@ -23754,16 +23694,16 @@
         <v>1059</v>
       </c>
       <c r="M357" s="2" t="s">
-        <v>1670</v>
+        <v>1653</v>
       </c>
       <c r="N357" t="s">
-        <v>2067</v>
+        <v>2047</v>
       </c>
       <c r="O357" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P357" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -23801,16 +23741,16 @@
         <v>1288</v>
       </c>
       <c r="M358" s="2" t="s">
-        <v>1671</v>
+        <v>1654</v>
       </c>
       <c r="N358" t="s">
-        <v>2068</v>
+        <v>2048</v>
       </c>
       <c r="O358" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P358" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q358" t="s">
         <v>200</v>
@@ -23851,16 +23791,16 @@
         <v>1290</v>
       </c>
       <c r="M359" s="2" t="s">
-        <v>1672</v>
+        <v>1655</v>
       </c>
       <c r="N359" t="s">
-        <v>2069</v>
+        <v>2049</v>
       </c>
       <c r="O359" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P359" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -23895,16 +23835,16 @@
         <v>1059</v>
       </c>
       <c r="M360" s="2" t="s">
-        <v>1673</v>
+        <v>1656</v>
       </c>
       <c r="N360" t="s">
-        <v>2070</v>
+        <v>2050</v>
       </c>
       <c r="O360" t="s">
-        <v>2125</v>
+        <v>2105</v>
       </c>
       <c r="P360" t="s">
-        <v>2133</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -23942,16 +23882,16 @@
         <v>1059</v>
       </c>
       <c r="M361" s="2" t="s">
-        <v>1674</v>
+        <v>1657</v>
       </c>
       <c r="N361" t="s">
-        <v>2071</v>
+        <v>2051</v>
       </c>
       <c r="O361" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P361" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q361" t="s">
         <v>128</v>
@@ -23992,16 +23932,16 @@
         <v>1293</v>
       </c>
       <c r="M362" s="2" t="s">
-        <v>1675</v>
+        <v>1658</v>
       </c>
       <c r="N362" t="s">
-        <v>2072</v>
+        <v>2052</v>
       </c>
       <c r="O362" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P362" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R362" t="s">
         <v>174</v>
@@ -24042,16 +23982,16 @@
         <v>1288</v>
       </c>
       <c r="M363" s="2" t="s">
-        <v>1676</v>
+        <v>1659</v>
       </c>
       <c r="N363" t="s">
-        <v>2073</v>
+        <v>2053</v>
       </c>
       <c r="O363" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P363" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q363" t="s">
         <v>200</v>
@@ -24092,16 +24032,16 @@
         <v>1288</v>
       </c>
       <c r="M364" s="2" t="s">
-        <v>1677</v>
+        <v>1660</v>
       </c>
       <c r="N364" t="s">
-        <v>2074</v>
+        <v>2054</v>
       </c>
       <c r="O364" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P364" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q364" t="s">
         <v>157</v>
@@ -24142,16 +24082,16 @@
         <v>1290</v>
       </c>
       <c r="M365" s="2" t="s">
-        <v>1678</v>
+        <v>1661</v>
       </c>
       <c r="N365" t="s">
-        <v>2075</v>
+        <v>2055</v>
       </c>
       <c r="O365" t="s">
-        <v>2125</v>
+        <v>2105</v>
       </c>
       <c r="P365" t="s">
-        <v>2133</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -24189,16 +24129,16 @@
         <v>1285</v>
       </c>
       <c r="M366" s="2" t="s">
-        <v>1679</v>
+        <v>1662</v>
       </c>
       <c r="N366" t="s">
-        <v>2076</v>
+        <v>2056</v>
       </c>
       <c r="O366" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P366" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q366" t="s">
         <v>295</v>
@@ -24239,16 +24179,16 @@
         <v>1290</v>
       </c>
       <c r="M367" s="2" t="s">
-        <v>1680</v>
+        <v>1663</v>
       </c>
       <c r="N367" t="s">
-        <v>2077</v>
+        <v>2057</v>
       </c>
       <c r="O367" t="s">
-        <v>2122</v>
+        <v>2102</v>
       </c>
       <c r="P367" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R367" t="s">
         <v>421</v>
@@ -24289,16 +24229,16 @@
         <v>1290</v>
       </c>
       <c r="M368" s="2" t="s">
-        <v>1681</v>
+        <v>1664</v>
       </c>
       <c r="N368" t="s">
-        <v>2078</v>
+        <v>2058</v>
       </c>
       <c r="O368" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P368" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R368" t="s">
         <v>415</v>
@@ -24336,16 +24276,16 @@
         <v>1350</v>
       </c>
       <c r="M369" s="2" t="s">
-        <v>1682</v>
+        <v>1665</v>
       </c>
       <c r="N369" t="s">
-        <v>2079</v>
+        <v>2059</v>
       </c>
       <c r="O369" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P369" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="370" spans="1:17">
@@ -24383,16 +24323,16 @@
         <v>1288</v>
       </c>
       <c r="M370" s="2" t="s">
-        <v>1683</v>
+        <v>1666</v>
       </c>
       <c r="N370" t="s">
-        <v>2080</v>
+        <v>2060</v>
       </c>
       <c r="O370" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P370" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q370" t="s">
         <v>403</v>
@@ -24433,16 +24373,16 @@
         <v>1290</v>
       </c>
       <c r="M371" s="2" t="s">
-        <v>1684</v>
+        <v>1667</v>
       </c>
       <c r="N371" t="s">
-        <v>2081</v>
+        <v>2061</v>
       </c>
       <c r="O371" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P371" t="s">
-        <v>2135</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="372" spans="1:17">
@@ -24480,16 +24420,16 @@
         <v>1288</v>
       </c>
       <c r="M372" s="2" t="s">
-        <v>1685</v>
+        <v>1668</v>
       </c>
       <c r="N372" t="s">
-        <v>2082</v>
+        <v>2062</v>
       </c>
       <c r="O372" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P372" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q372" t="s">
         <v>188</v>
@@ -24530,16 +24470,16 @@
         <v>1288</v>
       </c>
       <c r="M373" s="2" t="s">
-        <v>1686</v>
+        <v>1669</v>
       </c>
       <c r="N373" t="s">
-        <v>2083</v>
+        <v>2063</v>
       </c>
       <c r="O373" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P373" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q373" t="s">
         <v>373</v>
@@ -24580,16 +24520,16 @@
         <v>1290</v>
       </c>
       <c r="M374" s="2" t="s">
-        <v>1687</v>
+        <v>1670</v>
       </c>
       <c r="N374" t="s">
-        <v>2084</v>
+        <v>2064</v>
       </c>
       <c r="O374" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P374" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q374" t="s">
         <v>148</v>
@@ -24621,7 +24561,7 @@
         <v>1364</v>
       </c>
       <c r="N375" t="s">
-        <v>2085</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="376" spans="1:17">
@@ -24659,16 +24599,16 @@
         <v>1352</v>
       </c>
       <c r="M376" s="2" t="s">
-        <v>1688</v>
+        <v>1671</v>
       </c>
       <c r="N376" t="s">
-        <v>2086</v>
+        <v>2066</v>
       </c>
       <c r="O376" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P376" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q376" t="s">
         <v>188</v>
@@ -24709,16 +24649,16 @@
         <v>1288</v>
       </c>
       <c r="M377" s="2" t="s">
-        <v>1689</v>
+        <v>1672</v>
       </c>
       <c r="N377" t="s">
-        <v>2087</v>
+        <v>2067</v>
       </c>
       <c r="O377" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P377" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="378" spans="1:17">
@@ -24756,16 +24696,16 @@
         <v>1290</v>
       </c>
       <c r="M378" s="2" t="s">
-        <v>1690</v>
+        <v>1673</v>
       </c>
       <c r="N378" t="s">
-        <v>2088</v>
+        <v>2068</v>
       </c>
       <c r="O378" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P378" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q378" t="s">
         <v>128</v>
@@ -24806,16 +24746,16 @@
         <v>1285</v>
       </c>
       <c r="M379" s="2" t="s">
-        <v>1691</v>
+        <v>1674</v>
       </c>
       <c r="N379" t="s">
-        <v>2089</v>
+        <v>2069</v>
       </c>
       <c r="O379" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P379" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="380" spans="1:17">
@@ -24853,16 +24793,16 @@
         <v>1059</v>
       </c>
       <c r="M380" s="2" t="s">
-        <v>1692</v>
+        <v>1675</v>
       </c>
       <c r="N380" t="s">
-        <v>2090</v>
+        <v>2070</v>
       </c>
       <c r="O380" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P380" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q380" t="s">
         <v>204</v>
@@ -24894,13 +24834,13 @@
         <v>1364</v>
       </c>
       <c r="N381" t="s">
-        <v>2091</v>
+        <v>2071</v>
       </c>
       <c r="O381" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P381" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q381" t="s">
         <v>212</v>
@@ -24941,16 +24881,16 @@
         <v>1285</v>
       </c>
       <c r="M382" s="2" t="s">
-        <v>1693</v>
+        <v>1676</v>
       </c>
       <c r="N382" t="s">
-        <v>2092</v>
+        <v>2072</v>
       </c>
       <c r="O382" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="P382" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="383" spans="1:17">
@@ -24988,16 +24928,16 @@
         <v>1311</v>
       </c>
       <c r="M383" s="2" t="s">
-        <v>1694</v>
+        <v>1677</v>
       </c>
       <c r="N383" t="s">
-        <v>2093</v>
+        <v>2073</v>
       </c>
       <c r="O383" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P383" t="s">
-        <v>2134</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="384" spans="1:17">
@@ -25026,13 +24966,13 @@
         <v>1364</v>
       </c>
       <c r="N384" t="s">
-        <v>2094</v>
+        <v>2074</v>
       </c>
       <c r="O384" t="s">
-        <v>2119</v>
+        <v>2099</v>
       </c>
       <c r="P384" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -25070,16 +25010,16 @@
         <v>1288</v>
       </c>
       <c r="M385" s="2" t="s">
-        <v>1695</v>
+        <v>1678</v>
       </c>
       <c r="N385" t="s">
-        <v>2095</v>
+        <v>2075</v>
       </c>
       <c r="O385" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P385" t="s">
-        <v>2134</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -25117,16 +25057,16 @@
         <v>1290</v>
       </c>
       <c r="M386" s="2" t="s">
-        <v>1696</v>
+        <v>1679</v>
       </c>
       <c r="N386" t="s">
-        <v>2096</v>
+        <v>2076</v>
       </c>
       <c r="O386" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P386" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q386" t="s">
         <v>295</v>
@@ -25166,17 +25106,17 @@
       <c r="K387" t="s">
         <v>1059</v>
       </c>
-      <c r="M387" s="2" t="s">
-        <v>1697</v>
+      <c r="M387" t="s">
+        <v>1397</v>
       </c>
       <c r="N387" t="s">
-        <v>2097</v>
+        <v>2077</v>
       </c>
       <c r="O387" t="s">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="P387" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q387" t="s">
         <v>371</v>
@@ -25217,16 +25157,16 @@
         <v>1290</v>
       </c>
       <c r="M388" s="2" t="s">
-        <v>1698</v>
+        <v>1680</v>
       </c>
       <c r="N388" t="s">
-        <v>2098</v>
+        <v>2078</v>
       </c>
       <c r="O388" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P388" t="s">
-        <v>2135</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -25264,16 +25204,16 @@
         <v>1293</v>
       </c>
       <c r="M389" s="2" t="s">
-        <v>1699</v>
+        <v>1681</v>
       </c>
       <c r="N389" t="s">
-        <v>2099</v>
+        <v>2079</v>
       </c>
       <c r="O389" t="s">
-        <v>2122</v>
+        <v>2102</v>
       </c>
       <c r="P389" t="s">
-        <v>2134</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -25311,16 +25251,16 @@
         <v>1301</v>
       </c>
       <c r="M390" s="2" t="s">
-        <v>1700</v>
+        <v>1682</v>
       </c>
       <c r="N390" t="s">
-        <v>2100</v>
+        <v>2080</v>
       </c>
       <c r="O390" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P390" t="s">
-        <v>2137</v>
+        <v>2117</v>
       </c>
       <c r="R390" t="s">
         <v>437</v>
@@ -25361,16 +25301,16 @@
         <v>1293</v>
       </c>
       <c r="M391" s="2" t="s">
-        <v>1701</v>
+        <v>1683</v>
       </c>
       <c r="N391" t="s">
-        <v>2101</v>
+        <v>2081</v>
       </c>
       <c r="O391" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P391" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R391" t="s">
         <v>174</v>
@@ -25411,16 +25351,16 @@
         <v>1288</v>
       </c>
       <c r="M392" s="2" t="s">
-        <v>1702</v>
+        <v>1684</v>
       </c>
       <c r="N392" t="s">
-        <v>2102</v>
+        <v>2082</v>
       </c>
       <c r="O392" t="s">
-        <v>2123</v>
+        <v>2103</v>
       </c>
       <c r="P392" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -25458,16 +25398,16 @@
         <v>1288</v>
       </c>
       <c r="M393" s="2" t="s">
-        <v>1703</v>
+        <v>1685</v>
       </c>
       <c r="N393" t="s">
-        <v>2103</v>
+        <v>2083</v>
       </c>
       <c r="O393" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P393" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q393" t="s">
         <v>179</v>
@@ -25508,16 +25448,16 @@
         <v>1311</v>
       </c>
       <c r="M394" s="2" t="s">
-        <v>1704</v>
+        <v>1686</v>
       </c>
       <c r="N394" t="s">
-        <v>2104</v>
+        <v>2084</v>
       </c>
       <c r="O394" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P394" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R394" t="s">
         <v>214</v>
@@ -25557,17 +25497,17 @@
       <c r="K395" t="s">
         <v>1290</v>
       </c>
-      <c r="M395" s="2" t="s">
-        <v>1705</v>
+      <c r="M395" t="s">
+        <v>1397</v>
       </c>
       <c r="N395" t="s">
-        <v>2105</v>
+        <v>2085</v>
       </c>
       <c r="O395" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P395" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q395" t="s">
         <v>373</v>
@@ -25608,16 +25548,16 @@
         <v>1288</v>
       </c>
       <c r="M396" s="2" t="s">
-        <v>1706</v>
+        <v>1687</v>
       </c>
       <c r="N396" t="s">
-        <v>2106</v>
+        <v>2086</v>
       </c>
       <c r="O396" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P396" t="s">
-        <v>2132</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -25654,17 +25594,17 @@
       <c r="K397" t="s">
         <v>1353</v>
       </c>
-      <c r="M397" s="2" t="s">
-        <v>1707</v>
+      <c r="M397" t="s">
+        <v>1397</v>
       </c>
       <c r="N397" t="s">
-        <v>2107</v>
+        <v>2087</v>
       </c>
       <c r="O397" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P397" t="s">
-        <v>2131</v>
+        <v>2111</v>
       </c>
       <c r="R397" t="s">
         <v>415</v>
@@ -25705,16 +25645,16 @@
         <v>1288</v>
       </c>
       <c r="M398" s="2" t="s">
-        <v>1708</v>
+        <v>1688</v>
       </c>
       <c r="N398" t="s">
-        <v>2108</v>
+        <v>2088</v>
       </c>
       <c r="O398" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P398" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q398" t="s">
         <v>431</v>
@@ -25752,13 +25692,13 @@
         <v>1364</v>
       </c>
       <c r="N399" t="s">
-        <v>2109</v>
+        <v>2089</v>
       </c>
       <c r="O399" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P399" t="s">
-        <v>2135</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -25796,16 +25736,16 @@
         <v>1059</v>
       </c>
       <c r="M400" s="2" t="s">
-        <v>1709</v>
+        <v>1689</v>
       </c>
       <c r="N400" t="s">
-        <v>2110</v>
+        <v>2090</v>
       </c>
       <c r="O400" t="s">
-        <v>2117</v>
+        <v>2097</v>
       </c>
       <c r="P400" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q400" t="s">
         <v>420</v>
@@ -25846,16 +25786,16 @@
         <v>1290</v>
       </c>
       <c r="M401" s="2" t="s">
-        <v>1710</v>
+        <v>1690</v>
       </c>
       <c r="N401" t="s">
-        <v>2111</v>
+        <v>2091</v>
       </c>
       <c r="O401" t="s">
-        <v>2125</v>
+        <v>2105</v>
       </c>
       <c r="P401" t="s">
-        <v>2133</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="402" spans="1:17">
@@ -25884,13 +25824,13 @@
         <v>1364</v>
       </c>
       <c r="N402" t="s">
-        <v>2112</v>
+        <v>2092</v>
       </c>
       <c r="O402" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P402" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q402" t="s">
         <v>431</v>
@@ -25931,16 +25871,16 @@
         <v>1290</v>
       </c>
       <c r="M403" s="2" t="s">
-        <v>1711</v>
+        <v>1691</v>
       </c>
       <c r="N403" t="s">
-        <v>2113</v>
+        <v>2093</v>
       </c>
       <c r="O403" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="P403" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q403" t="s">
         <v>204</v>
@@ -25978,16 +25918,16 @@
         <v>1059</v>
       </c>
       <c r="M404" s="2" t="s">
-        <v>1712</v>
+        <v>1692</v>
       </c>
       <c r="N404" t="s">
-        <v>2114</v>
+        <v>2094</v>
       </c>
       <c r="O404" t="s">
-        <v>2124</v>
+        <v>2104</v>
       </c>
       <c r="P404" t="s">
-        <v>2129</v>
+        <v>2109</v>
       </c>
       <c r="Q404" t="s">
         <v>431</v>
@@ -26025,16 +25965,16 @@
         <v>1288</v>
       </c>
       <c r="M405" s="2" t="s">
-        <v>1713</v>
+        <v>1693</v>
       </c>
       <c r="N405" t="s">
-        <v>2115</v>
+        <v>2095</v>
       </c>
       <c r="O405" t="s">
-        <v>2126</v>
+        <v>2106</v>
       </c>
       <c r="P405" t="s">
-        <v>2138</v>
+        <v>2118</v>
       </c>
     </row>
   </sheetData>
@@ -26077,324 +26017,303 @@
     <hyperlink ref="M47" r:id="rId36"/>
     <hyperlink ref="M48" r:id="rId37"/>
     <hyperlink ref="M49" r:id="rId38"/>
-    <hyperlink ref="M50" r:id="rId39"/>
-    <hyperlink ref="M52" r:id="rId40"/>
-    <hyperlink ref="M53" r:id="rId41"/>
-    <hyperlink ref="M54" r:id="rId42"/>
-    <hyperlink ref="M55" r:id="rId43"/>
-    <hyperlink ref="M56" r:id="rId44"/>
-    <hyperlink ref="M58" r:id="rId45"/>
-    <hyperlink ref="M59" r:id="rId46"/>
-    <hyperlink ref="M60" r:id="rId47"/>
-    <hyperlink ref="M61" r:id="rId48"/>
-    <hyperlink ref="M62" r:id="rId49"/>
-    <hyperlink ref="M63" r:id="rId50"/>
-    <hyperlink ref="M64" r:id="rId51"/>
-    <hyperlink ref="M65" r:id="rId52"/>
-    <hyperlink ref="M66" r:id="rId53" location="AI49515"/>
-    <hyperlink ref="M67" r:id="rId54"/>
-    <hyperlink ref="M68" r:id="rId55"/>
-    <hyperlink ref="M69" r:id="rId56"/>
-    <hyperlink ref="M70" r:id="rId57"/>
-    <hyperlink ref="M71" r:id="rId58"/>
-    <hyperlink ref="M72" r:id="rId59"/>
-    <hyperlink ref="M74" r:id="rId60"/>
-    <hyperlink ref="M75" r:id="rId61"/>
-    <hyperlink ref="M76" r:id="rId62"/>
-    <hyperlink ref="M78" r:id="rId63"/>
-    <hyperlink ref="M79" r:id="rId64"/>
-    <hyperlink ref="M80" r:id="rId65"/>
-    <hyperlink ref="M81" r:id="rId66"/>
-    <hyperlink ref="M82" r:id="rId67"/>
-    <hyperlink ref="M83" r:id="rId68"/>
-    <hyperlink ref="M84" r:id="rId69"/>
-    <hyperlink ref="M86" r:id="rId70"/>
-    <hyperlink ref="M87" r:id="rId71"/>
-    <hyperlink ref="M88" r:id="rId72"/>
-    <hyperlink ref="M89" r:id="rId73"/>
-    <hyperlink ref="M90" r:id="rId74"/>
-    <hyperlink ref="M91" r:id="rId75"/>
-    <hyperlink ref="M92" r:id="rId76"/>
-    <hyperlink ref="M93" r:id="rId77"/>
-    <hyperlink ref="M94" r:id="rId78"/>
-    <hyperlink ref="M95" r:id="rId79"/>
-    <hyperlink ref="M96" r:id="rId80"/>
-    <hyperlink ref="M97" r:id="rId81"/>
-    <hyperlink ref="M98" r:id="rId82"/>
-    <hyperlink ref="M99" r:id="rId83"/>
-    <hyperlink ref="M100" r:id="rId84"/>
-    <hyperlink ref="M101" r:id="rId85"/>
-    <hyperlink ref="M103" r:id="rId86"/>
-    <hyperlink ref="M104" r:id="rId87"/>
-    <hyperlink ref="M106" r:id="rId88"/>
-    <hyperlink ref="M107" r:id="rId89"/>
-    <hyperlink ref="M109" r:id="rId90"/>
-    <hyperlink ref="M110" r:id="rId91"/>
-    <hyperlink ref="M111" r:id="rId92"/>
-    <hyperlink ref="M112" r:id="rId93"/>
-    <hyperlink ref="M113" r:id="rId94"/>
-    <hyperlink ref="M114" r:id="rId95"/>
-    <hyperlink ref="M115" r:id="rId96"/>
-    <hyperlink ref="M116" r:id="rId97"/>
-    <hyperlink ref="M117" r:id="rId98"/>
-    <hyperlink ref="M118" r:id="rId99"/>
-    <hyperlink ref="M119" r:id="rId100"/>
-    <hyperlink ref="M120" r:id="rId101"/>
-    <hyperlink ref="M121" r:id="rId102"/>
-    <hyperlink ref="M122" r:id="rId103"/>
-    <hyperlink ref="M124" r:id="rId104"/>
-    <hyperlink ref="M125" r:id="rId105"/>
-    <hyperlink ref="M126" r:id="rId106"/>
-    <hyperlink ref="M128" r:id="rId107"/>
-    <hyperlink ref="M129" r:id="rId108"/>
-    <hyperlink ref="M130" r:id="rId109"/>
-    <hyperlink ref="M131" r:id="rId110"/>
-    <hyperlink ref="M133" r:id="rId111"/>
-    <hyperlink ref="M134" r:id="rId112"/>
-    <hyperlink ref="M135" r:id="rId113"/>
-    <hyperlink ref="M136" r:id="rId114"/>
-    <hyperlink ref="M138" r:id="rId115"/>
-    <hyperlink ref="M140" r:id="rId116"/>
-    <hyperlink ref="M141" r:id="rId117"/>
-    <hyperlink ref="M142" r:id="rId118"/>
-    <hyperlink ref="M143" r:id="rId119"/>
-    <hyperlink ref="M144" r:id="rId120"/>
-    <hyperlink ref="M145" r:id="rId121"/>
-    <hyperlink ref="M146" r:id="rId122"/>
-    <hyperlink ref="M147" r:id="rId123"/>
-    <hyperlink ref="M148" r:id="rId124"/>
-    <hyperlink ref="M149" r:id="rId125"/>
-    <hyperlink ref="M151" r:id="rId126"/>
-    <hyperlink ref="M153" r:id="rId127"/>
-    <hyperlink ref="M154" r:id="rId128"/>
-    <hyperlink ref="M155" r:id="rId129"/>
-    <hyperlink ref="M156" r:id="rId130"/>
-    <hyperlink ref="M157" r:id="rId131"/>
-    <hyperlink ref="M158" r:id="rId132"/>
-    <hyperlink ref="M159" r:id="rId133"/>
-    <hyperlink ref="M161" r:id="rId134"/>
-    <hyperlink ref="M162" r:id="rId135"/>
-    <hyperlink ref="M163" r:id="rId136"/>
-    <hyperlink ref="M164" r:id="rId137"/>
-    <hyperlink ref="M165" r:id="rId138"/>
-    <hyperlink ref="M166" r:id="rId139"/>
-    <hyperlink ref="M167" r:id="rId140"/>
-    <hyperlink ref="M168" r:id="rId141"/>
-    <hyperlink ref="M169" r:id="rId142"/>
-    <hyperlink ref="M170" r:id="rId143"/>
-    <hyperlink ref="M171" r:id="rId144"/>
-    <hyperlink ref="M172" r:id="rId145"/>
-    <hyperlink ref="M173" r:id="rId146"/>
-    <hyperlink ref="M174" r:id="rId147"/>
-    <hyperlink ref="M175" r:id="rId148"/>
-    <hyperlink ref="M176" r:id="rId149"/>
-    <hyperlink ref="M177" r:id="rId150"/>
-    <hyperlink ref="M178" r:id="rId151"/>
-    <hyperlink ref="M180" r:id="rId152"/>
-    <hyperlink ref="M181" r:id="rId153"/>
-    <hyperlink ref="M182" r:id="rId154"/>
-    <hyperlink ref="M183" r:id="rId155"/>
-    <hyperlink ref="M185" r:id="rId156"/>
-    <hyperlink ref="M186" r:id="rId157"/>
-    <hyperlink ref="M187" r:id="rId158"/>
-    <hyperlink ref="M188" r:id="rId159"/>
-    <hyperlink ref="M189" r:id="rId160"/>
-    <hyperlink ref="M190" r:id="rId161"/>
-    <hyperlink ref="M191" r:id="rId162"/>
-    <hyperlink ref="M192" r:id="rId163"/>
-    <hyperlink ref="M193" r:id="rId164"/>
-    <hyperlink ref="M195" r:id="rId165"/>
-    <hyperlink ref="M196" r:id="rId166" location=":~:text=At%20a%20meeting%20of%20Borough,Act%20Environmental%20and%20Sustainability%20Strategy."/>
-    <hyperlink ref="M197" r:id="rId167"/>
-    <hyperlink ref="M198" r:id="rId168"/>
-    <hyperlink ref="M199" r:id="rId169"/>
-    <hyperlink ref="M200" r:id="rId170"/>
-    <hyperlink ref="M201" r:id="rId171"/>
-    <hyperlink ref="M202" r:id="rId172"/>
-    <hyperlink ref="M203" r:id="rId173"/>
-    <hyperlink ref="M204" r:id="rId174"/>
-    <hyperlink ref="M205" r:id="rId175"/>
-    <hyperlink ref="M206" r:id="rId176"/>
-    <hyperlink ref="M207" r:id="rId177"/>
-    <hyperlink ref="M208" r:id="rId178"/>
-    <hyperlink ref="M209" r:id="rId179"/>
-    <hyperlink ref="M210" r:id="rId180"/>
-    <hyperlink ref="M211" r:id="rId181"/>
-    <hyperlink ref="M212" r:id="rId182"/>
-    <hyperlink ref="M213" r:id="rId183"/>
-    <hyperlink ref="M214" r:id="rId184"/>
-    <hyperlink ref="M215" r:id="rId185"/>
-    <hyperlink ref="M216" r:id="rId186"/>
-    <hyperlink ref="M217" r:id="rId187"/>
-    <hyperlink ref="E218" r:id="rId188"/>
-    <hyperlink ref="M219" r:id="rId189"/>
-    <hyperlink ref="M220" r:id="rId190"/>
-    <hyperlink ref="M221" r:id="rId191"/>
-    <hyperlink ref="M223" r:id="rId192"/>
-    <hyperlink ref="M224" r:id="rId193"/>
-    <hyperlink ref="M225" r:id="rId194"/>
-    <hyperlink ref="M226" r:id="rId195"/>
-    <hyperlink ref="M227" r:id="rId196"/>
-    <hyperlink ref="M228" r:id="rId197"/>
-    <hyperlink ref="M229" r:id="rId198"/>
-    <hyperlink ref="M230" r:id="rId199"/>
-    <hyperlink ref="M231" r:id="rId200"/>
-    <hyperlink ref="M232" r:id="rId201"/>
-    <hyperlink ref="M233" r:id="rId202"/>
-    <hyperlink ref="M234" r:id="rId203"/>
-    <hyperlink ref="M236" r:id="rId204"/>
-    <hyperlink ref="M237" r:id="rId205"/>
-    <hyperlink ref="M238" r:id="rId206"/>
-    <hyperlink ref="M239" r:id="rId207"/>
-    <hyperlink ref="M240" r:id="rId208"/>
-    <hyperlink ref="M241" r:id="rId209"/>
-    <hyperlink ref="M242" r:id="rId210"/>
-    <hyperlink ref="M243" r:id="rId211"/>
-    <hyperlink ref="M245" r:id="rId212"/>
-    <hyperlink ref="M246" r:id="rId213"/>
-    <hyperlink ref="M247" r:id="rId214"/>
-    <hyperlink ref="M248" r:id="rId215"/>
-    <hyperlink ref="M249" r:id="rId216"/>
-    <hyperlink ref="M250" r:id="rId217"/>
-    <hyperlink ref="M251" r:id="rId218"/>
-    <hyperlink ref="M252" r:id="rId219"/>
-    <hyperlink ref="M253" r:id="rId220"/>
-    <hyperlink ref="M254" r:id="rId221"/>
-    <hyperlink ref="M255" r:id="rId222"/>
-    <hyperlink ref="M256" r:id="rId223"/>
-    <hyperlink ref="M257" r:id="rId224"/>
-    <hyperlink ref="M259" r:id="rId225"/>
-    <hyperlink ref="M260" r:id="rId226"/>
-    <hyperlink ref="M261" r:id="rId227"/>
-    <hyperlink ref="M262" r:id="rId228"/>
-    <hyperlink ref="M263" r:id="rId229"/>
-    <hyperlink ref="M264" r:id="rId230"/>
-    <hyperlink ref="M265" r:id="rId231"/>
-    <hyperlink ref="M266" r:id="rId232"/>
-    <hyperlink ref="M267" r:id="rId233"/>
-    <hyperlink ref="M268" r:id="rId234"/>
-    <hyperlink ref="M269" r:id="rId235"/>
-    <hyperlink ref="M270" r:id="rId236"/>
-    <hyperlink ref="M271" r:id="rId237"/>
-    <hyperlink ref="M272" r:id="rId238"/>
-    <hyperlink ref="M273" r:id="rId239"/>
-    <hyperlink ref="M275" r:id="rId240"/>
-    <hyperlink ref="M277" r:id="rId241"/>
-    <hyperlink ref="M278" r:id="rId242"/>
-    <hyperlink ref="M280" r:id="rId243"/>
-    <hyperlink ref="M281" r:id="rId244"/>
-    <hyperlink ref="M282" r:id="rId245"/>
-    <hyperlink ref="M283" r:id="rId246"/>
-    <hyperlink ref="M284" r:id="rId247"/>
-    <hyperlink ref="M285" r:id="rId248"/>
-    <hyperlink ref="M286" r:id="rId249"/>
-    <hyperlink ref="M287" r:id="rId250"/>
-    <hyperlink ref="M288" r:id="rId251"/>
-    <hyperlink ref="M289" r:id="rId252"/>
-    <hyperlink ref="M290" r:id="rId253"/>
-    <hyperlink ref="M291" r:id="rId254"/>
-    <hyperlink ref="M292" r:id="rId255"/>
-    <hyperlink ref="M293" r:id="rId256"/>
-    <hyperlink ref="M294" r:id="rId257"/>
-    <hyperlink ref="M295" r:id="rId258"/>
-    <hyperlink ref="M296" r:id="rId259"/>
-    <hyperlink ref="M297" r:id="rId260"/>
-    <hyperlink ref="M298" r:id="rId261"/>
-    <hyperlink ref="M301" r:id="rId262" location="AI18587"/>
-    <hyperlink ref="M302" r:id="rId263"/>
-    <hyperlink ref="M303" r:id="rId264"/>
-    <hyperlink ref="M304" r:id="rId265"/>
-    <hyperlink ref="M305" r:id="rId266"/>
-    <hyperlink ref="M306" r:id="rId267"/>
-    <hyperlink ref="M307" r:id="rId268"/>
-    <hyperlink ref="M308" r:id="rId269"/>
-    <hyperlink ref="M310" r:id="rId270"/>
-    <hyperlink ref="M311" r:id="rId271"/>
-    <hyperlink ref="M312" r:id="rId272"/>
-    <hyperlink ref="M313" r:id="rId273"/>
-    <hyperlink ref="M315" r:id="rId274"/>
-    <hyperlink ref="M316" r:id="rId275"/>
-    <hyperlink ref="M317" r:id="rId276"/>
-    <hyperlink ref="M319" r:id="rId277"/>
-    <hyperlink ref="M320" r:id="rId278"/>
-    <hyperlink ref="M321" r:id="rId279"/>
-    <hyperlink ref="M322" r:id="rId280"/>
-    <hyperlink ref="M323" r:id="rId281"/>
-    <hyperlink ref="M324" r:id="rId282"/>
-    <hyperlink ref="M325" r:id="rId283"/>
-    <hyperlink ref="M326" r:id="rId284"/>
-    <hyperlink ref="M327" r:id="rId285"/>
-    <hyperlink ref="M328" r:id="rId286"/>
-    <hyperlink ref="M329" r:id="rId287"/>
-    <hyperlink ref="M330" r:id="rId288"/>
-    <hyperlink ref="M331" r:id="rId289"/>
-    <hyperlink ref="M332" r:id="rId290"/>
-    <hyperlink ref="M333" r:id="rId291"/>
-    <hyperlink ref="M334" r:id="rId292"/>
-    <hyperlink ref="M336" r:id="rId293"/>
-    <hyperlink ref="M337" r:id="rId294"/>
-    <hyperlink ref="M338" r:id="rId295"/>
-    <hyperlink ref="M339" r:id="rId296"/>
-    <hyperlink ref="M340" r:id="rId297"/>
-    <hyperlink ref="M341" r:id="rId298"/>
-    <hyperlink ref="M342" r:id="rId299"/>
-    <hyperlink ref="M343" r:id="rId300"/>
-    <hyperlink ref="M345" r:id="rId301"/>
-    <hyperlink ref="M346" r:id="rId302"/>
-    <hyperlink ref="M347" r:id="rId303"/>
-    <hyperlink ref="M348" r:id="rId304"/>
-    <hyperlink ref="M349" r:id="rId305"/>
-    <hyperlink ref="M350" r:id="rId306"/>
-    <hyperlink ref="M351" r:id="rId307"/>
-    <hyperlink ref="M352" r:id="rId308"/>
-    <hyperlink ref="M353" r:id="rId309"/>
-    <hyperlink ref="M354" r:id="rId310"/>
-    <hyperlink ref="M355" r:id="rId311"/>
-    <hyperlink ref="M356" r:id="rId312"/>
-    <hyperlink ref="M357" r:id="rId313"/>
-    <hyperlink ref="M358" r:id="rId314"/>
-    <hyperlink ref="M359" r:id="rId315"/>
-    <hyperlink ref="M360" r:id="rId316"/>
-    <hyperlink ref="M361" r:id="rId317"/>
-    <hyperlink ref="M362" r:id="rId318"/>
-    <hyperlink ref="M363" r:id="rId319"/>
-    <hyperlink ref="M364" r:id="rId320"/>
-    <hyperlink ref="M365" r:id="rId321"/>
-    <hyperlink ref="M366" r:id="rId322"/>
-    <hyperlink ref="M367" r:id="rId323"/>
-    <hyperlink ref="M368" r:id="rId324"/>
-    <hyperlink ref="M369" r:id="rId325"/>
-    <hyperlink ref="M370" r:id="rId326"/>
-    <hyperlink ref="M371" r:id="rId327"/>
-    <hyperlink ref="M372" r:id="rId328"/>
-    <hyperlink ref="M373" r:id="rId329"/>
-    <hyperlink ref="M374" r:id="rId330"/>
-    <hyperlink ref="M376" r:id="rId331"/>
-    <hyperlink ref="M377" r:id="rId332"/>
-    <hyperlink ref="M378" r:id="rId333"/>
-    <hyperlink ref="M379" r:id="rId334"/>
-    <hyperlink ref="M380" r:id="rId335"/>
-    <hyperlink ref="M382" r:id="rId336"/>
-    <hyperlink ref="M383" r:id="rId337" location=":~:text=The%20West%20Midlands%20has%20declared,pledge%20to%20safeguard%20the%20environment."/>
-    <hyperlink ref="M385" r:id="rId338"/>
-    <hyperlink ref="M386" r:id="rId339"/>
-    <hyperlink ref="M387" r:id="rId340"/>
-    <hyperlink ref="M388" r:id="rId341"/>
-    <hyperlink ref="M389" r:id="rId342"/>
-    <hyperlink ref="M390" r:id="rId343"/>
-    <hyperlink ref="M391" r:id="rId344"/>
-    <hyperlink ref="M392" r:id="rId345"/>
-    <hyperlink ref="M393" r:id="rId346"/>
-    <hyperlink ref="M394" r:id="rId347"/>
-    <hyperlink ref="M395" r:id="rId348"/>
-    <hyperlink ref="M396" r:id="rId349"/>
-    <hyperlink ref="M397" r:id="rId350"/>
-    <hyperlink ref="M398" r:id="rId351"/>
-    <hyperlink ref="M400" r:id="rId352"/>
-    <hyperlink ref="M401" r:id="rId353"/>
-    <hyperlink ref="M403" r:id="rId354" location="AI3743"/>
-    <hyperlink ref="M404" r:id="rId355"/>
-    <hyperlink ref="M405" r:id="rId356"/>
+    <hyperlink ref="M52" r:id="rId39"/>
+    <hyperlink ref="M53" r:id="rId40"/>
+    <hyperlink ref="M54" r:id="rId41"/>
+    <hyperlink ref="M56" r:id="rId42"/>
+    <hyperlink ref="M58" r:id="rId43"/>
+    <hyperlink ref="M59" r:id="rId44"/>
+    <hyperlink ref="M60" r:id="rId45"/>
+    <hyperlink ref="M61" r:id="rId46"/>
+    <hyperlink ref="M62" r:id="rId47"/>
+    <hyperlink ref="M63" r:id="rId48"/>
+    <hyperlink ref="M64" r:id="rId49"/>
+    <hyperlink ref="M65" r:id="rId50"/>
+    <hyperlink ref="M66" r:id="rId51" location="AI49515"/>
+    <hyperlink ref="M67" r:id="rId52"/>
+    <hyperlink ref="M68" r:id="rId53"/>
+    <hyperlink ref="M69" r:id="rId54"/>
+    <hyperlink ref="M70" r:id="rId55"/>
+    <hyperlink ref="M71" r:id="rId56"/>
+    <hyperlink ref="M72" r:id="rId57"/>
+    <hyperlink ref="M74" r:id="rId58"/>
+    <hyperlink ref="M75" r:id="rId59"/>
+    <hyperlink ref="M76" r:id="rId60"/>
+    <hyperlink ref="M78" r:id="rId61"/>
+    <hyperlink ref="M79" r:id="rId62"/>
+    <hyperlink ref="M80" r:id="rId63"/>
+    <hyperlink ref="M81" r:id="rId64"/>
+    <hyperlink ref="M83" r:id="rId65"/>
+    <hyperlink ref="M84" r:id="rId66"/>
+    <hyperlink ref="M86" r:id="rId67"/>
+    <hyperlink ref="M88" r:id="rId68"/>
+    <hyperlink ref="M89" r:id="rId69"/>
+    <hyperlink ref="M90" r:id="rId70"/>
+    <hyperlink ref="M91" r:id="rId71"/>
+    <hyperlink ref="M92" r:id="rId72"/>
+    <hyperlink ref="M94" r:id="rId73"/>
+    <hyperlink ref="M95" r:id="rId74"/>
+    <hyperlink ref="M96" r:id="rId75"/>
+    <hyperlink ref="M97" r:id="rId76"/>
+    <hyperlink ref="M98" r:id="rId77"/>
+    <hyperlink ref="M99" r:id="rId78"/>
+    <hyperlink ref="M100" r:id="rId79"/>
+    <hyperlink ref="M101" r:id="rId80"/>
+    <hyperlink ref="M103" r:id="rId81"/>
+    <hyperlink ref="M104" r:id="rId82"/>
+    <hyperlink ref="M106" r:id="rId83"/>
+    <hyperlink ref="M107" r:id="rId84"/>
+    <hyperlink ref="M109" r:id="rId85"/>
+    <hyperlink ref="M110" r:id="rId86"/>
+    <hyperlink ref="M111" r:id="rId87"/>
+    <hyperlink ref="M112" r:id="rId88"/>
+    <hyperlink ref="M113" r:id="rId89"/>
+    <hyperlink ref="M114" r:id="rId90"/>
+    <hyperlink ref="M115" r:id="rId91"/>
+    <hyperlink ref="M116" r:id="rId92"/>
+    <hyperlink ref="M117" r:id="rId93"/>
+    <hyperlink ref="M118" r:id="rId94"/>
+    <hyperlink ref="M119" r:id="rId95"/>
+    <hyperlink ref="M120" r:id="rId96"/>
+    <hyperlink ref="M121" r:id="rId97"/>
+    <hyperlink ref="M122" r:id="rId98"/>
+    <hyperlink ref="M124" r:id="rId99"/>
+    <hyperlink ref="M125" r:id="rId100"/>
+    <hyperlink ref="M126" r:id="rId101"/>
+    <hyperlink ref="M128" r:id="rId102"/>
+    <hyperlink ref="M129" r:id="rId103"/>
+    <hyperlink ref="M130" r:id="rId104"/>
+    <hyperlink ref="M131" r:id="rId105"/>
+    <hyperlink ref="M133" r:id="rId106"/>
+    <hyperlink ref="M134" r:id="rId107"/>
+    <hyperlink ref="M135" r:id="rId108"/>
+    <hyperlink ref="M136" r:id="rId109"/>
+    <hyperlink ref="M138" r:id="rId110"/>
+    <hyperlink ref="M140" r:id="rId111"/>
+    <hyperlink ref="M141" r:id="rId112"/>
+    <hyperlink ref="M142" r:id="rId113"/>
+    <hyperlink ref="M143" r:id="rId114"/>
+    <hyperlink ref="M144" r:id="rId115"/>
+    <hyperlink ref="M145" r:id="rId116"/>
+    <hyperlink ref="M146" r:id="rId117"/>
+    <hyperlink ref="M147" r:id="rId118"/>
+    <hyperlink ref="M148" r:id="rId119"/>
+    <hyperlink ref="M149" r:id="rId120"/>
+    <hyperlink ref="M151" r:id="rId121"/>
+    <hyperlink ref="M153" r:id="rId122"/>
+    <hyperlink ref="M155" r:id="rId123"/>
+    <hyperlink ref="M157" r:id="rId124"/>
+    <hyperlink ref="M158" r:id="rId125"/>
+    <hyperlink ref="M159" r:id="rId126"/>
+    <hyperlink ref="M162" r:id="rId127"/>
+    <hyperlink ref="M163" r:id="rId128"/>
+    <hyperlink ref="M164" r:id="rId129"/>
+    <hyperlink ref="M165" r:id="rId130"/>
+    <hyperlink ref="M166" r:id="rId131"/>
+    <hyperlink ref="M167" r:id="rId132"/>
+    <hyperlink ref="M168" r:id="rId133"/>
+    <hyperlink ref="M169" r:id="rId134"/>
+    <hyperlink ref="M170" r:id="rId135"/>
+    <hyperlink ref="M171" r:id="rId136"/>
+    <hyperlink ref="M172" r:id="rId137"/>
+    <hyperlink ref="M173" r:id="rId138"/>
+    <hyperlink ref="M174" r:id="rId139"/>
+    <hyperlink ref="M175" r:id="rId140"/>
+    <hyperlink ref="M176" r:id="rId141"/>
+    <hyperlink ref="M177" r:id="rId142"/>
+    <hyperlink ref="M180" r:id="rId143"/>
+    <hyperlink ref="M181" r:id="rId144"/>
+    <hyperlink ref="M182" r:id="rId145"/>
+    <hyperlink ref="M183" r:id="rId146"/>
+    <hyperlink ref="M185" r:id="rId147"/>
+    <hyperlink ref="M186" r:id="rId148"/>
+    <hyperlink ref="M187" r:id="rId149"/>
+    <hyperlink ref="M188" r:id="rId150"/>
+    <hyperlink ref="M189" r:id="rId151"/>
+    <hyperlink ref="M190" r:id="rId152"/>
+    <hyperlink ref="M191" r:id="rId153"/>
+    <hyperlink ref="M192" r:id="rId154"/>
+    <hyperlink ref="M193" r:id="rId155"/>
+    <hyperlink ref="M196" r:id="rId156" location=":~:text=At%20a%20meeting%20of%20Borough,Act%20Environmental%20and%20Sustainability%20Strategy."/>
+    <hyperlink ref="M197" r:id="rId157"/>
+    <hyperlink ref="M198" r:id="rId158"/>
+    <hyperlink ref="M199" r:id="rId159"/>
+    <hyperlink ref="M200" r:id="rId160"/>
+    <hyperlink ref="M201" r:id="rId161"/>
+    <hyperlink ref="M202" r:id="rId162"/>
+    <hyperlink ref="M203" r:id="rId163"/>
+    <hyperlink ref="M204" r:id="rId164"/>
+    <hyperlink ref="M205" r:id="rId165"/>
+    <hyperlink ref="M206" r:id="rId166"/>
+    <hyperlink ref="M207" r:id="rId167"/>
+    <hyperlink ref="M208" r:id="rId168"/>
+    <hyperlink ref="M209" r:id="rId169"/>
+    <hyperlink ref="M210" r:id="rId170"/>
+    <hyperlink ref="M211" r:id="rId171"/>
+    <hyperlink ref="M212" r:id="rId172"/>
+    <hyperlink ref="M213" r:id="rId173"/>
+    <hyperlink ref="M214" r:id="rId174"/>
+    <hyperlink ref="M215" r:id="rId175"/>
+    <hyperlink ref="M216" r:id="rId176"/>
+    <hyperlink ref="M217" r:id="rId177"/>
+    <hyperlink ref="E218" r:id="rId178"/>
+    <hyperlink ref="M219" r:id="rId179"/>
+    <hyperlink ref="M221" r:id="rId180"/>
+    <hyperlink ref="M223" r:id="rId181"/>
+    <hyperlink ref="M224" r:id="rId182"/>
+    <hyperlink ref="M225" r:id="rId183"/>
+    <hyperlink ref="M226" r:id="rId184"/>
+    <hyperlink ref="M227" r:id="rId185"/>
+    <hyperlink ref="M228" r:id="rId186"/>
+    <hyperlink ref="M229" r:id="rId187"/>
+    <hyperlink ref="M230" r:id="rId188"/>
+    <hyperlink ref="M231" r:id="rId189"/>
+    <hyperlink ref="M232" r:id="rId190"/>
+    <hyperlink ref="M233" r:id="rId191"/>
+    <hyperlink ref="M234" r:id="rId192"/>
+    <hyperlink ref="M236" r:id="rId193"/>
+    <hyperlink ref="M237" r:id="rId194"/>
+    <hyperlink ref="M238" r:id="rId195"/>
+    <hyperlink ref="M239" r:id="rId196"/>
+    <hyperlink ref="M240" r:id="rId197"/>
+    <hyperlink ref="M241" r:id="rId198"/>
+    <hyperlink ref="M242" r:id="rId199"/>
+    <hyperlink ref="M243" r:id="rId200"/>
+    <hyperlink ref="M245" r:id="rId201"/>
+    <hyperlink ref="M246" r:id="rId202"/>
+    <hyperlink ref="M247" r:id="rId203"/>
+    <hyperlink ref="M248" r:id="rId204"/>
+    <hyperlink ref="M249" r:id="rId205"/>
+    <hyperlink ref="M250" r:id="rId206"/>
+    <hyperlink ref="M251" r:id="rId207"/>
+    <hyperlink ref="M252" r:id="rId208"/>
+    <hyperlink ref="M253" r:id="rId209"/>
+    <hyperlink ref="M254" r:id="rId210"/>
+    <hyperlink ref="M256" r:id="rId211"/>
+    <hyperlink ref="M257" r:id="rId212"/>
+    <hyperlink ref="M259" r:id="rId213"/>
+    <hyperlink ref="M260" r:id="rId214"/>
+    <hyperlink ref="M261" r:id="rId215"/>
+    <hyperlink ref="M262" r:id="rId216"/>
+    <hyperlink ref="M263" r:id="rId217"/>
+    <hyperlink ref="M264" r:id="rId218"/>
+    <hyperlink ref="M265" r:id="rId219"/>
+    <hyperlink ref="M266" r:id="rId220"/>
+    <hyperlink ref="M267" r:id="rId221"/>
+    <hyperlink ref="M268" r:id="rId222"/>
+    <hyperlink ref="M269" r:id="rId223"/>
+    <hyperlink ref="M270" r:id="rId224"/>
+    <hyperlink ref="M271" r:id="rId225"/>
+    <hyperlink ref="M272" r:id="rId226"/>
+    <hyperlink ref="M273" r:id="rId227"/>
+    <hyperlink ref="M275" r:id="rId228"/>
+    <hyperlink ref="M277" r:id="rId229"/>
+    <hyperlink ref="M278" r:id="rId230"/>
+    <hyperlink ref="M280" r:id="rId231"/>
+    <hyperlink ref="M281" r:id="rId232"/>
+    <hyperlink ref="M282" r:id="rId233"/>
+    <hyperlink ref="M283" r:id="rId234"/>
+    <hyperlink ref="M285" r:id="rId235"/>
+    <hyperlink ref="M286" r:id="rId236"/>
+    <hyperlink ref="M287" r:id="rId237"/>
+    <hyperlink ref="M288" r:id="rId238"/>
+    <hyperlink ref="M289" r:id="rId239"/>
+    <hyperlink ref="M290" r:id="rId240"/>
+    <hyperlink ref="M291" r:id="rId241"/>
+    <hyperlink ref="M292" r:id="rId242"/>
+    <hyperlink ref="M293" r:id="rId243"/>
+    <hyperlink ref="M295" r:id="rId244"/>
+    <hyperlink ref="M296" r:id="rId245"/>
+    <hyperlink ref="M297" r:id="rId246"/>
+    <hyperlink ref="M298" r:id="rId247"/>
+    <hyperlink ref="M301" r:id="rId248" location="AI18587"/>
+    <hyperlink ref="M302" r:id="rId249"/>
+    <hyperlink ref="M303" r:id="rId250"/>
+    <hyperlink ref="M304" r:id="rId251"/>
+    <hyperlink ref="M305" r:id="rId252"/>
+    <hyperlink ref="M306" r:id="rId253"/>
+    <hyperlink ref="M307" r:id="rId254"/>
+    <hyperlink ref="M308" r:id="rId255"/>
+    <hyperlink ref="M310" r:id="rId256"/>
+    <hyperlink ref="M311" r:id="rId257"/>
+    <hyperlink ref="M313" r:id="rId258"/>
+    <hyperlink ref="M315" r:id="rId259"/>
+    <hyperlink ref="M316" r:id="rId260"/>
+    <hyperlink ref="M317" r:id="rId261"/>
+    <hyperlink ref="M319" r:id="rId262"/>
+    <hyperlink ref="M320" r:id="rId263"/>
+    <hyperlink ref="M321" r:id="rId264"/>
+    <hyperlink ref="M322" r:id="rId265"/>
+    <hyperlink ref="M323" r:id="rId266"/>
+    <hyperlink ref="M324" r:id="rId267"/>
+    <hyperlink ref="M325" r:id="rId268"/>
+    <hyperlink ref="M326" r:id="rId269"/>
+    <hyperlink ref="M327" r:id="rId270"/>
+    <hyperlink ref="M328" r:id="rId271"/>
+    <hyperlink ref="M330" r:id="rId272"/>
+    <hyperlink ref="M331" r:id="rId273"/>
+    <hyperlink ref="M332" r:id="rId274"/>
+    <hyperlink ref="M333" r:id="rId275"/>
+    <hyperlink ref="M334" r:id="rId276"/>
+    <hyperlink ref="M336" r:id="rId277"/>
+    <hyperlink ref="M337" r:id="rId278"/>
+    <hyperlink ref="M338" r:id="rId279"/>
+    <hyperlink ref="M339" r:id="rId280"/>
+    <hyperlink ref="M340" r:id="rId281"/>
+    <hyperlink ref="M341" r:id="rId282"/>
+    <hyperlink ref="M342" r:id="rId283"/>
+    <hyperlink ref="M345" r:id="rId284"/>
+    <hyperlink ref="M346" r:id="rId285"/>
+    <hyperlink ref="M347" r:id="rId286"/>
+    <hyperlink ref="M348" r:id="rId287"/>
+    <hyperlink ref="M349" r:id="rId288"/>
+    <hyperlink ref="M350" r:id="rId289"/>
+    <hyperlink ref="M351" r:id="rId290"/>
+    <hyperlink ref="M353" r:id="rId291"/>
+    <hyperlink ref="M354" r:id="rId292"/>
+    <hyperlink ref="M355" r:id="rId293"/>
+    <hyperlink ref="M356" r:id="rId294"/>
+    <hyperlink ref="M357" r:id="rId295"/>
+    <hyperlink ref="M358" r:id="rId296"/>
+    <hyperlink ref="M359" r:id="rId297"/>
+    <hyperlink ref="M360" r:id="rId298"/>
+    <hyperlink ref="M361" r:id="rId299"/>
+    <hyperlink ref="M362" r:id="rId300"/>
+    <hyperlink ref="M363" r:id="rId301"/>
+    <hyperlink ref="M364" r:id="rId302"/>
+    <hyperlink ref="M365" r:id="rId303"/>
+    <hyperlink ref="M366" r:id="rId304"/>
+    <hyperlink ref="M367" r:id="rId305"/>
+    <hyperlink ref="M368" r:id="rId306"/>
+    <hyperlink ref="M369" r:id="rId307"/>
+    <hyperlink ref="M370" r:id="rId308"/>
+    <hyperlink ref="M371" r:id="rId309"/>
+    <hyperlink ref="M372" r:id="rId310"/>
+    <hyperlink ref="M373" r:id="rId311"/>
+    <hyperlink ref="M374" r:id="rId312"/>
+    <hyperlink ref="M376" r:id="rId313"/>
+    <hyperlink ref="M377" r:id="rId314"/>
+    <hyperlink ref="M378" r:id="rId315"/>
+    <hyperlink ref="M379" r:id="rId316"/>
+    <hyperlink ref="M380" r:id="rId317"/>
+    <hyperlink ref="M382" r:id="rId318"/>
+    <hyperlink ref="M383" r:id="rId319" location=":~:text=The%20West%20Midlands%20has%20declared,pledge%20to%20safeguard%20the%20environment."/>
+    <hyperlink ref="M385" r:id="rId320"/>
+    <hyperlink ref="M386" r:id="rId321"/>
+    <hyperlink ref="M388" r:id="rId322"/>
+    <hyperlink ref="M389" r:id="rId323"/>
+    <hyperlink ref="M390" r:id="rId324"/>
+    <hyperlink ref="M391" r:id="rId325"/>
+    <hyperlink ref="M392" r:id="rId326"/>
+    <hyperlink ref="M393" r:id="rId327"/>
+    <hyperlink ref="M394" r:id="rId328"/>
+    <hyperlink ref="M396" r:id="rId329"/>
+    <hyperlink ref="M398" r:id="rId330"/>
+    <hyperlink ref="M400" r:id="rId331"/>
+    <hyperlink ref="M401" r:id="rId332"/>
+    <hyperlink ref="M403" r:id="rId333" location="AI3743"/>
+    <hyperlink ref="M404" r:id="rId334"/>
+    <hyperlink ref="M405" r:id="rId335"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26418,22 +26337,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>2140</v>
+        <v>2120</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2141</v>
+        <v>2121</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2142</v>
+        <v>2122</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2143</v>
+        <v>2123</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2144</v>
+        <v>2124</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>2145</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -26441,10 +26360,10 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>2146</v>
+        <v>2126</v>
       </c>
       <c r="C2" t="s">
-        <v>2164</v>
+        <v>2144</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
@@ -26458,10 +26377,10 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>2147</v>
+        <v>2127</v>
       </c>
       <c r="C3" t="s">
-        <v>2164</v>
+        <v>2144</v>
       </c>
       <c r="D3" t="s">
         <v>438</v>
@@ -26475,10 +26394,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>2148</v>
+        <v>2128</v>
       </c>
       <c r="C4" t="s">
-        <v>2164</v>
+        <v>2144</v>
       </c>
       <c r="D4" t="s">
         <v>842</v>
@@ -26492,10 +26411,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>2149</v>
+        <v>2129</v>
       </c>
       <c r="C5" t="s">
-        <v>2164</v>
+        <v>2144</v>
       </c>
       <c r="D5" t="s">
         <v>862</v>
@@ -26509,10 +26428,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>2150</v>
+        <v>2130</v>
       </c>
       <c r="C6" t="s">
-        <v>2164</v>
+        <v>2144</v>
       </c>
       <c r="D6" t="s">
         <v>1032</v>
@@ -26526,10 +26445,10 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>2151</v>
+        <v>2131</v>
       </c>
       <c r="C7" t="s">
-        <v>2164</v>
+        <v>2144</v>
       </c>
       <c r="D7" t="s">
         <v>1056</v>
@@ -26543,10 +26462,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>2152</v>
+        <v>2132</v>
       </c>
       <c r="C8" t="s">
-        <v>2164</v>
+        <v>2144</v>
       </c>
       <c r="D8" t="s">
         <v>1056</v>
@@ -26560,10 +26479,10 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>2153</v>
+        <v>2133</v>
       </c>
       <c r="C9" t="s">
-        <v>2164</v>
+        <v>2144</v>
       </c>
       <c r="D9" t="s">
         <v>1059</v>
@@ -26577,10 +26496,10 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>2154</v>
+        <v>2134</v>
       </c>
       <c r="C10" t="s">
-        <v>2164</v>
+        <v>2144</v>
       </c>
       <c r="D10" t="s">
         <v>1056</v>
@@ -26594,10 +26513,10 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>2155</v>
+        <v>2135</v>
       </c>
       <c r="C11" t="s">
-        <v>2165</v>
+        <v>2145</v>
       </c>
       <c r="D11">
         <v>2045</v>
@@ -26611,10 +26530,10 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>2156</v>
+        <v>2136</v>
       </c>
       <c r="C12" t="s">
-        <v>2164</v>
+        <v>2144</v>
       </c>
       <c r="D12" t="s">
         <v>1281</v>
@@ -26628,10 +26547,10 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>2157</v>
+        <v>2137</v>
       </c>
       <c r="C13" t="s">
-        <v>2164</v>
+        <v>2144</v>
       </c>
       <c r="D13" t="s">
         <v>1354</v>
@@ -26645,10 +26564,10 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>2158</v>
+        <v>2138</v>
       </c>
       <c r="C14" t="s">
-        <v>2164</v>
+        <v>2144</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>1358</v>
@@ -26662,13 +26581,13 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>2159</v>
+        <v>2139</v>
       </c>
       <c r="C15" t="s">
-        <v>2164</v>
+        <v>2144</v>
       </c>
       <c r="D15" t="s">
-        <v>1714</v>
+        <v>1694</v>
       </c>
       <c r="E15" t="s">
         <v>1056</v>
@@ -26679,13 +26598,13 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>2160</v>
+        <v>2140</v>
       </c>
       <c r="C16" t="s">
-        <v>2164</v>
+        <v>2144</v>
       </c>
       <c r="D16" t="s">
-        <v>2116</v>
+        <v>2096</v>
       </c>
       <c r="E16" t="s">
         <v>1056</v>
@@ -26696,13 +26615,13 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>2161</v>
+        <v>2141</v>
       </c>
       <c r="C17" t="s">
-        <v>2164</v>
+        <v>2144</v>
       </c>
       <c r="D17" t="s">
-        <v>2128</v>
+        <v>2108</v>
       </c>
       <c r="E17" t="s">
         <v>1056</v>
@@ -26713,10 +26632,10 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>2162</v>
+        <v>2142</v>
       </c>
       <c r="C18" t="s">
-        <v>2164</v>
+        <v>2144</v>
       </c>
       <c r="D18" t="s">
         <v>420</v>
@@ -26730,10 +26649,10 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>2163</v>
+        <v>2143</v>
       </c>
       <c r="C19" t="s">
-        <v>2164</v>
+        <v>2144</v>
       </c>
       <c r="D19" t="s">
         <v>335</v>

--- a/docs/data/local_authority_climate_emergency_declarations/latest/local_authority_climate_emergency_declarations.xlsx
+++ b/docs/data/local_authority_climate_emergency_declarations/latest/local_authority_climate_emergency_declarations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5849" uniqueCount="2146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5849" uniqueCount="2166">
   <si>
     <t>Dataset</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Contributors</t>
@@ -4210,7 +4210,7 @@
     <t>https://www.calderdale.gov.uk/nweb/COUNCIL.minutes_pkg.view_doc?p_ID=55294&amp;p_Type=A</t>
   </si>
   <si>
-    <t>Loading...</t>
+    <t>https://democracy.cambridge.gov.uk/documents/g3405/Printed%20minutes%2021st-Feb-2019%2018.00%20Council.pdf?T=1</t>
   </si>
   <si>
     <t>https://cambridgeshire.cmis.uk.com/CCC_live/Document.ashx?czJKcaeAi5tUFL1DTL2UE4zNRBcoShgo=oSKQW2tLJiZqt0n%2fhBWiq9t3TvOnL5%2fC6ayCT2JROp2g%2bE0QDs8yWg%3d%3d&amp;rUzwRPf%2bZ3zd4E7Ikn8Lyw%3d%3d=pwRE6AGJFLDNlh225F5QMaQWCtPHwdhUfCZ%2fLUQzgA2uL5jNRG4jdQ%3d%3d&amp;mCTIbCubSFfXsDGW9IXnlg%3d%3d=hFflUdN3100%3d&amp;kCx1AnS9%2fpWZQ40DXFvdEw%3d%3d=hFflUdN3100%3d&amp;uJovDxwdjMPoYv%2bAJvYtyA%3d%3d=ctNJFf55vVA%3d&amp;FgPlIEJYlotS%2bYGoBi5olA%3d%3d=NHdURQburHA%3d&amp;d9Qjj0ag1Pd993jsyOJqFvmyB7X0CSQK=ctNJFf55vVA%3d&amp;WGewmoAfeNR9xqBux0r1Q8Za60lavYmz=ctNJFf55vVA%3d&amp;WGewmoAfeNQ16B2MHuCpMRKZMwaG1PaO=ctNJFf55vVA%3d</t>
@@ -4222,6 +4222,9 @@
     <t>https://democracy.canterbury.gov.uk/documents/g12133/Printed%20minutes%2018th-Jul-2019%2019.00%20Council.pdf?T=1</t>
   </si>
   <si>
+    <t>https://carlisle.cmis.uk.com/Meetings/tabid/73/ctl/ViewMeetingPublic/mid/410/Meeting/4573/Committee/823/Default.aspx</t>
+  </si>
+  <si>
     <t>http://democracy.carmarthenshire.gov.wales/ieListDocuments.aspx?CId=155&amp;MId=2178&amp;Ver=4</t>
   </si>
   <si>
@@ -4291,6 +4294,9 @@
     <t>https://meetings.cotswold.gov.uk/Data/Council/201907031800/Agenda/vjwBsCdK4RwpmDERT4Uw3jMyxAJnj1.pdf</t>
   </si>
   <si>
+    <t>https://edemocracy.coventry.gov.uk/ieListDocuments.aspx?CId=130&amp;MId=11931&amp;Ver=4</t>
+  </si>
+  <si>
     <t>https://www.cravendc.gov.uk/media/8395/council-meeting-6-august-2019-agenda-and-report-pack.pdf</t>
   </si>
   <si>
@@ -4300,6 +4306,9 @@
     <t>https://democracy.dacorum.gov.uk/mgAi.aspx?ID=12434</t>
   </si>
   <si>
+    <t>https://democracy.darlington.gov.uk/ieListDocuments.aspx?CId=136&amp;MId=1961</t>
+  </si>
+  <si>
     <t>http://committeedmz.dartford.gov.uk/documents/g2858/Printed%20minutes%20Monday%2007-Oct-2019%2019.00%20General%20Assembly%20of%20the%20Council.pdf?T=1</t>
   </si>
   <si>
@@ -4315,6 +4324,9 @@
     <t>https://www.derbyshiredales.gov.uk/environment-and-waste/energy-advice-2</t>
   </si>
   <si>
+    <t>http://meetings.derrycityandstrabanedistrict.com/documents/g1375/Printed%20minutes%20Thursday%2027-Jun-2019%2016.00%20Derry%20City%20and%20Strabane%20District%20Council.pdf?T=1</t>
+  </si>
+  <si>
     <t>https://democracy.devon.gov.uk/documents/g2791/Public%20minutes%2021st-Feb-2019%2014.15%20Council.pdf?T=11</t>
   </si>
   <si>
@@ -4465,9 +4477,15 @@
     <t>http://councillors.herefordshire.gov.uk/mgAi.aspx?ID=52573</t>
   </si>
   <si>
+    <t>https://democracy.hertfordshire.gov.uk/documents/g217/Public%20minutes%20Tuesday%2016-Jul-2019%2010.00%20County%20Council.pdf?T=11</t>
+  </si>
+  <si>
     <t>https://hertsmere.moderngov.co.uk/ieListDocuments.aspx?CId=106&amp;MId=10541&amp;Ver=4</t>
   </si>
   <si>
+    <t>https://democracy.highpeak.gov.uk/documents/g1358/Printed%20minutes%2015th-Oct-2019%2019.15%20Council%20HPBC.pdf?T=1</t>
+  </si>
+  <si>
     <t>https://www.hinckley-bosworth.gov.uk/press/article/2068/climate_emergency_declared_by_hinckley_and_bosworth_borough_council</t>
   </si>
   <si>
@@ -4477,6 +4495,9 @@
     <t>https://cmis.hullcc.gov.uk/CMIS/Document.ashx?czJKcaeAi5tUFL1DTL2UE4zNRBcoShgo=FsXwxVhdYyl0ta%2fZUrHTbVs4giu0oomUsx%2fZyHbVS%2f8rRay254AWuA%3d%3d&amp;rUzwRPf%2bZ3zd4E7Ikn8Lyw%3d%3d=pwRE6AGJFLDNlh225F5QMaQWCtPHwdhUfCZ%2fLUQzgA2uL5jNRG4jdQ%3d%3d&amp;mCTIbCubSFfXsDGW9IXnlg%3d%3d=hFflUdN3100%3d&amp;kCx1AnS9%2fpWZQ40DXFvdEw%3d%3d=hFflUdN3100%3d&amp;uJovDxwdjMPoYv%2bAJvYtyA%3d%3d=ctNJFf55vVA%3d&amp;FgPlIEJYlotS%2bYGoBi5olA%3d%3d=NHdURQburHA%3d&amp;d9Qjj0ag1Pd993jsyOJqFvmyB7X0CSQK=ctNJFf55vVA%3d&amp;WGewmoAfeNR9xqBux0r1Q8Za60lavYmz=ctNJFf55vVA%3d&amp;WGewmoAfeNQ16B2MHuCpMRKZMwaG1PaO=ctNJFf55vVA%3d</t>
   </si>
   <si>
+    <t>https://democracy.hyndburnbc.gov.uk/documents/g2461/Printed%20minutes%2019th-Sep-2019%2019.00%20Council.pdf?T=1</t>
+  </si>
+  <si>
     <t>https://democracy.ipswich.gov.uk/mgAi.aspx?ID=13762</t>
   </si>
   <si>
@@ -4525,6 +4546,9 @@
     <t>https://democracy.lichfielddc.gov.uk/documents/s8191/3%20-%20Draft%20Minutes%20-%2010%20December%202019.pdf</t>
   </si>
   <si>
+    <t>http://democratic.lincoln.gov.uk/documents/g4225/Printed%20minutes%2023rd-Jul-2019%2018.30%20Council.pdf?T=1</t>
+  </si>
+  <si>
     <t>http://councillors.liverpool.gov.uk/documents/g17299/Printed%20minutes%2017th-Jul-2019%2017.00%20City%20Council%20Meeting.pdf?T=1</t>
   </si>
   <si>
@@ -4564,6 +4588,9 @@
     <t>https://www2.harrow.gov.uk/(S(l2rac3j0gsxsevi5ajrujwms))/documents/s160080/Reference%20to%20Cabinet%20-%20Climate%20Change%20Motion.pdf</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1iYAwFQ3NuSP5uxBbEyhwMtAET464sPdO/view</t>
+  </si>
+  <si>
     <t>https://www.hounslow.gov.uk/news/article/828/council_commits_to_action_on_climate_emergency#:~:text=At%20a%20meeting%20of%20Borough,Act%20Environmental%20and%20Sustainability%20Strategy.</t>
   </si>
   <si>
@@ -4633,6 +4660,9 @@
     <t>https://mea.public-minutes.info/reader/view/422374</t>
   </si>
   <si>
+    <t>https://democracy.middevon.gov.uk/documents/g1181/Public%20minutes%2026th-Jun-2019%2018.00%20Council.pdf?T=11</t>
+  </si>
+  <si>
     <t>https://baberghmidsuffolk.moderngov.co.uk/documents/g2503/Printed%20minutes%2023rd-Jul-2019%2017.30%20Babergh%20Council.pdf?T=1</t>
   </si>
   <si>
@@ -4726,6 +4756,9 @@
     <t>https://cmis.norwich.gov.uk/Live/Document.ashx?czJKcaeAi5tUFL1DTL2UE4zNRBcoShgo=hllhbMKESqC%2fr9zTKIK08PUYoGy1Zl6YraERB55yhv9TwZMQdaCl6A%3d%3d&amp;rUzwRPf%2bZ3zd4E7Ikn8Lyw%3d%3d=pwRE6AGJFLDNlh225F5QMaQWCtPHwdhUfCZ%2fLUQzgA2uL5jNRG4jdQ%3d%3d&amp;mCTIbCubSFfXsDGW9IXnlg%3d%3d=hFflUdN3100%3d&amp;kCx1AnS9%2fpWZQ40DXFvdEw%3d%3d=hFflUdN3100%3d&amp;uJovDxwdjMPoYv%2bAJvYtyA%3d%3d=ctNJFf55vVA%3d&amp;FgPlIEJYlotS%2bYGoBi5olA%3d%3d=NHdURQburHA%3d&amp;d9Qjj0ag1Pd993jsyOJqFvmyB7X0CSQK=ctNJFf55vVA%3d&amp;WGewmoAfeNR9xqBux0r1Q8Za60lavYmz=ctNJFf55vVA%3d&amp;WGewmoAfeNQ16B2MHuCpMRKZMwaG1PaO=ctNJFf55vVA%3d</t>
   </si>
   <si>
+    <t>https://committee.nottinghamcity.gov.uk/documents/g7955/Public%20minutes%2013th-Jan-2020%2014.00%20City%20Council.pdf?T=11</t>
+  </si>
+  <si>
     <t>https://www.nottinghamshire.gov.uk/dms/Meetings/tabid/70/ctl/ViewMeetingPublic/mid/397/Meeting/5417/Committee/513/SelectedTab/Documents/Default.aspx</t>
   </si>
   <si>
@@ -4798,6 +4831,9 @@
     <t>https://committees.royalgreenwich.gov.uk/Document.ashx?czJKcaeAi5tUFL1DTL2UE4zNRBcoShgo=U8uODRt%2flf2HFutOcc5sJS4%2f%2bAH1pfZtawFsK7iz7thvT%2blYuZrtZw%3d%3d&amp;rUzwRPf%2bZ3zd4E7Ikn8Lyw%3d%3d=pwRE6AGJFLDNlh225F5QMaQWCtPHwdhUfCZ%2fLUQzgA2uL5jNRG4jdQ%3d%3d&amp;mCTIbCubSFfXsDGW9IXnlg%3d%3d=hFflUdN3100%3d&amp;kCx1AnS9%2fpWZQ40DXFvdEw%3d%3d=hFflUdN3100%3d&amp;uJovDxwdjMPoYv%2bAJvYtyA%3d%3d=ctNJFf55vVA%3d&amp;FgPlIEJYlotS%2bYGoBi5olA%3d%3d=NHdURQburHA%3d&amp;d9Qjj0ag1Pd993jsyOJqFvmyB7X0CSQK=ctNJFf55vVA%3d&amp;WGewmoAfeNR9xqBux0r1Q8Za60lavYmz=ctNJFf55vVA%3d&amp;WGewmoAfeNQ16B2MHuCpMRKZMwaG1PaO=ctNJFf55vVA%3d</t>
   </si>
   <si>
+    <t>https://www.rbkc.gov.uk/sites/default/files/atoms/files/Agenda%2022%20Jan.pdf</t>
+  </si>
+  <si>
     <t>https://moderngov.kingston.gov.uk/documents/g8824/Printed%20minutes%20Tuesday%2025-Jun-2019%2019.30%20Environment%20and%20Sustainable%20Transport%20Committee.htm?T=1&amp;CT=2</t>
   </si>
   <si>
@@ -4825,6 +4861,9 @@
     <t>https://www.salford.gov.uk/your-council/climate-change/salford-s-climate-emergency-declaration/</t>
   </si>
   <si>
+    <t>https://cmis.sandwell.gov.uk/cmis5/Meetings/tabid/73/ctl/ViewMeetingPublic/mid/410/Meeting/37363/Committee/6025/SelectedTab/Documents/Default.aspx</t>
+  </si>
+  <si>
     <t>https://democracy.scarborough.gov.uk/documents/g10551/Printed%20minutes%2007th-Jan-2019%2014.00%20Council.pdf?T=1</t>
   </si>
   <si>
@@ -4867,6 +4906,9 @@
     <t>https://southderbyshire.cmis.uk.com/Southderbyshire/Document.ashx?czJKcaeAi5tUFL1DTL2UE4zNRBcoShgo=%2bvjjUMGYRr1ETVRDKct7U0kI%2fPnhFU0QALY1s04XDHzh83IjTw5HDA%3d%3d&amp;rUzwRPf%2bZ3zd4E7Ikn8Lyw%3d%3d=pwRE6AGJFLDNlh225F5QMaQWCtPHwdhUfCZ%2fLUQzgA2uL5jNRG4jdQ%3d%3d&amp;mCTIbCubSFfXsDGW9IXnlg%3d%3d=hFflUdN3100%3d&amp;kCx1AnS9%2fpWZQ40DXFvdEw%3d%3d=hFflUdN3100%3d&amp;uJovDxwdjMPoYv%2bAJvYtyA%3d%3d=ctNJFf55vVA%3d&amp;FgPlIEJYlotS%2bYGoBi5olA%3d%3d=NHdURQburHA%3d&amp;d9Qjj0ag1Pd993jsyOJqFvmyB7X0CSQK=ctNJFf55vVA%3d&amp;WGewmoAfeNR9xqBux0r1Q8Za60lavYmz=ctNJFf55vVA%3d&amp;WGewmoAfeNQ16B2MHuCpMRKZMwaG1PaO=ctNJFf55vVA%3d</t>
   </si>
   <si>
+    <t>https://www.climateemergency.uk/wp-content/uploads/2019/07/South-Glos.pdf</t>
+  </si>
+  <si>
     <t>https://mg.swdevon.gov.uk/documents/g1386/Printed%20minutes%2025th-Jul-2019%2014.00%20South%20Hams%20Council.pdf?T=1</t>
   </si>
   <si>
@@ -4909,6 +4951,9 @@
     <t>http://moderngov.sthelens.gov.uk/documents/g5852/Printed%20minutes%2010th-Jul-2019%2018.15%20Council.pdf?T=1</t>
   </si>
   <si>
+    <t>https://www.staffordbc.gov.uk/sites/default/files/cme/DocMan1/Committee%20Minutes%2019-20/Council/MCouncil%20-%2023%20July%202019.pdf</t>
+  </si>
+  <si>
     <t>http://moderngov.staffordshire.gov.uk/documents/g10643/Public%20reports%20pack%2025th-Jul-2019%2010.00%20County%20Council.pdf?T=10</t>
   </si>
   <si>
@@ -4945,6 +4990,9 @@
     <t>https://surreyheath.moderngov.co.uk/documents/g3190/Printed%20minutes%2009th-Oct-2019%2019.00%20Council.pdf?T=1</t>
   </si>
   <si>
+    <t>https://services.swale.gov.uk/meetings/ieListDocuments.aspx?CId=128&amp;MId=2156&amp;Ver=4</t>
+  </si>
+  <si>
     <t>https://tameside.moderngov.co.uk/mgAi.aspx?ID=44691</t>
   </si>
   <si>
@@ -4966,6 +5014,9 @@
     <t>https://democracy.testvalley.gov.uk/documents/g200/Printed%20minutes%20Wednesday%2004-Sep-2019%2017.30%20Council.pdf?T=1</t>
   </si>
   <si>
+    <t>https://minutes.tewkesbury.gov.uk/documents/g3727/Printed%20minutes%20Tuesday%2013-Aug-2019%2016.30%20Overview%20and%20Scrutiny.pdf?T=1</t>
+  </si>
+  <si>
     <t>https://democracy.thanet.gov.uk/documents/g5213/Printed%20minutes%2011th-Jul-2019%2019.00%20Council.pdf?T=1</t>
   </si>
   <si>
@@ -5059,6 +5110,9 @@
     <t>https://meetings.westoxon.gov.uk/Data/Council/201906261400/Agenda/s0QiDS4f1lFA4mhhkS8Irvz1FSMRxq.pdf</t>
   </si>
   <si>
+    <t>https://democracy.westsuffolk.gov.uk/documents/g4511/Printed%20minutes%20Thursday%2019-Sep-2019%2018.30%20Council.pdf?T=1</t>
+  </si>
+  <si>
     <t>https://westsussex.moderngov.co.uk/documents/g2004/Public%20minutes%2005th-Apr-2019%2010.30%20County%20Council.pdf?T=11</t>
   </si>
   <si>
@@ -5080,7 +5134,13 @@
     <t>https://democracy.wirral.gov.uk/documents/g7412/Printed%20minutes%2010th-Dec-2018%2018.00%20Council.pdf?T=1</t>
   </si>
   <si>
+    <t>https://moderngov.woking.gov.uk/documents/g688/Printed%20minutes%2025th-Jul-2019%2019.00%20Council.pdf?T=1</t>
+  </si>
+  <si>
     <t>https://wokingham.moderngov.co.uk/documents/g3269/Public%20reports%20pack%2018th-Jul-2019%2019.30%20Council.pdf?T=10</t>
+  </si>
+  <si>
+    <t>https://wolverhampton.moderngov.co.uk/documents/s115271/Motions%20on%20Notice%20170719.pdf</t>
   </si>
   <si>
     <t>http://committee.worcester.gov.uk/documents/g4430/Printed%20minutes%2016th-Jul-2019%2019.00%20Council.pdf?T=1</t>
@@ -7045,13 +7105,13 @@
         <v>1358</v>
       </c>
       <c r="N2" t="s">
-        <v>1694</v>
+        <v>1714</v>
       </c>
       <c r="O2" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P2" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -7086,13 +7146,13 @@
         <v>1359</v>
       </c>
       <c r="N3" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="O3" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P3" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -7133,13 +7193,13 @@
         <v>1360</v>
       </c>
       <c r="N4" t="s">
-        <v>1696</v>
+        <v>1716</v>
       </c>
       <c r="O4" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P4" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q4" t="s">
         <v>420</v>
@@ -7183,13 +7243,13 @@
         <v>1361</v>
       </c>
       <c r="N5" t="s">
-        <v>1697</v>
+        <v>1717</v>
       </c>
       <c r="O5" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P5" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q5" t="s">
         <v>119</v>
@@ -7233,13 +7293,13 @@
         <v>1362</v>
       </c>
       <c r="N6" t="s">
-        <v>1698</v>
+        <v>1718</v>
       </c>
       <c r="O6" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P6" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q6" t="s">
         <v>125</v>
@@ -7283,13 +7343,13 @@
         <v>1363</v>
       </c>
       <c r="N7" t="s">
-        <v>1699</v>
+        <v>1719</v>
       </c>
       <c r="O7" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P7" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -7315,13 +7375,13 @@
         <v>1364</v>
       </c>
       <c r="N8" t="s">
-        <v>1700</v>
+        <v>1720</v>
       </c>
       <c r="O8" t="s">
-        <v>2100</v>
+        <v>2120</v>
       </c>
       <c r="P8" t="s">
-        <v>2110</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -7359,13 +7419,13 @@
         <v>1365</v>
       </c>
       <c r="N9" t="s">
-        <v>1701</v>
+        <v>1721</v>
       </c>
       <c r="O9" t="s">
-        <v>2100</v>
+        <v>2120</v>
       </c>
       <c r="P9" t="s">
-        <v>2110</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -7403,13 +7463,13 @@
         <v>1366</v>
       </c>
       <c r="N10" t="s">
-        <v>1702</v>
+        <v>1722</v>
       </c>
       <c r="O10" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P10" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -7435,13 +7495,13 @@
         <v>1364</v>
       </c>
       <c r="N11" t="s">
-        <v>1703</v>
+        <v>1723</v>
       </c>
       <c r="O11" t="s">
-        <v>2100</v>
+        <v>2120</v>
       </c>
       <c r="P11" t="s">
-        <v>2110</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -7482,13 +7542,13 @@
         <v>1367</v>
       </c>
       <c r="N12" t="s">
-        <v>1704</v>
+        <v>1724</v>
       </c>
       <c r="O12" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P12" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q12" t="s">
         <v>420</v>
@@ -7517,13 +7577,13 @@
         <v>1364</v>
       </c>
       <c r="N13" t="s">
-        <v>1705</v>
+        <v>1725</v>
       </c>
       <c r="O13" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P13" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q13" t="s">
         <v>289</v>
@@ -7561,13 +7621,13 @@
         <v>1368</v>
       </c>
       <c r="N14" t="s">
-        <v>1706</v>
+        <v>1726</v>
       </c>
       <c r="O14" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P14" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q14" t="s">
         <v>200</v>
@@ -7611,13 +7671,13 @@
         <v>1369</v>
       </c>
       <c r="N15" t="s">
-        <v>1707</v>
+        <v>1727</v>
       </c>
       <c r="O15" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P15" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q15" t="s">
         <v>371</v>
@@ -7661,13 +7721,13 @@
         <v>1370</v>
       </c>
       <c r="N16" t="s">
-        <v>1708</v>
+        <v>1728</v>
       </c>
       <c r="O16" t="s">
-        <v>2102</v>
+        <v>2122</v>
       </c>
       <c r="P16" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R16" t="s">
         <v>335</v>
@@ -7711,13 +7771,13 @@
         <v>1371</v>
       </c>
       <c r="N17" t="s">
-        <v>1709</v>
+        <v>1729</v>
       </c>
       <c r="O17" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P17" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q17" t="s">
         <v>119</v>
@@ -7749,13 +7809,13 @@
         <v>1364</v>
       </c>
       <c r="N18" t="s">
-        <v>1710</v>
+        <v>1730</v>
       </c>
       <c r="O18" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P18" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q18" t="s">
         <v>157</v>
@@ -7799,13 +7859,13 @@
         <v>1372</v>
       </c>
       <c r="N19" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="O19" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P19" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q19" t="s">
         <v>179</v>
@@ -7834,13 +7894,13 @@
         <v>1364</v>
       </c>
       <c r="N20" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="O20" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P20" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q20" t="s">
         <v>289</v>
@@ -7884,13 +7944,13 @@
         <v>1373</v>
       </c>
       <c r="N21" t="s">
-        <v>1713</v>
+        <v>1733</v>
       </c>
       <c r="O21" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P21" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
       <c r="R21" t="s">
         <v>417</v>
@@ -7934,13 +7994,13 @@
         <v>1374</v>
       </c>
       <c r="N22" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="O22" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P22" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -7978,13 +8038,13 @@
         <v>1375</v>
       </c>
       <c r="N23" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="O23" t="s">
-        <v>2100</v>
+        <v>2120</v>
       </c>
       <c r="P23" t="s">
-        <v>2110</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -8025,13 +8085,13 @@
         <v>1376</v>
       </c>
       <c r="N24" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="O24" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P24" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R24" t="s">
         <v>415</v>
@@ -8063,13 +8123,13 @@
         <v>1364</v>
       </c>
       <c r="N25" t="s">
-        <v>1717</v>
+        <v>1737</v>
       </c>
       <c r="O25" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P25" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q25" t="s">
         <v>208</v>
@@ -8113,13 +8173,13 @@
         <v>1377</v>
       </c>
       <c r="N26" t="s">
-        <v>1718</v>
+        <v>1738</v>
       </c>
       <c r="O26" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P26" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -8160,13 +8220,13 @@
         <v>1378</v>
       </c>
       <c r="N27" t="s">
-        <v>1719</v>
+        <v>1739</v>
       </c>
       <c r="O27" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P27" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -8207,13 +8267,13 @@
         <v>1379</v>
       </c>
       <c r="N28" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="O28" t="s">
-        <v>2105</v>
+        <v>2125</v>
       </c>
       <c r="P28" t="s">
-        <v>2113</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -8242,13 +8302,13 @@
         <v>1364</v>
       </c>
       <c r="N29" t="s">
-        <v>1721</v>
+        <v>1741</v>
       </c>
       <c r="O29" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P29" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q29" t="s">
         <v>125</v>
@@ -8292,13 +8352,13 @@
         <v>1380</v>
       </c>
       <c r="N30" t="s">
-        <v>1722</v>
+        <v>1742</v>
       </c>
       <c r="O30" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P30" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R30" t="s">
         <v>174</v>
@@ -8342,13 +8402,13 @@
         <v>1381</v>
       </c>
       <c r="N31" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="O31" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P31" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q31" t="s">
         <v>212</v>
@@ -8392,13 +8452,13 @@
         <v>1382</v>
       </c>
       <c r="N32" t="s">
-        <v>1724</v>
+        <v>1744</v>
       </c>
       <c r="O32" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P32" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -8427,13 +8487,13 @@
         <v>1364</v>
       </c>
       <c r="N33" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="O33" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P33" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -8474,13 +8534,13 @@
         <v>1383</v>
       </c>
       <c r="N34" t="s">
-        <v>1726</v>
+        <v>1746</v>
       </c>
       <c r="O34" t="s">
-        <v>2102</v>
+        <v>2122</v>
       </c>
       <c r="P34" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R34" t="s">
         <v>421</v>
@@ -8524,13 +8584,13 @@
         <v>1384</v>
       </c>
       <c r="N35" t="s">
-        <v>1727</v>
+        <v>1747</v>
       </c>
       <c r="O35" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P35" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q35" t="s">
         <v>157</v>
@@ -8574,13 +8634,13 @@
         <v>1385</v>
       </c>
       <c r="N36" t="s">
-        <v>1728</v>
+        <v>1748</v>
       </c>
       <c r="O36" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P36" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q36" t="s">
         <v>268</v>
@@ -8612,13 +8672,13 @@
         <v>1364</v>
       </c>
       <c r="N37" t="s">
-        <v>1729</v>
+        <v>1749</v>
       </c>
       <c r="O37" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P37" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q37" t="s">
         <v>157</v>
@@ -8662,13 +8722,13 @@
         <v>1386</v>
       </c>
       <c r="N38" t="s">
-        <v>1730</v>
+        <v>1750</v>
       </c>
       <c r="O38" t="s">
-        <v>2105</v>
+        <v>2125</v>
       </c>
       <c r="P38" t="s">
-        <v>2113</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -8709,13 +8769,13 @@
         <v>1387</v>
       </c>
       <c r="N39" t="s">
-        <v>1731</v>
+        <v>1751</v>
       </c>
       <c r="O39" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P39" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -8756,13 +8816,13 @@
         <v>1388</v>
       </c>
       <c r="N40" t="s">
-        <v>1732</v>
+        <v>1752</v>
       </c>
       <c r="O40" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P40" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
       <c r="R40" t="s">
         <v>417</v>
@@ -8794,13 +8854,13 @@
         <v>1389</v>
       </c>
       <c r="N41" t="s">
-        <v>1733</v>
+        <v>1753</v>
       </c>
       <c r="O41" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P41" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q41" t="s">
         <v>268</v>
@@ -8841,13 +8901,13 @@
         <v>1390</v>
       </c>
       <c r="N42" t="s">
-        <v>1734</v>
+        <v>1754</v>
       </c>
       <c r="O42" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P42" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q42" t="s">
         <v>431</v>
@@ -8876,13 +8936,13 @@
         <v>1364</v>
       </c>
       <c r="N43" t="s">
-        <v>1735</v>
+        <v>1755</v>
       </c>
       <c r="O43" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P43" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q43" t="s">
         <v>188</v>
@@ -8926,13 +8986,13 @@
         <v>1391</v>
       </c>
       <c r="N44" t="s">
-        <v>1736</v>
+        <v>1756</v>
       </c>
       <c r="O44" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P44" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q44" t="s">
         <v>289</v>
@@ -8976,13 +9036,13 @@
         <v>1392</v>
       </c>
       <c r="N45" t="s">
-        <v>1737</v>
+        <v>1757</v>
       </c>
       <c r="O45" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P45" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -9023,13 +9083,13 @@
         <v>1393</v>
       </c>
       <c r="N46" t="s">
-        <v>1738</v>
+        <v>1758</v>
       </c>
       <c r="O46" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P46" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q46" t="s">
         <v>204</v>
@@ -9073,13 +9133,13 @@
         <v>1394</v>
       </c>
       <c r="N47" t="s">
-        <v>1739</v>
+        <v>1759</v>
       </c>
       <c r="O47" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P47" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R47" t="s">
         <v>174</v>
@@ -9123,13 +9183,13 @@
         <v>1395</v>
       </c>
       <c r="N48" t="s">
-        <v>1740</v>
+        <v>1760</v>
       </c>
       <c r="O48" t="s">
-        <v>2105</v>
+        <v>2125</v>
       </c>
       <c r="P48" t="s">
-        <v>2113</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -9170,13 +9230,13 @@
         <v>1396</v>
       </c>
       <c r="N49" t="s">
-        <v>1741</v>
+        <v>1761</v>
       </c>
       <c r="O49" t="s">
-        <v>2102</v>
+        <v>2122</v>
       </c>
       <c r="P49" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R49" t="s">
         <v>421</v>
@@ -9216,17 +9276,17 @@
       <c r="K50" t="s">
         <v>1290</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50" s="2" t="s">
         <v>1397</v>
       </c>
       <c r="N50" t="s">
-        <v>1742</v>
+        <v>1762</v>
       </c>
       <c r="O50" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P50" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q50" t="s">
         <v>86</v>
@@ -9261,13 +9321,13 @@
         <v>1364</v>
       </c>
       <c r="N51" t="s">
-        <v>1743</v>
+        <v>1763</v>
       </c>
       <c r="O51" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P51" t="s">
-        <v>2114</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -9308,13 +9368,13 @@
         <v>1398</v>
       </c>
       <c r="N52" t="s">
-        <v>1744</v>
+        <v>1764</v>
       </c>
       <c r="O52" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P52" t="s">
-        <v>2115</v>
+        <v>2135</v>
       </c>
       <c r="R52" t="s">
         <v>85</v>
@@ -9358,13 +9418,13 @@
         <v>1399</v>
       </c>
       <c r="N53" t="s">
-        <v>1745</v>
+        <v>1765</v>
       </c>
       <c r="O53" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P53" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q53" t="s">
         <v>362</v>
@@ -9405,13 +9465,13 @@
         <v>1400</v>
       </c>
       <c r="N54" t="s">
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="O54" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P54" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q54" t="s">
         <v>200</v>
@@ -9451,17 +9511,17 @@
       <c r="K55" t="s">
         <v>1295</v>
       </c>
-      <c r="M55" t="s">
-        <v>1397</v>
+      <c r="M55" s="2" t="s">
+        <v>1401</v>
       </c>
       <c r="N55" t="s">
-        <v>1747</v>
+        <v>1767</v>
       </c>
       <c r="O55" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P55" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q55" t="s">
         <v>119</v>
@@ -9502,16 +9562,16 @@
         <v>1290</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="N56" t="s">
-        <v>1748</v>
+        <v>1768</v>
       </c>
       <c r="O56" t="s">
-        <v>2105</v>
+        <v>2125</v>
       </c>
       <c r="P56" t="s">
-        <v>2113</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -9537,13 +9597,13 @@
         <v>1364</v>
       </c>
       <c r="N57" t="s">
-        <v>1749</v>
+        <v>1769</v>
       </c>
       <c r="O57" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P57" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q57" t="s">
         <v>157</v>
@@ -9581,16 +9641,16 @@
         <v>1059</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="N58" t="s">
-        <v>1750</v>
+        <v>1770</v>
       </c>
       <c r="O58" t="s">
-        <v>2100</v>
+        <v>2120</v>
       </c>
       <c r="P58" t="s">
-        <v>2110</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -9628,16 +9688,16 @@
         <v>1059</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="N59" t="s">
-        <v>1751</v>
+        <v>1771</v>
       </c>
       <c r="O59" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P59" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -9675,16 +9735,16 @@
         <v>1296</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="N60" t="s">
-        <v>1752</v>
+        <v>1772</v>
       </c>
       <c r="O60" t="s">
-        <v>2105</v>
+        <v>2125</v>
       </c>
       <c r="P60" t="s">
-        <v>2113</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -9722,16 +9782,16 @@
         <v>1059</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="N61" t="s">
-        <v>1753</v>
+        <v>1773</v>
       </c>
       <c r="O61" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P61" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q61" t="s">
         <v>208</v>
@@ -9772,16 +9832,16 @@
         <v>1297</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="N62" t="s">
-        <v>1754</v>
+        <v>1774</v>
       </c>
       <c r="O62" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P62" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q62" t="s">
         <v>157</v>
@@ -9822,16 +9882,16 @@
         <v>1288</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="N63" t="s">
-        <v>1755</v>
+        <v>1775</v>
       </c>
       <c r="O63" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P63" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q63" t="s">
         <v>170</v>
@@ -9872,16 +9932,16 @@
         <v>1298</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="N64" t="s">
-        <v>1756</v>
+        <v>1776</v>
       </c>
       <c r="O64" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P64" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q64" t="s">
         <v>295</v>
@@ -9922,16 +9982,16 @@
         <v>1059</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="N65" t="s">
-        <v>1757</v>
+        <v>1777</v>
       </c>
       <c r="O65" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P65" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -9969,16 +10029,16 @@
         <v>1285</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="N66" t="s">
-        <v>1758</v>
+        <v>1778</v>
       </c>
       <c r="O66" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P66" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -10016,16 +10076,16 @@
         <v>1290</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="N67" t="s">
-        <v>1759</v>
+        <v>1779</v>
       </c>
       <c r="O67" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P67" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q67" t="s">
         <v>125</v>
@@ -10063,16 +10123,16 @@
         <v>1299</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="N68" t="s">
-        <v>1760</v>
+        <v>1780</v>
       </c>
       <c r="O68" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P68" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q68" t="s">
         <v>420</v>
@@ -10113,16 +10173,16 @@
         <v>1288</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="N69" t="s">
-        <v>1761</v>
+        <v>1781</v>
       </c>
       <c r="O69" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P69" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q69" t="s">
         <v>204</v>
@@ -10163,16 +10223,16 @@
         <v>1290</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="N70" t="s">
-        <v>1762</v>
+        <v>1782</v>
       </c>
       <c r="O70" t="s">
-        <v>2105</v>
+        <v>2125</v>
       </c>
       <c r="P70" t="s">
-        <v>2113</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -10210,16 +10270,16 @@
         <v>1288</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="N71" t="s">
-        <v>1763</v>
+        <v>1783</v>
       </c>
       <c r="O71" t="s">
-        <v>2105</v>
+        <v>2125</v>
       </c>
       <c r="P71" t="s">
-        <v>2113</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -10257,16 +10317,16 @@
         <v>1300</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="N72" t="s">
-        <v>1764</v>
+        <v>1784</v>
       </c>
       <c r="O72" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P72" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -10295,13 +10355,13 @@
         <v>1364</v>
       </c>
       <c r="N73" t="s">
-        <v>1765</v>
+        <v>1785</v>
       </c>
       <c r="O73" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P73" t="s">
-        <v>2116</v>
+        <v>2136</v>
       </c>
       <c r="R73" t="s">
         <v>437</v>
@@ -10342,16 +10402,16 @@
         <v>1302</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="N74" t="s">
-        <v>1766</v>
+        <v>1786</v>
       </c>
       <c r="O74" t="s">
-        <v>2102</v>
+        <v>2122</v>
       </c>
       <c r="P74" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -10386,16 +10446,16 @@
         <v>1059</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="N75" t="s">
-        <v>1767</v>
+        <v>1787</v>
       </c>
       <c r="O75" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P75" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -10433,16 +10493,16 @@
         <v>1059</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="N76" t="s">
-        <v>1768</v>
+        <v>1788</v>
       </c>
       <c r="O76" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P76" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q76" t="s">
         <v>157</v>
@@ -10471,13 +10531,13 @@
         <v>1364</v>
       </c>
       <c r="N77" t="s">
-        <v>1769</v>
+        <v>1789</v>
       </c>
       <c r="O77" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P77" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -10515,16 +10575,16 @@
         <v>1303</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="N78" t="s">
-        <v>1770</v>
+        <v>1790</v>
       </c>
       <c r="O78" t="s">
-        <v>2105</v>
+        <v>2125</v>
       </c>
       <c r="P78" t="s">
-        <v>2113</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -10559,16 +10619,16 @@
         <v>1304</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="N79" t="s">
-        <v>1771</v>
+        <v>1791</v>
       </c>
       <c r="O79" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P79" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q79" t="s">
         <v>119</v>
@@ -10609,16 +10669,16 @@
         <v>1288</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="N80" t="s">
-        <v>1772</v>
+        <v>1792</v>
       </c>
       <c r="O80" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P80" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -10656,16 +10716,16 @@
         <v>1305</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="N81" t="s">
-        <v>1773</v>
+        <v>1793</v>
       </c>
       <c r="O81" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P81" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q81" t="s">
         <v>170</v>
@@ -10702,17 +10762,17 @@
       <c r="K82" t="s">
         <v>1306</v>
       </c>
-      <c r="M82" t="s">
-        <v>1397</v>
+      <c r="M82" s="2" t="s">
+        <v>1425</v>
       </c>
       <c r="N82" t="s">
-        <v>1774</v>
+        <v>1794</v>
       </c>
       <c r="O82" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P82" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R82" t="s">
         <v>415</v>
@@ -10753,16 +10813,16 @@
         <v>1288</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="N83" t="s">
-        <v>1775</v>
+        <v>1795</v>
       </c>
       <c r="O83" t="s">
-        <v>2102</v>
+        <v>2122</v>
       </c>
       <c r="P83" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q83" t="s">
         <v>285</v>
@@ -10803,16 +10863,16 @@
         <v>1059</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="N84" t="s">
-        <v>1776</v>
+        <v>1796</v>
       </c>
       <c r="O84" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P84" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q84" t="s">
         <v>420</v>
@@ -10844,13 +10904,13 @@
         <v>1364</v>
       </c>
       <c r="N85" t="s">
-        <v>1777</v>
+        <v>1797</v>
       </c>
       <c r="O85" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P85" t="s">
-        <v>2115</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -10885,16 +10945,16 @@
         <v>1059</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="N86" t="s">
-        <v>1778</v>
+        <v>1798</v>
       </c>
       <c r="O86" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P86" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q86" t="s">
         <v>188</v>
@@ -10934,20 +10994,20 @@
       <c r="K87" t="s">
         <v>1059</v>
       </c>
-      <c r="M87" t="s">
-        <v>1397</v>
+      <c r="M87" s="2" t="s">
+        <v>1429</v>
       </c>
       <c r="N87" t="s">
-        <v>1779</v>
+        <v>1799</v>
       </c>
       <c r="O87" t="s">
-        <v>2107</v>
+        <v>2127</v>
       </c>
       <c r="P87" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
       <c r="R87" t="s">
-        <v>2119</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -10985,16 +11045,16 @@
         <v>1308</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="N88" t="s">
-        <v>1780</v>
+        <v>1800</v>
       </c>
       <c r="O88" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P88" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q88" t="s">
         <v>200</v>
@@ -11032,16 +11092,16 @@
         <v>1059</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="N89" t="s">
-        <v>1781</v>
+        <v>1801</v>
       </c>
       <c r="O89" t="s">
-        <v>2105</v>
+        <v>2125</v>
       </c>
       <c r="P89" t="s">
-        <v>2113</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -11076,16 +11136,16 @@
         <v>1309</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="N90" t="s">
-        <v>1782</v>
+        <v>1802</v>
       </c>
       <c r="O90" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P90" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -11123,16 +11183,16 @@
         <v>1310</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="N91" t="s">
-        <v>1783</v>
+        <v>1803</v>
       </c>
       <c r="O91" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P91" t="s">
-        <v>2115</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -11170,16 +11230,16 @@
         <v>1059</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="N92" t="s">
-        <v>1784</v>
+        <v>1804</v>
       </c>
       <c r="O92" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P92" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q92" t="s">
         <v>125</v>
@@ -11219,17 +11279,17 @@
       <c r="K93" t="s">
         <v>1285</v>
       </c>
-      <c r="M93" t="s">
-        <v>1397</v>
+      <c r="M93" s="2" t="s">
+        <v>1435</v>
       </c>
       <c r="N93" t="s">
-        <v>1785</v>
+        <v>1805</v>
       </c>
       <c r="O93" t="s">
-        <v>2100</v>
+        <v>2120</v>
       </c>
       <c r="P93" t="s">
-        <v>2110</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -11267,16 +11327,16 @@
         <v>1290</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>1432</v>
+        <v>1436</v>
       </c>
       <c r="N94" t="s">
-        <v>1786</v>
+        <v>1806</v>
       </c>
       <c r="O94" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P94" t="s">
-        <v>2115</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -11314,16 +11374,16 @@
         <v>1301</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="N95" t="s">
-        <v>1787</v>
+        <v>1807</v>
       </c>
       <c r="O95" t="s">
-        <v>2102</v>
+        <v>2122</v>
       </c>
       <c r="P95" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R95" t="s">
         <v>335</v>
@@ -11364,16 +11424,16 @@
         <v>1290</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>1434</v>
+        <v>1438</v>
       </c>
       <c r="N96" t="s">
-        <v>1788</v>
+        <v>1808</v>
       </c>
       <c r="O96" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P96" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -11411,16 +11471,16 @@
         <v>1290</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>1435</v>
+        <v>1439</v>
       </c>
       <c r="N97" t="s">
-        <v>1789</v>
+        <v>1809</v>
       </c>
       <c r="O97" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P97" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q97" t="s">
         <v>200</v>
@@ -11461,16 +11521,16 @@
         <v>1311</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="N98" t="s">
-        <v>1790</v>
+        <v>1810</v>
       </c>
       <c r="O98" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P98" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R98" t="s">
         <v>415</v>
@@ -11511,16 +11571,16 @@
         <v>1312</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>1437</v>
+        <v>1441</v>
       </c>
       <c r="N99" t="s">
-        <v>1791</v>
+        <v>1811</v>
       </c>
       <c r="O99" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P99" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -11558,16 +11618,16 @@
         <v>1285</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>1438</v>
+        <v>1442</v>
       </c>
       <c r="N100" t="s">
-        <v>1792</v>
+        <v>1812</v>
       </c>
       <c r="O100" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P100" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -11605,16 +11665,16 @@
         <v>1290</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>1439</v>
+        <v>1443</v>
       </c>
       <c r="N101" t="s">
-        <v>1793</v>
+        <v>1813</v>
       </c>
       <c r="O101" t="s">
-        <v>2107</v>
+        <v>2127</v>
       </c>
       <c r="P101" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
       <c r="R101" t="s">
         <v>271</v>
@@ -11643,13 +11703,13 @@
         <v>1364</v>
       </c>
       <c r="N102" t="s">
-        <v>1794</v>
+        <v>1814</v>
       </c>
       <c r="O102" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P102" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -11687,16 +11747,16 @@
         <v>1313</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>1440</v>
+        <v>1444</v>
       </c>
       <c r="N103" t="s">
-        <v>1795</v>
+        <v>1815</v>
       </c>
       <c r="O103" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P103" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q103" t="s">
         <v>86</v>
@@ -11740,16 +11800,16 @@
         <v>1290</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>1441</v>
+        <v>1445</v>
       </c>
       <c r="N104" t="s">
-        <v>1796</v>
+        <v>1816</v>
       </c>
       <c r="O104" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P104" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q104" t="s">
         <v>128</v>
@@ -11778,13 +11838,13 @@
         <v>1364</v>
       </c>
       <c r="N105" t="s">
-        <v>1797</v>
+        <v>1817</v>
       </c>
       <c r="O105" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P105" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -11822,16 +11882,16 @@
         <v>1290</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>1442</v>
+        <v>1446</v>
       </c>
       <c r="N106" t="s">
-        <v>1798</v>
+        <v>1818</v>
       </c>
       <c r="O106" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P106" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q106" t="s">
         <v>179</v>
@@ -11872,16 +11932,16 @@
         <v>1288</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>1443</v>
+        <v>1447</v>
       </c>
       <c r="N107" t="s">
-        <v>1799</v>
+        <v>1819</v>
       </c>
       <c r="O107" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P107" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q107" t="s">
         <v>188</v>
@@ -11913,13 +11973,13 @@
         <v>1364</v>
       </c>
       <c r="N108" t="s">
-        <v>1800</v>
+        <v>1820</v>
       </c>
       <c r="O108" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P108" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q108" t="s">
         <v>212</v>
@@ -11960,16 +12020,16 @@
         <v>1315</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>1444</v>
+        <v>1448</v>
       </c>
       <c r="N109" t="s">
-        <v>1801</v>
+        <v>1821</v>
       </c>
       <c r="O109" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P109" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -12007,16 +12067,16 @@
         <v>1301</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>1445</v>
+        <v>1449</v>
       </c>
       <c r="N110" t="s">
-        <v>1802</v>
+        <v>1822</v>
       </c>
       <c r="O110" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P110" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -12054,16 +12114,16 @@
         <v>1290</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>1446</v>
+        <v>1450</v>
       </c>
       <c r="N111" t="s">
-        <v>1803</v>
+        <v>1823</v>
       </c>
       <c r="O111" t="s">
-        <v>2102</v>
+        <v>2122</v>
       </c>
       <c r="P111" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -12101,16 +12161,16 @@
         <v>1316</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>1447</v>
+        <v>1451</v>
       </c>
       <c r="N112" t="s">
-        <v>1804</v>
+        <v>1824</v>
       </c>
       <c r="O112" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P112" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q112" t="s">
         <v>362</v>
@@ -12151,16 +12211,16 @@
         <v>1059</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>1448</v>
+        <v>1452</v>
       </c>
       <c r="N113" t="s">
-        <v>1805</v>
+        <v>1825</v>
       </c>
       <c r="O113" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P113" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q113" t="s">
         <v>371</v>
@@ -12201,16 +12261,16 @@
         <v>1059</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>1449</v>
+        <v>1453</v>
       </c>
       <c r="N114" t="s">
-        <v>1806</v>
+        <v>1826</v>
       </c>
       <c r="O114" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P114" t="s">
-        <v>2115</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -12248,16 +12308,16 @@
         <v>1288</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>1450</v>
+        <v>1454</v>
       </c>
       <c r="N115" t="s">
-        <v>1807</v>
+        <v>1827</v>
       </c>
       <c r="O115" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P115" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q115" t="s">
         <v>148</v>
@@ -12298,16 +12358,16 @@
         <v>1288</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>1451</v>
+        <v>1455</v>
       </c>
       <c r="N116" t="s">
-        <v>1808</v>
+        <v>1828</v>
       </c>
       <c r="O116" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P116" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q116" t="s">
         <v>179</v>
@@ -12348,16 +12408,16 @@
         <v>1317</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>1452</v>
+        <v>1456</v>
       </c>
       <c r="N117" t="s">
-        <v>1809</v>
+        <v>1829</v>
       </c>
       <c r="O117" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P117" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q117" t="s">
         <v>119</v>
@@ -12398,16 +12458,16 @@
         <v>1288</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>1453</v>
+        <v>1457</v>
       </c>
       <c r="N118" t="s">
-        <v>1810</v>
+        <v>1830</v>
       </c>
       <c r="O118" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P118" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -12445,16 +12505,16 @@
         <v>1059</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>1454</v>
+        <v>1458</v>
       </c>
       <c r="N119" t="s">
-        <v>1811</v>
+        <v>1831</v>
       </c>
       <c r="O119" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P119" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q119" t="s">
         <v>373</v>
@@ -12495,16 +12555,16 @@
         <v>1288</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>1455</v>
+        <v>1459</v>
       </c>
       <c r="N120" t="s">
-        <v>1812</v>
+        <v>1832</v>
       </c>
       <c r="O120" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P120" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q120" t="s">
         <v>157</v>
@@ -12545,16 +12605,16 @@
         <v>1059</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>1456</v>
+        <v>1460</v>
       </c>
       <c r="N121" t="s">
-        <v>1813</v>
+        <v>1833</v>
       </c>
       <c r="O121" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P121" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q121" t="s">
         <v>373</v>
@@ -12595,16 +12655,16 @@
         <v>1290</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>1457</v>
+        <v>1461</v>
       </c>
       <c r="N122" t="s">
-        <v>1814</v>
+        <v>1834</v>
       </c>
       <c r="O122" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P122" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q122" t="s">
         <v>125</v>
@@ -12639,13 +12699,13 @@
         <v>1364</v>
       </c>
       <c r="N123" t="s">
-        <v>1815</v>
+        <v>1835</v>
       </c>
       <c r="O123" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P123" t="s">
-        <v>2115</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -12683,16 +12743,16 @@
         <v>1288</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>1458</v>
+        <v>1462</v>
       </c>
       <c r="N124" t="s">
-        <v>1816</v>
+        <v>1836</v>
       </c>
       <c r="O124" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P124" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q124" t="s">
         <v>128</v>
@@ -12733,16 +12793,16 @@
         <v>1318</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>1459</v>
+        <v>1463</v>
       </c>
       <c r="N125" t="s">
-        <v>1817</v>
+        <v>1837</v>
       </c>
       <c r="O125" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P125" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -12780,16 +12840,16 @@
         <v>1059</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>1460</v>
+        <v>1464</v>
       </c>
       <c r="N126" t="s">
-        <v>1818</v>
+        <v>1838</v>
       </c>
       <c r="O126" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P126" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q126" t="s">
         <v>179</v>
@@ -12818,13 +12878,13 @@
         <v>1364</v>
       </c>
       <c r="N127" t="s">
-        <v>1819</v>
+        <v>1839</v>
       </c>
       <c r="O127" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P127" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q127" t="s">
         <v>86</v>
@@ -12865,16 +12925,16 @@
         <v>1059</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>1461</v>
+        <v>1465</v>
       </c>
       <c r="N128" t="s">
-        <v>1820</v>
+        <v>1840</v>
       </c>
       <c r="O128" t="s">
-        <v>2100</v>
+        <v>2120</v>
       </c>
       <c r="P128" t="s">
-        <v>2110</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -12912,16 +12972,16 @@
         <v>1285</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>1462</v>
+        <v>1466</v>
       </c>
       <c r="N129" t="s">
-        <v>1821</v>
+        <v>1841</v>
       </c>
       <c r="O129" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P129" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -12959,16 +13019,16 @@
         <v>1059</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="N130" t="s">
-        <v>1822</v>
+        <v>1842</v>
       </c>
       <c r="O130" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P130" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q130" t="s">
         <v>200</v>
@@ -13009,16 +13069,16 @@
         <v>1288</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>1464</v>
+        <v>1468</v>
       </c>
       <c r="N131" t="s">
-        <v>1823</v>
+        <v>1843</v>
       </c>
       <c r="O131" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P131" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q131" t="s">
         <v>170</v>
@@ -13047,13 +13107,13 @@
         <v>1364</v>
       </c>
       <c r="N132" t="s">
-        <v>1824</v>
+        <v>1844</v>
       </c>
       <c r="O132" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P132" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q132" t="s">
         <v>204</v>
@@ -13094,16 +13154,16 @@
         <v>1059</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>1465</v>
+        <v>1469</v>
       </c>
       <c r="N133" t="s">
-        <v>1825</v>
+        <v>1845</v>
       </c>
       <c r="O133" t="s">
-        <v>2107</v>
+        <v>2127</v>
       </c>
       <c r="P133" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R133" t="s">
         <v>271</v>
@@ -13144,16 +13204,16 @@
         <v>1288</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>1466</v>
+        <v>1470</v>
       </c>
       <c r="N134" t="s">
-        <v>1826</v>
+        <v>1846</v>
       </c>
       <c r="O134" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P134" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q134" t="s">
         <v>289</v>
@@ -13194,16 +13254,16 @@
         <v>1290</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>1467</v>
+        <v>1471</v>
       </c>
       <c r="N135" t="s">
-        <v>1827</v>
+        <v>1847</v>
       </c>
       <c r="O135" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P135" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q135" t="s">
         <v>170</v>
@@ -13244,16 +13304,16 @@
         <v>1319</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>1468</v>
+        <v>1472</v>
       </c>
       <c r="N136" t="s">
-        <v>1828</v>
+        <v>1848</v>
       </c>
       <c r="O136" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P136" t="s">
-        <v>2115</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -13282,13 +13342,13 @@
         <v>1364</v>
       </c>
       <c r="N137" t="s">
-        <v>1829</v>
+        <v>1849</v>
       </c>
       <c r="O137" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P137" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q137" t="s">
         <v>179</v>
@@ -13329,16 +13389,16 @@
         <v>1320</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>1469</v>
+        <v>1473</v>
       </c>
       <c r="N138" t="s">
-        <v>1830</v>
+        <v>1850</v>
       </c>
       <c r="O138" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P138" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q138" t="s">
         <v>200</v>
@@ -13367,13 +13427,13 @@
         <v>1364</v>
       </c>
       <c r="N139" t="s">
-        <v>1831</v>
+        <v>1851</v>
       </c>
       <c r="O139" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P139" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q139" t="s">
         <v>268</v>
@@ -13414,16 +13474,16 @@
         <v>1293</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>1470</v>
+        <v>1474</v>
       </c>
       <c r="N140" t="s">
-        <v>1832</v>
+        <v>1852</v>
       </c>
       <c r="O140" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P140" t="s">
-        <v>2114</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -13461,16 +13521,16 @@
         <v>1288</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>1471</v>
+        <v>1475</v>
       </c>
       <c r="N141" t="s">
-        <v>1833</v>
+        <v>1853</v>
       </c>
       <c r="O141" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P141" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q141" t="s">
         <v>373</v>
@@ -13511,16 +13571,16 @@
         <v>1059</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>1472</v>
+        <v>1476</v>
       </c>
       <c r="N142" t="s">
-        <v>1834</v>
+        <v>1854</v>
       </c>
       <c r="O142" t="s">
-        <v>2105</v>
+        <v>2125</v>
       </c>
       <c r="P142" t="s">
-        <v>2113</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -13555,16 +13615,16 @@
         <v>1059</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>1473</v>
+        <v>1477</v>
       </c>
       <c r="N143" t="s">
-        <v>1835</v>
+        <v>1855</v>
       </c>
       <c r="O143" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P143" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
       <c r="R143" t="s">
         <v>214</v>
@@ -13605,16 +13665,16 @@
         <v>1321</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>1474</v>
+        <v>1478</v>
       </c>
       <c r="N144" t="s">
-        <v>1836</v>
+        <v>1856</v>
       </c>
       <c r="O144" t="s">
-        <v>2102</v>
+        <v>2122</v>
       </c>
       <c r="P144" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q144" t="s">
         <v>285</v>
@@ -13655,16 +13715,16 @@
         <v>1290</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>1475</v>
+        <v>1479</v>
       </c>
       <c r="N145" t="s">
-        <v>1837</v>
+        <v>1857</v>
       </c>
       <c r="O145" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P145" t="s">
-        <v>2115</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -13702,16 +13762,16 @@
         <v>1059</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
       <c r="N146" t="s">
-        <v>1838</v>
+        <v>1858</v>
       </c>
       <c r="O146" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P146" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q146" t="s">
         <v>208</v>
@@ -13749,16 +13809,16 @@
         <v>1059</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>1477</v>
+        <v>1481</v>
       </c>
       <c r="N147" t="s">
-        <v>1839</v>
+        <v>1859</v>
       </c>
       <c r="O147" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P147" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q147" t="s">
         <v>157</v>
@@ -13802,16 +13862,16 @@
         <v>1354</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>1478</v>
+        <v>1482</v>
       </c>
       <c r="N148" t="s">
-        <v>1840</v>
+        <v>1860</v>
       </c>
       <c r="O148" t="s">
-        <v>2102</v>
+        <v>2122</v>
       </c>
       <c r="P148" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q148" t="s">
         <v>285</v>
@@ -13855,16 +13915,16 @@
         <v>1355</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>1479</v>
+        <v>1483</v>
       </c>
       <c r="N149" t="s">
-        <v>1841</v>
+        <v>1861</v>
       </c>
       <c r="O149" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P149" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q149" t="s">
         <v>179</v>
@@ -13893,16 +13953,16 @@
         <v>1364</v>
       </c>
       <c r="N150" t="s">
-        <v>1842</v>
+        <v>1862</v>
       </c>
       <c r="O150" t="s">
-        <v>2107</v>
+        <v>2127</v>
       </c>
       <c r="P150" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
       <c r="R150" t="s">
-        <v>2119</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -13940,16 +14000,16 @@
         <v>1288</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>1480</v>
+        <v>1484</v>
       </c>
       <c r="N151" t="s">
-        <v>1843</v>
+        <v>1863</v>
       </c>
       <c r="O151" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P151" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q151" t="s">
         <v>148</v>
@@ -13978,13 +14038,13 @@
         <v>1364</v>
       </c>
       <c r="N152" t="s">
-        <v>1844</v>
+        <v>1864</v>
       </c>
       <c r="O152" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P152" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q152" t="s">
         <v>179</v>
@@ -14025,16 +14085,16 @@
         <v>1323</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>1481</v>
+        <v>1485</v>
       </c>
       <c r="N153" t="s">
-        <v>1845</v>
+        <v>1865</v>
       </c>
       <c r="O153" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P153" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -14071,17 +14131,17 @@
       <c r="K154" t="s">
         <v>1290</v>
       </c>
-      <c r="M154" t="s">
-        <v>1397</v>
+      <c r="M154" s="2" t="s">
+        <v>1486</v>
       </c>
       <c r="N154" t="s">
-        <v>1846</v>
+        <v>1866</v>
       </c>
       <c r="O154" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P154" t="s">
-        <v>2115</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -14119,16 +14179,16 @@
         <v>1059</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>1482</v>
+        <v>1487</v>
       </c>
       <c r="N155" t="s">
-        <v>1847</v>
+        <v>1867</v>
       </c>
       <c r="O155" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P155" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q155" t="s">
         <v>188</v>
@@ -14168,17 +14228,17 @@
       <c r="K156" t="s">
         <v>1324</v>
       </c>
-      <c r="M156" t="s">
-        <v>1397</v>
+      <c r="M156" s="2" t="s">
+        <v>1488</v>
       </c>
       <c r="N156" t="s">
-        <v>1848</v>
+        <v>1868</v>
       </c>
       <c r="O156" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P156" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q156" t="s">
         <v>125</v>
@@ -14219,16 +14279,16 @@
         <v>1325</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>1483</v>
+        <v>1489</v>
       </c>
       <c r="N157" t="s">
-        <v>1849</v>
+        <v>1869</v>
       </c>
       <c r="O157" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P157" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q157" t="s">
         <v>208</v>
@@ -14269,16 +14329,16 @@
         <v>1059</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>1484</v>
+        <v>1490</v>
       </c>
       <c r="N158" t="s">
-        <v>1850</v>
+        <v>1870</v>
       </c>
       <c r="O158" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P158" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q158" t="s">
         <v>420</v>
@@ -14319,16 +14379,16 @@
         <v>1288</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>1485</v>
+        <v>1491</v>
       </c>
       <c r="N159" t="s">
-        <v>1851</v>
+        <v>1871</v>
       </c>
       <c r="O159" t="s">
-        <v>2102</v>
+        <v>2122</v>
       </c>
       <c r="P159" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -14354,13 +14414,13 @@
         <v>1364</v>
       </c>
       <c r="N160" t="s">
-        <v>1852</v>
+        <v>1872</v>
       </c>
       <c r="O160" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P160" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q160" t="s">
         <v>86</v>
@@ -14403,17 +14463,17 @@
       <c r="K161" t="s">
         <v>1326</v>
       </c>
-      <c r="M161" t="s">
-        <v>1397</v>
+      <c r="M161" s="2" t="s">
+        <v>1492</v>
       </c>
       <c r="N161" t="s">
-        <v>1853</v>
+        <v>1873</v>
       </c>
       <c r="O161" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P161" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q161" t="s">
         <v>204</v>
@@ -14454,16 +14514,16 @@
         <v>1059</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>1486</v>
+        <v>1493</v>
       </c>
       <c r="N162" t="s">
-        <v>1854</v>
+        <v>1874</v>
       </c>
       <c r="O162" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P162" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q162" t="s">
         <v>371</v>
@@ -14504,16 +14564,16 @@
         <v>1059</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>1487</v>
+        <v>1494</v>
       </c>
       <c r="N163" t="s">
-        <v>1855</v>
+        <v>1875</v>
       </c>
       <c r="O163" t="s">
-        <v>2105</v>
+        <v>2125</v>
       </c>
       <c r="P163" t="s">
-        <v>2113</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -14551,16 +14611,16 @@
         <v>1288</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>1488</v>
+        <v>1495</v>
       </c>
       <c r="N164" t="s">
-        <v>1856</v>
+        <v>1876</v>
       </c>
       <c r="O164" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P164" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -14598,16 +14658,16 @@
         <v>1059</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>1489</v>
+        <v>1496</v>
       </c>
       <c r="N165" t="s">
-        <v>1857</v>
+        <v>1877</v>
       </c>
       <c r="O165" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P165" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -14645,16 +14705,16 @@
         <v>1290</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>1490</v>
+        <v>1497</v>
       </c>
       <c r="N166" t="s">
-        <v>1858</v>
+        <v>1878</v>
       </c>
       <c r="O166" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P166" t="s">
-        <v>2115</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -14689,7 +14749,7 @@
         <v>1288</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>1491</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -14724,16 +14784,16 @@
         <v>1059</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>1492</v>
+        <v>1499</v>
       </c>
       <c r="N168" t="s">
-        <v>1859</v>
+        <v>1879</v>
       </c>
       <c r="O168" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P168" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q168" t="s">
         <v>268</v>
@@ -14774,16 +14834,16 @@
         <v>1293</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>1493</v>
+        <v>1500</v>
       </c>
       <c r="N169" t="s">
-        <v>1860</v>
+        <v>1880</v>
       </c>
       <c r="O169" t="s">
-        <v>2102</v>
+        <v>2122</v>
       </c>
       <c r="P169" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R169" t="s">
         <v>421</v>
@@ -14824,16 +14884,16 @@
         <v>1059</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>1494</v>
+        <v>1501</v>
       </c>
       <c r="N170" t="s">
-        <v>1861</v>
+        <v>1881</v>
       </c>
       <c r="O170" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P170" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R170" t="s">
         <v>214</v>
@@ -14874,16 +14934,16 @@
         <v>1059</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>1495</v>
+        <v>1502</v>
       </c>
       <c r="N171" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
       <c r="O171" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P171" t="s">
-        <v>2115</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -14921,16 +14981,16 @@
         <v>1327</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>1496</v>
+        <v>1503</v>
       </c>
       <c r="N172" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
       <c r="O172" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P172" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q172" t="s">
         <v>204</v>
@@ -14971,16 +15031,16 @@
         <v>1288</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>1497</v>
+        <v>1504</v>
       </c>
       <c r="N173" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
       <c r="O173" t="s">
-        <v>2102</v>
+        <v>2122</v>
       </c>
       <c r="P173" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R173" t="s">
         <v>421</v>
@@ -15021,16 +15081,16 @@
         <v>1328</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>1498</v>
+        <v>1505</v>
       </c>
       <c r="N174" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
       <c r="O174" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P174" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -15068,16 +15128,16 @@
         <v>1059</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>1499</v>
+        <v>1506</v>
       </c>
       <c r="N175" t="s">
-        <v>1866</v>
+        <v>1886</v>
       </c>
       <c r="O175" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P175" t="s">
-        <v>2115</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -15115,16 +15175,16 @@
         <v>1288</v>
       </c>
       <c r="M176" s="2" t="s">
-        <v>1500</v>
+        <v>1507</v>
       </c>
       <c r="N176" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
       <c r="O176" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P176" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q176" t="s">
         <v>148</v>
@@ -15162,16 +15222,16 @@
         <v>1329</v>
       </c>
       <c r="M177" s="2" t="s">
-        <v>1501</v>
+        <v>1508</v>
       </c>
       <c r="N177" t="s">
-        <v>1868</v>
+        <v>1888</v>
       </c>
       <c r="O177" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P177" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q177" t="s">
         <v>362</v>
@@ -15211,17 +15271,17 @@
       <c r="K178" t="s">
         <v>1288</v>
       </c>
-      <c r="M178" t="s">
-        <v>1397</v>
+      <c r="M178" s="2" t="s">
+        <v>1509</v>
       </c>
       <c r="N178" t="s">
-        <v>1869</v>
+        <v>1889</v>
       </c>
       <c r="O178" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P178" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q178" t="s">
         <v>212</v>
@@ -15253,13 +15313,13 @@
         <v>1364</v>
       </c>
       <c r="N179" t="s">
-        <v>1870</v>
+        <v>1890</v>
       </c>
       <c r="O179" t="s">
-        <v>2102</v>
+        <v>2122</v>
       </c>
       <c r="P179" t="s">
-        <v>2115</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -15297,16 +15357,16 @@
         <v>1288</v>
       </c>
       <c r="M180" s="2" t="s">
-        <v>1502</v>
+        <v>1510</v>
       </c>
       <c r="N180" t="s">
-        <v>1871</v>
+        <v>1891</v>
       </c>
       <c r="O180" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P180" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R180" t="s">
         <v>214</v>
@@ -15347,16 +15407,16 @@
         <v>1301</v>
       </c>
       <c r="M181" s="2" t="s">
-        <v>1503</v>
+        <v>1511</v>
       </c>
       <c r="N181" t="s">
-        <v>1872</v>
+        <v>1892</v>
       </c>
       <c r="O181" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P181" t="s">
-        <v>2114</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -15394,16 +15454,16 @@
         <v>1288</v>
       </c>
       <c r="M182" s="2" t="s">
-        <v>1504</v>
+        <v>1512</v>
       </c>
       <c r="N182" t="s">
-        <v>1873</v>
+        <v>1893</v>
       </c>
       <c r="O182" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P182" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R182" t="s">
         <v>437</v>
@@ -15441,16 +15501,16 @@
         <v>1059</v>
       </c>
       <c r="M183" s="2" t="s">
-        <v>1505</v>
+        <v>1513</v>
       </c>
       <c r="N183" t="s">
-        <v>1874</v>
+        <v>1894</v>
       </c>
       <c r="O183" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P183" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R183" t="s">
         <v>437</v>
@@ -15482,13 +15542,13 @@
         <v>1364</v>
       </c>
       <c r="N184" t="s">
-        <v>1875</v>
+        <v>1895</v>
       </c>
       <c r="O184" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P184" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R184" t="s">
         <v>437</v>
@@ -15529,16 +15589,16 @@
         <v>1059</v>
       </c>
       <c r="M185" s="2" t="s">
-        <v>1506</v>
+        <v>1514</v>
       </c>
       <c r="N185" t="s">
-        <v>1876</v>
+        <v>1896</v>
       </c>
       <c r="O185" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P185" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R185" t="s">
         <v>437</v>
@@ -15579,16 +15639,16 @@
         <v>1288</v>
       </c>
       <c r="M186" s="2" t="s">
-        <v>1507</v>
+        <v>1515</v>
       </c>
       <c r="N186" t="s">
-        <v>1877</v>
+        <v>1897</v>
       </c>
       <c r="O186" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P186" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R186" t="s">
         <v>437</v>
@@ -15629,16 +15689,16 @@
         <v>1288</v>
       </c>
       <c r="M187" s="2" t="s">
-        <v>1508</v>
+        <v>1516</v>
       </c>
       <c r="N187" t="s">
-        <v>1878</v>
+        <v>1898</v>
       </c>
       <c r="O187" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P187" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R187" t="s">
         <v>437</v>
@@ -15679,16 +15739,16 @@
         <v>1288</v>
       </c>
       <c r="M188" s="2" t="s">
-        <v>1509</v>
+        <v>1517</v>
       </c>
       <c r="N188" t="s">
-        <v>1879</v>
+        <v>1899</v>
       </c>
       <c r="O188" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P188" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R188" t="s">
         <v>437</v>
@@ -15729,16 +15789,16 @@
         <v>1301</v>
       </c>
       <c r="M189" s="2" t="s">
-        <v>1510</v>
+        <v>1518</v>
       </c>
       <c r="N189" t="s">
-        <v>1880</v>
+        <v>1900</v>
       </c>
       <c r="O189" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P189" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R189" t="s">
         <v>437</v>
@@ -15779,16 +15839,16 @@
         <v>1059</v>
       </c>
       <c r="M190" s="2" t="s">
-        <v>1511</v>
+        <v>1519</v>
       </c>
       <c r="N190" t="s">
-        <v>1881</v>
+        <v>1901</v>
       </c>
       <c r="O190" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P190" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R190" t="s">
         <v>437</v>
@@ -15829,16 +15889,16 @@
         <v>1288</v>
       </c>
       <c r="M191" s="2" t="s">
-        <v>1512</v>
+        <v>1520</v>
       </c>
       <c r="N191" t="s">
-        <v>1882</v>
+        <v>1902</v>
       </c>
       <c r="O191" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P191" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R191" t="s">
         <v>437</v>
@@ -15879,16 +15939,16 @@
         <v>1311</v>
       </c>
       <c r="M192" s="2" t="s">
-        <v>1513</v>
+        <v>1521</v>
       </c>
       <c r="N192" t="s">
-        <v>1883</v>
+        <v>1903</v>
       </c>
       <c r="O192" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P192" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R192" t="s">
         <v>437</v>
@@ -15929,16 +15989,16 @@
         <v>1288</v>
       </c>
       <c r="M193" s="2" t="s">
-        <v>1514</v>
+        <v>1522</v>
       </c>
       <c r="N193" t="s">
-        <v>1884</v>
+        <v>1904</v>
       </c>
       <c r="O193" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P193" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R193" t="s">
         <v>437</v>
@@ -15970,13 +16030,13 @@
         <v>1364</v>
       </c>
       <c r="N194" t="s">
-        <v>1885</v>
+        <v>1905</v>
       </c>
       <c r="O194" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P194" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R194" t="s">
         <v>437</v>
@@ -16016,17 +16076,17 @@
       <c r="K195" t="s">
         <v>1059</v>
       </c>
-      <c r="M195" t="s">
-        <v>1397</v>
+      <c r="M195" s="2" t="s">
+        <v>1523</v>
       </c>
       <c r="N195" t="s">
-        <v>1886</v>
+        <v>1906</v>
       </c>
       <c r="O195" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P195" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R195" t="s">
         <v>437</v>
@@ -16064,16 +16124,16 @@
         <v>1059</v>
       </c>
       <c r="M196" s="2" t="s">
-        <v>1515</v>
+        <v>1524</v>
       </c>
       <c r="N196" t="s">
-        <v>1887</v>
+        <v>1907</v>
       </c>
       <c r="O196" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P196" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R196" t="s">
         <v>437</v>
@@ -16114,16 +16174,16 @@
         <v>1288</v>
       </c>
       <c r="M197" s="2" t="s">
-        <v>1516</v>
+        <v>1525</v>
       </c>
       <c r="N197" t="s">
-        <v>1888</v>
+        <v>1908</v>
       </c>
       <c r="O197" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P197" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R197" t="s">
         <v>437</v>
@@ -16164,16 +16224,16 @@
         <v>1330</v>
       </c>
       <c r="M198" s="2" t="s">
-        <v>1517</v>
+        <v>1526</v>
       </c>
       <c r="N198" t="s">
-        <v>1889</v>
+        <v>1909</v>
       </c>
       <c r="O198" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P198" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R198" t="s">
         <v>437</v>
@@ -16214,16 +16274,16 @@
         <v>1288</v>
       </c>
       <c r="M199" s="2" t="s">
-        <v>1518</v>
+        <v>1527</v>
       </c>
       <c r="N199" t="s">
-        <v>1890</v>
+        <v>1910</v>
       </c>
       <c r="O199" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P199" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R199" t="s">
         <v>437</v>
@@ -16264,16 +16324,16 @@
         <v>1290</v>
       </c>
       <c r="M200" s="2" t="s">
-        <v>1519</v>
+        <v>1528</v>
       </c>
       <c r="N200" t="s">
-        <v>1891</v>
+        <v>1911</v>
       </c>
       <c r="O200" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P200" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R200" t="s">
         <v>437</v>
@@ -16314,16 +16374,16 @@
         <v>1331</v>
       </c>
       <c r="M201" s="2" t="s">
-        <v>1520</v>
+        <v>1529</v>
       </c>
       <c r="N201" t="s">
-        <v>1892</v>
+        <v>1912</v>
       </c>
       <c r="O201" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P201" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R201" t="s">
         <v>437</v>
@@ -16364,16 +16424,16 @@
         <v>1290</v>
       </c>
       <c r="M202" s="2" t="s">
-        <v>1521</v>
+        <v>1530</v>
       </c>
       <c r="N202" t="s">
-        <v>1893</v>
+        <v>1913</v>
       </c>
       <c r="O202" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P202" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R202" t="s">
         <v>437</v>
@@ -16414,16 +16474,16 @@
         <v>1059</v>
       </c>
       <c r="M203" s="2" t="s">
-        <v>1522</v>
+        <v>1531</v>
       </c>
       <c r="N203" t="s">
-        <v>1894</v>
+        <v>1914</v>
       </c>
       <c r="O203" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P203" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R203" t="s">
         <v>437</v>
@@ -16464,16 +16524,16 @@
         <v>1288</v>
       </c>
       <c r="M204" s="2" t="s">
-        <v>1523</v>
+        <v>1532</v>
       </c>
       <c r="N204" t="s">
-        <v>1895</v>
+        <v>1915</v>
       </c>
       <c r="O204" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P204" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R204" t="s">
         <v>437</v>
@@ -16511,16 +16571,16 @@
         <v>1332</v>
       </c>
       <c r="M205" s="2" t="s">
-        <v>1524</v>
+        <v>1533</v>
       </c>
       <c r="N205" t="s">
-        <v>1896</v>
+        <v>1916</v>
       </c>
       <c r="O205" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P205" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R205" t="s">
         <v>437</v>
@@ -16561,16 +16621,16 @@
         <v>1290</v>
       </c>
       <c r="M206" s="2" t="s">
-        <v>1525</v>
+        <v>1534</v>
       </c>
       <c r="N206" t="s">
-        <v>1897</v>
+        <v>1917</v>
       </c>
       <c r="O206" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P206" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R206" t="s">
         <v>437</v>
@@ -16608,16 +16668,16 @@
         <v>1333</v>
       </c>
       <c r="M207" s="2" t="s">
-        <v>1526</v>
+        <v>1535</v>
       </c>
       <c r="N207" t="s">
-        <v>1898</v>
+        <v>1918</v>
       </c>
       <c r="O207" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P207" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R207" t="s">
         <v>437</v>
@@ -16658,16 +16718,16 @@
         <v>1290</v>
       </c>
       <c r="M208" s="2" t="s">
-        <v>1527</v>
+        <v>1536</v>
       </c>
       <c r="N208" t="s">
-        <v>1899</v>
+        <v>1919</v>
       </c>
       <c r="O208" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P208" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R208" t="s">
         <v>437</v>
@@ -16708,16 +16768,16 @@
         <v>1301</v>
       </c>
       <c r="M209" s="2" t="s">
-        <v>1528</v>
+        <v>1537</v>
       </c>
       <c r="N209" t="s">
-        <v>1900</v>
+        <v>1920</v>
       </c>
       <c r="O209" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P209" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -16755,16 +16815,16 @@
         <v>1288</v>
       </c>
       <c r="M210" s="2" t="s">
-        <v>1529</v>
+        <v>1538</v>
       </c>
       <c r="N210" t="s">
-        <v>1901</v>
+        <v>1921</v>
       </c>
       <c r="O210" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P210" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q210" t="s">
         <v>200</v>
@@ -16805,16 +16865,16 @@
         <v>1334</v>
       </c>
       <c r="M211" s="2" t="s">
-        <v>1530</v>
+        <v>1539</v>
       </c>
       <c r="N211" t="s">
-        <v>1902</v>
+        <v>1922</v>
       </c>
       <c r="O211" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P211" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q211" t="s">
         <v>157</v>
@@ -16855,16 +16915,16 @@
         <v>1290</v>
       </c>
       <c r="M212" s="2" t="s">
-        <v>1531</v>
+        <v>1540</v>
       </c>
       <c r="N212" t="s">
-        <v>1903</v>
+        <v>1923</v>
       </c>
       <c r="O212" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P212" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q212" t="s">
         <v>431</v>
@@ -16905,16 +16965,16 @@
         <v>1293</v>
       </c>
       <c r="M213" s="2" t="s">
-        <v>1532</v>
+        <v>1541</v>
       </c>
       <c r="N213" t="s">
-        <v>1904</v>
+        <v>1924</v>
       </c>
       <c r="O213" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P213" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R213" t="s">
         <v>174</v>
@@ -16955,16 +17015,16 @@
         <v>1301</v>
       </c>
       <c r="M214" s="2" t="s">
-        <v>1533</v>
+        <v>1542</v>
       </c>
       <c r="N214" t="s">
-        <v>1905</v>
+        <v>1925</v>
       </c>
       <c r="O214" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P214" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q214" t="s">
         <v>289</v>
@@ -17002,16 +17062,16 @@
         <v>1335</v>
       </c>
       <c r="M215" s="2" t="s">
-        <v>1534</v>
+        <v>1543</v>
       </c>
       <c r="N215" t="s">
-        <v>1906</v>
+        <v>1926</v>
       </c>
       <c r="O215" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P215" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -17049,16 +17109,16 @@
         <v>1059</v>
       </c>
       <c r="M216" s="2" t="s">
-        <v>1535</v>
+        <v>1544</v>
       </c>
       <c r="N216" t="s">
-        <v>1907</v>
+        <v>1927</v>
       </c>
       <c r="O216" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P216" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q216" t="s">
         <v>208</v>
@@ -17099,16 +17159,16 @@
         <v>1288</v>
       </c>
       <c r="M217" s="2" t="s">
-        <v>1536</v>
+        <v>1545</v>
       </c>
       <c r="N217" t="s">
-        <v>1908</v>
+        <v>1928</v>
       </c>
       <c r="O217" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P217" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q217" t="s">
         <v>340</v>
@@ -17128,13 +17188,13 @@
         <v>1050</v>
       </c>
       <c r="N218" t="s">
-        <v>1909</v>
+        <v>1929</v>
       </c>
       <c r="O218" t="s">
-        <v>2100</v>
+        <v>2120</v>
       </c>
       <c r="P218" t="s">
-        <v>2110</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -17169,16 +17229,16 @@
         <v>1059</v>
       </c>
       <c r="M219" s="2" t="s">
-        <v>1537</v>
+        <v>1546</v>
       </c>
       <c r="N219" t="s">
-        <v>1910</v>
+        <v>1930</v>
       </c>
       <c r="O219" t="s">
-        <v>2100</v>
+        <v>2120</v>
       </c>
       <c r="P219" t="s">
-        <v>2110</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -17215,17 +17275,17 @@
       <c r="K220" t="s">
         <v>1288</v>
       </c>
-      <c r="M220" t="s">
-        <v>1397</v>
+      <c r="M220" s="2" t="s">
+        <v>1547</v>
       </c>
       <c r="N220" t="s">
-        <v>1911</v>
+        <v>1931</v>
       </c>
       <c r="O220" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P220" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q220" t="s">
         <v>128</v>
@@ -17266,16 +17326,16 @@
         <v>1288</v>
       </c>
       <c r="M221" s="2" t="s">
-        <v>1538</v>
+        <v>1548</v>
       </c>
       <c r="N221" t="s">
-        <v>1912</v>
+        <v>1932</v>
       </c>
       <c r="O221" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P221" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q221" t="s">
         <v>371</v>
@@ -17304,16 +17364,16 @@
         <v>1059</v>
       </c>
       <c r="M222" t="s">
-        <v>1397</v>
+        <v>1364</v>
       </c>
       <c r="N222" t="s">
-        <v>1913</v>
+        <v>1933</v>
       </c>
       <c r="O222" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P222" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q222" t="s">
         <v>420</v>
@@ -17354,19 +17414,19 @@
         <v>1336</v>
       </c>
       <c r="M223" s="2" t="s">
-        <v>1539</v>
+        <v>1549</v>
       </c>
       <c r="N223" t="s">
-        <v>1914</v>
+        <v>1934</v>
       </c>
       <c r="O223" t="s">
-        <v>2107</v>
+        <v>2127</v>
       </c>
       <c r="P223" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
       <c r="R223" t="s">
-        <v>2119</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -17404,16 +17464,16 @@
         <v>1337</v>
       </c>
       <c r="M224" s="2" t="s">
-        <v>1540</v>
+        <v>1550</v>
       </c>
       <c r="N224" t="s">
-        <v>1915</v>
+        <v>1935</v>
       </c>
       <c r="O224" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P224" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -17451,16 +17511,16 @@
         <v>1338</v>
       </c>
       <c r="M225" s="2" t="s">
-        <v>1541</v>
+        <v>1551</v>
       </c>
       <c r="N225" t="s">
-        <v>1916</v>
+        <v>1936</v>
       </c>
       <c r="O225" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P225" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -17498,16 +17558,16 @@
         <v>1059</v>
       </c>
       <c r="M226" s="2" t="s">
-        <v>1542</v>
+        <v>1552</v>
       </c>
       <c r="N226" t="s">
-        <v>1917</v>
+        <v>1937</v>
       </c>
       <c r="O226" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P226" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q226" t="s">
         <v>373</v>
@@ -17548,16 +17608,16 @@
         <v>1059</v>
       </c>
       <c r="M227" s="2" t="s">
-        <v>1543</v>
+        <v>1553</v>
       </c>
       <c r="N227" t="s">
-        <v>1918</v>
+        <v>1938</v>
       </c>
       <c r="O227" t="s">
-        <v>2105</v>
+        <v>2125</v>
       </c>
       <c r="P227" t="s">
-        <v>2113</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -17595,16 +17655,16 @@
         <v>1059</v>
       </c>
       <c r="M228" s="2" t="s">
-        <v>1544</v>
+        <v>1554</v>
       </c>
       <c r="N228" t="s">
-        <v>1919</v>
+        <v>1939</v>
       </c>
       <c r="O228" t="s">
-        <v>2105</v>
+        <v>2125</v>
       </c>
       <c r="P228" t="s">
-        <v>2113</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -17639,16 +17699,16 @@
         <v>1059</v>
       </c>
       <c r="M229" s="2" t="s">
-        <v>1545</v>
+        <v>1555</v>
       </c>
       <c r="N229" t="s">
-        <v>1920</v>
+        <v>1940</v>
       </c>
       <c r="O229" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P229" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q229" t="s">
         <v>179</v>
@@ -17689,16 +17749,16 @@
         <v>1059</v>
       </c>
       <c r="M230" s="2" t="s">
-        <v>1546</v>
+        <v>1556</v>
       </c>
       <c r="N230" t="s">
-        <v>1921</v>
+        <v>1941</v>
       </c>
       <c r="O230" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P230" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q230" t="s">
         <v>289</v>
@@ -17739,16 +17799,16 @@
         <v>1288</v>
       </c>
       <c r="M231" s="2" t="s">
-        <v>1547</v>
+        <v>1557</v>
       </c>
       <c r="N231" t="s">
-        <v>1922</v>
+        <v>1942</v>
       </c>
       <c r="O231" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P231" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q231" t="s">
         <v>362</v>
@@ -17789,16 +17849,16 @@
         <v>1288</v>
       </c>
       <c r="M232" s="2" t="s">
-        <v>1548</v>
+        <v>1558</v>
       </c>
       <c r="N232" t="s">
-        <v>1923</v>
+        <v>1943</v>
       </c>
       <c r="O232" t="s">
-        <v>2107</v>
+        <v>2127</v>
       </c>
       <c r="P232" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R232" t="s">
         <v>280</v>
@@ -17839,16 +17899,16 @@
         <v>1290</v>
       </c>
       <c r="M233" s="2" t="s">
-        <v>1549</v>
+        <v>1559</v>
       </c>
       <c r="N233" t="s">
-        <v>1924</v>
+        <v>1944</v>
       </c>
       <c r="O233" t="s">
-        <v>2105</v>
+        <v>2125</v>
       </c>
       <c r="P233" t="s">
-        <v>2113</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -17883,16 +17943,16 @@
         <v>1059</v>
       </c>
       <c r="M234" s="2" t="s">
-        <v>1550</v>
+        <v>1560</v>
       </c>
       <c r="N234" t="s">
-        <v>1925</v>
+        <v>1945</v>
       </c>
       <c r="O234" t="s">
-        <v>2100</v>
+        <v>2120</v>
       </c>
       <c r="P234" t="s">
-        <v>2110</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -17918,13 +17978,13 @@
         <v>1364</v>
       </c>
       <c r="N235" t="s">
-        <v>1926</v>
+        <v>1946</v>
       </c>
       <c r="O235" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P235" t="s">
-        <v>2115</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -17962,16 +18022,16 @@
         <v>1288</v>
       </c>
       <c r="M236" s="2" t="s">
-        <v>1551</v>
+        <v>1561</v>
       </c>
       <c r="N236" t="s">
-        <v>1927</v>
+        <v>1947</v>
       </c>
       <c r="O236" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P236" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -18009,16 +18069,16 @@
         <v>1288</v>
       </c>
       <c r="M237" s="2" t="s">
-        <v>1552</v>
+        <v>1562</v>
       </c>
       <c r="N237" t="s">
-        <v>1928</v>
+        <v>1948</v>
       </c>
       <c r="O237" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P237" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q237" t="s">
         <v>128</v>
@@ -18056,16 +18116,16 @@
         <v>1059</v>
       </c>
       <c r="M238" s="2" t="s">
-        <v>1553</v>
+        <v>1563</v>
       </c>
       <c r="N238" t="s">
-        <v>1929</v>
+        <v>1949</v>
       </c>
       <c r="O238" t="s">
-        <v>2107</v>
+        <v>2127</v>
       </c>
       <c r="P238" t="s">
-        <v>2114</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -18103,16 +18163,16 @@
         <v>1059</v>
       </c>
       <c r="M239" s="2" t="s">
-        <v>1554</v>
+        <v>1564</v>
       </c>
       <c r="N239" t="s">
-        <v>1930</v>
+        <v>1950</v>
       </c>
       <c r="O239" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P239" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q239" t="s">
         <v>125</v>
@@ -18153,16 +18213,16 @@
         <v>1059</v>
       </c>
       <c r="M240" s="2" t="s">
-        <v>1555</v>
+        <v>1565</v>
       </c>
       <c r="N240" t="s">
-        <v>1931</v>
+        <v>1951</v>
       </c>
       <c r="O240" t="s">
-        <v>2102</v>
+        <v>2122</v>
       </c>
       <c r="P240" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -18200,16 +18260,16 @@
         <v>1288</v>
       </c>
       <c r="M241" s="2" t="s">
-        <v>1556</v>
+        <v>1566</v>
       </c>
       <c r="N241" t="s">
-        <v>1932</v>
+        <v>1952</v>
       </c>
       <c r="O241" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P241" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q241" t="s">
         <v>188</v>
@@ -18250,16 +18310,16 @@
         <v>1288</v>
       </c>
       <c r="M242" s="2" t="s">
-        <v>1557</v>
+        <v>1567</v>
       </c>
       <c r="N242" t="s">
-        <v>1933</v>
+        <v>1953</v>
       </c>
       <c r="O242" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P242" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q242" t="s">
         <v>212</v>
@@ -18300,16 +18360,16 @@
         <v>1285</v>
       </c>
       <c r="M243" s="2" t="s">
-        <v>1558</v>
+        <v>1568</v>
       </c>
       <c r="N243" t="s">
-        <v>1934</v>
+        <v>1954</v>
       </c>
       <c r="O243" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P243" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -18338,13 +18398,13 @@
         <v>1364</v>
       </c>
       <c r="N244" t="s">
-        <v>1935</v>
+        <v>1955</v>
       </c>
       <c r="O244" t="s">
-        <v>2102</v>
+        <v>2122</v>
       </c>
       <c r="P244" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -18382,16 +18442,16 @@
         <v>1059</v>
       </c>
       <c r="M245" s="2" t="s">
-        <v>1559</v>
+        <v>1569</v>
       </c>
       <c r="N245" t="s">
-        <v>1936</v>
+        <v>1956</v>
       </c>
       <c r="O245" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P245" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q245" t="s">
         <v>268</v>
@@ -18432,16 +18492,16 @@
         <v>1290</v>
       </c>
       <c r="M246" s="2" t="s">
-        <v>1560</v>
+        <v>1570</v>
       </c>
       <c r="N246" t="s">
-        <v>1937</v>
+        <v>1957</v>
       </c>
       <c r="O246" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P246" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -18479,16 +18539,16 @@
         <v>1290</v>
       </c>
       <c r="M247" s="2" t="s">
-        <v>1561</v>
+        <v>1571</v>
       </c>
       <c r="N247" t="s">
-        <v>1938</v>
+        <v>1958</v>
       </c>
       <c r="O247" t="s">
-        <v>2107</v>
+        <v>2127</v>
       </c>
       <c r="P247" t="s">
-        <v>2114</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -18526,16 +18586,16 @@
         <v>1288</v>
       </c>
       <c r="M248" s="2" t="s">
-        <v>1562</v>
+        <v>1572</v>
       </c>
       <c r="N248" t="s">
-        <v>1939</v>
+        <v>1959</v>
       </c>
       <c r="O248" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P248" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -18573,16 +18633,16 @@
         <v>1290</v>
       </c>
       <c r="M249" s="2" t="s">
-        <v>1563</v>
+        <v>1573</v>
       </c>
       <c r="N249" t="s">
-        <v>1940</v>
+        <v>1960</v>
       </c>
       <c r="O249" t="s">
-        <v>2107</v>
+        <v>2127</v>
       </c>
       <c r="P249" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R249" t="s">
         <v>280</v>
@@ -18620,16 +18680,16 @@
         <v>1059</v>
       </c>
       <c r="M250" s="2" t="s">
-        <v>1564</v>
+        <v>1574</v>
       </c>
       <c r="N250" t="s">
-        <v>1941</v>
+        <v>1961</v>
       </c>
       <c r="O250" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P250" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q250" t="s">
         <v>403</v>
@@ -18670,16 +18730,16 @@
         <v>1290</v>
       </c>
       <c r="M251" s="2" t="s">
-        <v>1565</v>
+        <v>1575</v>
       </c>
       <c r="N251" t="s">
-        <v>1942</v>
+        <v>1962</v>
       </c>
       <c r="O251" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P251" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q251" t="s">
         <v>208</v>
@@ -18714,16 +18774,16 @@
         <v>1059</v>
       </c>
       <c r="M252" s="2" t="s">
-        <v>1566</v>
+        <v>1576</v>
       </c>
       <c r="N252" t="s">
-        <v>1943</v>
+        <v>1963</v>
       </c>
       <c r="O252" t="s">
-        <v>2102</v>
+        <v>2122</v>
       </c>
       <c r="P252" t="s">
-        <v>2115</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -18761,16 +18821,16 @@
         <v>1288</v>
       </c>
       <c r="M253" s="2" t="s">
-        <v>1567</v>
+        <v>1577</v>
       </c>
       <c r="N253" t="s">
-        <v>1944</v>
+        <v>1964</v>
       </c>
       <c r="O253" t="s">
-        <v>2107</v>
+        <v>2127</v>
       </c>
       <c r="P253" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
       <c r="R253" t="s">
         <v>280</v>
@@ -18811,16 +18871,16 @@
         <v>1290</v>
       </c>
       <c r="M254" s="2" t="s">
-        <v>1568</v>
+        <v>1578</v>
       </c>
       <c r="N254" t="s">
-        <v>1945</v>
+        <v>1965</v>
       </c>
       <c r="O254" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P254" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q254" t="s">
         <v>268</v>
@@ -18860,17 +18920,17 @@
       <c r="K255" t="s">
         <v>1339</v>
       </c>
-      <c r="M255" t="s">
-        <v>1397</v>
+      <c r="M255" s="2" t="s">
+        <v>1579</v>
       </c>
       <c r="N255" t="s">
-        <v>1946</v>
+        <v>1966</v>
       </c>
       <c r="O255" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P255" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -18908,16 +18968,16 @@
         <v>1059</v>
       </c>
       <c r="M256" s="2" t="s">
-        <v>1569</v>
+        <v>1580</v>
       </c>
       <c r="N256" t="s">
-        <v>1947</v>
+        <v>1967</v>
       </c>
       <c r="O256" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P256" t="s">
-        <v>2115</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -18955,16 +19015,16 @@
         <v>1059</v>
       </c>
       <c r="M257" s="2" t="s">
-        <v>1570</v>
+        <v>1581</v>
       </c>
       <c r="N257" t="s">
-        <v>1948</v>
+        <v>1968</v>
       </c>
       <c r="O257" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P257" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q257" t="s">
         <v>403</v>
@@ -18996,13 +19056,13 @@
         <v>1364</v>
       </c>
       <c r="N258" t="s">
-        <v>1949</v>
+        <v>1969</v>
       </c>
       <c r="O258" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P258" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q258" t="s">
         <v>208</v>
@@ -19043,16 +19103,16 @@
         <v>1288</v>
       </c>
       <c r="M259" s="2" t="s">
-        <v>1571</v>
+        <v>1582</v>
       </c>
       <c r="N259" t="s">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="O259" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P259" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R259" t="s">
         <v>174</v>
@@ -19093,16 +19153,16 @@
         <v>1285</v>
       </c>
       <c r="M260" s="2" t="s">
-        <v>1572</v>
+        <v>1583</v>
       </c>
       <c r="N260" t="s">
-        <v>1951</v>
+        <v>1971</v>
       </c>
       <c r="O260" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P260" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -19140,16 +19200,16 @@
         <v>1301</v>
       </c>
       <c r="M261" s="2" t="s">
-        <v>1573</v>
+        <v>1584</v>
       </c>
       <c r="N261" t="s">
-        <v>1952</v>
+        <v>1972</v>
       </c>
       <c r="O261" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P261" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q261" t="s">
         <v>295</v>
@@ -19190,16 +19250,16 @@
         <v>1340</v>
       </c>
       <c r="M262" s="2" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="N262" t="s">
-        <v>1953</v>
+        <v>1973</v>
       </c>
       <c r="O262" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P262" t="s">
-        <v>2115</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -19237,16 +19297,16 @@
         <v>1341</v>
       </c>
       <c r="M263" s="2" t="s">
-        <v>1575</v>
+        <v>1586</v>
       </c>
       <c r="N263" t="s">
-        <v>1954</v>
+        <v>1974</v>
       </c>
       <c r="O263" t="s">
-        <v>2105</v>
+        <v>2125</v>
       </c>
       <c r="P263" t="s">
-        <v>2113</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -19284,16 +19344,16 @@
         <v>1288</v>
       </c>
       <c r="M264" s="2" t="s">
-        <v>1576</v>
+        <v>1587</v>
       </c>
       <c r="N264" t="s">
-        <v>1955</v>
+        <v>1975</v>
       </c>
       <c r="O264" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P264" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q264" t="s">
         <v>204</v>
@@ -19334,16 +19394,16 @@
         <v>1285</v>
       </c>
       <c r="M265" s="2" t="s">
-        <v>1577</v>
+        <v>1588</v>
       </c>
       <c r="N265" t="s">
-        <v>1956</v>
+        <v>1976</v>
       </c>
       <c r="O265" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P265" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -19381,16 +19441,16 @@
         <v>1288</v>
       </c>
       <c r="M266" s="2" t="s">
-        <v>1578</v>
+        <v>1589</v>
       </c>
       <c r="N266" t="s">
-        <v>1957</v>
+        <v>1977</v>
       </c>
       <c r="O266" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P266" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
       <c r="R266" t="s">
         <v>85</v>
@@ -19431,16 +19491,16 @@
         <v>1288</v>
       </c>
       <c r="M267" s="2" t="s">
-        <v>1579</v>
+        <v>1590</v>
       </c>
       <c r="N267" t="s">
-        <v>1958</v>
+        <v>1978</v>
       </c>
       <c r="O267" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P267" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -19478,16 +19538,16 @@
         <v>1288</v>
       </c>
       <c r="M268" s="2" t="s">
-        <v>1580</v>
+        <v>1591</v>
       </c>
       <c r="N268" t="s">
-        <v>1959</v>
+        <v>1979</v>
       </c>
       <c r="O268" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P268" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -19525,16 +19585,16 @@
         <v>1290</v>
       </c>
       <c r="M269" s="2" t="s">
-        <v>1581</v>
+        <v>1592</v>
       </c>
       <c r="N269" t="s">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="O269" t="s">
-        <v>2105</v>
+        <v>2125</v>
       </c>
       <c r="P269" t="s">
-        <v>2113</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -19572,16 +19632,16 @@
         <v>1288</v>
       </c>
       <c r="M270" s="2" t="s">
-        <v>1582</v>
+        <v>1593</v>
       </c>
       <c r="N270" t="s">
-        <v>1961</v>
+        <v>1981</v>
       </c>
       <c r="O270" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P270" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q270" t="s">
         <v>204</v>
@@ -19622,16 +19682,16 @@
         <v>1288</v>
       </c>
       <c r="M271" s="2" t="s">
-        <v>1583</v>
+        <v>1594</v>
       </c>
       <c r="N271" t="s">
-        <v>1962</v>
+        <v>1982</v>
       </c>
       <c r="O271" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P271" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -19669,19 +19729,19 @@
         <v>1288</v>
       </c>
       <c r="M272" s="2" t="s">
-        <v>1584</v>
+        <v>1595</v>
       </c>
       <c r="N272" t="s">
-        <v>1963</v>
+        <v>1983</v>
       </c>
       <c r="O272" t="s">
-        <v>2107</v>
+        <v>2127</v>
       </c>
       <c r="P272" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
       <c r="R272" t="s">
-        <v>2119</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -19716,16 +19776,16 @@
         <v>1059</v>
       </c>
       <c r="M273" s="2" t="s">
-        <v>1585</v>
+        <v>1596</v>
       </c>
       <c r="N273" t="s">
-        <v>1964</v>
+        <v>1984</v>
       </c>
       <c r="O273" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P273" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q273" t="s">
         <v>431</v>
@@ -19757,13 +19817,13 @@
         <v>1364</v>
       </c>
       <c r="N274" t="s">
-        <v>1965</v>
+        <v>1985</v>
       </c>
       <c r="O274" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P274" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q274" t="s">
         <v>373</v>
@@ -19804,16 +19864,16 @@
         <v>1288</v>
       </c>
       <c r="M275" s="2" t="s">
-        <v>1586</v>
+        <v>1597</v>
       </c>
       <c r="N275" t="s">
-        <v>1966</v>
+        <v>1986</v>
       </c>
       <c r="O275" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P275" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -19839,13 +19899,13 @@
         <v>1364</v>
       </c>
       <c r="N276" t="s">
-        <v>1967</v>
+        <v>1987</v>
       </c>
       <c r="O276" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P276" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q276" t="s">
         <v>204</v>
@@ -19886,16 +19946,16 @@
         <v>1343</v>
       </c>
       <c r="M277" s="2" t="s">
-        <v>1587</v>
+        <v>1598</v>
       </c>
       <c r="N277" t="s">
-        <v>1968</v>
+        <v>1988</v>
       </c>
       <c r="O277" t="s">
-        <v>2102</v>
+        <v>2122</v>
       </c>
       <c r="P277" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q277" t="s">
         <v>285</v>
@@ -19936,16 +19996,16 @@
         <v>1293</v>
       </c>
       <c r="M278" s="2" t="s">
-        <v>1588</v>
+        <v>1599</v>
       </c>
       <c r="N278" t="s">
-        <v>1969</v>
+        <v>1989</v>
       </c>
       <c r="O278" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P278" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R278" t="s">
         <v>174</v>
@@ -19980,13 +20040,13 @@
         <v>1364</v>
       </c>
       <c r="N279" t="s">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="O279" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P279" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q279" t="s">
         <v>157</v>
@@ -20027,16 +20087,16 @@
         <v>1059</v>
       </c>
       <c r="M280" s="2" t="s">
-        <v>1589</v>
+        <v>1600</v>
       </c>
       <c r="N280" t="s">
-        <v>1971</v>
+        <v>1991</v>
       </c>
       <c r="O280" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P280" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q280" t="s">
         <v>204</v>
@@ -20077,16 +20137,16 @@
         <v>1288</v>
       </c>
       <c r="M281" s="2" t="s">
-        <v>1590</v>
+        <v>1601</v>
       </c>
       <c r="N281" t="s">
-        <v>1972</v>
+        <v>1992</v>
       </c>
       <c r="O281" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P281" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q281" t="s">
         <v>148</v>
@@ -20127,16 +20187,16 @@
         <v>1301</v>
       </c>
       <c r="M282" s="2" t="s">
-        <v>1591</v>
+        <v>1602</v>
       </c>
       <c r="N282" t="s">
-        <v>1973</v>
+        <v>1993</v>
       </c>
       <c r="O282" t="s">
-        <v>2102</v>
+        <v>2122</v>
       </c>
       <c r="P282" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R282" t="s">
         <v>335</v>
@@ -20177,16 +20237,16 @@
         <v>1288</v>
       </c>
       <c r="M283" s="2" t="s">
-        <v>1592</v>
+        <v>1603</v>
       </c>
       <c r="N283" t="s">
-        <v>1974</v>
+        <v>1994</v>
       </c>
       <c r="O283" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P283" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R283" t="s">
         <v>437</v>
@@ -20226,17 +20286,17 @@
       <c r="K284" t="s">
         <v>1301</v>
       </c>
-      <c r="M284" t="s">
-        <v>1397</v>
+      <c r="M284" s="2" t="s">
+        <v>1604</v>
       </c>
       <c r="N284" t="s">
-        <v>1975</v>
+        <v>1995</v>
       </c>
       <c r="O284" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P284" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R284" t="s">
         <v>437</v>
@@ -20277,16 +20337,16 @@
         <v>1293</v>
       </c>
       <c r="M285" s="2" t="s">
-        <v>1593</v>
+        <v>1605</v>
       </c>
       <c r="N285" t="s">
-        <v>1976</v>
+        <v>1996</v>
       </c>
       <c r="O285" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P285" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R285" t="s">
         <v>437</v>
@@ -20327,16 +20387,16 @@
         <v>1290</v>
       </c>
       <c r="M286" s="2" t="s">
-        <v>1594</v>
+        <v>1606</v>
       </c>
       <c r="N286" t="s">
-        <v>1977</v>
+        <v>1997</v>
       </c>
       <c r="O286" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P286" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -20374,16 +20434,16 @@
         <v>1059</v>
       </c>
       <c r="M287" s="2" t="s">
-        <v>1595</v>
+        <v>1607</v>
       </c>
       <c r="N287" t="s">
-        <v>1978</v>
+        <v>1998</v>
       </c>
       <c r="O287" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P287" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q287" t="s">
         <v>403</v>
@@ -20421,16 +20481,16 @@
         <v>1344</v>
       </c>
       <c r="M288" s="2" t="s">
-        <v>1596</v>
+        <v>1608</v>
       </c>
       <c r="N288" t="s">
-        <v>1979</v>
+        <v>1999</v>
       </c>
       <c r="O288" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P288" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q288" t="s">
         <v>373</v>
@@ -20471,16 +20531,16 @@
         <v>1059</v>
       </c>
       <c r="M289" s="2" t="s">
-        <v>1597</v>
+        <v>1609</v>
       </c>
       <c r="N289" t="s">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="O289" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P289" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q289" t="s">
         <v>289</v>
@@ -20521,16 +20581,16 @@
         <v>1059</v>
       </c>
       <c r="M290" s="2" t="s">
-        <v>1598</v>
+        <v>1610</v>
       </c>
       <c r="N290" t="s">
-        <v>1981</v>
+        <v>2001</v>
       </c>
       <c r="O290" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P290" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q290" t="s">
         <v>179</v>
@@ -20568,16 +20628,16 @@
         <v>1059</v>
       </c>
       <c r="M291" s="2" t="s">
-        <v>1599</v>
+        <v>1611</v>
       </c>
       <c r="N291" t="s">
-        <v>1982</v>
+        <v>2002</v>
       </c>
       <c r="O291" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P291" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -20615,16 +20675,16 @@
         <v>1290</v>
       </c>
       <c r="M292" s="2" t="s">
-        <v>1600</v>
+        <v>1612</v>
       </c>
       <c r="N292" t="s">
-        <v>1983</v>
+        <v>2003</v>
       </c>
       <c r="O292" t="s">
-        <v>2102</v>
+        <v>2122</v>
       </c>
       <c r="P292" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q292" t="s">
         <v>285</v>
@@ -20665,16 +20725,16 @@
         <v>1293</v>
       </c>
       <c r="M293" s="2" t="s">
-        <v>1601</v>
+        <v>1613</v>
       </c>
       <c r="N293" t="s">
-        <v>1984</v>
+        <v>2004</v>
       </c>
       <c r="O293" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P293" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R293" t="s">
         <v>174</v>
@@ -20714,17 +20774,17 @@
       <c r="K294" t="s">
         <v>1311</v>
       </c>
-      <c r="M294" t="s">
-        <v>1397</v>
+      <c r="M294" s="2" t="s">
+        <v>1614</v>
       </c>
       <c r="N294" t="s">
-        <v>1985</v>
+        <v>2005</v>
       </c>
       <c r="O294" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P294" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R294" t="s">
         <v>415</v>
@@ -20765,16 +20825,16 @@
         <v>1288</v>
       </c>
       <c r="M295" s="2" t="s">
-        <v>1602</v>
+        <v>1615</v>
       </c>
       <c r="N295" t="s">
-        <v>1986</v>
+        <v>2006</v>
       </c>
       <c r="O295" t="s">
-        <v>2102</v>
+        <v>2122</v>
       </c>
       <c r="P295" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q295" t="s">
         <v>285</v>
@@ -20815,16 +20875,16 @@
         <v>1285</v>
       </c>
       <c r="M296" s="2" t="s">
-        <v>1603</v>
+        <v>1616</v>
       </c>
       <c r="N296" t="s">
-        <v>1987</v>
+        <v>2007</v>
       </c>
       <c r="O296" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P296" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -20862,16 +20922,16 @@
         <v>1288</v>
       </c>
       <c r="M297" s="2" t="s">
-        <v>1604</v>
+        <v>1617</v>
       </c>
       <c r="N297" t="s">
-        <v>1988</v>
+        <v>2008</v>
       </c>
       <c r="O297" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P297" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q297" t="s">
         <v>340</v>
@@ -20912,16 +20972,16 @@
         <v>1059</v>
       </c>
       <c r="M298" s="2" t="s">
-        <v>1605</v>
+        <v>1618</v>
       </c>
       <c r="N298" t="s">
-        <v>1989</v>
+        <v>2009</v>
       </c>
       <c r="O298" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P298" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R298" t="s">
         <v>214</v>
@@ -20959,13 +21019,13 @@
         <v>1364</v>
       </c>
       <c r="N299" t="s">
-        <v>1990</v>
+        <v>2010</v>
       </c>
       <c r="O299" t="s">
-        <v>2102</v>
+        <v>2122</v>
       </c>
       <c r="P299" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q299" t="s">
         <v>285</v>
@@ -21006,13 +21066,13 @@
         <v>1059</v>
       </c>
       <c r="N300" t="s">
-        <v>1991</v>
+        <v>2011</v>
       </c>
       <c r="O300" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P300" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q300" t="s">
         <v>200</v>
@@ -21053,16 +21113,16 @@
         <v>1288</v>
       </c>
       <c r="M301" s="2" t="s">
-        <v>1606</v>
+        <v>1619</v>
       </c>
       <c r="N301" t="s">
-        <v>1992</v>
+        <v>2012</v>
       </c>
       <c r="O301" t="s">
-        <v>2102</v>
+        <v>2122</v>
       </c>
       <c r="P301" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R301" t="s">
         <v>335</v>
@@ -21103,16 +21163,16 @@
         <v>1301</v>
       </c>
       <c r="M302" s="2" t="s">
-        <v>1607</v>
+        <v>1620</v>
       </c>
       <c r="N302" t="s">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="O302" t="s">
-        <v>2102</v>
+        <v>2122</v>
       </c>
       <c r="P302" t="s">
-        <v>2114</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -21150,16 +21210,16 @@
         <v>1285</v>
       </c>
       <c r="M303" s="2" t="s">
-        <v>1608</v>
+        <v>1621</v>
       </c>
       <c r="N303" t="s">
-        <v>1994</v>
+        <v>2014</v>
       </c>
       <c r="O303" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P303" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -21197,16 +21257,16 @@
         <v>1345</v>
       </c>
       <c r="M304" s="2" t="s">
-        <v>1609</v>
+        <v>1622</v>
       </c>
       <c r="N304" t="s">
-        <v>1995</v>
+        <v>2015</v>
       </c>
       <c r="O304" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P304" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -21241,16 +21301,16 @@
         <v>1059</v>
       </c>
       <c r="M305" s="2" t="s">
-        <v>1610</v>
+        <v>1623</v>
       </c>
       <c r="N305" t="s">
-        <v>1996</v>
+        <v>2016</v>
       </c>
       <c r="O305" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P305" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -21288,16 +21348,16 @@
         <v>1346</v>
       </c>
       <c r="M306" s="2" t="s">
-        <v>1611</v>
+        <v>1624</v>
       </c>
       <c r="N306" t="s">
-        <v>1997</v>
+        <v>2017</v>
       </c>
       <c r="O306" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P306" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R306" t="s">
         <v>415</v>
@@ -21338,16 +21398,16 @@
         <v>1288</v>
       </c>
       <c r="M307" s="2" t="s">
-        <v>1612</v>
+        <v>1625</v>
       </c>
       <c r="N307" t="s">
-        <v>1998</v>
+        <v>2018</v>
       </c>
       <c r="O307" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P307" t="s">
-        <v>2115</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -21385,16 +21445,16 @@
         <v>1288</v>
       </c>
       <c r="M308" s="2" t="s">
-        <v>1613</v>
+        <v>1626</v>
       </c>
       <c r="N308" t="s">
-        <v>1999</v>
+        <v>2019</v>
       </c>
       <c r="O308" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P308" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q308" t="s">
         <v>340</v>
@@ -21443,16 +21503,16 @@
         <v>1290</v>
       </c>
       <c r="M310" s="2" t="s">
-        <v>1614</v>
+        <v>1627</v>
       </c>
       <c r="N310" t="s">
-        <v>2000</v>
+        <v>2020</v>
       </c>
       <c r="O310" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P310" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q310" t="s">
         <v>86</v>
@@ -21496,16 +21556,16 @@
         <v>1059</v>
       </c>
       <c r="M311" s="2" t="s">
-        <v>1615</v>
+        <v>1628</v>
       </c>
       <c r="N311" t="s">
-        <v>2001</v>
+        <v>2021</v>
       </c>
       <c r="O311" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P311" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q311" t="s">
         <v>125</v>
@@ -21545,17 +21605,17 @@
       <c r="K312" t="s">
         <v>1288</v>
       </c>
-      <c r="M312" t="s">
-        <v>1397</v>
+      <c r="M312" s="2" t="s">
+        <v>1629</v>
       </c>
       <c r="N312" t="s">
-        <v>2002</v>
+        <v>2022</v>
       </c>
       <c r="O312" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P312" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
       <c r="R312" t="s">
         <v>417</v>
@@ -21596,16 +21656,16 @@
         <v>1290</v>
       </c>
       <c r="M313" s="2" t="s">
-        <v>1616</v>
+        <v>1630</v>
       </c>
       <c r="N313" t="s">
-        <v>2003</v>
+        <v>2023</v>
       </c>
       <c r="O313" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P313" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q313" t="s">
         <v>128</v>
@@ -21634,13 +21694,13 @@
         <v>1364</v>
       </c>
       <c r="N314" t="s">
-        <v>2004</v>
+        <v>2024</v>
       </c>
       <c r="O314" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P314" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q314" t="s">
         <v>212</v>
@@ -21681,16 +21741,16 @@
         <v>1347</v>
       </c>
       <c r="M315" s="2" t="s">
-        <v>1617</v>
+        <v>1631</v>
       </c>
       <c r="N315" t="s">
-        <v>2005</v>
+        <v>2025</v>
       </c>
       <c r="O315" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P315" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q315" t="s">
         <v>212</v>
@@ -21731,16 +21791,16 @@
         <v>1289</v>
       </c>
       <c r="M316" s="2" t="s">
-        <v>1618</v>
+        <v>1632</v>
       </c>
       <c r="N316" t="s">
-        <v>2006</v>
+        <v>2026</v>
       </c>
       <c r="O316" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P316" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q316" t="s">
         <v>119</v>
@@ -21781,16 +21841,16 @@
         <v>1285</v>
       </c>
       <c r="M317" s="2" t="s">
-        <v>1619</v>
+        <v>1633</v>
       </c>
       <c r="N317" t="s">
-        <v>2007</v>
+        <v>2027</v>
       </c>
       <c r="O317" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P317" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -21819,13 +21879,13 @@
         <v>1364</v>
       </c>
       <c r="N318" t="s">
-        <v>2008</v>
+        <v>2028</v>
       </c>
       <c r="O318" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P318" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q318" t="s">
         <v>268</v>
@@ -21866,16 +21926,16 @@
         <v>1288</v>
       </c>
       <c r="M319" s="2" t="s">
-        <v>1620</v>
+        <v>1634</v>
       </c>
       <c r="N319" t="s">
-        <v>2009</v>
+        <v>2029</v>
       </c>
       <c r="O319" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P319" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q319" t="s">
         <v>295</v>
@@ -21916,16 +21976,16 @@
         <v>1288</v>
       </c>
       <c r="M320" s="2" t="s">
-        <v>1621</v>
+        <v>1635</v>
       </c>
       <c r="N320" t="s">
-        <v>2010</v>
+        <v>2030</v>
       </c>
       <c r="O320" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P320" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q320" t="s">
         <v>204</v>
@@ -21966,16 +22026,16 @@
         <v>1059</v>
       </c>
       <c r="M321" s="2" t="s">
-        <v>1622</v>
+        <v>1636</v>
       </c>
       <c r="N321" t="s">
-        <v>2011</v>
+        <v>2031</v>
       </c>
       <c r="O321" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P321" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q321" t="s">
         <v>340</v>
@@ -22013,16 +22073,16 @@
         <v>1059</v>
       </c>
       <c r="M322" s="2" t="s">
-        <v>1623</v>
+        <v>1637</v>
       </c>
       <c r="N322" t="s">
-        <v>2012</v>
+        <v>2032</v>
       </c>
       <c r="O322" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P322" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q322" t="s">
         <v>362</v>
@@ -22063,16 +22123,16 @@
         <v>1059</v>
       </c>
       <c r="M323" s="2" t="s">
-        <v>1624</v>
+        <v>1638</v>
       </c>
       <c r="N323" t="s">
-        <v>2013</v>
+        <v>2033</v>
       </c>
       <c r="O323" t="s">
-        <v>2107</v>
+        <v>2127</v>
       </c>
       <c r="P323" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R323" t="s">
         <v>271</v>
@@ -22113,16 +22173,16 @@
         <v>1059</v>
       </c>
       <c r="M324" s="2" t="s">
-        <v>1625</v>
+        <v>1639</v>
       </c>
       <c r="N324" t="s">
-        <v>2014</v>
+        <v>2034</v>
       </c>
       <c r="O324" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P324" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -22160,16 +22220,16 @@
         <v>1290</v>
       </c>
       <c r="M325" s="2" t="s">
-        <v>1626</v>
+        <v>1640</v>
       </c>
       <c r="N325" t="s">
-        <v>2015</v>
+        <v>2035</v>
       </c>
       <c r="O325" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P325" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -22204,16 +22264,16 @@
         <v>1348</v>
       </c>
       <c r="M326" s="2" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="N326" t="s">
-        <v>2016</v>
+        <v>2036</v>
       </c>
       <c r="O326" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P326" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q326" t="s">
         <v>373</v>
@@ -22254,16 +22314,16 @@
         <v>1288</v>
       </c>
       <c r="M327" s="2" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="N327" t="s">
-        <v>2017</v>
+        <v>2037</v>
       </c>
       <c r="O327" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P327" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q327" t="s">
         <v>188</v>
@@ -22304,16 +22364,16 @@
         <v>1301</v>
       </c>
       <c r="M328" s="2" t="s">
-        <v>1629</v>
+        <v>1643</v>
       </c>
       <c r="N328" t="s">
-        <v>2018</v>
+        <v>2038</v>
       </c>
       <c r="O328" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P328" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R328" t="s">
         <v>214</v>
@@ -22353,17 +22413,17 @@
       <c r="K329" t="s">
         <v>1301</v>
       </c>
-      <c r="M329" t="s">
-        <v>1397</v>
+      <c r="M329" s="2" t="s">
+        <v>1644</v>
       </c>
       <c r="N329" t="s">
-        <v>2019</v>
+        <v>2039</v>
       </c>
       <c r="O329" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P329" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q329" t="s">
         <v>362</v>
@@ -22404,16 +22464,16 @@
         <v>1059</v>
       </c>
       <c r="M330" s="2" t="s">
-        <v>1630</v>
+        <v>1645</v>
       </c>
       <c r="N330" t="s">
-        <v>2020</v>
+        <v>2040</v>
       </c>
       <c r="O330" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P330" t="s">
-        <v>2115</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -22451,16 +22511,16 @@
         <v>1288</v>
       </c>
       <c r="M331" s="2" t="s">
-        <v>1631</v>
+        <v>1646</v>
       </c>
       <c r="N331" t="s">
-        <v>2021</v>
+        <v>2041</v>
       </c>
       <c r="O331" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P331" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q331" t="s">
         <v>362</v>
@@ -22501,16 +22561,16 @@
         <v>1288</v>
       </c>
       <c r="M332" s="2" t="s">
-        <v>1632</v>
+        <v>1647</v>
       </c>
       <c r="N332" t="s">
-        <v>2022</v>
+        <v>2042</v>
       </c>
       <c r="O332" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P332" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q332" t="s">
         <v>188</v>
@@ -22551,16 +22611,16 @@
         <v>1285</v>
       </c>
       <c r="M333" s="2" t="s">
-        <v>1633</v>
+        <v>1648</v>
       </c>
       <c r="N333" t="s">
-        <v>2023</v>
+        <v>2043</v>
       </c>
       <c r="O333" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P333" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -22598,16 +22658,16 @@
         <v>1293</v>
       </c>
       <c r="M334" s="2" t="s">
-        <v>1634</v>
+        <v>1649</v>
       </c>
       <c r="N334" t="s">
-        <v>2024</v>
+        <v>2044</v>
       </c>
       <c r="O334" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P334" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R334" t="s">
         <v>174</v>
@@ -22639,16 +22699,16 @@
         <v>1364</v>
       </c>
       <c r="N335" t="s">
-        <v>2025</v>
+        <v>2045</v>
       </c>
       <c r="O335" t="s">
-        <v>2107</v>
+        <v>2127</v>
       </c>
       <c r="P335" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
       <c r="R335" t="s">
-        <v>2119</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -22683,16 +22743,16 @@
         <v>1059</v>
       </c>
       <c r="M336" s="2" t="s">
-        <v>1635</v>
+        <v>1650</v>
       </c>
       <c r="N336" t="s">
-        <v>2026</v>
+        <v>2046</v>
       </c>
       <c r="O336" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P336" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -22730,16 +22790,16 @@
         <v>1288</v>
       </c>
       <c r="M337" s="2" t="s">
-        <v>1636</v>
+        <v>1651</v>
       </c>
       <c r="N337" t="s">
-        <v>2027</v>
+        <v>2047</v>
       </c>
       <c r="O337" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P337" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q337" t="s">
         <v>403</v>
@@ -22780,16 +22840,16 @@
         <v>1288</v>
       </c>
       <c r="M338" s="2" t="s">
-        <v>1637</v>
+        <v>1652</v>
       </c>
       <c r="N338" t="s">
-        <v>2028</v>
+        <v>2048</v>
       </c>
       <c r="O338" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P338" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q338" t="s">
         <v>170</v>
@@ -22830,16 +22890,16 @@
         <v>1349</v>
       </c>
       <c r="M339" s="2" t="s">
-        <v>1638</v>
+        <v>1653</v>
       </c>
       <c r="N339" t="s">
-        <v>2029</v>
+        <v>2049</v>
       </c>
       <c r="O339" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P339" t="s">
-        <v>2115</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -22877,16 +22937,16 @@
         <v>1301</v>
       </c>
       <c r="M340" s="2" t="s">
-        <v>1639</v>
+        <v>1654</v>
       </c>
       <c r="N340" t="s">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="O340" t="s">
-        <v>2107</v>
+        <v>2127</v>
       </c>
       <c r="P340" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R340" t="s">
         <v>271</v>
@@ -22927,16 +22987,16 @@
         <v>1290</v>
       </c>
       <c r="M341" s="2" t="s">
-        <v>1640</v>
+        <v>1655</v>
       </c>
       <c r="N341" t="s">
-        <v>2031</v>
+        <v>2051</v>
       </c>
       <c r="O341" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P341" t="s">
-        <v>2115</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -22974,16 +23034,16 @@
         <v>1059</v>
       </c>
       <c r="M342" s="2" t="s">
-        <v>1641</v>
+        <v>1656</v>
       </c>
       <c r="N342" t="s">
-        <v>2032</v>
+        <v>2052</v>
       </c>
       <c r="O342" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P342" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q342" t="s">
         <v>373</v>
@@ -23023,17 +23083,17 @@
       <c r="K343" t="s">
         <v>1288</v>
       </c>
-      <c r="M343" t="s">
-        <v>1397</v>
+      <c r="M343" s="2" t="s">
+        <v>1657</v>
       </c>
       <c r="N343" t="s">
-        <v>2033</v>
+        <v>2053</v>
       </c>
       <c r="O343" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P343" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q343" t="s">
         <v>200</v>
@@ -23062,13 +23122,13 @@
         <v>1364</v>
       </c>
       <c r="N344" t="s">
-        <v>2034</v>
+        <v>2054</v>
       </c>
       <c r="O344" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P344" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -23106,16 +23166,16 @@
         <v>1293</v>
       </c>
       <c r="M345" s="2" t="s">
-        <v>1642</v>
+        <v>1658</v>
       </c>
       <c r="N345" t="s">
-        <v>2035</v>
+        <v>2055</v>
       </c>
       <c r="O345" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P345" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R345" t="s">
         <v>174</v>
@@ -23156,16 +23216,16 @@
         <v>1059</v>
       </c>
       <c r="M346" s="2" t="s">
-        <v>1643</v>
+        <v>1659</v>
       </c>
       <c r="N346" t="s">
-        <v>2036</v>
+        <v>2056</v>
       </c>
       <c r="O346" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P346" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q346" t="s">
         <v>362</v>
@@ -23206,16 +23266,16 @@
         <v>1059</v>
       </c>
       <c r="M347" s="2" t="s">
-        <v>1644</v>
+        <v>1660</v>
       </c>
       <c r="N347" t="s">
-        <v>2037</v>
+        <v>2057</v>
       </c>
       <c r="O347" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P347" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q347" t="s">
         <v>373</v>
@@ -23256,16 +23316,16 @@
         <v>1288</v>
       </c>
       <c r="M348" s="2" t="s">
-        <v>1645</v>
+        <v>1661</v>
       </c>
       <c r="N348" t="s">
-        <v>2038</v>
+        <v>2058</v>
       </c>
       <c r="O348" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P348" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q348" t="s">
         <v>128</v>
@@ -23306,16 +23366,16 @@
         <v>1059</v>
       </c>
       <c r="M349" s="2" t="s">
-        <v>1646</v>
+        <v>1662</v>
       </c>
       <c r="N349" t="s">
-        <v>2039</v>
+        <v>2059</v>
       </c>
       <c r="O349" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P349" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -23353,16 +23413,16 @@
         <v>1059</v>
       </c>
       <c r="M350" s="2" t="s">
-        <v>1647</v>
+        <v>1663</v>
       </c>
       <c r="N350" t="s">
-        <v>2040</v>
+        <v>2060</v>
       </c>
       <c r="O350" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P350" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q350" t="s">
         <v>157</v>
@@ -23403,16 +23463,16 @@
         <v>1059</v>
       </c>
       <c r="M351" s="2" t="s">
-        <v>1648</v>
+        <v>1664</v>
       </c>
       <c r="N351" t="s">
-        <v>2041</v>
+        <v>2061</v>
       </c>
       <c r="O351" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P351" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q351" t="s">
         <v>179</v>
@@ -23449,17 +23509,17 @@
       <c r="K352" t="s">
         <v>1059</v>
       </c>
-      <c r="M352" t="s">
-        <v>1397</v>
+      <c r="M352" s="2" t="s">
+        <v>1665</v>
       </c>
       <c r="N352" t="s">
-        <v>2042</v>
+        <v>2062</v>
       </c>
       <c r="O352" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P352" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q352" t="s">
         <v>170</v>
@@ -23500,16 +23560,16 @@
         <v>1059</v>
       </c>
       <c r="M353" s="2" t="s">
-        <v>1649</v>
+        <v>1666</v>
       </c>
       <c r="N353" t="s">
-        <v>2043</v>
+        <v>2063</v>
       </c>
       <c r="O353" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P353" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q353" t="s">
         <v>200</v>
@@ -23550,16 +23610,16 @@
         <v>1285</v>
       </c>
       <c r="M354" s="2" t="s">
-        <v>1650</v>
+        <v>1667</v>
       </c>
       <c r="N354" t="s">
-        <v>2044</v>
+        <v>2064</v>
       </c>
       <c r="O354" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P354" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -23597,16 +23657,16 @@
         <v>1285</v>
       </c>
       <c r="M355" s="2" t="s">
-        <v>1651</v>
+        <v>1668</v>
       </c>
       <c r="N355" t="s">
-        <v>2045</v>
+        <v>2065</v>
       </c>
       <c r="O355" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P355" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -23644,16 +23704,16 @@
         <v>1288</v>
       </c>
       <c r="M356" s="2" t="s">
-        <v>1652</v>
+        <v>1669</v>
       </c>
       <c r="N356" t="s">
-        <v>2046</v>
+        <v>2066</v>
       </c>
       <c r="O356" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P356" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q356" t="s">
         <v>188</v>
@@ -23694,16 +23754,16 @@
         <v>1059</v>
       </c>
       <c r="M357" s="2" t="s">
-        <v>1653</v>
+        <v>1670</v>
       </c>
       <c r="N357" t="s">
-        <v>2047</v>
+        <v>2067</v>
       </c>
       <c r="O357" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P357" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -23741,16 +23801,16 @@
         <v>1288</v>
       </c>
       <c r="M358" s="2" t="s">
-        <v>1654</v>
+        <v>1671</v>
       </c>
       <c r="N358" t="s">
-        <v>2048</v>
+        <v>2068</v>
       </c>
       <c r="O358" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P358" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q358" t="s">
         <v>200</v>
@@ -23791,16 +23851,16 @@
         <v>1290</v>
       </c>
       <c r="M359" s="2" t="s">
-        <v>1655</v>
+        <v>1672</v>
       </c>
       <c r="N359" t="s">
-        <v>2049</v>
+        <v>2069</v>
       </c>
       <c r="O359" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P359" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -23835,16 +23895,16 @@
         <v>1059</v>
       </c>
       <c r="M360" s="2" t="s">
-        <v>1656</v>
+        <v>1673</v>
       </c>
       <c r="N360" t="s">
-        <v>2050</v>
+        <v>2070</v>
       </c>
       <c r="O360" t="s">
-        <v>2105</v>
+        <v>2125</v>
       </c>
       <c r="P360" t="s">
-        <v>2113</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -23882,16 +23942,16 @@
         <v>1059</v>
       </c>
       <c r="M361" s="2" t="s">
-        <v>1657</v>
+        <v>1674</v>
       </c>
       <c r="N361" t="s">
-        <v>2051</v>
+        <v>2071</v>
       </c>
       <c r="O361" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P361" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q361" t="s">
         <v>128</v>
@@ -23932,16 +23992,16 @@
         <v>1293</v>
       </c>
       <c r="M362" s="2" t="s">
-        <v>1658</v>
+        <v>1675</v>
       </c>
       <c r="N362" t="s">
-        <v>2052</v>
+        <v>2072</v>
       </c>
       <c r="O362" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P362" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R362" t="s">
         <v>174</v>
@@ -23982,16 +24042,16 @@
         <v>1288</v>
       </c>
       <c r="M363" s="2" t="s">
-        <v>1659</v>
+        <v>1676</v>
       </c>
       <c r="N363" t="s">
-        <v>2053</v>
+        <v>2073</v>
       </c>
       <c r="O363" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P363" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q363" t="s">
         <v>200</v>
@@ -24032,16 +24092,16 @@
         <v>1288</v>
       </c>
       <c r="M364" s="2" t="s">
-        <v>1660</v>
+        <v>1677</v>
       </c>
       <c r="N364" t="s">
-        <v>2054</v>
+        <v>2074</v>
       </c>
       <c r="O364" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P364" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q364" t="s">
         <v>157</v>
@@ -24082,16 +24142,16 @@
         <v>1290</v>
       </c>
       <c r="M365" s="2" t="s">
-        <v>1661</v>
+        <v>1678</v>
       </c>
       <c r="N365" t="s">
-        <v>2055</v>
+        <v>2075</v>
       </c>
       <c r="O365" t="s">
-        <v>2105</v>
+        <v>2125</v>
       </c>
       <c r="P365" t="s">
-        <v>2113</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -24129,16 +24189,16 @@
         <v>1285</v>
       </c>
       <c r="M366" s="2" t="s">
-        <v>1662</v>
+        <v>1679</v>
       </c>
       <c r="N366" t="s">
-        <v>2056</v>
+        <v>2076</v>
       </c>
       <c r="O366" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P366" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q366" t="s">
         <v>295</v>
@@ -24179,16 +24239,16 @@
         <v>1290</v>
       </c>
       <c r="M367" s="2" t="s">
-        <v>1663</v>
+        <v>1680</v>
       </c>
       <c r="N367" t="s">
-        <v>2057</v>
+        <v>2077</v>
       </c>
       <c r="O367" t="s">
-        <v>2102</v>
+        <v>2122</v>
       </c>
       <c r="P367" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R367" t="s">
         <v>421</v>
@@ -24229,16 +24289,16 @@
         <v>1290</v>
       </c>
       <c r="M368" s="2" t="s">
-        <v>1664</v>
+        <v>1681</v>
       </c>
       <c r="N368" t="s">
-        <v>2058</v>
+        <v>2078</v>
       </c>
       <c r="O368" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P368" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R368" t="s">
         <v>415</v>
@@ -24276,16 +24336,16 @@
         <v>1350</v>
       </c>
       <c r="M369" s="2" t="s">
-        <v>1665</v>
+        <v>1682</v>
       </c>
       <c r="N369" t="s">
-        <v>2059</v>
+        <v>2079</v>
       </c>
       <c r="O369" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P369" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="370" spans="1:17">
@@ -24323,16 +24383,16 @@
         <v>1288</v>
       </c>
       <c r="M370" s="2" t="s">
-        <v>1666</v>
+        <v>1683</v>
       </c>
       <c r="N370" t="s">
-        <v>2060</v>
+        <v>2080</v>
       </c>
       <c r="O370" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P370" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q370" t="s">
         <v>403</v>
@@ -24373,16 +24433,16 @@
         <v>1290</v>
       </c>
       <c r="M371" s="2" t="s">
-        <v>1667</v>
+        <v>1684</v>
       </c>
       <c r="N371" t="s">
-        <v>2061</v>
+        <v>2081</v>
       </c>
       <c r="O371" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P371" t="s">
-        <v>2115</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="372" spans="1:17">
@@ -24420,16 +24480,16 @@
         <v>1288</v>
       </c>
       <c r="M372" s="2" t="s">
-        <v>1668</v>
+        <v>1685</v>
       </c>
       <c r="N372" t="s">
-        <v>2062</v>
+        <v>2082</v>
       </c>
       <c r="O372" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P372" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q372" t="s">
         <v>188</v>
@@ -24470,16 +24530,16 @@
         <v>1288</v>
       </c>
       <c r="M373" s="2" t="s">
-        <v>1669</v>
+        <v>1686</v>
       </c>
       <c r="N373" t="s">
-        <v>2063</v>
+        <v>2083</v>
       </c>
       <c r="O373" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P373" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q373" t="s">
         <v>373</v>
@@ -24520,16 +24580,16 @@
         <v>1290</v>
       </c>
       <c r="M374" s="2" t="s">
-        <v>1670</v>
+        <v>1687</v>
       </c>
       <c r="N374" t="s">
-        <v>2064</v>
+        <v>2084</v>
       </c>
       <c r="O374" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P374" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q374" t="s">
         <v>148</v>
@@ -24561,7 +24621,7 @@
         <v>1364</v>
       </c>
       <c r="N375" t="s">
-        <v>2065</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="376" spans="1:17">
@@ -24599,16 +24659,16 @@
         <v>1352</v>
       </c>
       <c r="M376" s="2" t="s">
-        <v>1671</v>
+        <v>1688</v>
       </c>
       <c r="N376" t="s">
-        <v>2066</v>
+        <v>2086</v>
       </c>
       <c r="O376" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P376" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q376" t="s">
         <v>188</v>
@@ -24649,16 +24709,16 @@
         <v>1288</v>
       </c>
       <c r="M377" s="2" t="s">
-        <v>1672</v>
+        <v>1689</v>
       </c>
       <c r="N377" t="s">
-        <v>2067</v>
+        <v>2087</v>
       </c>
       <c r="O377" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P377" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="378" spans="1:17">
@@ -24696,16 +24756,16 @@
         <v>1290</v>
       </c>
       <c r="M378" s="2" t="s">
-        <v>1673</v>
+        <v>1690</v>
       </c>
       <c r="N378" t="s">
-        <v>2068</v>
+        <v>2088</v>
       </c>
       <c r="O378" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P378" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q378" t="s">
         <v>128</v>
@@ -24746,16 +24806,16 @@
         <v>1285</v>
       </c>
       <c r="M379" s="2" t="s">
-        <v>1674</v>
+        <v>1691</v>
       </c>
       <c r="N379" t="s">
-        <v>2069</v>
+        <v>2089</v>
       </c>
       <c r="O379" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P379" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="380" spans="1:17">
@@ -24793,16 +24853,16 @@
         <v>1059</v>
       </c>
       <c r="M380" s="2" t="s">
-        <v>1675</v>
+        <v>1692</v>
       </c>
       <c r="N380" t="s">
-        <v>2070</v>
+        <v>2090</v>
       </c>
       <c r="O380" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P380" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q380" t="s">
         <v>204</v>
@@ -24834,13 +24894,13 @@
         <v>1364</v>
       </c>
       <c r="N381" t="s">
-        <v>2071</v>
+        <v>2091</v>
       </c>
       <c r="O381" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P381" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q381" t="s">
         <v>212</v>
@@ -24881,16 +24941,16 @@
         <v>1285</v>
       </c>
       <c r="M382" s="2" t="s">
-        <v>1676</v>
+        <v>1693</v>
       </c>
       <c r="N382" t="s">
-        <v>2072</v>
+        <v>2092</v>
       </c>
       <c r="O382" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="P382" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="383" spans="1:17">
@@ -24928,16 +24988,16 @@
         <v>1311</v>
       </c>
       <c r="M383" s="2" t="s">
-        <v>1677</v>
+        <v>1694</v>
       </c>
       <c r="N383" t="s">
-        <v>2073</v>
+        <v>2093</v>
       </c>
       <c r="O383" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P383" t="s">
-        <v>2114</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="384" spans="1:17">
@@ -24966,13 +25026,13 @@
         <v>1364</v>
       </c>
       <c r="N384" t="s">
-        <v>2074</v>
+        <v>2094</v>
       </c>
       <c r="O384" t="s">
-        <v>2099</v>
+        <v>2119</v>
       </c>
       <c r="P384" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -25010,16 +25070,16 @@
         <v>1288</v>
       </c>
       <c r="M385" s="2" t="s">
-        <v>1678</v>
+        <v>1695</v>
       </c>
       <c r="N385" t="s">
-        <v>2075</v>
+        <v>2095</v>
       </c>
       <c r="O385" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P385" t="s">
-        <v>2114</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -25057,16 +25117,16 @@
         <v>1290</v>
       </c>
       <c r="M386" s="2" t="s">
-        <v>1679</v>
+        <v>1696</v>
       </c>
       <c r="N386" t="s">
-        <v>2076</v>
+        <v>2096</v>
       </c>
       <c r="O386" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P386" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q386" t="s">
         <v>295</v>
@@ -25106,17 +25166,17 @@
       <c r="K387" t="s">
         <v>1059</v>
       </c>
-      <c r="M387" t="s">
-        <v>1397</v>
+      <c r="M387" s="2" t="s">
+        <v>1697</v>
       </c>
       <c r="N387" t="s">
-        <v>2077</v>
+        <v>2097</v>
       </c>
       <c r="O387" t="s">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="P387" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q387" t="s">
         <v>371</v>
@@ -25157,16 +25217,16 @@
         <v>1290</v>
       </c>
       <c r="M388" s="2" t="s">
-        <v>1680</v>
+        <v>1698</v>
       </c>
       <c r="N388" t="s">
-        <v>2078</v>
+        <v>2098</v>
       </c>
       <c r="O388" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P388" t="s">
-        <v>2115</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -25204,16 +25264,16 @@
         <v>1293</v>
       </c>
       <c r="M389" s="2" t="s">
-        <v>1681</v>
+        <v>1699</v>
       </c>
       <c r="N389" t="s">
-        <v>2079</v>
+        <v>2099</v>
       </c>
       <c r="O389" t="s">
-        <v>2102</v>
+        <v>2122</v>
       </c>
       <c r="P389" t="s">
-        <v>2114</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -25251,16 +25311,16 @@
         <v>1301</v>
       </c>
       <c r="M390" s="2" t="s">
-        <v>1682</v>
+        <v>1700</v>
       </c>
       <c r="N390" t="s">
-        <v>2080</v>
+        <v>2100</v>
       </c>
       <c r="O390" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P390" t="s">
-        <v>2117</v>
+        <v>2137</v>
       </c>
       <c r="R390" t="s">
         <v>437</v>
@@ -25301,16 +25361,16 @@
         <v>1293</v>
       </c>
       <c r="M391" s="2" t="s">
-        <v>1683</v>
+        <v>1701</v>
       </c>
       <c r="N391" t="s">
-        <v>2081</v>
+        <v>2101</v>
       </c>
       <c r="O391" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P391" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R391" t="s">
         <v>174</v>
@@ -25351,16 +25411,16 @@
         <v>1288</v>
       </c>
       <c r="M392" s="2" t="s">
-        <v>1684</v>
+        <v>1702</v>
       </c>
       <c r="N392" t="s">
-        <v>2082</v>
+        <v>2102</v>
       </c>
       <c r="O392" t="s">
-        <v>2103</v>
+        <v>2123</v>
       </c>
       <c r="P392" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -25398,16 +25458,16 @@
         <v>1288</v>
       </c>
       <c r="M393" s="2" t="s">
-        <v>1685</v>
+        <v>1703</v>
       </c>
       <c r="N393" t="s">
-        <v>2083</v>
+        <v>2103</v>
       </c>
       <c r="O393" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P393" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q393" t="s">
         <v>179</v>
@@ -25448,16 +25508,16 @@
         <v>1311</v>
       </c>
       <c r="M394" s="2" t="s">
-        <v>1686</v>
+        <v>1704</v>
       </c>
       <c r="N394" t="s">
-        <v>2084</v>
+        <v>2104</v>
       </c>
       <c r="O394" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P394" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R394" t="s">
         <v>214</v>
@@ -25497,17 +25557,17 @@
       <c r="K395" t="s">
         <v>1290</v>
       </c>
-      <c r="M395" t="s">
-        <v>1397</v>
+      <c r="M395" s="2" t="s">
+        <v>1705</v>
       </c>
       <c r="N395" t="s">
-        <v>2085</v>
+        <v>2105</v>
       </c>
       <c r="O395" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P395" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q395" t="s">
         <v>373</v>
@@ -25548,16 +25608,16 @@
         <v>1288</v>
       </c>
       <c r="M396" s="2" t="s">
-        <v>1687</v>
+        <v>1706</v>
       </c>
       <c r="N396" t="s">
-        <v>2086</v>
+        <v>2106</v>
       </c>
       <c r="O396" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P396" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -25594,17 +25654,17 @@
       <c r="K397" t="s">
         <v>1353</v>
       </c>
-      <c r="M397" t="s">
-        <v>1397</v>
+      <c r="M397" s="2" t="s">
+        <v>1707</v>
       </c>
       <c r="N397" t="s">
-        <v>2087</v>
+        <v>2107</v>
       </c>
       <c r="O397" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P397" t="s">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="R397" t="s">
         <v>415</v>
@@ -25645,16 +25705,16 @@
         <v>1288</v>
       </c>
       <c r="M398" s="2" t="s">
-        <v>1688</v>
+        <v>1708</v>
       </c>
       <c r="N398" t="s">
-        <v>2088</v>
+        <v>2108</v>
       </c>
       <c r="O398" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P398" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q398" t="s">
         <v>431</v>
@@ -25692,13 +25752,13 @@
         <v>1364</v>
       </c>
       <c r="N399" t="s">
-        <v>2089</v>
+        <v>2109</v>
       </c>
       <c r="O399" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P399" t="s">
-        <v>2115</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -25736,16 +25796,16 @@
         <v>1059</v>
       </c>
       <c r="M400" s="2" t="s">
-        <v>1689</v>
+        <v>1709</v>
       </c>
       <c r="N400" t="s">
-        <v>2090</v>
+        <v>2110</v>
       </c>
       <c r="O400" t="s">
-        <v>2097</v>
+        <v>2117</v>
       </c>
       <c r="P400" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q400" t="s">
         <v>420</v>
@@ -25786,16 +25846,16 @@
         <v>1290</v>
       </c>
       <c r="M401" s="2" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="N401" t="s">
-        <v>2091</v>
+        <v>2111</v>
       </c>
       <c r="O401" t="s">
-        <v>2105</v>
+        <v>2125</v>
       </c>
       <c r="P401" t="s">
-        <v>2113</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="402" spans="1:17">
@@ -25824,13 +25884,13 @@
         <v>1364</v>
       </c>
       <c r="N402" t="s">
-        <v>2092</v>
+        <v>2112</v>
       </c>
       <c r="O402" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P402" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q402" t="s">
         <v>431</v>
@@ -25871,16 +25931,16 @@
         <v>1290</v>
       </c>
       <c r="M403" s="2" t="s">
-        <v>1691</v>
+        <v>1711</v>
       </c>
       <c r="N403" t="s">
-        <v>2093</v>
+        <v>2113</v>
       </c>
       <c r="O403" t="s">
-        <v>2098</v>
+        <v>2118</v>
       </c>
       <c r="P403" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q403" t="s">
         <v>204</v>
@@ -25918,16 +25978,16 @@
         <v>1059</v>
       </c>
       <c r="M404" s="2" t="s">
-        <v>1692</v>
+        <v>1712</v>
       </c>
       <c r="N404" t="s">
-        <v>2094</v>
+        <v>2114</v>
       </c>
       <c r="O404" t="s">
-        <v>2104</v>
+        <v>2124</v>
       </c>
       <c r="P404" t="s">
-        <v>2109</v>
+        <v>2129</v>
       </c>
       <c r="Q404" t="s">
         <v>431</v>
@@ -25965,16 +26025,16 @@
         <v>1288</v>
       </c>
       <c r="M405" s="2" t="s">
-        <v>1693</v>
+        <v>1713</v>
       </c>
       <c r="N405" t="s">
-        <v>2095</v>
+        <v>2115</v>
       </c>
       <c r="O405" t="s">
-        <v>2106</v>
+        <v>2126</v>
       </c>
       <c r="P405" t="s">
-        <v>2118</v>
+        <v>2138</v>
       </c>
     </row>
   </sheetData>
@@ -26017,303 +26077,324 @@
     <hyperlink ref="M47" r:id="rId36"/>
     <hyperlink ref="M48" r:id="rId37"/>
     <hyperlink ref="M49" r:id="rId38"/>
-    <hyperlink ref="M52" r:id="rId39"/>
-    <hyperlink ref="M53" r:id="rId40"/>
-    <hyperlink ref="M54" r:id="rId41"/>
-    <hyperlink ref="M56" r:id="rId42"/>
-    <hyperlink ref="M58" r:id="rId43"/>
-    <hyperlink ref="M59" r:id="rId44"/>
-    <hyperlink ref="M60" r:id="rId45"/>
-    <hyperlink ref="M61" r:id="rId46"/>
-    <hyperlink ref="M62" r:id="rId47"/>
-    <hyperlink ref="M63" r:id="rId48"/>
-    <hyperlink ref="M64" r:id="rId49"/>
-    <hyperlink ref="M65" r:id="rId50"/>
-    <hyperlink ref="M66" r:id="rId51" location="AI49515"/>
-    <hyperlink ref="M67" r:id="rId52"/>
-    <hyperlink ref="M68" r:id="rId53"/>
-    <hyperlink ref="M69" r:id="rId54"/>
-    <hyperlink ref="M70" r:id="rId55"/>
-    <hyperlink ref="M71" r:id="rId56"/>
-    <hyperlink ref="M72" r:id="rId57"/>
-    <hyperlink ref="M74" r:id="rId58"/>
-    <hyperlink ref="M75" r:id="rId59"/>
-    <hyperlink ref="M76" r:id="rId60"/>
-    <hyperlink ref="M78" r:id="rId61"/>
-    <hyperlink ref="M79" r:id="rId62"/>
-    <hyperlink ref="M80" r:id="rId63"/>
-    <hyperlink ref="M81" r:id="rId64"/>
-    <hyperlink ref="M83" r:id="rId65"/>
-    <hyperlink ref="M84" r:id="rId66"/>
-    <hyperlink ref="M86" r:id="rId67"/>
-    <hyperlink ref="M88" r:id="rId68"/>
-    <hyperlink ref="M89" r:id="rId69"/>
-    <hyperlink ref="M90" r:id="rId70"/>
-    <hyperlink ref="M91" r:id="rId71"/>
-    <hyperlink ref="M92" r:id="rId72"/>
-    <hyperlink ref="M94" r:id="rId73"/>
-    <hyperlink ref="M95" r:id="rId74"/>
-    <hyperlink ref="M96" r:id="rId75"/>
-    <hyperlink ref="M97" r:id="rId76"/>
-    <hyperlink ref="M98" r:id="rId77"/>
-    <hyperlink ref="M99" r:id="rId78"/>
-    <hyperlink ref="M100" r:id="rId79"/>
-    <hyperlink ref="M101" r:id="rId80"/>
-    <hyperlink ref="M103" r:id="rId81"/>
-    <hyperlink ref="M104" r:id="rId82"/>
-    <hyperlink ref="M106" r:id="rId83"/>
-    <hyperlink ref="M107" r:id="rId84"/>
-    <hyperlink ref="M109" r:id="rId85"/>
-    <hyperlink ref="M110" r:id="rId86"/>
-    <hyperlink ref="M111" r:id="rId87"/>
-    <hyperlink ref="M112" r:id="rId88"/>
-    <hyperlink ref="M113" r:id="rId89"/>
-    <hyperlink ref="M114" r:id="rId90"/>
-    <hyperlink ref="M115" r:id="rId91"/>
-    <hyperlink ref="M116" r:id="rId92"/>
-    <hyperlink ref="M117" r:id="rId93"/>
-    <hyperlink ref="M118" r:id="rId94"/>
-    <hyperlink ref="M119" r:id="rId95"/>
-    <hyperlink ref="M120" r:id="rId96"/>
-    <hyperlink ref="M121" r:id="rId97"/>
-    <hyperlink ref="M122" r:id="rId98"/>
-    <hyperlink ref="M124" r:id="rId99"/>
-    <hyperlink ref="M125" r:id="rId100"/>
-    <hyperlink ref="M126" r:id="rId101"/>
-    <hyperlink ref="M128" r:id="rId102"/>
-    <hyperlink ref="M129" r:id="rId103"/>
-    <hyperlink ref="M130" r:id="rId104"/>
-    <hyperlink ref="M131" r:id="rId105"/>
-    <hyperlink ref="M133" r:id="rId106"/>
-    <hyperlink ref="M134" r:id="rId107"/>
-    <hyperlink ref="M135" r:id="rId108"/>
-    <hyperlink ref="M136" r:id="rId109"/>
-    <hyperlink ref="M138" r:id="rId110"/>
-    <hyperlink ref="M140" r:id="rId111"/>
-    <hyperlink ref="M141" r:id="rId112"/>
-    <hyperlink ref="M142" r:id="rId113"/>
-    <hyperlink ref="M143" r:id="rId114"/>
-    <hyperlink ref="M144" r:id="rId115"/>
-    <hyperlink ref="M145" r:id="rId116"/>
-    <hyperlink ref="M146" r:id="rId117"/>
-    <hyperlink ref="M147" r:id="rId118"/>
-    <hyperlink ref="M148" r:id="rId119"/>
-    <hyperlink ref="M149" r:id="rId120"/>
-    <hyperlink ref="M151" r:id="rId121"/>
-    <hyperlink ref="M153" r:id="rId122"/>
-    <hyperlink ref="M155" r:id="rId123"/>
-    <hyperlink ref="M157" r:id="rId124"/>
-    <hyperlink ref="M158" r:id="rId125"/>
-    <hyperlink ref="M159" r:id="rId126"/>
-    <hyperlink ref="M162" r:id="rId127"/>
-    <hyperlink ref="M163" r:id="rId128"/>
-    <hyperlink ref="M164" r:id="rId129"/>
-    <hyperlink ref="M165" r:id="rId130"/>
-    <hyperlink ref="M166" r:id="rId131"/>
-    <hyperlink ref="M167" r:id="rId132"/>
-    <hyperlink ref="M168" r:id="rId133"/>
-    <hyperlink ref="M169" r:id="rId134"/>
-    <hyperlink ref="M170" r:id="rId135"/>
-    <hyperlink ref="M171" r:id="rId136"/>
-    <hyperlink ref="M172" r:id="rId137"/>
-    <hyperlink ref="M173" r:id="rId138"/>
-    <hyperlink ref="M174" r:id="rId139"/>
-    <hyperlink ref="M175" r:id="rId140"/>
-    <hyperlink ref="M176" r:id="rId141"/>
-    <hyperlink ref="M177" r:id="rId142"/>
-    <hyperlink ref="M180" r:id="rId143"/>
-    <hyperlink ref="M181" r:id="rId144"/>
-    <hyperlink ref="M182" r:id="rId145"/>
-    <hyperlink ref="M183" r:id="rId146"/>
-    <hyperlink ref="M185" r:id="rId147"/>
-    <hyperlink ref="M186" r:id="rId148"/>
-    <hyperlink ref="M187" r:id="rId149"/>
-    <hyperlink ref="M188" r:id="rId150"/>
-    <hyperlink ref="M189" r:id="rId151"/>
-    <hyperlink ref="M190" r:id="rId152"/>
-    <hyperlink ref="M191" r:id="rId153"/>
-    <hyperlink ref="M192" r:id="rId154"/>
-    <hyperlink ref="M193" r:id="rId155"/>
-    <hyperlink ref="M196" r:id="rId156" location=":~:text=At%20a%20meeting%20of%20Borough,Act%20Environmental%20and%20Sustainability%20Strategy."/>
-    <hyperlink ref="M197" r:id="rId157"/>
-    <hyperlink ref="M198" r:id="rId158"/>
-    <hyperlink ref="M199" r:id="rId159"/>
-    <hyperlink ref="M200" r:id="rId160"/>
-    <hyperlink ref="M201" r:id="rId161"/>
-    <hyperlink ref="M202" r:id="rId162"/>
-    <hyperlink ref="M203" r:id="rId163"/>
-    <hyperlink ref="M204" r:id="rId164"/>
-    <hyperlink ref="M205" r:id="rId165"/>
-    <hyperlink ref="M206" r:id="rId166"/>
-    <hyperlink ref="M207" r:id="rId167"/>
-    <hyperlink ref="M208" r:id="rId168"/>
-    <hyperlink ref="M209" r:id="rId169"/>
-    <hyperlink ref="M210" r:id="rId170"/>
-    <hyperlink ref="M211" r:id="rId171"/>
-    <hyperlink ref="M212" r:id="rId172"/>
-    <hyperlink ref="M213" r:id="rId173"/>
-    <hyperlink ref="M214" r:id="rId174"/>
-    <hyperlink ref="M215" r:id="rId175"/>
-    <hyperlink ref="M216" r:id="rId176"/>
-    <hyperlink ref="M217" r:id="rId177"/>
-    <hyperlink ref="E218" r:id="rId178"/>
-    <hyperlink ref="M219" r:id="rId179"/>
-    <hyperlink ref="M221" r:id="rId180"/>
-    <hyperlink ref="M223" r:id="rId181"/>
-    <hyperlink ref="M224" r:id="rId182"/>
-    <hyperlink ref="M225" r:id="rId183"/>
-    <hyperlink ref="M226" r:id="rId184"/>
-    <hyperlink ref="M227" r:id="rId185"/>
-    <hyperlink ref="M228" r:id="rId186"/>
-    <hyperlink ref="M229" r:id="rId187"/>
-    <hyperlink ref="M230" r:id="rId188"/>
-    <hyperlink ref="M231" r:id="rId189"/>
-    <hyperlink ref="M232" r:id="rId190"/>
-    <hyperlink ref="M233" r:id="rId191"/>
-    <hyperlink ref="M234" r:id="rId192"/>
-    <hyperlink ref="M236" r:id="rId193"/>
-    <hyperlink ref="M237" r:id="rId194"/>
-    <hyperlink ref="M238" r:id="rId195"/>
-    <hyperlink ref="M239" r:id="rId196"/>
-    <hyperlink ref="M240" r:id="rId197"/>
-    <hyperlink ref="M241" r:id="rId198"/>
-    <hyperlink ref="M242" r:id="rId199"/>
-    <hyperlink ref="M243" r:id="rId200"/>
-    <hyperlink ref="M245" r:id="rId201"/>
-    <hyperlink ref="M246" r:id="rId202"/>
-    <hyperlink ref="M247" r:id="rId203"/>
-    <hyperlink ref="M248" r:id="rId204"/>
-    <hyperlink ref="M249" r:id="rId205"/>
-    <hyperlink ref="M250" r:id="rId206"/>
-    <hyperlink ref="M251" r:id="rId207"/>
-    <hyperlink ref="M252" r:id="rId208"/>
-    <hyperlink ref="M253" r:id="rId209"/>
-    <hyperlink ref="M254" r:id="rId210"/>
-    <hyperlink ref="M256" r:id="rId211"/>
-    <hyperlink ref="M257" r:id="rId212"/>
-    <hyperlink ref="M259" r:id="rId213"/>
-    <hyperlink ref="M260" r:id="rId214"/>
-    <hyperlink ref="M261" r:id="rId215"/>
-    <hyperlink ref="M262" r:id="rId216"/>
-    <hyperlink ref="M263" r:id="rId217"/>
-    <hyperlink ref="M264" r:id="rId218"/>
-    <hyperlink ref="M265" r:id="rId219"/>
-    <hyperlink ref="M266" r:id="rId220"/>
-    <hyperlink ref="M267" r:id="rId221"/>
-    <hyperlink ref="M268" r:id="rId222"/>
-    <hyperlink ref="M269" r:id="rId223"/>
-    <hyperlink ref="M270" r:id="rId224"/>
-    <hyperlink ref="M271" r:id="rId225"/>
-    <hyperlink ref="M272" r:id="rId226"/>
-    <hyperlink ref="M273" r:id="rId227"/>
-    <hyperlink ref="M275" r:id="rId228"/>
-    <hyperlink ref="M277" r:id="rId229"/>
-    <hyperlink ref="M278" r:id="rId230"/>
-    <hyperlink ref="M280" r:id="rId231"/>
-    <hyperlink ref="M281" r:id="rId232"/>
-    <hyperlink ref="M282" r:id="rId233"/>
-    <hyperlink ref="M283" r:id="rId234"/>
-    <hyperlink ref="M285" r:id="rId235"/>
-    <hyperlink ref="M286" r:id="rId236"/>
-    <hyperlink ref="M287" r:id="rId237"/>
-    <hyperlink ref="M288" r:id="rId238"/>
-    <hyperlink ref="M289" r:id="rId239"/>
-    <hyperlink ref="M290" r:id="rId240"/>
-    <hyperlink ref="M291" r:id="rId241"/>
-    <hyperlink ref="M292" r:id="rId242"/>
-    <hyperlink ref="M293" r:id="rId243"/>
-    <hyperlink ref="M295" r:id="rId244"/>
-    <hyperlink ref="M296" r:id="rId245"/>
-    <hyperlink ref="M297" r:id="rId246"/>
-    <hyperlink ref="M298" r:id="rId247"/>
-    <hyperlink ref="M301" r:id="rId248" location="AI18587"/>
-    <hyperlink ref="M302" r:id="rId249"/>
-    <hyperlink ref="M303" r:id="rId250"/>
-    <hyperlink ref="M304" r:id="rId251"/>
-    <hyperlink ref="M305" r:id="rId252"/>
-    <hyperlink ref="M306" r:id="rId253"/>
-    <hyperlink ref="M307" r:id="rId254"/>
-    <hyperlink ref="M308" r:id="rId255"/>
-    <hyperlink ref="M310" r:id="rId256"/>
-    <hyperlink ref="M311" r:id="rId257"/>
-    <hyperlink ref="M313" r:id="rId258"/>
-    <hyperlink ref="M315" r:id="rId259"/>
-    <hyperlink ref="M316" r:id="rId260"/>
-    <hyperlink ref="M317" r:id="rId261"/>
-    <hyperlink ref="M319" r:id="rId262"/>
-    <hyperlink ref="M320" r:id="rId263"/>
-    <hyperlink ref="M321" r:id="rId264"/>
-    <hyperlink ref="M322" r:id="rId265"/>
-    <hyperlink ref="M323" r:id="rId266"/>
-    <hyperlink ref="M324" r:id="rId267"/>
-    <hyperlink ref="M325" r:id="rId268"/>
-    <hyperlink ref="M326" r:id="rId269"/>
-    <hyperlink ref="M327" r:id="rId270"/>
-    <hyperlink ref="M328" r:id="rId271"/>
-    <hyperlink ref="M330" r:id="rId272"/>
-    <hyperlink ref="M331" r:id="rId273"/>
-    <hyperlink ref="M332" r:id="rId274"/>
-    <hyperlink ref="M333" r:id="rId275"/>
-    <hyperlink ref="M334" r:id="rId276"/>
-    <hyperlink ref="M336" r:id="rId277"/>
-    <hyperlink ref="M337" r:id="rId278"/>
-    <hyperlink ref="M338" r:id="rId279"/>
-    <hyperlink ref="M339" r:id="rId280"/>
-    <hyperlink ref="M340" r:id="rId281"/>
-    <hyperlink ref="M341" r:id="rId282"/>
-    <hyperlink ref="M342" r:id="rId283"/>
-    <hyperlink ref="M345" r:id="rId284"/>
-    <hyperlink ref="M346" r:id="rId285"/>
-    <hyperlink ref="M347" r:id="rId286"/>
-    <hyperlink ref="M348" r:id="rId287"/>
-    <hyperlink ref="M349" r:id="rId288"/>
-    <hyperlink ref="M350" r:id="rId289"/>
-    <hyperlink ref="M351" r:id="rId290"/>
-    <hyperlink ref="M353" r:id="rId291"/>
-    <hyperlink ref="M354" r:id="rId292"/>
-    <hyperlink ref="M355" r:id="rId293"/>
-    <hyperlink ref="M356" r:id="rId294"/>
-    <hyperlink ref="M357" r:id="rId295"/>
-    <hyperlink ref="M358" r:id="rId296"/>
-    <hyperlink ref="M359" r:id="rId297"/>
-    <hyperlink ref="M360" r:id="rId298"/>
-    <hyperlink ref="M361" r:id="rId299"/>
-    <hyperlink ref="M362" r:id="rId300"/>
-    <hyperlink ref="M363" r:id="rId301"/>
-    <hyperlink ref="M364" r:id="rId302"/>
-    <hyperlink ref="M365" r:id="rId303"/>
-    <hyperlink ref="M366" r:id="rId304"/>
-    <hyperlink ref="M367" r:id="rId305"/>
-    <hyperlink ref="M368" r:id="rId306"/>
-    <hyperlink ref="M369" r:id="rId307"/>
-    <hyperlink ref="M370" r:id="rId308"/>
-    <hyperlink ref="M371" r:id="rId309"/>
-    <hyperlink ref="M372" r:id="rId310"/>
-    <hyperlink ref="M373" r:id="rId311"/>
-    <hyperlink ref="M374" r:id="rId312"/>
-    <hyperlink ref="M376" r:id="rId313"/>
-    <hyperlink ref="M377" r:id="rId314"/>
-    <hyperlink ref="M378" r:id="rId315"/>
-    <hyperlink ref="M379" r:id="rId316"/>
-    <hyperlink ref="M380" r:id="rId317"/>
-    <hyperlink ref="M382" r:id="rId318"/>
-    <hyperlink ref="M383" r:id="rId319" location=":~:text=The%20West%20Midlands%20has%20declared,pledge%20to%20safeguard%20the%20environment."/>
-    <hyperlink ref="M385" r:id="rId320"/>
-    <hyperlink ref="M386" r:id="rId321"/>
-    <hyperlink ref="M388" r:id="rId322"/>
-    <hyperlink ref="M389" r:id="rId323"/>
-    <hyperlink ref="M390" r:id="rId324"/>
-    <hyperlink ref="M391" r:id="rId325"/>
-    <hyperlink ref="M392" r:id="rId326"/>
-    <hyperlink ref="M393" r:id="rId327"/>
-    <hyperlink ref="M394" r:id="rId328"/>
-    <hyperlink ref="M396" r:id="rId329"/>
-    <hyperlink ref="M398" r:id="rId330"/>
-    <hyperlink ref="M400" r:id="rId331"/>
-    <hyperlink ref="M401" r:id="rId332"/>
-    <hyperlink ref="M403" r:id="rId333" location="AI3743"/>
-    <hyperlink ref="M404" r:id="rId334"/>
-    <hyperlink ref="M405" r:id="rId335"/>
+    <hyperlink ref="M50" r:id="rId39"/>
+    <hyperlink ref="M52" r:id="rId40"/>
+    <hyperlink ref="M53" r:id="rId41"/>
+    <hyperlink ref="M54" r:id="rId42"/>
+    <hyperlink ref="M55" r:id="rId43"/>
+    <hyperlink ref="M56" r:id="rId44"/>
+    <hyperlink ref="M58" r:id="rId45"/>
+    <hyperlink ref="M59" r:id="rId46"/>
+    <hyperlink ref="M60" r:id="rId47"/>
+    <hyperlink ref="M61" r:id="rId48"/>
+    <hyperlink ref="M62" r:id="rId49"/>
+    <hyperlink ref="M63" r:id="rId50"/>
+    <hyperlink ref="M64" r:id="rId51"/>
+    <hyperlink ref="M65" r:id="rId52"/>
+    <hyperlink ref="M66" r:id="rId53" location="AI49515"/>
+    <hyperlink ref="M67" r:id="rId54"/>
+    <hyperlink ref="M68" r:id="rId55"/>
+    <hyperlink ref="M69" r:id="rId56"/>
+    <hyperlink ref="M70" r:id="rId57"/>
+    <hyperlink ref="M71" r:id="rId58"/>
+    <hyperlink ref="M72" r:id="rId59"/>
+    <hyperlink ref="M74" r:id="rId60"/>
+    <hyperlink ref="M75" r:id="rId61"/>
+    <hyperlink ref="M76" r:id="rId62"/>
+    <hyperlink ref="M78" r:id="rId63"/>
+    <hyperlink ref="M79" r:id="rId64"/>
+    <hyperlink ref="M80" r:id="rId65"/>
+    <hyperlink ref="M81" r:id="rId66"/>
+    <hyperlink ref="M82" r:id="rId67"/>
+    <hyperlink ref="M83" r:id="rId68"/>
+    <hyperlink ref="M84" r:id="rId69"/>
+    <hyperlink ref="M86" r:id="rId70"/>
+    <hyperlink ref="M87" r:id="rId71"/>
+    <hyperlink ref="M88" r:id="rId72"/>
+    <hyperlink ref="M89" r:id="rId73"/>
+    <hyperlink ref="M90" r:id="rId74"/>
+    <hyperlink ref="M91" r:id="rId75"/>
+    <hyperlink ref="M92" r:id="rId76"/>
+    <hyperlink ref="M93" r:id="rId77"/>
+    <hyperlink ref="M94" r:id="rId78"/>
+    <hyperlink ref="M95" r:id="rId79"/>
+    <hyperlink ref="M96" r:id="rId80"/>
+    <hyperlink ref="M97" r:id="rId81"/>
+    <hyperlink ref="M98" r:id="rId82"/>
+    <hyperlink ref="M99" r:id="rId83"/>
+    <hyperlink ref="M100" r:id="rId84"/>
+    <hyperlink ref="M101" r:id="rId85"/>
+    <hyperlink ref="M103" r:id="rId86"/>
+    <hyperlink ref="M104" r:id="rId87"/>
+    <hyperlink ref="M106" r:id="rId88"/>
+    <hyperlink ref="M107" r:id="rId89"/>
+    <hyperlink ref="M109" r:id="rId90"/>
+    <hyperlink ref="M110" r:id="rId91"/>
+    <hyperlink ref="M111" r:id="rId92"/>
+    <hyperlink ref="M112" r:id="rId93"/>
+    <hyperlink ref="M113" r:id="rId94"/>
+    <hyperlink ref="M114" r:id="rId95"/>
+    <hyperlink ref="M115" r:id="rId96"/>
+    <hyperlink ref="M116" r:id="rId97"/>
+    <hyperlink ref="M117" r:id="rId98"/>
+    <hyperlink ref="M118" r:id="rId99"/>
+    <hyperlink ref="M119" r:id="rId100"/>
+    <hyperlink ref="M120" r:id="rId101"/>
+    <hyperlink ref="M121" r:id="rId102"/>
+    <hyperlink ref="M122" r:id="rId103"/>
+    <hyperlink ref="M124" r:id="rId104"/>
+    <hyperlink ref="M125" r:id="rId105"/>
+    <hyperlink ref="M126" r:id="rId106"/>
+    <hyperlink ref="M128" r:id="rId107"/>
+    <hyperlink ref="M129" r:id="rId108"/>
+    <hyperlink ref="M130" r:id="rId109"/>
+    <hyperlink ref="M131" r:id="rId110"/>
+    <hyperlink ref="M133" r:id="rId111"/>
+    <hyperlink ref="M134" r:id="rId112"/>
+    <hyperlink ref="M135" r:id="rId113"/>
+    <hyperlink ref="M136" r:id="rId114"/>
+    <hyperlink ref="M138" r:id="rId115"/>
+    <hyperlink ref="M140" r:id="rId116"/>
+    <hyperlink ref="M141" r:id="rId117"/>
+    <hyperlink ref="M142" r:id="rId118"/>
+    <hyperlink ref="M143" r:id="rId119"/>
+    <hyperlink ref="M144" r:id="rId120"/>
+    <hyperlink ref="M145" r:id="rId121"/>
+    <hyperlink ref="M146" r:id="rId122"/>
+    <hyperlink ref="M147" r:id="rId123"/>
+    <hyperlink ref="M148" r:id="rId124"/>
+    <hyperlink ref="M149" r:id="rId125"/>
+    <hyperlink ref="M151" r:id="rId126"/>
+    <hyperlink ref="M153" r:id="rId127"/>
+    <hyperlink ref="M154" r:id="rId128"/>
+    <hyperlink ref="M155" r:id="rId129"/>
+    <hyperlink ref="M156" r:id="rId130"/>
+    <hyperlink ref="M157" r:id="rId131"/>
+    <hyperlink ref="M158" r:id="rId132"/>
+    <hyperlink ref="M159" r:id="rId133"/>
+    <hyperlink ref="M161" r:id="rId134"/>
+    <hyperlink ref="M162" r:id="rId135"/>
+    <hyperlink ref="M163" r:id="rId136"/>
+    <hyperlink ref="M164" r:id="rId137"/>
+    <hyperlink ref="M165" r:id="rId138"/>
+    <hyperlink ref="M166" r:id="rId139"/>
+    <hyperlink ref="M167" r:id="rId140"/>
+    <hyperlink ref="M168" r:id="rId141"/>
+    <hyperlink ref="M169" r:id="rId142"/>
+    <hyperlink ref="M170" r:id="rId143"/>
+    <hyperlink ref="M171" r:id="rId144"/>
+    <hyperlink ref="M172" r:id="rId145"/>
+    <hyperlink ref="M173" r:id="rId146"/>
+    <hyperlink ref="M174" r:id="rId147"/>
+    <hyperlink ref="M175" r:id="rId148"/>
+    <hyperlink ref="M176" r:id="rId149"/>
+    <hyperlink ref="M177" r:id="rId150"/>
+    <hyperlink ref="M178" r:id="rId151"/>
+    <hyperlink ref="M180" r:id="rId152"/>
+    <hyperlink ref="M181" r:id="rId153"/>
+    <hyperlink ref="M182" r:id="rId154"/>
+    <hyperlink ref="M183" r:id="rId155"/>
+    <hyperlink ref="M185" r:id="rId156"/>
+    <hyperlink ref="M186" r:id="rId157"/>
+    <hyperlink ref="M187" r:id="rId158"/>
+    <hyperlink ref="M188" r:id="rId159"/>
+    <hyperlink ref="M189" r:id="rId160"/>
+    <hyperlink ref="M190" r:id="rId161"/>
+    <hyperlink ref="M191" r:id="rId162"/>
+    <hyperlink ref="M192" r:id="rId163"/>
+    <hyperlink ref="M193" r:id="rId164"/>
+    <hyperlink ref="M195" r:id="rId165"/>
+    <hyperlink ref="M196" r:id="rId166" location=":~:text=At%20a%20meeting%20of%20Borough,Act%20Environmental%20and%20Sustainability%20Strategy."/>
+    <hyperlink ref="M197" r:id="rId167"/>
+    <hyperlink ref="M198" r:id="rId168"/>
+    <hyperlink ref="M199" r:id="rId169"/>
+    <hyperlink ref="M200" r:id="rId170"/>
+    <hyperlink ref="M201" r:id="rId171"/>
+    <hyperlink ref="M202" r:id="rId172"/>
+    <hyperlink ref="M203" r:id="rId173"/>
+    <hyperlink ref="M204" r:id="rId174"/>
+    <hyperlink ref="M205" r:id="rId175"/>
+    <hyperlink ref="M206" r:id="rId176"/>
+    <hyperlink ref="M207" r:id="rId177"/>
+    <hyperlink ref="M208" r:id="rId178"/>
+    <hyperlink ref="M209" r:id="rId179"/>
+    <hyperlink ref="M210" r:id="rId180"/>
+    <hyperlink ref="M211" r:id="rId181"/>
+    <hyperlink ref="M212" r:id="rId182"/>
+    <hyperlink ref="M213" r:id="rId183"/>
+    <hyperlink ref="M214" r:id="rId184"/>
+    <hyperlink ref="M215" r:id="rId185"/>
+    <hyperlink ref="M216" r:id="rId186"/>
+    <hyperlink ref="M217" r:id="rId187"/>
+    <hyperlink ref="E218" r:id="rId188"/>
+    <hyperlink ref="M219" r:id="rId189"/>
+    <hyperlink ref="M220" r:id="rId190"/>
+    <hyperlink ref="M221" r:id="rId191"/>
+    <hyperlink ref="M223" r:id="rId192"/>
+    <hyperlink ref="M224" r:id="rId193"/>
+    <hyperlink ref="M225" r:id="rId194"/>
+    <hyperlink ref="M226" r:id="rId195"/>
+    <hyperlink ref="M227" r:id="rId196"/>
+    <hyperlink ref="M228" r:id="rId197"/>
+    <hyperlink ref="M229" r:id="rId198"/>
+    <hyperlink ref="M230" r:id="rId199"/>
+    <hyperlink ref="M231" r:id="rId200"/>
+    <hyperlink ref="M232" r:id="rId201"/>
+    <hyperlink ref="M233" r:id="rId202"/>
+    <hyperlink ref="M234" r:id="rId203"/>
+    <hyperlink ref="M236" r:id="rId204"/>
+    <hyperlink ref="M237" r:id="rId205"/>
+    <hyperlink ref="M238" r:id="rId206"/>
+    <hyperlink ref="M239" r:id="rId207"/>
+    <hyperlink ref="M240" r:id="rId208"/>
+    <hyperlink ref="M241" r:id="rId209"/>
+    <hyperlink ref="M242" r:id="rId210"/>
+    <hyperlink ref="M243" r:id="rId211"/>
+    <hyperlink ref="M245" r:id="rId212"/>
+    <hyperlink ref="M246" r:id="rId213"/>
+    <hyperlink ref="M247" r:id="rId214"/>
+    <hyperlink ref="M248" r:id="rId215"/>
+    <hyperlink ref="M249" r:id="rId216"/>
+    <hyperlink ref="M250" r:id="rId217"/>
+    <hyperlink ref="M251" r:id="rId218"/>
+    <hyperlink ref="M252" r:id="rId219"/>
+    <hyperlink ref="M253" r:id="rId220"/>
+    <hyperlink ref="M254" r:id="rId221"/>
+    <hyperlink ref="M255" r:id="rId222"/>
+    <hyperlink ref="M256" r:id="rId223"/>
+    <hyperlink ref="M257" r:id="rId224"/>
+    <hyperlink ref="M259" r:id="rId225"/>
+    <hyperlink ref="M260" r:id="rId226"/>
+    <hyperlink ref="M261" r:id="rId227"/>
+    <hyperlink ref="M262" r:id="rId228"/>
+    <hyperlink ref="M263" r:id="rId229"/>
+    <hyperlink ref="M264" r:id="rId230"/>
+    <hyperlink ref="M265" r:id="rId231"/>
+    <hyperlink ref="M266" r:id="rId232"/>
+    <hyperlink ref="M267" r:id="rId233"/>
+    <hyperlink ref="M268" r:id="rId234"/>
+    <hyperlink ref="M269" r:id="rId235"/>
+    <hyperlink ref="M270" r:id="rId236"/>
+    <hyperlink ref="M271" r:id="rId237"/>
+    <hyperlink ref="M272" r:id="rId238"/>
+    <hyperlink ref="M273" r:id="rId239"/>
+    <hyperlink ref="M275" r:id="rId240"/>
+    <hyperlink ref="M277" r:id="rId241"/>
+    <hyperlink ref="M278" r:id="rId242"/>
+    <hyperlink ref="M280" r:id="rId243"/>
+    <hyperlink ref="M281" r:id="rId244"/>
+    <hyperlink ref="M282" r:id="rId245"/>
+    <hyperlink ref="M283" r:id="rId246"/>
+    <hyperlink ref="M284" r:id="rId247"/>
+    <hyperlink ref="M285" r:id="rId248"/>
+    <hyperlink ref="M286" r:id="rId249"/>
+    <hyperlink ref="M287" r:id="rId250"/>
+    <hyperlink ref="M288" r:id="rId251"/>
+    <hyperlink ref="M289" r:id="rId252"/>
+    <hyperlink ref="M290" r:id="rId253"/>
+    <hyperlink ref="M291" r:id="rId254"/>
+    <hyperlink ref="M292" r:id="rId255"/>
+    <hyperlink ref="M293" r:id="rId256"/>
+    <hyperlink ref="M294" r:id="rId257"/>
+    <hyperlink ref="M295" r:id="rId258"/>
+    <hyperlink ref="M296" r:id="rId259"/>
+    <hyperlink ref="M297" r:id="rId260"/>
+    <hyperlink ref="M298" r:id="rId261"/>
+    <hyperlink ref="M301" r:id="rId262" location="AI18587"/>
+    <hyperlink ref="M302" r:id="rId263"/>
+    <hyperlink ref="M303" r:id="rId264"/>
+    <hyperlink ref="M304" r:id="rId265"/>
+    <hyperlink ref="M305" r:id="rId266"/>
+    <hyperlink ref="M306" r:id="rId267"/>
+    <hyperlink ref="M307" r:id="rId268"/>
+    <hyperlink ref="M308" r:id="rId269"/>
+    <hyperlink ref="M310" r:id="rId270"/>
+    <hyperlink ref="M311" r:id="rId271"/>
+    <hyperlink ref="M312" r:id="rId272"/>
+    <hyperlink ref="M313" r:id="rId273"/>
+    <hyperlink ref="M315" r:id="rId274"/>
+    <hyperlink ref="M316" r:id="rId275"/>
+    <hyperlink ref="M317" r:id="rId276"/>
+    <hyperlink ref="M319" r:id="rId277"/>
+    <hyperlink ref="M320" r:id="rId278"/>
+    <hyperlink ref="M321" r:id="rId279"/>
+    <hyperlink ref="M322" r:id="rId280"/>
+    <hyperlink ref="M323" r:id="rId281"/>
+    <hyperlink ref="M324" r:id="rId282"/>
+    <hyperlink ref="M325" r:id="rId283"/>
+    <hyperlink ref="M326" r:id="rId284"/>
+    <hyperlink ref="M327" r:id="rId285"/>
+    <hyperlink ref="M328" r:id="rId286"/>
+    <hyperlink ref="M329" r:id="rId287"/>
+    <hyperlink ref="M330" r:id="rId288"/>
+    <hyperlink ref="M331" r:id="rId289"/>
+    <hyperlink ref="M332" r:id="rId290"/>
+    <hyperlink ref="M333" r:id="rId291"/>
+    <hyperlink ref="M334" r:id="rId292"/>
+    <hyperlink ref="M336" r:id="rId293"/>
+    <hyperlink ref="M337" r:id="rId294"/>
+    <hyperlink ref="M338" r:id="rId295"/>
+    <hyperlink ref="M339" r:id="rId296"/>
+    <hyperlink ref="M340" r:id="rId297"/>
+    <hyperlink ref="M341" r:id="rId298"/>
+    <hyperlink ref="M342" r:id="rId299"/>
+    <hyperlink ref="M343" r:id="rId300"/>
+    <hyperlink ref="M345" r:id="rId301"/>
+    <hyperlink ref="M346" r:id="rId302"/>
+    <hyperlink ref="M347" r:id="rId303"/>
+    <hyperlink ref="M348" r:id="rId304"/>
+    <hyperlink ref="M349" r:id="rId305"/>
+    <hyperlink ref="M350" r:id="rId306"/>
+    <hyperlink ref="M351" r:id="rId307"/>
+    <hyperlink ref="M352" r:id="rId308"/>
+    <hyperlink ref="M353" r:id="rId309"/>
+    <hyperlink ref="M354" r:id="rId310"/>
+    <hyperlink ref="M355" r:id="rId311"/>
+    <hyperlink ref="M356" r:id="rId312"/>
+    <hyperlink ref="M357" r:id="rId313"/>
+    <hyperlink ref="M358" r:id="rId314"/>
+    <hyperlink ref="M359" r:id="rId315"/>
+    <hyperlink ref="M360" r:id="rId316"/>
+    <hyperlink ref="M361" r:id="rId317"/>
+    <hyperlink ref="M362" r:id="rId318"/>
+    <hyperlink ref="M363" r:id="rId319"/>
+    <hyperlink ref="M364" r:id="rId320"/>
+    <hyperlink ref="M365" r:id="rId321"/>
+    <hyperlink ref="M366" r:id="rId322"/>
+    <hyperlink ref="M367" r:id="rId323"/>
+    <hyperlink ref="M368" r:id="rId324"/>
+    <hyperlink ref="M369" r:id="rId325"/>
+    <hyperlink ref="M370" r:id="rId326"/>
+    <hyperlink ref="M371" r:id="rId327"/>
+    <hyperlink ref="M372" r:id="rId328"/>
+    <hyperlink ref="M373" r:id="rId329"/>
+    <hyperlink ref="M374" r:id="rId330"/>
+    <hyperlink ref="M376" r:id="rId331"/>
+    <hyperlink ref="M377" r:id="rId332"/>
+    <hyperlink ref="M378" r:id="rId333"/>
+    <hyperlink ref="M379" r:id="rId334"/>
+    <hyperlink ref="M380" r:id="rId335"/>
+    <hyperlink ref="M382" r:id="rId336"/>
+    <hyperlink ref="M383" r:id="rId337" location=":~:text=The%20West%20Midlands%20has%20declared,pledge%20to%20safeguard%20the%20environment."/>
+    <hyperlink ref="M385" r:id="rId338"/>
+    <hyperlink ref="M386" r:id="rId339"/>
+    <hyperlink ref="M387" r:id="rId340"/>
+    <hyperlink ref="M388" r:id="rId341"/>
+    <hyperlink ref="M389" r:id="rId342"/>
+    <hyperlink ref="M390" r:id="rId343"/>
+    <hyperlink ref="M391" r:id="rId344"/>
+    <hyperlink ref="M392" r:id="rId345"/>
+    <hyperlink ref="M393" r:id="rId346"/>
+    <hyperlink ref="M394" r:id="rId347"/>
+    <hyperlink ref="M395" r:id="rId348"/>
+    <hyperlink ref="M396" r:id="rId349"/>
+    <hyperlink ref="M397" r:id="rId350"/>
+    <hyperlink ref="M398" r:id="rId351"/>
+    <hyperlink ref="M400" r:id="rId352"/>
+    <hyperlink ref="M401" r:id="rId353"/>
+    <hyperlink ref="M403" r:id="rId354" location="AI3743"/>
+    <hyperlink ref="M404" r:id="rId355"/>
+    <hyperlink ref="M405" r:id="rId356"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26337,22 +26418,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>2120</v>
+        <v>2140</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2121</v>
+        <v>2141</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2122</v>
+        <v>2142</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2123</v>
+        <v>2143</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2124</v>
+        <v>2144</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>2125</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -26360,10 +26441,10 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>2126</v>
+        <v>2146</v>
       </c>
       <c r="C2" t="s">
-        <v>2144</v>
+        <v>2164</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
@@ -26377,10 +26458,10 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>2127</v>
+        <v>2147</v>
       </c>
       <c r="C3" t="s">
-        <v>2144</v>
+        <v>2164</v>
       </c>
       <c r="D3" t="s">
         <v>438</v>
@@ -26394,10 +26475,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>2128</v>
+        <v>2148</v>
       </c>
       <c r="C4" t="s">
-        <v>2144</v>
+        <v>2164</v>
       </c>
       <c r="D4" t="s">
         <v>842</v>
@@ -26411,10 +26492,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>2129</v>
+        <v>2149</v>
       </c>
       <c r="C5" t="s">
-        <v>2144</v>
+        <v>2164</v>
       </c>
       <c r="D5" t="s">
         <v>862</v>
@@ -26428,10 +26509,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>2130</v>
+        <v>2150</v>
       </c>
       <c r="C6" t="s">
-        <v>2144</v>
+        <v>2164</v>
       </c>
       <c r="D6" t="s">
         <v>1032</v>
@@ -26445,10 +26526,10 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>2131</v>
+        <v>2151</v>
       </c>
       <c r="C7" t="s">
-        <v>2144</v>
+        <v>2164</v>
       </c>
       <c r="D7" t="s">
         <v>1056</v>
@@ -26462,10 +26543,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>2132</v>
+        <v>2152</v>
       </c>
       <c r="C8" t="s">
-        <v>2144</v>
+        <v>2164</v>
       </c>
       <c r="D8" t="s">
         <v>1056</v>
@@ -26479,10 +26560,10 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>2133</v>
+        <v>2153</v>
       </c>
       <c r="C9" t="s">
-        <v>2144</v>
+        <v>2164</v>
       </c>
       <c r="D9" t="s">
         <v>1059</v>
@@ -26496,10 +26577,10 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>2134</v>
+        <v>2154</v>
       </c>
       <c r="C10" t="s">
-        <v>2144</v>
+        <v>2164</v>
       </c>
       <c r="D10" t="s">
         <v>1056</v>
@@ -26513,10 +26594,10 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>2135</v>
+        <v>2155</v>
       </c>
       <c r="C11" t="s">
-        <v>2145</v>
+        <v>2165</v>
       </c>
       <c r="D11">
         <v>2045</v>
@@ -26530,10 +26611,10 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>2136</v>
+        <v>2156</v>
       </c>
       <c r="C12" t="s">
-        <v>2144</v>
+        <v>2164</v>
       </c>
       <c r="D12" t="s">
         <v>1281</v>
@@ -26547,10 +26628,10 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>2137</v>
+        <v>2157</v>
       </c>
       <c r="C13" t="s">
-        <v>2144</v>
+        <v>2164</v>
       </c>
       <c r="D13" t="s">
         <v>1354</v>
@@ -26564,10 +26645,10 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>2138</v>
+        <v>2158</v>
       </c>
       <c r="C14" t="s">
-        <v>2144</v>
+        <v>2164</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>1358</v>
@@ -26581,13 +26662,13 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>2139</v>
+        <v>2159</v>
       </c>
       <c r="C15" t="s">
-        <v>2144</v>
+        <v>2164</v>
       </c>
       <c r="D15" t="s">
-        <v>1694</v>
+        <v>1714</v>
       </c>
       <c r="E15" t="s">
         <v>1056</v>
@@ -26598,13 +26679,13 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>2140</v>
+        <v>2160</v>
       </c>
       <c r="C16" t="s">
-        <v>2144</v>
+        <v>2164</v>
       </c>
       <c r="D16" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="E16" t="s">
         <v>1056</v>
@@ -26615,13 +26696,13 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>2141</v>
+        <v>2161</v>
       </c>
       <c r="C17" t="s">
-        <v>2144</v>
+        <v>2164</v>
       </c>
       <c r="D17" t="s">
-        <v>2108</v>
+        <v>2128</v>
       </c>
       <c r="E17" t="s">
         <v>1056</v>
@@ -26632,10 +26713,10 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>2142</v>
+        <v>2162</v>
       </c>
       <c r="C18" t="s">
-        <v>2144</v>
+        <v>2164</v>
       </c>
       <c r="D18" t="s">
         <v>420</v>
@@ -26649,10 +26730,10 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>2143</v>
+        <v>2163</v>
       </c>
       <c r="C19" t="s">
-        <v>2144</v>
+        <v>2164</v>
       </c>
       <c r="D19" t="s">
         <v>335</v>

--- a/docs/data/local_authority_climate_emergency_declarations/latest/local_authority_climate_emergency_declarations.xlsx
+++ b/docs/data/local_authority_climate_emergency_declarations/latest/local_authority_climate_emergency_declarations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5849" uniqueCount="2166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5792" uniqueCount="2166">
   <si>
     <t>Dataset</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.5</t>
   </si>
   <si>
     <t>Contributors</t>
@@ -6373,25 +6373,25 @@
     <t>South East</t>
   </si>
   <si>
+    <t>East Midlands</t>
+  </si>
+  <si>
+    <t>Northern Ireland</t>
+  </si>
+  <si>
+    <t>East of England</t>
+  </si>
+  <si>
+    <t>Yorkshire and The Humber</t>
+  </si>
+  <si>
+    <t>South West</t>
+  </si>
+  <si>
+    <t>West Midlands</t>
+  </si>
+  <si>
     <t>North West</t>
-  </si>
-  <si>
-    <t>East Midlands</t>
-  </si>
-  <si>
-    <t>Northern Ireland</t>
-  </si>
-  <si>
-    <t>East of England</t>
-  </si>
-  <si>
-    <t>Yorkshire and The Humber</t>
-  </si>
-  <si>
-    <t>South West</t>
-  </si>
-  <si>
-    <t>West Midlands</t>
   </si>
   <si>
     <t>Wales</t>
@@ -7245,15 +7245,6 @@
       <c r="N5" t="s">
         <v>1717</v>
       </c>
-      <c r="O5" t="s">
-        <v>2118</v>
-      </c>
-      <c r="P5" t="s">
-        <v>2129</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
@@ -7296,7 +7287,7 @@
         <v>1718</v>
       </c>
       <c r="O6" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P6" t="s">
         <v>2129</v>
@@ -7378,7 +7369,7 @@
         <v>1720</v>
       </c>
       <c r="O8" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="P8" t="s">
         <v>2130</v>
@@ -7422,7 +7413,7 @@
         <v>1721</v>
       </c>
       <c r="O9" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="P9" t="s">
         <v>2130</v>
@@ -7498,7 +7489,7 @@
         <v>1723</v>
       </c>
       <c r="O11" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="P11" t="s">
         <v>2130</v>
@@ -7580,7 +7571,7 @@
         <v>1725</v>
       </c>
       <c r="O13" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P13" t="s">
         <v>2129</v>
@@ -7674,7 +7665,7 @@
         <v>1727</v>
       </c>
       <c r="O15" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P15" t="s">
         <v>2129</v>
@@ -7724,7 +7715,7 @@
         <v>1728</v>
       </c>
       <c r="O16" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="P16" t="s">
         <v>2131</v>
@@ -7773,15 +7764,6 @@
       <c r="N17" t="s">
         <v>1729</v>
       </c>
-      <c r="O17" t="s">
-        <v>2118</v>
-      </c>
-      <c r="P17" t="s">
-        <v>2129</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
@@ -7812,7 +7794,7 @@
         <v>1730</v>
       </c>
       <c r="O18" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P18" t="s">
         <v>2129</v>
@@ -7897,7 +7879,7 @@
         <v>1732</v>
       </c>
       <c r="O20" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P20" t="s">
         <v>2129</v>
@@ -7947,7 +7929,7 @@
         <v>1733</v>
       </c>
       <c r="O21" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="P21" t="s">
         <v>2132</v>
@@ -7997,7 +7979,7 @@
         <v>1734</v>
       </c>
       <c r="O22" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P22" t="s">
         <v>2132</v>
@@ -8041,7 +8023,7 @@
         <v>1735</v>
       </c>
       <c r="O23" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="P23" t="s">
         <v>2130</v>
@@ -8088,7 +8070,7 @@
         <v>1736</v>
       </c>
       <c r="O24" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P24" t="s">
         <v>2131</v>
@@ -8126,7 +8108,7 @@
         <v>1737</v>
       </c>
       <c r="O25" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P25" t="s">
         <v>2129</v>
@@ -8176,7 +8158,7 @@
         <v>1738</v>
       </c>
       <c r="O26" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P26" t="s">
         <v>2132</v>
@@ -8223,7 +8205,7 @@
         <v>1739</v>
       </c>
       <c r="O27" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P27" t="s">
         <v>2132</v>
@@ -8305,7 +8287,7 @@
         <v>1741</v>
       </c>
       <c r="O29" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P29" t="s">
         <v>2129</v>
@@ -8355,7 +8337,7 @@
         <v>1742</v>
       </c>
       <c r="O30" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P30" t="s">
         <v>2131</v>
@@ -8405,7 +8387,7 @@
         <v>1743</v>
       </c>
       <c r="O31" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P31" t="s">
         <v>2129</v>
@@ -8455,7 +8437,7 @@
         <v>1744</v>
       </c>
       <c r="O32" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="P32" t="s">
         <v>2132</v>
@@ -8537,7 +8519,7 @@
         <v>1746</v>
       </c>
       <c r="O34" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="P34" t="s">
         <v>2131</v>
@@ -8587,7 +8569,7 @@
         <v>1747</v>
       </c>
       <c r="O35" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P35" t="s">
         <v>2129</v>
@@ -8637,7 +8619,7 @@
         <v>1748</v>
       </c>
       <c r="O36" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P36" t="s">
         <v>2129</v>
@@ -8675,7 +8657,7 @@
         <v>1749</v>
       </c>
       <c r="O37" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P37" t="s">
         <v>2129</v>
@@ -8819,7 +8801,7 @@
         <v>1752</v>
       </c>
       <c r="O40" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="P40" t="s">
         <v>2132</v>
@@ -8857,7 +8839,7 @@
         <v>1753</v>
       </c>
       <c r="O41" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P41" t="s">
         <v>2129</v>
@@ -8904,7 +8886,7 @@
         <v>1754</v>
       </c>
       <c r="O42" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P42" t="s">
         <v>2129</v>
@@ -8939,7 +8921,7 @@
         <v>1755</v>
       </c>
       <c r="O43" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P43" t="s">
         <v>2129</v>
@@ -8989,7 +8971,7 @@
         <v>1756</v>
       </c>
       <c r="O44" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P44" t="s">
         <v>2129</v>
@@ -9086,7 +9068,7 @@
         <v>1758</v>
       </c>
       <c r="O46" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P46" t="s">
         <v>2129</v>
@@ -9136,7 +9118,7 @@
         <v>1759</v>
       </c>
       <c r="O47" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P47" t="s">
         <v>2131</v>
@@ -9233,7 +9215,7 @@
         <v>1761</v>
       </c>
       <c r="O49" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="P49" t="s">
         <v>2131</v>
@@ -9283,7 +9265,7 @@
         <v>1762</v>
       </c>
       <c r="O50" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P50" t="s">
         <v>2129</v>
@@ -9324,7 +9306,7 @@
         <v>1763</v>
       </c>
       <c r="O51" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P51" t="s">
         <v>2134</v>
@@ -9371,7 +9353,7 @@
         <v>1764</v>
       </c>
       <c r="O52" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P52" t="s">
         <v>2135</v>
@@ -9421,7 +9403,7 @@
         <v>1765</v>
       </c>
       <c r="O53" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P53" t="s">
         <v>2129</v>
@@ -9517,15 +9499,6 @@
       <c r="N55" t="s">
         <v>1767</v>
       </c>
-      <c r="O55" t="s">
-        <v>2118</v>
-      </c>
-      <c r="P55" t="s">
-        <v>2129</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="56" spans="1:18">
       <c r="A56" t="s">
@@ -9600,7 +9573,7 @@
         <v>1769</v>
       </c>
       <c r="O57" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P57" t="s">
         <v>2129</v>
@@ -9647,7 +9620,7 @@
         <v>1770</v>
       </c>
       <c r="O58" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="P58" t="s">
         <v>2130</v>
@@ -9694,7 +9667,7 @@
         <v>1771</v>
       </c>
       <c r="O59" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P59" t="s">
         <v>2132</v>
@@ -9788,7 +9761,7 @@
         <v>1773</v>
       </c>
       <c r="O61" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P61" t="s">
         <v>2129</v>
@@ -9838,7 +9811,7 @@
         <v>1774</v>
       </c>
       <c r="O62" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P62" t="s">
         <v>2129</v>
@@ -9888,7 +9861,7 @@
         <v>1775</v>
       </c>
       <c r="O63" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="P63" t="s">
         <v>2129</v>
@@ -9988,7 +9961,7 @@
         <v>1777</v>
       </c>
       <c r="O65" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P65" t="s">
         <v>2132</v>
@@ -10035,7 +10008,7 @@
         <v>1778</v>
       </c>
       <c r="O66" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P66" t="s">
         <v>2132</v>
@@ -10082,7 +10055,7 @@
         <v>1779</v>
       </c>
       <c r="O67" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P67" t="s">
         <v>2129</v>
@@ -10179,7 +10152,7 @@
         <v>1781</v>
       </c>
       <c r="O69" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P69" t="s">
         <v>2129</v>
@@ -10408,7 +10381,7 @@
         <v>1786</v>
       </c>
       <c r="O74" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="P74" t="s">
         <v>2132</v>
@@ -10499,7 +10472,7 @@
         <v>1788</v>
       </c>
       <c r="O76" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P76" t="s">
         <v>2129</v>
@@ -10624,15 +10597,6 @@
       <c r="N79" t="s">
         <v>1791</v>
       </c>
-      <c r="O79" t="s">
-        <v>2118</v>
-      </c>
-      <c r="P79" t="s">
-        <v>2129</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="80" spans="1:18">
       <c r="A80" t="s">
@@ -10675,7 +10639,7 @@
         <v>1792</v>
       </c>
       <c r="O80" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="P80" t="s">
         <v>2132</v>
@@ -10722,7 +10686,7 @@
         <v>1793</v>
       </c>
       <c r="O81" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="P81" t="s">
         <v>2129</v>
@@ -10769,7 +10733,7 @@
         <v>1794</v>
       </c>
       <c r="O82" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P82" t="s">
         <v>2131</v>
@@ -10818,15 +10782,6 @@
       <c r="N83" t="s">
         <v>1795</v>
       </c>
-      <c r="O83" t="s">
-        <v>2122</v>
-      </c>
-      <c r="P83" t="s">
-        <v>2129</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>285</v>
-      </c>
     </row>
     <row r="84" spans="1:18">
       <c r="A84" t="s">
@@ -10906,12 +10861,6 @@
       <c r="N85" t="s">
         <v>1797</v>
       </c>
-      <c r="O85" t="s">
-        <v>2118</v>
-      </c>
-      <c r="P85" t="s">
-        <v>2135</v>
-      </c>
     </row>
     <row r="86" spans="1:18">
       <c r="A86" t="s">
@@ -10951,7 +10900,7 @@
         <v>1798</v>
       </c>
       <c r="O86" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P86" t="s">
         <v>2129</v>
@@ -11142,7 +11091,7 @@
         <v>1802</v>
       </c>
       <c r="O90" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P90" t="s">
         <v>2132</v>
@@ -11189,7 +11138,7 @@
         <v>1803</v>
       </c>
       <c r="O91" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P91" t="s">
         <v>2135</v>
@@ -11236,7 +11185,7 @@
         <v>1804</v>
       </c>
       <c r="O92" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P92" t="s">
         <v>2129</v>
@@ -11286,7 +11235,7 @@
         <v>1805</v>
       </c>
       <c r="O93" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="P93" t="s">
         <v>2130</v>
@@ -11333,7 +11282,7 @@
         <v>1806</v>
       </c>
       <c r="O94" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="P94" t="s">
         <v>2135</v>
@@ -11380,7 +11329,7 @@
         <v>1807</v>
       </c>
       <c r="O95" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="P95" t="s">
         <v>2131</v>
@@ -11430,7 +11379,7 @@
         <v>1808</v>
       </c>
       <c r="O96" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="P96" t="s">
         <v>2132</v>
@@ -11527,7 +11476,7 @@
         <v>1810</v>
       </c>
       <c r="O98" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P98" t="s">
         <v>2131</v>
@@ -11753,7 +11702,7 @@
         <v>1815</v>
       </c>
       <c r="O103" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P103" t="s">
         <v>2129</v>
@@ -11806,7 +11755,7 @@
         <v>1816</v>
       </c>
       <c r="O104" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="P104" t="s">
         <v>2129</v>
@@ -11938,7 +11887,7 @@
         <v>1819</v>
       </c>
       <c r="O107" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P107" t="s">
         <v>2129</v>
@@ -11976,7 +11925,7 @@
         <v>1820</v>
       </c>
       <c r="O108" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P108" t="s">
         <v>2129</v>
@@ -12120,7 +12069,7 @@
         <v>1823</v>
       </c>
       <c r="O111" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="P111" t="s">
         <v>2132</v>
@@ -12167,7 +12116,7 @@
         <v>1824</v>
       </c>
       <c r="O112" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P112" t="s">
         <v>2129</v>
@@ -12217,7 +12166,7 @@
         <v>1825</v>
       </c>
       <c r="O113" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P113" t="s">
         <v>2129</v>
@@ -12413,15 +12362,6 @@
       <c r="N117" t="s">
         <v>1829</v>
       </c>
-      <c r="O117" t="s">
-        <v>2118</v>
-      </c>
-      <c r="P117" t="s">
-        <v>2129</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="118" spans="1:18">
       <c r="A118" t="s">
@@ -12561,7 +12501,7 @@
         <v>1832</v>
       </c>
       <c r="O120" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P120" t="s">
         <v>2129</v>
@@ -12661,7 +12601,7 @@
         <v>1834</v>
       </c>
       <c r="O122" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P122" t="s">
         <v>2129</v>
@@ -12702,7 +12642,7 @@
         <v>1835</v>
       </c>
       <c r="O123" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P123" t="s">
         <v>2135</v>
@@ -12749,7 +12689,7 @@
         <v>1836</v>
       </c>
       <c r="O124" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="P124" t="s">
         <v>2129</v>
@@ -12881,7 +12821,7 @@
         <v>1839</v>
       </c>
       <c r="O127" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P127" t="s">
         <v>2129</v>
@@ -12931,7 +12871,7 @@
         <v>1840</v>
       </c>
       <c r="O128" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="P128" t="s">
         <v>2130</v>
@@ -13075,7 +13015,7 @@
         <v>1843</v>
       </c>
       <c r="O131" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="P131" t="s">
         <v>2129</v>
@@ -13110,7 +13050,7 @@
         <v>1844</v>
       </c>
       <c r="O132" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P132" t="s">
         <v>2129</v>
@@ -13210,7 +13150,7 @@
         <v>1846</v>
       </c>
       <c r="O134" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P134" t="s">
         <v>2129</v>
@@ -13260,7 +13200,7 @@
         <v>1847</v>
       </c>
       <c r="O135" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="P135" t="s">
         <v>2129</v>
@@ -13310,7 +13250,7 @@
         <v>1848</v>
       </c>
       <c r="O136" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="P136" t="s">
         <v>2135</v>
@@ -13430,7 +13370,7 @@
         <v>1851</v>
       </c>
       <c r="O139" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P139" t="s">
         <v>2129</v>
@@ -13480,7 +13420,7 @@
         <v>1852</v>
       </c>
       <c r="O140" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P140" t="s">
         <v>2134</v>
@@ -13621,7 +13561,7 @@
         <v>1855</v>
       </c>
       <c r="O143" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P143" t="s">
         <v>2132</v>
@@ -13670,15 +13610,6 @@
       <c r="N144" t="s">
         <v>1856</v>
       </c>
-      <c r="O144" t="s">
-        <v>2122</v>
-      </c>
-      <c r="P144" t="s">
-        <v>2129</v>
-      </c>
-      <c r="Q144" t="s">
-        <v>285</v>
-      </c>
     </row>
     <row r="145" spans="1:18">
       <c r="A145" t="s">
@@ -13768,7 +13699,7 @@
         <v>1858</v>
       </c>
       <c r="O146" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P146" t="s">
         <v>2129</v>
@@ -13815,7 +13746,7 @@
         <v>1859</v>
       </c>
       <c r="O147" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P147" t="s">
         <v>2129</v>
@@ -13867,15 +13798,6 @@
       <c r="N148" t="s">
         <v>1860</v>
       </c>
-      <c r="O148" t="s">
-        <v>2122</v>
-      </c>
-      <c r="P148" t="s">
-        <v>2129</v>
-      </c>
-      <c r="Q148" t="s">
-        <v>285</v>
-      </c>
     </row>
     <row r="149" spans="1:18">
       <c r="A149" t="s">
@@ -14091,7 +14013,7 @@
         <v>1865</v>
       </c>
       <c r="O153" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P153" t="s">
         <v>2132</v>
@@ -14138,7 +14060,7 @@
         <v>1866</v>
       </c>
       <c r="O154" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P154" t="s">
         <v>2135</v>
@@ -14185,7 +14107,7 @@
         <v>1867</v>
       </c>
       <c r="O155" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P155" t="s">
         <v>2129</v>
@@ -14235,7 +14157,7 @@
         <v>1868</v>
       </c>
       <c r="O156" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P156" t="s">
         <v>2129</v>
@@ -14285,7 +14207,7 @@
         <v>1869</v>
       </c>
       <c r="O157" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P157" t="s">
         <v>2129</v>
@@ -14385,7 +14307,7 @@
         <v>1871</v>
       </c>
       <c r="O159" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="P159" t="s">
         <v>2132</v>
@@ -14417,7 +14339,7 @@
         <v>1872</v>
       </c>
       <c r="O160" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P160" t="s">
         <v>2129</v>
@@ -14470,7 +14392,7 @@
         <v>1873</v>
       </c>
       <c r="O161" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P161" t="s">
         <v>2129</v>
@@ -14520,7 +14442,7 @@
         <v>1874</v>
       </c>
       <c r="O162" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P162" t="s">
         <v>2129</v>
@@ -14664,7 +14586,7 @@
         <v>1877</v>
       </c>
       <c r="O165" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="P165" t="s">
         <v>2132</v>
@@ -14790,7 +14712,7 @@
         <v>1879</v>
       </c>
       <c r="O168" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P168" t="s">
         <v>2129</v>
@@ -14840,7 +14762,7 @@
         <v>1880</v>
       </c>
       <c r="O169" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="P169" t="s">
         <v>2131</v>
@@ -14890,7 +14812,7 @@
         <v>1881</v>
       </c>
       <c r="O170" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P170" t="s">
         <v>2131</v>
@@ -14940,7 +14862,7 @@
         <v>1882</v>
       </c>
       <c r="O171" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P171" t="s">
         <v>2135</v>
@@ -14987,7 +14909,7 @@
         <v>1883</v>
       </c>
       <c r="O172" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P172" t="s">
         <v>2129</v>
@@ -15037,7 +14959,7 @@
         <v>1884</v>
       </c>
       <c r="O173" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="P173" t="s">
         <v>2131</v>
@@ -15087,7 +15009,7 @@
         <v>1885</v>
       </c>
       <c r="O174" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P174" t="s">
         <v>2132</v>
@@ -15134,7 +15056,7 @@
         <v>1886</v>
       </c>
       <c r="O175" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P175" t="s">
         <v>2135</v>
@@ -15228,7 +15150,7 @@
         <v>1888</v>
       </c>
       <c r="O177" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P177" t="s">
         <v>2129</v>
@@ -15278,7 +15200,7 @@
         <v>1889</v>
       </c>
       <c r="O178" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P178" t="s">
         <v>2129</v>
@@ -15316,7 +15238,7 @@
         <v>1890</v>
       </c>
       <c r="O179" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="P179" t="s">
         <v>2135</v>
@@ -15363,7 +15285,7 @@
         <v>1891</v>
       </c>
       <c r="O180" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P180" t="s">
         <v>2131</v>
@@ -15413,7 +15335,7 @@
         <v>1892</v>
       </c>
       <c r="O181" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P181" t="s">
         <v>2134</v>
@@ -16774,7 +16696,7 @@
         <v>1920</v>
       </c>
       <c r="O209" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P209" t="s">
         <v>2132</v>
@@ -16871,7 +16793,7 @@
         <v>1922</v>
       </c>
       <c r="O211" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P211" t="s">
         <v>2129</v>
@@ -16921,7 +16843,7 @@
         <v>1923</v>
       </c>
       <c r="O212" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P212" t="s">
         <v>2129</v>
@@ -16971,7 +16893,7 @@
         <v>1924</v>
       </c>
       <c r="O213" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P213" t="s">
         <v>2131</v>
@@ -17021,7 +16943,7 @@
         <v>1925</v>
       </c>
       <c r="O214" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P214" t="s">
         <v>2129</v>
@@ -17115,7 +17037,7 @@
         <v>1927</v>
       </c>
       <c r="O216" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P216" t="s">
         <v>2129</v>
@@ -17164,15 +17086,6 @@
       <c r="N217" t="s">
         <v>1928</v>
       </c>
-      <c r="O217" t="s">
-        <v>2123</v>
-      </c>
-      <c r="P217" t="s">
-        <v>2129</v>
-      </c>
-      <c r="Q217" t="s">
-        <v>340</v>
-      </c>
     </row>
     <row r="218" spans="1:18">
       <c r="A218" t="s">
@@ -17191,7 +17104,7 @@
         <v>1929</v>
       </c>
       <c r="O218" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="P218" t="s">
         <v>2130</v>
@@ -17235,7 +17148,7 @@
         <v>1930</v>
       </c>
       <c r="O219" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="P219" t="s">
         <v>2130</v>
@@ -17282,7 +17195,7 @@
         <v>1931</v>
       </c>
       <c r="O220" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="P220" t="s">
         <v>2129</v>
@@ -17332,7 +17245,7 @@
         <v>1932</v>
       </c>
       <c r="O221" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P221" t="s">
         <v>2129</v>
@@ -17755,7 +17668,7 @@
         <v>1941</v>
       </c>
       <c r="O230" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P230" t="s">
         <v>2129</v>
@@ -17805,7 +17718,7 @@
         <v>1942</v>
       </c>
       <c r="O231" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P231" t="s">
         <v>2129</v>
@@ -17949,7 +17862,7 @@
         <v>1945</v>
       </c>
       <c r="O234" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="P234" t="s">
         <v>2130</v>
@@ -17981,7 +17894,7 @@
         <v>1946</v>
       </c>
       <c r="O235" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P235" t="s">
         <v>2135</v>
@@ -18075,7 +17988,7 @@
         <v>1948</v>
       </c>
       <c r="O237" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="P237" t="s">
         <v>2129</v>
@@ -18169,7 +18082,7 @@
         <v>1950</v>
       </c>
       <c r="O239" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P239" t="s">
         <v>2129</v>
@@ -18219,7 +18132,7 @@
         <v>1951</v>
       </c>
       <c r="O240" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="P240" t="s">
         <v>2132</v>
@@ -18266,7 +18179,7 @@
         <v>1952</v>
       </c>
       <c r="O241" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P241" t="s">
         <v>2129</v>
@@ -18316,7 +18229,7 @@
         <v>1953</v>
       </c>
       <c r="O242" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P242" t="s">
         <v>2129</v>
@@ -18401,7 +18314,7 @@
         <v>1955</v>
       </c>
       <c r="O244" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="P244" t="s">
         <v>2132</v>
@@ -18448,7 +18361,7 @@
         <v>1956</v>
       </c>
       <c r="O245" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P245" t="s">
         <v>2129</v>
@@ -18498,7 +18411,7 @@
         <v>1957</v>
       </c>
       <c r="O246" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P246" t="s">
         <v>2132</v>
@@ -18592,7 +18505,7 @@
         <v>1959</v>
       </c>
       <c r="O248" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="P248" t="s">
         <v>2132</v>
@@ -18686,7 +18599,7 @@
         <v>1961</v>
       </c>
       <c r="O250" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P250" t="s">
         <v>2129</v>
@@ -18736,7 +18649,7 @@
         <v>1962</v>
       </c>
       <c r="O251" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P251" t="s">
         <v>2129</v>
@@ -18779,12 +18692,6 @@
       <c r="N252" t="s">
         <v>1963</v>
       </c>
-      <c r="O252" t="s">
-        <v>2122</v>
-      </c>
-      <c r="P252" t="s">
-        <v>2135</v>
-      </c>
     </row>
     <row r="253" spans="1:18">
       <c r="A253" t="s">
@@ -18877,7 +18784,7 @@
         <v>1965</v>
       </c>
       <c r="O254" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P254" t="s">
         <v>2129</v>
@@ -18927,7 +18834,7 @@
         <v>1966</v>
       </c>
       <c r="O255" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P255" t="s">
         <v>2132</v>
@@ -18974,7 +18881,7 @@
         <v>1967</v>
       </c>
       <c r="O256" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P256" t="s">
         <v>2135</v>
@@ -19021,7 +18928,7 @@
         <v>1968</v>
       </c>
       <c r="O257" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P257" t="s">
         <v>2129</v>
@@ -19059,7 +18966,7 @@
         <v>1969</v>
       </c>
       <c r="O258" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P258" t="s">
         <v>2129</v>
@@ -19109,7 +19016,7 @@
         <v>1970</v>
       </c>
       <c r="O259" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P259" t="s">
         <v>2131</v>
@@ -19350,7 +19257,7 @@
         <v>1975</v>
       </c>
       <c r="O264" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P264" t="s">
         <v>2129</v>
@@ -19447,7 +19354,7 @@
         <v>1977</v>
       </c>
       <c r="O266" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P266" t="s">
         <v>2132</v>
@@ -19497,7 +19404,7 @@
         <v>1978</v>
       </c>
       <c r="O267" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="P267" t="s">
         <v>2132</v>
@@ -19638,7 +19545,7 @@
         <v>1981</v>
       </c>
       <c r="O270" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P270" t="s">
         <v>2129</v>
@@ -19782,7 +19689,7 @@
         <v>1984</v>
       </c>
       <c r="O273" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P273" t="s">
         <v>2129</v>
@@ -19902,7 +19809,7 @@
         <v>1987</v>
       </c>
       <c r="O276" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P276" t="s">
         <v>2129</v>
@@ -19951,15 +19858,6 @@
       <c r="N277" t="s">
         <v>1988</v>
       </c>
-      <c r="O277" t="s">
-        <v>2122</v>
-      </c>
-      <c r="P277" t="s">
-        <v>2129</v>
-      </c>
-      <c r="Q277" t="s">
-        <v>285</v>
-      </c>
     </row>
     <row r="278" spans="1:18">
       <c r="A278" t="s">
@@ -20002,7 +19900,7 @@
         <v>1989</v>
       </c>
       <c r="O278" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P278" t="s">
         <v>2131</v>
@@ -20043,7 +19941,7 @@
         <v>1990</v>
       </c>
       <c r="O279" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P279" t="s">
         <v>2129</v>
@@ -20093,7 +19991,7 @@
         <v>1991</v>
       </c>
       <c r="O280" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P280" t="s">
         <v>2129</v>
@@ -20193,7 +20091,7 @@
         <v>1993</v>
       </c>
       <c r="O282" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="P282" t="s">
         <v>2131</v>
@@ -20440,7 +20338,7 @@
         <v>1998</v>
       </c>
       <c r="O287" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P287" t="s">
         <v>2129</v>
@@ -20537,7 +20435,7 @@
         <v>2000</v>
       </c>
       <c r="O289" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P289" t="s">
         <v>2129</v>
@@ -20634,7 +20532,7 @@
         <v>2002</v>
       </c>
       <c r="O291" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P291" t="s">
         <v>2132</v>
@@ -20680,15 +20578,6 @@
       <c r="N292" t="s">
         <v>2003</v>
       </c>
-      <c r="O292" t="s">
-        <v>2122</v>
-      </c>
-      <c r="P292" t="s">
-        <v>2129</v>
-      </c>
-      <c r="Q292" t="s">
-        <v>285</v>
-      </c>
     </row>
     <row r="293" spans="1:18">
       <c r="A293" t="s">
@@ -20731,7 +20620,7 @@
         <v>2004</v>
       </c>
       <c r="O293" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P293" t="s">
         <v>2131</v>
@@ -20781,7 +20670,7 @@
         <v>2005</v>
       </c>
       <c r="O294" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P294" t="s">
         <v>2131</v>
@@ -20830,15 +20719,6 @@
       <c r="N295" t="s">
         <v>2006</v>
       </c>
-      <c r="O295" t="s">
-        <v>2122</v>
-      </c>
-      <c r="P295" t="s">
-        <v>2129</v>
-      </c>
-      <c r="Q295" t="s">
-        <v>285</v>
-      </c>
     </row>
     <row r="296" spans="1:18">
       <c r="A296" t="s">
@@ -20927,15 +20807,6 @@
       <c r="N297" t="s">
         <v>2008</v>
       </c>
-      <c r="O297" t="s">
-        <v>2123</v>
-      </c>
-      <c r="P297" t="s">
-        <v>2129</v>
-      </c>
-      <c r="Q297" t="s">
-        <v>340</v>
-      </c>
     </row>
     <row r="298" spans="1:18">
       <c r="A298" t="s">
@@ -20978,7 +20849,7 @@
         <v>2009</v>
       </c>
       <c r="O298" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P298" t="s">
         <v>2131</v>
@@ -21021,15 +20892,6 @@
       <c r="N299" t="s">
         <v>2010</v>
       </c>
-      <c r="O299" t="s">
-        <v>2122</v>
-      </c>
-      <c r="P299" t="s">
-        <v>2129</v>
-      </c>
-      <c r="Q299" t="s">
-        <v>285</v>
-      </c>
     </row>
     <row r="300" spans="1:18">
       <c r="A300" t="s">
@@ -21119,7 +20981,7 @@
         <v>2012</v>
       </c>
       <c r="O301" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="P301" t="s">
         <v>2131</v>
@@ -21169,7 +21031,7 @@
         <v>2013</v>
       </c>
       <c r="O302" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="P302" t="s">
         <v>2134</v>
@@ -21263,7 +21125,7 @@
         <v>2015</v>
       </c>
       <c r="O304" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P304" t="s">
         <v>2132</v>
@@ -21354,7 +21216,7 @@
         <v>2017</v>
       </c>
       <c r="O306" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P306" t="s">
         <v>2131</v>
@@ -21403,12 +21265,6 @@
       <c r="N307" t="s">
         <v>2018</v>
       </c>
-      <c r="O307" t="s">
-        <v>2123</v>
-      </c>
-      <c r="P307" t="s">
-        <v>2135</v>
-      </c>
     </row>
     <row r="308" spans="1:18">
       <c r="A308" t="s">
@@ -21450,15 +21306,6 @@
       <c r="N308" t="s">
         <v>2019</v>
       </c>
-      <c r="O308" t="s">
-        <v>2123</v>
-      </c>
-      <c r="P308" t="s">
-        <v>2129</v>
-      </c>
-      <c r="Q308" t="s">
-        <v>340</v>
-      </c>
     </row>
     <row r="309" spans="1:18">
       <c r="B309" t="s">
@@ -21509,7 +21356,7 @@
         <v>2020</v>
       </c>
       <c r="O310" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P310" t="s">
         <v>2129</v>
@@ -21562,7 +21409,7 @@
         <v>2021</v>
       </c>
       <c r="O311" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P311" t="s">
         <v>2129</v>
@@ -21612,7 +21459,7 @@
         <v>2022</v>
       </c>
       <c r="O312" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="P312" t="s">
         <v>2132</v>
@@ -21662,7 +21509,7 @@
         <v>2023</v>
       </c>
       <c r="O313" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="P313" t="s">
         <v>2129</v>
@@ -21697,7 +21544,7 @@
         <v>2024</v>
       </c>
       <c r="O314" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P314" t="s">
         <v>2129</v>
@@ -21747,7 +21594,7 @@
         <v>2025</v>
       </c>
       <c r="O315" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P315" t="s">
         <v>2129</v>
@@ -21796,15 +21643,6 @@
       <c r="N316" t="s">
         <v>2026</v>
       </c>
-      <c r="O316" t="s">
-        <v>2118</v>
-      </c>
-      <c r="P316" t="s">
-        <v>2129</v>
-      </c>
-      <c r="Q316" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="317" spans="1:18">
       <c r="A317" t="s">
@@ -21882,7 +21720,7 @@
         <v>2028</v>
       </c>
       <c r="O318" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P318" t="s">
         <v>2129</v>
@@ -21982,7 +21820,7 @@
         <v>2030</v>
       </c>
       <c r="O320" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P320" t="s">
         <v>2129</v>
@@ -22031,15 +21869,6 @@
       <c r="N321" t="s">
         <v>2031</v>
       </c>
-      <c r="O321" t="s">
-        <v>2123</v>
-      </c>
-      <c r="P321" t="s">
-        <v>2129</v>
-      </c>
-      <c r="Q321" t="s">
-        <v>340</v>
-      </c>
     </row>
     <row r="322" spans="1:18">
       <c r="A322" t="s">
@@ -22079,7 +21908,7 @@
         <v>2032</v>
       </c>
       <c r="O322" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P322" t="s">
         <v>2129</v>
@@ -22226,7 +22055,7 @@
         <v>2035</v>
       </c>
       <c r="O325" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P325" t="s">
         <v>2132</v>
@@ -22320,7 +22149,7 @@
         <v>2037</v>
       </c>
       <c r="O327" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P327" t="s">
         <v>2129</v>
@@ -22370,7 +22199,7 @@
         <v>2038</v>
       </c>
       <c r="O328" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P328" t="s">
         <v>2131</v>
@@ -22420,7 +22249,7 @@
         <v>2039</v>
       </c>
       <c r="O329" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P329" t="s">
         <v>2129</v>
@@ -22470,7 +22299,7 @@
         <v>2040</v>
       </c>
       <c r="O330" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P330" t="s">
         <v>2135</v>
@@ -22517,7 +22346,7 @@
         <v>2041</v>
       </c>
       <c r="O331" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P331" t="s">
         <v>2129</v>
@@ -22567,7 +22396,7 @@
         <v>2042</v>
       </c>
       <c r="O332" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P332" t="s">
         <v>2129</v>
@@ -22664,7 +22493,7 @@
         <v>2044</v>
       </c>
       <c r="O334" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P334" t="s">
         <v>2131</v>
@@ -22749,7 +22578,7 @@
         <v>2046</v>
       </c>
       <c r="O336" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P336" t="s">
         <v>2132</v>
@@ -22796,7 +22625,7 @@
         <v>2047</v>
       </c>
       <c r="O337" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P337" t="s">
         <v>2129</v>
@@ -22846,7 +22675,7 @@
         <v>2048</v>
       </c>
       <c r="O338" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="P338" t="s">
         <v>2129</v>
@@ -22896,7 +22725,7 @@
         <v>2049</v>
       </c>
       <c r="O339" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P339" t="s">
         <v>2135</v>
@@ -23125,7 +22954,7 @@
         <v>2054</v>
       </c>
       <c r="O344" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="P344" t="s">
         <v>2132</v>
@@ -23172,7 +23001,7 @@
         <v>2055</v>
       </c>
       <c r="O345" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P345" t="s">
         <v>2131</v>
@@ -23222,7 +23051,7 @@
         <v>2056</v>
       </c>
       <c r="O346" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P346" t="s">
         <v>2129</v>
@@ -23322,7 +23151,7 @@
         <v>2058</v>
       </c>
       <c r="O348" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="P348" t="s">
         <v>2129</v>
@@ -23372,7 +23201,7 @@
         <v>2059</v>
       </c>
       <c r="O349" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P349" t="s">
         <v>2132</v>
@@ -23419,7 +23248,7 @@
         <v>2060</v>
       </c>
       <c r="O350" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P350" t="s">
         <v>2129</v>
@@ -23516,7 +23345,7 @@
         <v>2062</v>
       </c>
       <c r="O352" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="P352" t="s">
         <v>2129</v>
@@ -23710,7 +23539,7 @@
         <v>2066</v>
       </c>
       <c r="O356" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P356" t="s">
         <v>2129</v>
@@ -23760,7 +23589,7 @@
         <v>2067</v>
       </c>
       <c r="O357" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P357" t="s">
         <v>2132</v>
@@ -23857,7 +23686,7 @@
         <v>2069</v>
       </c>
       <c r="O359" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="P359" t="s">
         <v>2132</v>
@@ -23948,7 +23777,7 @@
         <v>2071</v>
       </c>
       <c r="O361" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="P361" t="s">
         <v>2129</v>
@@ -23998,7 +23827,7 @@
         <v>2072</v>
       </c>
       <c r="O362" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P362" t="s">
         <v>2131</v>
@@ -24098,7 +23927,7 @@
         <v>2074</v>
       </c>
       <c r="O364" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P364" t="s">
         <v>2129</v>
@@ -24245,7 +24074,7 @@
         <v>2077</v>
       </c>
       <c r="O367" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="P367" t="s">
         <v>2131</v>
@@ -24295,7 +24124,7 @@
         <v>2078</v>
       </c>
       <c r="O368" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P368" t="s">
         <v>2131</v>
@@ -24342,7 +24171,7 @@
         <v>2079</v>
       </c>
       <c r="O369" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P369" t="s">
         <v>2132</v>
@@ -24389,7 +24218,7 @@
         <v>2080</v>
       </c>
       <c r="O370" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P370" t="s">
         <v>2129</v>
@@ -24439,7 +24268,7 @@
         <v>2081</v>
       </c>
       <c r="O371" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P371" t="s">
         <v>2135</v>
@@ -24486,7 +24315,7 @@
         <v>2082</v>
       </c>
       <c r="O372" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P372" t="s">
         <v>2129</v>
@@ -24665,7 +24494,7 @@
         <v>2086</v>
       </c>
       <c r="O376" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P376" t="s">
         <v>2129</v>
@@ -24762,7 +24591,7 @@
         <v>2088</v>
       </c>
       <c r="O378" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="P378" t="s">
         <v>2129</v>
@@ -24859,7 +24688,7 @@
         <v>2090</v>
       </c>
       <c r="O380" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P380" t="s">
         <v>2129</v>
@@ -24897,7 +24726,7 @@
         <v>2091</v>
       </c>
       <c r="O381" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P381" t="s">
         <v>2129</v>
@@ -24994,7 +24823,7 @@
         <v>2093</v>
       </c>
       <c r="O383" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P383" t="s">
         <v>2134</v>
@@ -25029,7 +24858,7 @@
         <v>2094</v>
       </c>
       <c r="O384" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="P384" t="s">
         <v>2132</v>
@@ -25076,7 +24905,7 @@
         <v>2095</v>
       </c>
       <c r="O385" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="P385" t="s">
         <v>2134</v>
@@ -25173,7 +25002,7 @@
         <v>2097</v>
       </c>
       <c r="O387" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P387" t="s">
         <v>2129</v>
@@ -25270,7 +25099,7 @@
         <v>2099</v>
       </c>
       <c r="O389" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="P389" t="s">
         <v>2134</v>
@@ -25367,7 +25196,7 @@
         <v>2101</v>
       </c>
       <c r="O391" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P391" t="s">
         <v>2131</v>
@@ -25417,7 +25246,7 @@
         <v>2102</v>
       </c>
       <c r="O392" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="P392" t="s">
         <v>2132</v>
@@ -25514,7 +25343,7 @@
         <v>2104</v>
       </c>
       <c r="O394" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P394" t="s">
         <v>2131</v>
@@ -25661,7 +25490,7 @@
         <v>2107</v>
       </c>
       <c r="O397" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P397" t="s">
         <v>2131</v>
@@ -25711,7 +25540,7 @@
         <v>2108</v>
       </c>
       <c r="O398" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P398" t="s">
         <v>2129</v>
@@ -25755,7 +25584,7 @@
         <v>2109</v>
       </c>
       <c r="O399" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P399" t="s">
         <v>2135</v>
@@ -25887,7 +25716,7 @@
         <v>2112</v>
       </c>
       <c r="O402" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P402" t="s">
         <v>2129</v>
@@ -25937,7 +25766,7 @@
         <v>2113</v>
       </c>
       <c r="O403" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P403" t="s">
         <v>2129</v>
@@ -25984,7 +25813,7 @@
         <v>2114</v>
       </c>
       <c r="O404" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P404" t="s">
         <v>2129</v>

--- a/docs/data/local_authority_climate_emergency_declarations/latest/local_authority_climate_emergency_declarations.xlsx
+++ b/docs/data/local_authority_climate_emergency_declarations/latest/local_authority_climate_emergency_declarations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5793" uniqueCount="2166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5794" uniqueCount="2167">
   <si>
     <t>Dataset</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://mysociety.github.io/la_plans_promises/datasets/local_authority_climate_emergency_declarations/0_3_6</t>
+    <t>https://mysociety.github.io/la_plans_promises/datasets/local_authority_climate_emergency_declarations/0_3_7</t>
   </si>
   <si>
     <t>Dataset description</t>
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Contributors</t>
@@ -6434,6 +6434,9 @@
   </si>
   <si>
     <t>Strategic Regional Authority</t>
+  </si>
+  <si>
+    <t>YNYC</t>
   </si>
   <si>
     <t>TVCA</t>
@@ -10385,6 +10388,9 @@
       <c r="P74" t="s">
         <v>2132</v>
       </c>
+      <c r="R74" t="s">
+        <v>2139</v>
+      </c>
     </row>
     <row r="75" spans="1:18">
       <c r="A75" t="s">
@@ -10955,7 +10961,7 @@
         <v>2132</v>
       </c>
       <c r="R87" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -13883,7 +13889,7 @@
         <v>2132</v>
       </c>
       <c r="R150" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -17338,7 +17344,7 @@
         <v>2132</v>
       </c>
       <c r="R223" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -19647,7 +19653,7 @@
         <v>2132</v>
       </c>
       <c r="R272" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -22536,7 +22542,7 @@
         <v>2132</v>
       </c>
       <c r="R335" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -26246,22 +26252,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -26269,10 +26275,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="C2" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>45</v>
@@ -26286,10 +26292,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="C3" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>438</v>
@@ -26303,10 +26309,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="C4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>842</v>
@@ -26320,10 +26326,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="C5" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>954</v>
@@ -26337,10 +26343,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="C6" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>1053</v>
@@ -26354,10 +26360,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="C7" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>1056</v>
@@ -26371,10 +26377,10 @@
         <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C8" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>1066</v>
@@ -26388,10 +26394,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="C9" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>1170</v>
@@ -26405,10 +26411,10 @@
         <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="C10" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>1249</v>
@@ -26422,10 +26428,10 @@
         <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="C11" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="D11" s="3">
         <v>2022</v>
@@ -26439,10 +26445,10 @@
         <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="C12" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>1312</v>
@@ -26456,10 +26462,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="C13" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>1354</v>
@@ -26473,10 +26479,10 @@
         <v>30</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="C14" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>1364</v>
@@ -26490,10 +26496,10 @@
         <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="C15" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>1862</v>
@@ -26507,10 +26513,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="C16" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>2118</v>
@@ -26524,10 +26530,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="C17" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>2136</v>
@@ -26541,10 +26547,10 @@
         <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="C18" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>86</v>
@@ -26558,10 +26564,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="C19" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>85</v>

--- a/docs/data/local_authority_climate_emergency_declarations/latest/local_authority_climate_emergency_declarations.xlsx
+++ b/docs/data/local_authority_climate_emergency_declarations/latest/local_authority_climate_emergency_declarations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5795" uniqueCount="1820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5795" uniqueCount="1821">
   <si>
     <t>Dataset</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://mysociety.github.io/la_plans_promises/datasets/local_authority_climate_emergency_declarations/0_3_8</t>
+    <t>https://mysociety.github.io/la_plans_promises/datasets/local_authority_climate_emergency_declarations/0_3_9</t>
   </si>
   <si>
     <t>Dataset description</t>
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.8</t>
+    <t>0.3.9</t>
   </si>
   <si>
     <t>Contributors</t>
@@ -2569,9 +2569,6 @@
     <t>N - turned it down on Sept 2020</t>
   </si>
   <si>
-    <t>N - but motion committing to 2030 net zero for Council</t>
-  </si>
-  <si>
     <t>N - but released a position statement</t>
   </si>
   <si>
@@ -2710,6 +2707,9 @@
     <t>05/03/2020</t>
   </si>
   <si>
+    <t>14/11/2023</t>
+  </si>
+  <si>
     <t>18/02/2019</t>
   </si>
   <si>
@@ -4097,6 +4097,9 @@
   </si>
   <si>
     <t>https://www.centralbedfordshire.gov.uk/news/article/130/were_going_to_develop_a_climate_change_plan</t>
+  </si>
+  <si>
+    <t>https://www.charnwood.gov.uk/news/2023/11/14/councillors_declare_climate_emergency_and_commit_to_taking_action_to_tackle_global_warming</t>
   </si>
   <si>
     <t>https://www.clacks.gov.uk/document/meeting/1/1088/7099.pdf</t>
@@ -6063,13 +6066,13 @@
         <v>1358</v>
       </c>
       <c r="N2" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="O2" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P2" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -6104,13 +6107,13 @@
         <v>1358</v>
       </c>
       <c r="N3" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="O3" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P3" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6124,7 +6127,7 @@
         <v>844</v>
       </c>
       <c r="D4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>1035</v>
@@ -6151,13 +6154,13 @@
         <v>1358</v>
       </c>
       <c r="N4" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="O4" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P4" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q4" t="s">
         <v>420</v>
@@ -6174,7 +6177,7 @@
         <v>845</v>
       </c>
       <c r="D5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>1035</v>
@@ -6201,7 +6204,7 @@
         <v>1358</v>
       </c>
       <c r="N5" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -6215,7 +6218,7 @@
         <v>844</v>
       </c>
       <c r="D6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>1035</v>
@@ -6242,13 +6245,13 @@
         <v>1358</v>
       </c>
       <c r="N6" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="O6" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P6" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q6" t="s">
         <v>125</v>
@@ -6265,7 +6268,7 @@
         <v>844</v>
       </c>
       <c r="D7" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1035</v>
@@ -6292,13 +6295,13 @@
         <v>1358</v>
       </c>
       <c r="N7" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="O7" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P7" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -6324,13 +6327,13 @@
         <v>1358</v>
       </c>
       <c r="N8" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="O8" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="P8" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -6344,7 +6347,7 @@
         <v>844</v>
       </c>
       <c r="D9" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>1035</v>
@@ -6368,13 +6371,13 @@
         <v>1358</v>
       </c>
       <c r="N9" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="O9" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="P9" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -6388,7 +6391,7 @@
         <v>846</v>
       </c>
       <c r="D10" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>1035</v>
@@ -6415,13 +6418,13 @@
         <v>1358</v>
       </c>
       <c r="N10" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="O10" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P10" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -6447,13 +6450,13 @@
         <v>1358</v>
       </c>
       <c r="N11" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="O11" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="P11" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -6467,7 +6470,7 @@
         <v>844</v>
       </c>
       <c r="D12" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>1035</v>
@@ -6494,13 +6497,13 @@
         <v>1358</v>
       </c>
       <c r="N12" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="O12" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P12" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q12" t="s">
         <v>420</v>
@@ -6529,13 +6532,13 @@
         <v>1358</v>
       </c>
       <c r="N13" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="O13" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P13" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q13" t="s">
         <v>289</v>
@@ -6573,13 +6576,13 @@
         <v>1358</v>
       </c>
       <c r="N14" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="O14" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P14" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q14" t="s">
         <v>200</v>
@@ -6596,7 +6599,7 @@
         <v>844</v>
       </c>
       <c r="D15" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>1035</v>
@@ -6623,13 +6626,13 @@
         <v>1358</v>
       </c>
       <c r="N15" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="O15" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P15" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q15" t="s">
         <v>371</v>
@@ -6646,7 +6649,7 @@
         <v>844</v>
       </c>
       <c r="D16" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>1035</v>
@@ -6673,13 +6676,13 @@
         <v>1358</v>
       </c>
       <c r="N16" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="O16" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="P16" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R16" t="s">
         <v>335</v>
@@ -6696,7 +6699,7 @@
         <v>844</v>
       </c>
       <c r="D17" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>1035</v>
@@ -6723,7 +6726,7 @@
         <v>1358</v>
       </c>
       <c r="N17" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -6752,13 +6755,13 @@
         <v>1358</v>
       </c>
       <c r="N18" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="O18" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P18" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q18" t="s">
         <v>157</v>
@@ -6775,7 +6778,7 @@
         <v>844</v>
       </c>
       <c r="D19" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>1035</v>
@@ -6802,13 +6805,13 @@
         <v>1358</v>
       </c>
       <c r="N19" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="O19" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P19" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q19" t="s">
         <v>179</v>
@@ -6837,13 +6840,13 @@
         <v>1358</v>
       </c>
       <c r="N20" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="O20" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P20" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q20" t="s">
         <v>289</v>
@@ -6860,7 +6863,7 @@
         <v>844</v>
       </c>
       <c r="D21" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>1035</v>
@@ -6887,13 +6890,13 @@
         <v>1358</v>
       </c>
       <c r="N21" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="O21" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="P21" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="R21" t="s">
         <v>417</v>
@@ -6910,7 +6913,7 @@
         <v>844</v>
       </c>
       <c r="D22" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>1035</v>
@@ -6937,13 +6940,13 @@
         <v>1358</v>
       </c>
       <c r="N22" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="O22" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P22" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -6957,7 +6960,7 @@
         <v>844</v>
       </c>
       <c r="D23" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>1035</v>
@@ -6981,13 +6984,13 @@
         <v>1358</v>
       </c>
       <c r="N23" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="O23" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="P23" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -7001,7 +7004,7 @@
         <v>844</v>
       </c>
       <c r="D24" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>1035</v>
@@ -7028,13 +7031,13 @@
         <v>1358</v>
       </c>
       <c r="N24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="O24" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P24" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R24" t="s">
         <v>415</v>
@@ -7066,13 +7069,13 @@
         <v>1358</v>
       </c>
       <c r="N25" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="O25" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P25" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q25" t="s">
         <v>208</v>
@@ -7089,7 +7092,7 @@
         <v>844</v>
       </c>
       <c r="D26" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>1035</v>
@@ -7116,13 +7119,13 @@
         <v>1358</v>
       </c>
       <c r="N26" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="O26" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P26" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -7136,7 +7139,7 @@
         <v>844</v>
       </c>
       <c r="D27" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>1035</v>
@@ -7163,13 +7166,13 @@
         <v>1358</v>
       </c>
       <c r="N27" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="O27" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P27" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -7183,7 +7186,7 @@
         <v>844</v>
       </c>
       <c r="D28" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>1035</v>
@@ -7210,13 +7213,13 @@
         <v>1358</v>
       </c>
       <c r="N28" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="O28" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="P28" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -7245,13 +7248,13 @@
         <v>1358</v>
       </c>
       <c r="N29" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="O29" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P29" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q29" t="s">
         <v>125</v>
@@ -7268,7 +7271,7 @@
         <v>844</v>
       </c>
       <c r="D30" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>1035</v>
@@ -7295,13 +7298,13 @@
         <v>1358</v>
       </c>
       <c r="N30" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="O30" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P30" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R30" t="s">
         <v>174</v>
@@ -7318,7 +7321,7 @@
         <v>844</v>
       </c>
       <c r="D31" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>1035</v>
@@ -7345,13 +7348,13 @@
         <v>1358</v>
       </c>
       <c r="N31" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="O31" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P31" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q31" t="s">
         <v>212</v>
@@ -7368,7 +7371,7 @@
         <v>844</v>
       </c>
       <c r="D32" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>1035</v>
@@ -7395,13 +7398,13 @@
         <v>1358</v>
       </c>
       <c r="N32" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="O32" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="P32" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -7430,13 +7433,13 @@
         <v>1358</v>
       </c>
       <c r="N33" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="O33" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P33" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -7450,7 +7453,7 @@
         <v>844</v>
       </c>
       <c r="D34" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>1035</v>
@@ -7477,13 +7480,13 @@
         <v>1358</v>
       </c>
       <c r="N34" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="O34" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="P34" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R34" t="s">
         <v>421</v>
@@ -7500,7 +7503,7 @@
         <v>844</v>
       </c>
       <c r="D35" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>1035</v>
@@ -7527,13 +7530,13 @@
         <v>1358</v>
       </c>
       <c r="N35" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="O35" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P35" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q35" t="s">
         <v>157</v>
@@ -7550,7 +7553,7 @@
         <v>844</v>
       </c>
       <c r="D36" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>1035</v>
@@ -7577,13 +7580,13 @@
         <v>1358</v>
       </c>
       <c r="N36" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="O36" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P36" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q36" t="s">
         <v>268</v>
@@ -7615,13 +7618,13 @@
         <v>1358</v>
       </c>
       <c r="N37" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="O37" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P37" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q37" t="s">
         <v>157</v>
@@ -7638,7 +7641,7 @@
         <v>844</v>
       </c>
       <c r="D38" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>1035</v>
@@ -7665,13 +7668,13 @@
         <v>1358</v>
       </c>
       <c r="N38" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="O38" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="P38" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -7685,7 +7688,7 @@
         <v>844</v>
       </c>
       <c r="D39" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>1035</v>
@@ -7712,13 +7715,13 @@
         <v>1358</v>
       </c>
       <c r="N39" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="O39" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P39" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -7732,7 +7735,7 @@
         <v>844</v>
       </c>
       <c r="D40" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>1035</v>
@@ -7759,13 +7762,13 @@
         <v>1358</v>
       </c>
       <c r="N40" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="O40" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="P40" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="R40" t="s">
         <v>417</v>
@@ -7797,13 +7800,13 @@
         <v>1358</v>
       </c>
       <c r="N41" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="O41" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P41" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q41" t="s">
         <v>268</v>
@@ -7820,7 +7823,7 @@
         <v>844</v>
       </c>
       <c r="D42" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>1035</v>
@@ -7844,13 +7847,13 @@
         <v>1358</v>
       </c>
       <c r="N42" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="O42" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P42" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q42" t="s">
         <v>431</v>
@@ -7879,13 +7882,13 @@
         <v>1358</v>
       </c>
       <c r="N43" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="O43" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P43" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q43" t="s">
         <v>188</v>
@@ -7902,7 +7905,7 @@
         <v>844</v>
       </c>
       <c r="D44" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>1035</v>
@@ -7929,13 +7932,13 @@
         <v>1358</v>
       </c>
       <c r="N44" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="O44" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P44" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q44" t="s">
         <v>289</v>
@@ -7952,7 +7955,7 @@
         <v>848</v>
       </c>
       <c r="D45" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>1035</v>
@@ -7979,13 +7982,13 @@
         <v>1358</v>
       </c>
       <c r="N45" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="O45" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P45" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -7999,7 +8002,7 @@
         <v>844</v>
       </c>
       <c r="D46" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>1035</v>
@@ -8026,13 +8029,13 @@
         <v>1358</v>
       </c>
       <c r="N46" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="O46" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P46" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q46" t="s">
         <v>204</v>
@@ -8049,7 +8052,7 @@
         <v>844</v>
       </c>
       <c r="D47" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>1035</v>
@@ -8076,13 +8079,13 @@
         <v>1358</v>
       </c>
       <c r="N47" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="O47" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P47" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R47" t="s">
         <v>174</v>
@@ -8099,7 +8102,7 @@
         <v>844</v>
       </c>
       <c r="D48" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>1035</v>
@@ -8126,13 +8129,13 @@
         <v>1358</v>
       </c>
       <c r="N48" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="O48" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="P48" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -8146,7 +8149,7 @@
         <v>844</v>
       </c>
       <c r="D49" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>1035</v>
@@ -8173,13 +8176,13 @@
         <v>1358</v>
       </c>
       <c r="N49" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="O49" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="P49" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R49" t="s">
         <v>421</v>
@@ -8196,7 +8199,7 @@
         <v>844</v>
       </c>
       <c r="D50" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>1035</v>
@@ -8223,13 +8226,13 @@
         <v>1358</v>
       </c>
       <c r="N50" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="O50" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P50" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q50" t="s">
         <v>86</v>
@@ -8264,13 +8267,13 @@
         <v>1358</v>
       </c>
       <c r="N51" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="O51" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P51" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -8284,7 +8287,7 @@
         <v>844</v>
       </c>
       <c r="D52" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>1035</v>
@@ -8311,13 +8314,13 @@
         <v>1358</v>
       </c>
       <c r="N52" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="O52" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P52" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="R52" t="s">
         <v>85</v>
@@ -8334,7 +8337,7 @@
         <v>844</v>
       </c>
       <c r="D53" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>1035</v>
@@ -8361,13 +8364,13 @@
         <v>1358</v>
       </c>
       <c r="N53" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="O53" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P53" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q53" t="s">
         <v>362</v>
@@ -8384,7 +8387,7 @@
         <v>844</v>
       </c>
       <c r="D54" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>1035</v>
@@ -8408,13 +8411,13 @@
         <v>1358</v>
       </c>
       <c r="N54" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="O54" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P54" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q54" t="s">
         <v>200</v>
@@ -8431,7 +8434,7 @@
         <v>844</v>
       </c>
       <c r="D55" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>1035</v>
@@ -8458,7 +8461,7 @@
         <v>1358</v>
       </c>
       <c r="N55" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -8472,7 +8475,7 @@
         <v>844</v>
       </c>
       <c r="D56" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>1035</v>
@@ -8499,13 +8502,13 @@
         <v>1358</v>
       </c>
       <c r="N56" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="O56" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="P56" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -8531,13 +8534,13 @@
         <v>1358</v>
       </c>
       <c r="N57" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="O57" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P57" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q57" t="s">
         <v>157</v>
@@ -8554,7 +8557,7 @@
         <v>844</v>
       </c>
       <c r="D58" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>1035</v>
@@ -8578,13 +8581,13 @@
         <v>1358</v>
       </c>
       <c r="N58" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="O58" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="P58" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -8598,7 +8601,7 @@
         <v>844</v>
       </c>
       <c r="D59" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>1035</v>
@@ -8625,13 +8628,13 @@
         <v>1359</v>
       </c>
       <c r="N59" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="O59" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P59" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -8645,7 +8648,7 @@
         <v>844</v>
       </c>
       <c r="D60" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>1035</v>
@@ -8672,13 +8675,13 @@
         <v>1358</v>
       </c>
       <c r="N60" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="O60" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="P60" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -8689,10 +8692,10 @@
         <v>497</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="D61" t="s">
-        <v>864</v>
+        <v>896</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>1035</v>
@@ -8715,17 +8718,17 @@
       <c r="K61" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="M61" s="3" t="s">
-        <v>1358</v>
+      <c r="M61" s="2" t="s">
+        <v>1360</v>
       </c>
       <c r="N61" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="O61" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P61" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q61" t="s">
         <v>208</v>
@@ -8742,7 +8745,7 @@
         <v>844</v>
       </c>
       <c r="D62" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>1035</v>
@@ -8769,13 +8772,13 @@
         <v>1358</v>
       </c>
       <c r="N62" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="O62" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P62" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q62" t="s">
         <v>157</v>
@@ -8819,13 +8822,13 @@
         <v>1358</v>
       </c>
       <c r="N63" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="O63" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="P63" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q63" t="s">
         <v>170</v>
@@ -8842,7 +8845,7 @@
         <v>844</v>
       </c>
       <c r="D64" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>1035</v>
@@ -8869,13 +8872,13 @@
         <v>1358</v>
       </c>
       <c r="N64" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="O64" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P64" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q64" t="s">
         <v>295</v>
@@ -8919,13 +8922,13 @@
         <v>1358</v>
       </c>
       <c r="N65" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="O65" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P65" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -8966,13 +8969,13 @@
         <v>1358</v>
       </c>
       <c r="N66" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="O66" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P66" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -8986,7 +8989,7 @@
         <v>844</v>
       </c>
       <c r="D67" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>1035</v>
@@ -9013,13 +9016,13 @@
         <v>1358</v>
       </c>
       <c r="N67" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="O67" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P67" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q67" t="s">
         <v>125</v>
@@ -9060,13 +9063,13 @@
         <v>1358</v>
       </c>
       <c r="N68" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="O68" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P68" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q68" t="s">
         <v>420</v>
@@ -9110,13 +9113,13 @@
         <v>1358</v>
       </c>
       <c r="N69" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="O69" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P69" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q69" t="s">
         <v>204</v>
@@ -9160,13 +9163,13 @@
         <v>1358</v>
       </c>
       <c r="N70" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="O70" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="P70" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -9207,13 +9210,13 @@
         <v>1358</v>
       </c>
       <c r="N71" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="O71" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="P71" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -9254,13 +9257,13 @@
         <v>1358</v>
       </c>
       <c r="N72" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="O72" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P72" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -9289,13 +9292,13 @@
         <v>1358</v>
       </c>
       <c r="N73" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="O73" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P73" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="R73" t="s">
         <v>437</v>
@@ -9339,16 +9342,16 @@
         <v>1358</v>
       </c>
       <c r="N74" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="O74" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="P74" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="R74" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -9383,16 +9386,16 @@
         <v>1059</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="N75" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="O75" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P75" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -9406,7 +9409,7 @@
         <v>844</v>
       </c>
       <c r="D76" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>1035</v>
@@ -9433,13 +9436,13 @@
         <v>1358</v>
       </c>
       <c r="N76" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="O76" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P76" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q76" t="s">
         <v>157</v>
@@ -9468,13 +9471,13 @@
         <v>1358</v>
       </c>
       <c r="N77" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="O77" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P77" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -9515,13 +9518,13 @@
         <v>1358</v>
       </c>
       <c r="N78" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="O78" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="P78" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -9532,7 +9535,7 @@
         <v>515</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D79" t="s">
         <v>908</v>
@@ -9559,7 +9562,7 @@
         <v>1358</v>
       </c>
       <c r="N79" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -9600,13 +9603,13 @@
         <v>1358</v>
       </c>
       <c r="N80" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="O80" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="P80" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -9647,13 +9650,13 @@
         <v>1358</v>
       </c>
       <c r="N81" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="O81" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="P81" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q81" t="s">
         <v>170</v>
@@ -9694,13 +9697,13 @@
         <v>1358</v>
       </c>
       <c r="N82" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="O82" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P82" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R82" t="s">
         <v>415</v>
@@ -9744,7 +9747,7 @@
         <v>1358</v>
       </c>
       <c r="N83" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -9758,7 +9761,7 @@
         <v>844</v>
       </c>
       <c r="D84" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>1035</v>
@@ -9785,13 +9788,13 @@
         <v>1358</v>
       </c>
       <c r="N84" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="O84" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P84" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q84" t="s">
         <v>420</v>
@@ -9823,7 +9826,7 @@
         <v>1358</v>
       </c>
       <c r="N85" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -9837,7 +9840,7 @@
         <v>844</v>
       </c>
       <c r="D86" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>1035</v>
@@ -9861,13 +9864,13 @@
         <v>1358</v>
       </c>
       <c r="N86" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="O86" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P86" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q86" t="s">
         <v>188</v>
@@ -9884,7 +9887,7 @@
         <v>844</v>
       </c>
       <c r="D87" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>1035</v>
@@ -9911,16 +9914,16 @@
         <v>1358</v>
       </c>
       <c r="N87" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="O87" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="P87" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="R87" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -9961,13 +9964,13 @@
         <v>1358</v>
       </c>
       <c r="N88" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="O88" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P88" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q88" t="s">
         <v>200</v>
@@ -10008,13 +10011,13 @@
         <v>1358</v>
       </c>
       <c r="N89" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="O89" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="P89" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -10052,13 +10055,13 @@
         <v>1358</v>
       </c>
       <c r="N90" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="O90" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P90" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -10069,7 +10072,7 @@
         <v>527</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D91" t="s">
         <v>916</v>
@@ -10099,13 +10102,13 @@
         <v>1358</v>
       </c>
       <c r="N91" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="O91" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P91" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -10146,13 +10149,13 @@
         <v>1358</v>
       </c>
       <c r="N92" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="O92" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P92" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q92" t="s">
         <v>125</v>
@@ -10196,13 +10199,13 @@
         <v>1358</v>
       </c>
       <c r="N93" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="O93" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="P93" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -10216,7 +10219,7 @@
         <v>844</v>
       </c>
       <c r="D94" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>1035</v>
@@ -10243,13 +10246,13 @@
         <v>1358</v>
       </c>
       <c r="N94" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="O94" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="P94" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -10263,7 +10266,7 @@
         <v>844</v>
       </c>
       <c r="D95" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>1035</v>
@@ -10290,13 +10293,13 @@
         <v>1358</v>
       </c>
       <c r="N95" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="O95" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="P95" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R95" t="s">
         <v>335</v>
@@ -10340,13 +10343,13 @@
         <v>1358</v>
       </c>
       <c r="N96" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="O96" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="P96" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -10387,13 +10390,13 @@
         <v>1358</v>
       </c>
       <c r="N97" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="O97" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P97" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q97" t="s">
         <v>200</v>
@@ -10437,13 +10440,13 @@
         <v>1358</v>
       </c>
       <c r="N98" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="O98" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P98" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R98" t="s">
         <v>415</v>
@@ -10487,13 +10490,13 @@
         <v>1358</v>
       </c>
       <c r="N99" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="O99" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P99" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -10534,13 +10537,13 @@
         <v>1358</v>
       </c>
       <c r="N100" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="O100" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P100" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -10554,7 +10557,7 @@
         <v>844</v>
       </c>
       <c r="D101" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>1035</v>
@@ -10581,13 +10584,13 @@
         <v>1358</v>
       </c>
       <c r="N101" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="O101" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="P101" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="R101" t="s">
         <v>271</v>
@@ -10616,13 +10619,13 @@
         <v>1358</v>
       </c>
       <c r="N102" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="O102" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P102" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -10663,13 +10666,13 @@
         <v>1358</v>
       </c>
       <c r="N103" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="O103" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P103" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q103" t="s">
         <v>86</v>
@@ -10689,7 +10692,7 @@
         <v>844</v>
       </c>
       <c r="D104" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>1035</v>
@@ -10716,13 +10719,13 @@
         <v>1358</v>
       </c>
       <c r="N104" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="O104" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="P104" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q104" t="s">
         <v>128</v>
@@ -10751,13 +10754,13 @@
         <v>1358</v>
       </c>
       <c r="N105" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="O105" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P105" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -10771,7 +10774,7 @@
         <v>844</v>
       </c>
       <c r="D106" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>1035</v>
@@ -10798,13 +10801,13 @@
         <v>1358</v>
       </c>
       <c r="N106" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="O106" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P106" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q106" t="s">
         <v>179</v>
@@ -10848,13 +10851,13 @@
         <v>1358</v>
       </c>
       <c r="N107" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="O107" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P107" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q107" t="s">
         <v>188</v>
@@ -10886,13 +10889,13 @@
         <v>1358</v>
       </c>
       <c r="N108" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="O108" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P108" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q108" t="s">
         <v>212</v>
@@ -10936,13 +10939,13 @@
         <v>1358</v>
       </c>
       <c r="N109" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="O109" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P109" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -10983,13 +10986,13 @@
         <v>1358</v>
       </c>
       <c r="N110" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="O110" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P110" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -11030,13 +11033,13 @@
         <v>1358</v>
       </c>
       <c r="N111" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="O111" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="P111" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -11077,13 +11080,13 @@
         <v>1358</v>
       </c>
       <c r="N112" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="O112" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P112" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q112" t="s">
         <v>362</v>
@@ -11100,7 +11103,7 @@
         <v>844</v>
       </c>
       <c r="D113" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>1035</v>
@@ -11127,13 +11130,13 @@
         <v>1358</v>
       </c>
       <c r="N113" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="O113" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P113" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q113" t="s">
         <v>371</v>
@@ -11177,13 +11180,13 @@
         <v>1358</v>
       </c>
       <c r="N114" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="O114" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P114" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -11197,7 +11200,7 @@
         <v>844</v>
       </c>
       <c r="D115" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>1035</v>
@@ -11224,13 +11227,13 @@
         <v>1358</v>
       </c>
       <c r="N115" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="O115" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P115" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q115" t="s">
         <v>148</v>
@@ -11247,7 +11250,7 @@
         <v>844</v>
       </c>
       <c r="D116" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>1035</v>
@@ -11274,13 +11277,13 @@
         <v>1358</v>
       </c>
       <c r="N116" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="O116" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P116" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q116" t="s">
         <v>179</v>
@@ -11324,7 +11327,7 @@
         <v>1358</v>
       </c>
       <c r="N117" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -11365,13 +11368,13 @@
         <v>1358</v>
       </c>
       <c r="N118" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="O118" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P118" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -11385,7 +11388,7 @@
         <v>844</v>
       </c>
       <c r="D119" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>1035</v>
@@ -11412,13 +11415,13 @@
         <v>1358</v>
       </c>
       <c r="N119" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="O119" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P119" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q119" t="s">
         <v>373</v>
@@ -11435,7 +11438,7 @@
         <v>844</v>
       </c>
       <c r="D120" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>1035</v>
@@ -11462,13 +11465,13 @@
         <v>1358</v>
       </c>
       <c r="N120" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="O120" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P120" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q120" t="s">
         <v>157</v>
@@ -11485,7 +11488,7 @@
         <v>844</v>
       </c>
       <c r="D121" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>1035</v>
@@ -11512,13 +11515,13 @@
         <v>1358</v>
       </c>
       <c r="N121" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="O121" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P121" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q121" t="s">
         <v>373</v>
@@ -11562,13 +11565,13 @@
         <v>1358</v>
       </c>
       <c r="N122" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="O122" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P122" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q122" t="s">
         <v>125</v>
@@ -11603,13 +11606,13 @@
         <v>1358</v>
       </c>
       <c r="N123" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="O123" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P123" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -11623,7 +11626,7 @@
         <v>844</v>
       </c>
       <c r="D124" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>1035</v>
@@ -11650,13 +11653,13 @@
         <v>1358</v>
       </c>
       <c r="N124" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="O124" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="P124" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q124" t="s">
         <v>128</v>
@@ -11700,13 +11703,13 @@
         <v>1358</v>
       </c>
       <c r="N125" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="O125" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P125" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -11747,13 +11750,13 @@
         <v>1358</v>
       </c>
       <c r="N126" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="O126" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P126" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q126" t="s">
         <v>179</v>
@@ -11782,13 +11785,13 @@
         <v>1358</v>
       </c>
       <c r="N127" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="O127" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P127" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q127" t="s">
         <v>86</v>
@@ -11832,13 +11835,13 @@
         <v>1358</v>
       </c>
       <c r="N128" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="O128" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="P128" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -11879,13 +11882,13 @@
         <v>1358</v>
       </c>
       <c r="N129" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="O129" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P129" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -11899,7 +11902,7 @@
         <v>844</v>
       </c>
       <c r="D130" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>1035</v>
@@ -11926,13 +11929,13 @@
         <v>1358</v>
       </c>
       <c r="N130" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="O130" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P130" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q130" t="s">
         <v>200</v>
@@ -11976,13 +11979,13 @@
         <v>1358</v>
       </c>
       <c r="N131" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="O131" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="P131" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q131" t="s">
         <v>170</v>
@@ -12011,13 +12014,13 @@
         <v>1358</v>
       </c>
       <c r="N132" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="O132" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P132" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q132" t="s">
         <v>204</v>
@@ -12061,13 +12064,13 @@
         <v>1358</v>
       </c>
       <c r="N133" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="O133" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="P133" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R133" t="s">
         <v>271</v>
@@ -12111,13 +12114,13 @@
         <v>1358</v>
       </c>
       <c r="N134" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="O134" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P134" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q134" t="s">
         <v>289</v>
@@ -12161,13 +12164,13 @@
         <v>1358</v>
       </c>
       <c r="N135" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="O135" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="P135" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q135" t="s">
         <v>170</v>
@@ -12211,13 +12214,13 @@
         <v>1358</v>
       </c>
       <c r="N136" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="O136" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="P136" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -12246,13 +12249,13 @@
         <v>1358</v>
       </c>
       <c r="N137" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="O137" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P137" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q137" t="s">
         <v>179</v>
@@ -12269,7 +12272,7 @@
         <v>844</v>
       </c>
       <c r="D138" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>1035</v>
@@ -12296,13 +12299,13 @@
         <v>1358</v>
       </c>
       <c r="N138" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="O138" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P138" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q138" t="s">
         <v>200</v>
@@ -12331,13 +12334,13 @@
         <v>1358</v>
       </c>
       <c r="N139" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="O139" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P139" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q139" t="s">
         <v>268</v>
@@ -12381,13 +12384,13 @@
         <v>1358</v>
       </c>
       <c r="N140" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="O140" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P140" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -12401,7 +12404,7 @@
         <v>844</v>
       </c>
       <c r="D141" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>1035</v>
@@ -12428,13 +12431,13 @@
         <v>1358</v>
       </c>
       <c r="N141" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="O141" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P141" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q141" t="s">
         <v>373</v>
@@ -12478,13 +12481,13 @@
         <v>1358</v>
       </c>
       <c r="N142" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="O142" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="P142" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -12522,13 +12525,13 @@
         <v>1358</v>
       </c>
       <c r="N143" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="O143" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P143" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="R143" t="s">
         <v>214</v>
@@ -12569,10 +12572,10 @@
         <v>1321</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="N144" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -12613,13 +12616,13 @@
         <v>1358</v>
       </c>
       <c r="N145" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="O145" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P145" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -12660,13 +12663,13 @@
         <v>1358</v>
       </c>
       <c r="N146" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="O146" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P146" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q146" t="s">
         <v>208</v>
@@ -12707,13 +12710,13 @@
         <v>1358</v>
       </c>
       <c r="N147" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="O147" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P147" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q147" t="s">
         <v>157</v>
@@ -12727,7 +12730,7 @@
         <v>584</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D148" t="s">
         <v>942</v>
@@ -12760,7 +12763,7 @@
         <v>1358</v>
       </c>
       <c r="N148" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -12771,7 +12774,7 @@
         <v>585</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D149" t="s">
         <v>943</v>
@@ -12804,13 +12807,13 @@
         <v>1358</v>
       </c>
       <c r="N149" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="O149" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P149" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q149" t="s">
         <v>179</v>
@@ -12839,16 +12842,16 @@
         <v>1358</v>
       </c>
       <c r="N150" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="O150" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="P150" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="R150" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -12889,13 +12892,13 @@
         <v>1358</v>
       </c>
       <c r="N151" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="O151" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P151" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q151" t="s">
         <v>148</v>
@@ -12924,13 +12927,13 @@
         <v>1358</v>
       </c>
       <c r="N152" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="O152" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P152" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q152" t="s">
         <v>179</v>
@@ -12974,13 +12977,13 @@
         <v>1358</v>
       </c>
       <c r="N153" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="O153" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P153" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -12994,7 +12997,7 @@
         <v>844</v>
       </c>
       <c r="D154" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>1035</v>
@@ -13021,13 +13024,13 @@
         <v>1358</v>
       </c>
       <c r="N154" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="O154" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P154" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -13041,7 +13044,7 @@
         <v>844</v>
       </c>
       <c r="D155" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>1035</v>
@@ -13068,13 +13071,13 @@
         <v>1358</v>
       </c>
       <c r="N155" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="O155" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P155" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q155" t="s">
         <v>188</v>
@@ -13118,13 +13121,13 @@
         <v>1358</v>
       </c>
       <c r="N156" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="O156" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P156" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q156" t="s">
         <v>125</v>
@@ -13141,7 +13144,7 @@
         <v>844</v>
       </c>
       <c r="D157" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>1035</v>
@@ -13168,13 +13171,13 @@
         <v>1358</v>
       </c>
       <c r="N157" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="O157" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P157" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q157" t="s">
         <v>208</v>
@@ -13191,7 +13194,7 @@
         <v>844</v>
       </c>
       <c r="D158" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>1035</v>
@@ -13218,13 +13221,13 @@
         <v>1358</v>
       </c>
       <c r="N158" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="O158" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P158" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q158" t="s">
         <v>420</v>
@@ -13268,13 +13271,13 @@
         <v>1358</v>
       </c>
       <c r="N159" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="O159" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="P159" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -13300,13 +13303,13 @@
         <v>1358</v>
       </c>
       <c r="N160" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="O160" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P160" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q160" t="s">
         <v>86</v>
@@ -13326,7 +13329,7 @@
         <v>844</v>
       </c>
       <c r="D161" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>1035</v>
@@ -13353,13 +13356,13 @@
         <v>1358</v>
       </c>
       <c r="N161" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="O161" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P161" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q161" t="s">
         <v>204</v>
@@ -13403,13 +13406,13 @@
         <v>1358</v>
       </c>
       <c r="N162" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="O162" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P162" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q162" t="s">
         <v>371</v>
@@ -13453,13 +13456,13 @@
         <v>1358</v>
       </c>
       <c r="N163" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="O163" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="P163" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -13473,7 +13476,7 @@
         <v>844</v>
       </c>
       <c r="D164" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>1035</v>
@@ -13500,13 +13503,13 @@
         <v>1358</v>
       </c>
       <c r="N164" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="O164" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P164" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -13547,13 +13550,13 @@
         <v>1358</v>
       </c>
       <c r="N165" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="O165" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="P165" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -13594,13 +13597,13 @@
         <v>1358</v>
       </c>
       <c r="N166" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="O166" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P166" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -13611,7 +13614,7 @@
         <v>844</v>
       </c>
       <c r="D167" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>1035</v>
@@ -13673,13 +13676,13 @@
         <v>1358</v>
       </c>
       <c r="N168" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="O168" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P168" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q168" t="s">
         <v>268</v>
@@ -13723,13 +13726,13 @@
         <v>1358</v>
       </c>
       <c r="N169" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="O169" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="P169" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R169" t="s">
         <v>421</v>
@@ -13773,13 +13776,13 @@
         <v>1358</v>
       </c>
       <c r="N170" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="O170" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P170" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R170" t="s">
         <v>214</v>
@@ -13823,13 +13826,13 @@
         <v>1358</v>
       </c>
       <c r="N171" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="O171" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P171" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -13843,7 +13846,7 @@
         <v>844</v>
       </c>
       <c r="D172" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>1035</v>
@@ -13870,13 +13873,13 @@
         <v>1358</v>
       </c>
       <c r="N172" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="O172" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P172" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q172" t="s">
         <v>204</v>
@@ -13920,13 +13923,13 @@
         <v>1358</v>
       </c>
       <c r="N173" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="O173" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="P173" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R173" t="s">
         <v>421</v>
@@ -13970,13 +13973,13 @@
         <v>1358</v>
       </c>
       <c r="N174" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="O174" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P174" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -14017,13 +14020,13 @@
         <v>1358</v>
       </c>
       <c r="N175" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="O175" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P175" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -14064,13 +14067,13 @@
         <v>1358</v>
       </c>
       <c r="N176" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="O176" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P176" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q176" t="s">
         <v>148</v>
@@ -14111,13 +14114,13 @@
         <v>1358</v>
       </c>
       <c r="N177" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="O177" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P177" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q177" t="s">
         <v>362</v>
@@ -14134,7 +14137,7 @@
         <v>844</v>
       </c>
       <c r="D178" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>1035</v>
@@ -14161,13 +14164,13 @@
         <v>1358</v>
       </c>
       <c r="N178" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="O178" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P178" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q178" t="s">
         <v>212</v>
@@ -14199,13 +14202,13 @@
         <v>1358</v>
       </c>
       <c r="N179" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="O179" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="P179" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -14219,7 +14222,7 @@
         <v>844</v>
       </c>
       <c r="D180" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>1035</v>
@@ -14246,13 +14249,13 @@
         <v>1358</v>
       </c>
       <c r="N180" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="O180" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P180" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R180" t="s">
         <v>214</v>
@@ -14296,13 +14299,13 @@
         <v>1358</v>
       </c>
       <c r="N181" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="O181" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P181" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -14343,13 +14346,13 @@
         <v>1358</v>
       </c>
       <c r="N182" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="O182" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P182" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R182" t="s">
         <v>437</v>
@@ -14387,16 +14390,16 @@
         <v>1059</v>
       </c>
       <c r="M183" s="2" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="N183" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="O183" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P183" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R183" t="s">
         <v>437</v>
@@ -14428,13 +14431,13 @@
         <v>1358</v>
       </c>
       <c r="N184" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="O184" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P184" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R184" t="s">
         <v>437</v>
@@ -14478,13 +14481,13 @@
         <v>1358</v>
       </c>
       <c r="N185" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="O185" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P185" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R185" t="s">
         <v>437</v>
@@ -14528,13 +14531,13 @@
         <v>1358</v>
       </c>
       <c r="N186" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="O186" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P186" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R186" t="s">
         <v>437</v>
@@ -14578,13 +14581,13 @@
         <v>1358</v>
       </c>
       <c r="N187" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="O187" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P187" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R187" t="s">
         <v>437</v>
@@ -14628,13 +14631,13 @@
         <v>1358</v>
       </c>
       <c r="N188" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="O188" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P188" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R188" t="s">
         <v>437</v>
@@ -14678,13 +14681,13 @@
         <v>1358</v>
       </c>
       <c r="N189" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="O189" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P189" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R189" t="s">
         <v>437</v>
@@ -14728,13 +14731,13 @@
         <v>1358</v>
       </c>
       <c r="N190" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="O190" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P190" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R190" t="s">
         <v>437</v>
@@ -14751,7 +14754,7 @@
         <v>844</v>
       </c>
       <c r="D191" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>1035</v>
@@ -14778,13 +14781,13 @@
         <v>1358</v>
       </c>
       <c r="N191" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="O191" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P191" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R191" t="s">
         <v>437</v>
@@ -14828,13 +14831,13 @@
         <v>1358</v>
       </c>
       <c r="N192" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="O192" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P192" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R192" t="s">
         <v>437</v>
@@ -14851,7 +14854,7 @@
         <v>844</v>
       </c>
       <c r="D193" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>1035</v>
@@ -14878,13 +14881,13 @@
         <v>1358</v>
       </c>
       <c r="N193" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="O193" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P193" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R193" t="s">
         <v>437</v>
@@ -14916,13 +14919,13 @@
         <v>1358</v>
       </c>
       <c r="N194" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="O194" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P194" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R194" t="s">
         <v>437</v>
@@ -14966,13 +14969,13 @@
         <v>1358</v>
       </c>
       <c r="N195" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="O195" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P195" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R195" t="s">
         <v>437</v>
@@ -15013,13 +15016,13 @@
         <v>1358</v>
       </c>
       <c r="N196" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="O196" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P196" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R196" t="s">
         <v>437</v>
@@ -15063,13 +15066,13 @@
         <v>1358</v>
       </c>
       <c r="N197" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="O197" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P197" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R197" t="s">
         <v>437</v>
@@ -15113,13 +15116,13 @@
         <v>1358</v>
       </c>
       <c r="N198" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="O198" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P198" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R198" t="s">
         <v>437</v>
@@ -15136,7 +15139,7 @@
         <v>844</v>
       </c>
       <c r="D199" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>1035</v>
@@ -15163,13 +15166,13 @@
         <v>1358</v>
       </c>
       <c r="N199" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="O199" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P199" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R199" t="s">
         <v>437</v>
@@ -15186,7 +15189,7 @@
         <v>844</v>
       </c>
       <c r="D200" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>1035</v>
@@ -15213,13 +15216,13 @@
         <v>1358</v>
       </c>
       <c r="N200" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="O200" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P200" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R200" t="s">
         <v>437</v>
@@ -15263,13 +15266,13 @@
         <v>1358</v>
       </c>
       <c r="N201" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="O201" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P201" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R201" t="s">
         <v>437</v>
@@ -15313,13 +15316,13 @@
         <v>1358</v>
       </c>
       <c r="N202" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="O202" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P202" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R202" t="s">
         <v>437</v>
@@ -15363,13 +15366,13 @@
         <v>1358</v>
       </c>
       <c r="N203" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="O203" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P203" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R203" t="s">
         <v>437</v>
@@ -15413,13 +15416,13 @@
         <v>1358</v>
       </c>
       <c r="N204" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="O204" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P204" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R204" t="s">
         <v>437</v>
@@ -15436,7 +15439,7 @@
         <v>844</v>
       </c>
       <c r="D205" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>1035</v>
@@ -15460,13 +15463,13 @@
         <v>1358</v>
       </c>
       <c r="N205" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="O205" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P205" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R205" t="s">
         <v>437</v>
@@ -15483,7 +15486,7 @@
         <v>844</v>
       </c>
       <c r="D206" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>1048</v>
@@ -15510,13 +15513,13 @@
         <v>1358</v>
       </c>
       <c r="N206" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="O206" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P206" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R206" t="s">
         <v>437</v>
@@ -15557,13 +15560,13 @@
         <v>1358</v>
       </c>
       <c r="N207" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="O207" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P207" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R207" t="s">
         <v>437</v>
@@ -15580,7 +15583,7 @@
         <v>844</v>
       </c>
       <c r="D208" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>1035</v>
@@ -15607,13 +15610,13 @@
         <v>1358</v>
       </c>
       <c r="N208" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="O208" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P208" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R208" t="s">
         <v>437</v>
@@ -15657,13 +15660,13 @@
         <v>1358</v>
       </c>
       <c r="N209" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="O209" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P209" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -15704,13 +15707,13 @@
         <v>1358</v>
       </c>
       <c r="N210" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="O210" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P210" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q210" t="s">
         <v>200</v>
@@ -15754,13 +15757,13 @@
         <v>1358</v>
       </c>
       <c r="N211" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="O211" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P211" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q211" t="s">
         <v>157</v>
@@ -15777,7 +15780,7 @@
         <v>844</v>
       </c>
       <c r="D212" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E212" s="3" t="s">
         <v>1035</v>
@@ -15804,13 +15807,13 @@
         <v>1358</v>
       </c>
       <c r="N212" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="O212" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P212" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q212" t="s">
         <v>431</v>
@@ -15827,7 +15830,7 @@
         <v>844</v>
       </c>
       <c r="D213" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>1035</v>
@@ -15854,13 +15857,13 @@
         <v>1358</v>
       </c>
       <c r="N213" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="O213" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P213" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R213" t="s">
         <v>174</v>
@@ -15877,7 +15880,7 @@
         <v>844</v>
       </c>
       <c r="D214" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E214" s="3" t="s">
         <v>1035</v>
@@ -15904,13 +15907,13 @@
         <v>1358</v>
       </c>
       <c r="N214" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="O214" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P214" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q214" t="s">
         <v>289</v>
@@ -15951,13 +15954,13 @@
         <v>1358</v>
       </c>
       <c r="N215" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="O215" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P215" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -15971,7 +15974,7 @@
         <v>844</v>
       </c>
       <c r="D216" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E216" s="3" t="s">
         <v>1035</v>
@@ -15998,13 +16001,13 @@
         <v>1358</v>
       </c>
       <c r="N216" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="O216" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P216" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q216" t="s">
         <v>208</v>
@@ -16048,7 +16051,7 @@
         <v>1358</v>
       </c>
       <c r="N217" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -16065,13 +16068,13 @@
         <v>1050</v>
       </c>
       <c r="N218" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="O218" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="P218" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -16109,13 +16112,13 @@
         <v>1358</v>
       </c>
       <c r="N219" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="O219" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="P219" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -16129,7 +16132,7 @@
         <v>844</v>
       </c>
       <c r="D220" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E220" s="3" t="s">
         <v>1035</v>
@@ -16156,13 +16159,13 @@
         <v>1358</v>
       </c>
       <c r="N220" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="O220" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="P220" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q220" t="s">
         <v>128</v>
@@ -16206,13 +16209,13 @@
         <v>1358</v>
       </c>
       <c r="N221" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="O221" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P221" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q221" t="s">
         <v>371</v>
@@ -16244,13 +16247,13 @@
         <v>1358</v>
       </c>
       <c r="N222" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="O222" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P222" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q222" t="s">
         <v>420</v>
@@ -16294,16 +16297,16 @@
         <v>1358</v>
       </c>
       <c r="N223" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="O223" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="P223" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="R223" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -16344,13 +16347,13 @@
         <v>1358</v>
       </c>
       <c r="N224" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="O224" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P224" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -16391,13 +16394,13 @@
         <v>1358</v>
       </c>
       <c r="N225" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="O225" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P225" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -16438,13 +16441,13 @@
         <v>1358</v>
       </c>
       <c r="N226" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="O226" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P226" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q226" t="s">
         <v>373</v>
@@ -16488,13 +16491,13 @@
         <v>1358</v>
       </c>
       <c r="N227" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="O227" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="P227" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -16532,16 +16535,16 @@
         <v>1059</v>
       </c>
       <c r="M228" s="2" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="N228" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="O228" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="P228" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -16579,13 +16582,13 @@
         <v>1358</v>
       </c>
       <c r="N229" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="O229" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P229" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q229" t="s">
         <v>179</v>
@@ -16602,7 +16605,7 @@
         <v>844</v>
       </c>
       <c r="D230" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E230" s="3" t="s">
         <v>1035</v>
@@ -16629,13 +16632,13 @@
         <v>1358</v>
       </c>
       <c r="N230" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="O230" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P230" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q230" t="s">
         <v>289</v>
@@ -16679,13 +16682,13 @@
         <v>1358</v>
       </c>
       <c r="N231" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="O231" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P231" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q231" t="s">
         <v>362</v>
@@ -16729,13 +16732,13 @@
         <v>1358</v>
       </c>
       <c r="N232" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="O232" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="P232" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R232" t="s">
         <v>280</v>
@@ -16779,13 +16782,13 @@
         <v>1358</v>
       </c>
       <c r="N233" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="O233" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="P233" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -16823,13 +16826,13 @@
         <v>1358</v>
       </c>
       <c r="N234" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="O234" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="P234" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -16855,13 +16858,13 @@
         <v>1358</v>
       </c>
       <c r="N235" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="O235" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P235" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -16902,13 +16905,13 @@
         <v>1358</v>
       </c>
       <c r="N236" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="O236" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P236" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -16922,7 +16925,7 @@
         <v>844</v>
       </c>
       <c r="D237" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E237" s="3" t="s">
         <v>1035</v>
@@ -16949,13 +16952,13 @@
         <v>1358</v>
       </c>
       <c r="N237" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="O237" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="P237" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q237" t="s">
         <v>128</v>
@@ -16996,13 +16999,13 @@
         <v>1358</v>
       </c>
       <c r="N238" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="O238" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="P238" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -17043,13 +17046,13 @@
         <v>1358</v>
       </c>
       <c r="N239" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="O239" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P239" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q239" t="s">
         <v>125</v>
@@ -17066,7 +17069,7 @@
         <v>844</v>
       </c>
       <c r="D240" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E240" s="3" t="s">
         <v>1051</v>
@@ -17093,13 +17096,13 @@
         <v>1358</v>
       </c>
       <c r="N240" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="O240" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="P240" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -17140,13 +17143,13 @@
         <v>1358</v>
       </c>
       <c r="N241" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="O241" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P241" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q241" t="s">
         <v>188</v>
@@ -17190,13 +17193,13 @@
         <v>1358</v>
       </c>
       <c r="N242" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="O242" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P242" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q242" t="s">
         <v>212</v>
@@ -17240,13 +17243,13 @@
         <v>1358</v>
       </c>
       <c r="N243" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="O243" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P243" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -17275,13 +17278,13 @@
         <v>1358</v>
       </c>
       <c r="N244" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="O244" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="P244" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -17322,13 +17325,13 @@
         <v>1358</v>
       </c>
       <c r="N245" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="O245" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P245" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q245" t="s">
         <v>268</v>
@@ -17372,13 +17375,13 @@
         <v>1358</v>
       </c>
       <c r="N246" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="O246" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P246" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -17416,16 +17419,16 @@
         <v>1290</v>
       </c>
       <c r="M247" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="N247" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="O247" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="P247" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -17466,13 +17469,13 @@
         <v>1358</v>
       </c>
       <c r="N248" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="O248" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="P248" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -17510,16 +17513,16 @@
         <v>1288</v>
       </c>
       <c r="M249" s="2" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="N249" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="O249" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="P249" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R249" t="s">
         <v>280</v>
@@ -17560,13 +17563,13 @@
         <v>1358</v>
       </c>
       <c r="N250" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="O250" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P250" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q250" t="s">
         <v>403</v>
@@ -17610,13 +17613,13 @@
         <v>1358</v>
       </c>
       <c r="N251" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="O251" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P251" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q251" t="s">
         <v>208</v>
@@ -17654,7 +17657,7 @@
         <v>1358</v>
       </c>
       <c r="N252" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -17668,7 +17671,7 @@
         <v>844</v>
       </c>
       <c r="D253" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E253" s="3" t="s">
         <v>1035</v>
@@ -17695,13 +17698,13 @@
         <v>1358</v>
       </c>
       <c r="N253" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="O253" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="P253" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="R253" t="s">
         <v>280</v>
@@ -17715,7 +17718,7 @@
         <v>690</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D254" t="s">
         <v>988</v>
@@ -17745,13 +17748,13 @@
         <v>1358</v>
       </c>
       <c r="N254" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="O254" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P254" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q254" t="s">
         <v>268</v>
@@ -17795,13 +17798,13 @@
         <v>1358</v>
       </c>
       <c r="N255" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="O255" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P255" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -17842,13 +17845,13 @@
         <v>1358</v>
       </c>
       <c r="N256" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="O256" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P256" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -17889,13 +17892,13 @@
         <v>1358</v>
       </c>
       <c r="N257" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="O257" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P257" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q257" t="s">
         <v>403</v>
@@ -17927,13 +17930,13 @@
         <v>1358</v>
       </c>
       <c r="N258" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="O258" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P258" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q258" t="s">
         <v>208</v>
@@ -17977,13 +17980,13 @@
         <v>1358</v>
       </c>
       <c r="N259" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="O259" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P259" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R259" t="s">
         <v>174</v>
@@ -18000,7 +18003,7 @@
         <v>844</v>
       </c>
       <c r="D260" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E260" s="3" t="s">
         <v>1035</v>
@@ -18027,13 +18030,13 @@
         <v>1358</v>
       </c>
       <c r="N260" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="O260" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P260" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -18074,13 +18077,13 @@
         <v>1358</v>
       </c>
       <c r="N261" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="O261" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P261" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q261" t="s">
         <v>295</v>
@@ -18094,7 +18097,7 @@
         <v>698</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D262" t="s">
         <v>962</v>
@@ -18124,13 +18127,13 @@
         <v>1358</v>
       </c>
       <c r="N262" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="O262" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P262" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -18171,13 +18174,13 @@
         <v>1358</v>
       </c>
       <c r="N263" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="O263" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="P263" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -18218,13 +18221,13 @@
         <v>1358</v>
       </c>
       <c r="N264" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="O264" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P264" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q264" t="s">
         <v>204</v>
@@ -18238,7 +18241,7 @@
         <v>701</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D265" t="s">
         <v>994</v>
@@ -18268,13 +18271,13 @@
         <v>1358</v>
       </c>
       <c r="N265" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="O265" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P265" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -18288,7 +18291,7 @@
         <v>844</v>
       </c>
       <c r="D266" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E266" s="3" t="s">
         <v>1035</v>
@@ -18315,13 +18318,13 @@
         <v>1358</v>
       </c>
       <c r="N266" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="O266" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P266" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="R266" t="s">
         <v>85</v>
@@ -18365,13 +18368,13 @@
         <v>1358</v>
       </c>
       <c r="N267" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="O267" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="P267" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -18412,13 +18415,13 @@
         <v>1358</v>
       </c>
       <c r="N268" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="O268" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P268" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -18459,13 +18462,13 @@
         <v>1358</v>
       </c>
       <c r="N269" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="O269" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="P269" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -18506,13 +18509,13 @@
         <v>1358</v>
       </c>
       <c r="N270" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="O270" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P270" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q270" t="s">
         <v>204</v>
@@ -18556,13 +18559,13 @@
         <v>1358</v>
       </c>
       <c r="N271" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="O271" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P271" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -18603,16 +18606,16 @@
         <v>1358</v>
       </c>
       <c r="N272" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="O272" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="P272" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="R272" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -18650,13 +18653,13 @@
         <v>1358</v>
       </c>
       <c r="N273" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="O273" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P273" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q273" t="s">
         <v>431</v>
@@ -18688,13 +18691,13 @@
         <v>1358</v>
       </c>
       <c r="N274" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="O274" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P274" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q274" t="s">
         <v>373</v>
@@ -18738,13 +18741,13 @@
         <v>1358</v>
       </c>
       <c r="N275" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="O275" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P275" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -18770,13 +18773,13 @@
         <v>1358</v>
       </c>
       <c r="N276" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="O276" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P276" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q276" t="s">
         <v>204</v>
@@ -18793,7 +18796,7 @@
         <v>844</v>
       </c>
       <c r="D277" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E277" s="3" t="s">
         <v>1035</v>
@@ -18820,7 +18823,7 @@
         <v>1358</v>
       </c>
       <c r="N277" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -18834,7 +18837,7 @@
         <v>844</v>
       </c>
       <c r="D278" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E278" s="3" t="s">
         <v>1035</v>
@@ -18861,13 +18864,13 @@
         <v>1358</v>
       </c>
       <c r="N278" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="O278" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P278" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R278" t="s">
         <v>174</v>
@@ -18902,13 +18905,13 @@
         <v>1358</v>
       </c>
       <c r="N279" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="O279" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P279" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q279" t="s">
         <v>157</v>
@@ -18925,7 +18928,7 @@
         <v>844</v>
       </c>
       <c r="D280" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E280" s="3" t="s">
         <v>1035</v>
@@ -18952,13 +18955,13 @@
         <v>1358</v>
       </c>
       <c r="N280" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="O280" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P280" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q280" t="s">
         <v>204</v>
@@ -19002,13 +19005,13 @@
         <v>1358</v>
       </c>
       <c r="N281" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="O281" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P281" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q281" t="s">
         <v>148</v>
@@ -19052,13 +19055,13 @@
         <v>1358</v>
       </c>
       <c r="N282" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="O282" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="P282" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R282" t="s">
         <v>335</v>
@@ -19075,7 +19078,7 @@
         <v>844</v>
       </c>
       <c r="D283" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E283" s="3" t="s">
         <v>1035</v>
@@ -19102,13 +19105,13 @@
         <v>1358</v>
       </c>
       <c r="N283" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="O283" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P283" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R283" t="s">
         <v>437</v>
@@ -19125,7 +19128,7 @@
         <v>844</v>
       </c>
       <c r="D284" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E284" s="3" t="s">
         <v>1035</v>
@@ -19152,13 +19155,13 @@
         <v>1358</v>
       </c>
       <c r="N284" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="O284" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P284" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R284" t="s">
         <v>437</v>
@@ -19202,13 +19205,13 @@
         <v>1358</v>
       </c>
       <c r="N285" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="O285" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P285" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R285" t="s">
         <v>437</v>
@@ -19225,7 +19228,7 @@
         <v>844</v>
       </c>
       <c r="D286" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E286" s="3" t="s">
         <v>1035</v>
@@ -19252,13 +19255,13 @@
         <v>1358</v>
       </c>
       <c r="N286" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="O286" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P286" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -19272,7 +19275,7 @@
         <v>844</v>
       </c>
       <c r="D287" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E287" s="3" t="s">
         <v>1035</v>
@@ -19299,13 +19302,13 @@
         <v>1358</v>
       </c>
       <c r="N287" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="O287" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P287" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q287" t="s">
         <v>403</v>
@@ -19346,13 +19349,13 @@
         <v>1358</v>
       </c>
       <c r="N288" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="O288" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P288" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q288" t="s">
         <v>373</v>
@@ -19396,13 +19399,13 @@
         <v>1358</v>
       </c>
       <c r="N289" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="O289" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P289" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q289" t="s">
         <v>289</v>
@@ -19446,13 +19449,13 @@
         <v>1358</v>
       </c>
       <c r="N290" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="O290" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P290" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q290" t="s">
         <v>179</v>
@@ -19466,7 +19469,7 @@
         <v>727</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D291" t="s">
         <v>1002</v>
@@ -19493,13 +19496,13 @@
         <v>1358</v>
       </c>
       <c r="N291" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="O291" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P291" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -19540,7 +19543,7 @@
         <v>1358</v>
       </c>
       <c r="N292" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -19554,7 +19557,7 @@
         <v>844</v>
       </c>
       <c r="D293" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E293" s="3" t="s">
         <v>1035</v>
@@ -19581,13 +19584,13 @@
         <v>1358</v>
       </c>
       <c r="N293" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="O293" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P293" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R293" t="s">
         <v>174</v>
@@ -19631,13 +19634,13 @@
         <v>1358</v>
       </c>
       <c r="N294" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="O294" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P294" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R294" t="s">
         <v>415</v>
@@ -19681,7 +19684,7 @@
         <v>1358</v>
       </c>
       <c r="N295" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -19722,13 +19725,13 @@
         <v>1358</v>
       </c>
       <c r="N296" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="O296" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P296" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -19769,7 +19772,7 @@
         <v>1358</v>
       </c>
       <c r="N297" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -19783,7 +19786,7 @@
         <v>844</v>
       </c>
       <c r="D298" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E298" s="3" t="s">
         <v>1035</v>
@@ -19810,13 +19813,13 @@
         <v>1358</v>
       </c>
       <c r="N298" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="O298" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P298" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R298" t="s">
         <v>214</v>
@@ -19830,7 +19833,7 @@
         <v>735</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G299" s="3" t="s">
         <v>1056</v>
@@ -19854,7 +19857,7 @@
         <v>1358</v>
       </c>
       <c r="N299" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -19895,13 +19898,13 @@
         <v>1358</v>
       </c>
       <c r="N300" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="O300" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P300" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q300" t="s">
         <v>200</v>
@@ -19945,13 +19948,13 @@
         <v>1358</v>
       </c>
       <c r="N301" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="O301" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="P301" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R301" t="s">
         <v>335</v>
@@ -19995,13 +19998,13 @@
         <v>1358</v>
       </c>
       <c r="N302" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="O302" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="P302" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -20042,13 +20045,13 @@
         <v>1358</v>
       </c>
       <c r="N303" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="O303" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P303" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -20089,13 +20092,13 @@
         <v>1358</v>
       </c>
       <c r="N304" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="O304" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P304" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -20106,10 +20109,10 @@
         <v>741</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D305" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E305" s="3" t="s">
         <v>1053</v>
@@ -20133,13 +20136,13 @@
         <v>1358</v>
       </c>
       <c r="N305" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="O305" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P305" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -20180,13 +20183,13 @@
         <v>1358</v>
       </c>
       <c r="N306" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="O306" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P306" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R306" t="s">
         <v>415</v>
@@ -20203,7 +20206,7 @@
         <v>844</v>
       </c>
       <c r="D307" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E307" s="3" t="s">
         <v>1035</v>
@@ -20230,7 +20233,7 @@
         <v>1358</v>
       </c>
       <c r="N307" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -20244,7 +20247,7 @@
         <v>844</v>
       </c>
       <c r="D308" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E308" s="3" t="s">
         <v>1035</v>
@@ -20271,7 +20274,7 @@
         <v>1358</v>
       </c>
       <c r="N308" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -20320,13 +20323,13 @@
         <v>1358</v>
       </c>
       <c r="N310" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="O310" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P310" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q310" t="s">
         <v>86</v>
@@ -20373,13 +20376,13 @@
         <v>1358</v>
       </c>
       <c r="N311" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="O311" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P311" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q311" t="s">
         <v>125</v>
@@ -20396,7 +20399,7 @@
         <v>844</v>
       </c>
       <c r="D312" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E312" s="3" t="s">
         <v>1035</v>
@@ -20423,13 +20426,13 @@
         <v>1358</v>
       </c>
       <c r="N312" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="O312" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="P312" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="R312" t="s">
         <v>417</v>
@@ -20473,13 +20476,13 @@
         <v>1358</v>
       </c>
       <c r="N313" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="O313" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="P313" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q313" t="s">
         <v>128</v>
@@ -20508,13 +20511,13 @@
         <v>1358</v>
       </c>
       <c r="N314" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="O314" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P314" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q314" t="s">
         <v>212</v>
@@ -20558,13 +20561,13 @@
         <v>1358</v>
       </c>
       <c r="N315" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="O315" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P315" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q315" t="s">
         <v>212</v>
@@ -20608,7 +20611,7 @@
         <v>1358</v>
       </c>
       <c r="N316" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -20622,7 +20625,7 @@
         <v>844</v>
       </c>
       <c r="D317" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E317" s="3" t="s">
         <v>1035</v>
@@ -20649,13 +20652,13 @@
         <v>1358</v>
       </c>
       <c r="N317" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="O317" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P317" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -20684,13 +20687,13 @@
         <v>1358</v>
       </c>
       <c r="N318" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="O318" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P318" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q318" t="s">
         <v>268</v>
@@ -20734,13 +20737,13 @@
         <v>1358</v>
       </c>
       <c r="N319" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="O319" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P319" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q319" t="s">
         <v>295</v>
@@ -20757,7 +20760,7 @@
         <v>844</v>
       </c>
       <c r="D320" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E320" s="3" t="s">
         <v>1035</v>
@@ -20784,13 +20787,13 @@
         <v>1358</v>
       </c>
       <c r="N320" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="O320" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P320" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q320" t="s">
         <v>204</v>
@@ -20834,7 +20837,7 @@
         <v>1358</v>
       </c>
       <c r="N321" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -20872,13 +20875,13 @@
         <v>1358</v>
       </c>
       <c r="N322" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="O322" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P322" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q322" t="s">
         <v>362</v>
@@ -20895,7 +20898,7 @@
         <v>844</v>
       </c>
       <c r="D323" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E323" s="3" t="s">
         <v>1035</v>
@@ -20922,13 +20925,13 @@
         <v>1358</v>
       </c>
       <c r="N323" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="O323" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="P323" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R323" t="s">
         <v>271</v>
@@ -20945,7 +20948,7 @@
         <v>844</v>
       </c>
       <c r="D324" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E324" s="3" t="s">
         <v>1035</v>
@@ -20972,13 +20975,13 @@
         <v>1358</v>
       </c>
       <c r="N324" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="O324" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P324" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -20992,7 +20995,7 @@
         <v>844</v>
       </c>
       <c r="D325" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E325" s="3" t="s">
         <v>1035</v>
@@ -21019,13 +21022,13 @@
         <v>1358</v>
       </c>
       <c r="N325" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="O325" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P325" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -21063,13 +21066,13 @@
         <v>1358</v>
       </c>
       <c r="N326" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="O326" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P326" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q326" t="s">
         <v>373</v>
@@ -21113,13 +21116,13 @@
         <v>1358</v>
       </c>
       <c r="N327" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="O327" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P327" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q327" t="s">
         <v>188</v>
@@ -21163,13 +21166,13 @@
         <v>1358</v>
       </c>
       <c r="N328" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="O328" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P328" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R328" t="s">
         <v>214</v>
@@ -21186,7 +21189,7 @@
         <v>844</v>
       </c>
       <c r="D329" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E329" s="3" t="s">
         <v>1035</v>
@@ -21213,13 +21216,13 @@
         <v>1358</v>
       </c>
       <c r="N329" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="O329" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P329" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q329" t="s">
         <v>362</v>
@@ -21263,13 +21266,13 @@
         <v>1358</v>
       </c>
       <c r="N330" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="O330" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P330" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -21283,7 +21286,7 @@
         <v>844</v>
       </c>
       <c r="D331" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E331" s="3" t="s">
         <v>1035</v>
@@ -21310,13 +21313,13 @@
         <v>1358</v>
       </c>
       <c r="N331" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="O331" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P331" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q331" t="s">
         <v>362</v>
@@ -21360,13 +21363,13 @@
         <v>1358</v>
       </c>
       <c r="N332" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="O332" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P332" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q332" t="s">
         <v>188</v>
@@ -21410,13 +21413,13 @@
         <v>1358</v>
       </c>
       <c r="N333" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="O333" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P333" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -21457,13 +21460,13 @@
         <v>1358</v>
       </c>
       <c r="N334" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="O334" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P334" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R334" t="s">
         <v>174</v>
@@ -21495,16 +21498,16 @@
         <v>1358</v>
       </c>
       <c r="N335" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="O335" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="P335" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="R335" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -21542,13 +21545,13 @@
         <v>1358</v>
       </c>
       <c r="N336" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="O336" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P336" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -21589,13 +21592,13 @@
         <v>1358</v>
       </c>
       <c r="N337" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="O337" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P337" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q337" t="s">
         <v>403</v>
@@ -21612,7 +21615,7 @@
         <v>844</v>
       </c>
       <c r="D338" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E338" s="3" t="s">
         <v>1035</v>
@@ -21639,13 +21642,13 @@
         <v>1358</v>
       </c>
       <c r="N338" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="O338" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="P338" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q338" t="s">
         <v>170</v>
@@ -21689,13 +21692,13 @@
         <v>1358</v>
       </c>
       <c r="N339" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="O339" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P339" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -21736,13 +21739,13 @@
         <v>1358</v>
       </c>
       <c r="N340" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="O340" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="P340" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R340" t="s">
         <v>271</v>
@@ -21786,13 +21789,13 @@
         <v>1358</v>
       </c>
       <c r="N341" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="O341" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P341" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -21833,13 +21836,13 @@
         <v>1358</v>
       </c>
       <c r="N342" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="O342" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P342" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q342" t="s">
         <v>373</v>
@@ -21856,7 +21859,7 @@
         <v>844</v>
       </c>
       <c r="D343" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E343" s="3" t="s">
         <v>1035</v>
@@ -21883,13 +21886,13 @@
         <v>1358</v>
       </c>
       <c r="N343" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="O343" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P343" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q343" t="s">
         <v>200</v>
@@ -21918,13 +21921,13 @@
         <v>1358</v>
       </c>
       <c r="N344" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="O344" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="P344" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -21965,13 +21968,13 @@
         <v>1358</v>
       </c>
       <c r="N345" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="O345" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P345" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R345" t="s">
         <v>174</v>
@@ -22015,13 +22018,13 @@
         <v>1358</v>
       </c>
       <c r="N346" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="O346" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P346" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q346" t="s">
         <v>362</v>
@@ -22065,13 +22068,13 @@
         <v>1358</v>
       </c>
       <c r="N347" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="O347" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P347" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q347" t="s">
         <v>373</v>
@@ -22115,13 +22118,13 @@
         <v>1358</v>
       </c>
       <c r="N348" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="O348" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="P348" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q348" t="s">
         <v>128</v>
@@ -22165,13 +22168,13 @@
         <v>1358</v>
       </c>
       <c r="N349" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="O349" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P349" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -22212,13 +22215,13 @@
         <v>1358</v>
       </c>
       <c r="N350" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="O350" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P350" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q350" t="s">
         <v>157</v>
@@ -22262,13 +22265,13 @@
         <v>1358</v>
       </c>
       <c r="N351" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="O351" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P351" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q351" t="s">
         <v>179</v>
@@ -22285,7 +22288,7 @@
         <v>844</v>
       </c>
       <c r="D352" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E352" s="3" t="s">
         <v>1035</v>
@@ -22309,13 +22312,13 @@
         <v>1358</v>
       </c>
       <c r="N352" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="O352" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="P352" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q352" t="s">
         <v>170</v>
@@ -22359,13 +22362,13 @@
         <v>1358</v>
       </c>
       <c r="N353" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="O353" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P353" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q353" t="s">
         <v>200</v>
@@ -22409,13 +22412,13 @@
         <v>1358</v>
       </c>
       <c r="N354" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="O354" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P354" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -22456,13 +22459,13 @@
         <v>1358</v>
       </c>
       <c r="N355" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="O355" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P355" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -22503,13 +22506,13 @@
         <v>1358</v>
       </c>
       <c r="N356" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="O356" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P356" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q356" t="s">
         <v>188</v>
@@ -22553,13 +22556,13 @@
         <v>1358</v>
       </c>
       <c r="N357" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="O357" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P357" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -22600,13 +22603,13 @@
         <v>1358</v>
       </c>
       <c r="N358" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="O358" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P358" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q358" t="s">
         <v>200</v>
@@ -22650,13 +22653,13 @@
         <v>1358</v>
       </c>
       <c r="N359" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="O359" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="P359" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -22694,13 +22697,13 @@
         <v>1358</v>
       </c>
       <c r="N360" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="O360" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="P360" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -22741,13 +22744,13 @@
         <v>1358</v>
       </c>
       <c r="N361" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="O361" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="P361" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q361" t="s">
         <v>128</v>
@@ -22791,13 +22794,13 @@
         <v>1358</v>
       </c>
       <c r="N362" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="O362" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P362" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R362" t="s">
         <v>174</v>
@@ -22814,7 +22817,7 @@
         <v>844</v>
       </c>
       <c r="D363" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E363" s="3" t="s">
         <v>1035</v>
@@ -22841,13 +22844,13 @@
         <v>1358</v>
       </c>
       <c r="N363" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="O363" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P363" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q363" t="s">
         <v>200</v>
@@ -22891,13 +22894,13 @@
         <v>1358</v>
       </c>
       <c r="N364" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="O364" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P364" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q364" t="s">
         <v>157</v>
@@ -22941,13 +22944,13 @@
         <v>1358</v>
       </c>
       <c r="N365" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="O365" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="P365" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -22988,13 +22991,13 @@
         <v>1358</v>
       </c>
       <c r="N366" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="O366" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P366" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q366" t="s">
         <v>295</v>
@@ -23038,13 +23041,13 @@
         <v>1358</v>
       </c>
       <c r="N367" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="O367" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="P367" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R367" t="s">
         <v>421</v>
@@ -23088,13 +23091,13 @@
         <v>1358</v>
       </c>
       <c r="N368" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="O368" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P368" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R368" t="s">
         <v>415</v>
@@ -23135,13 +23138,13 @@
         <v>1358</v>
       </c>
       <c r="N369" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="O369" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P369" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="370" spans="1:17">
@@ -23155,7 +23158,7 @@
         <v>844</v>
       </c>
       <c r="D370" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E370" s="3" t="s">
         <v>1035</v>
@@ -23182,13 +23185,13 @@
         <v>1358</v>
       </c>
       <c r="N370" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="O370" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P370" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q370" t="s">
         <v>403</v>
@@ -23232,13 +23235,13 @@
         <v>1358</v>
       </c>
       <c r="N371" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="O371" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P371" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="372" spans="1:17">
@@ -23279,13 +23282,13 @@
         <v>1358</v>
       </c>
       <c r="N372" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="O372" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P372" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q372" t="s">
         <v>188</v>
@@ -23302,7 +23305,7 @@
         <v>844</v>
       </c>
       <c r="D373" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E373" s="3" t="s">
         <v>1035</v>
@@ -23329,13 +23332,13 @@
         <v>1358</v>
       </c>
       <c r="N373" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="O373" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P373" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q373" t="s">
         <v>373</v>
@@ -23352,7 +23355,7 @@
         <v>844</v>
       </c>
       <c r="D374" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E374" s="3" t="s">
         <v>1035</v>
@@ -23379,13 +23382,13 @@
         <v>1358</v>
       </c>
       <c r="N374" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="O374" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P374" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q374" t="s">
         <v>148</v>
@@ -23417,7 +23420,7 @@
         <v>1358</v>
       </c>
       <c r="N375" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="376" spans="1:17">
@@ -23458,13 +23461,13 @@
         <v>1358</v>
       </c>
       <c r="N376" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="O376" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P376" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q376" t="s">
         <v>188</v>
@@ -23508,13 +23511,13 @@
         <v>1358</v>
       </c>
       <c r="N377" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="O377" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P377" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="378" spans="1:17">
@@ -23555,13 +23558,13 @@
         <v>1358</v>
       </c>
       <c r="N378" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="O378" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="P378" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q378" t="s">
         <v>128</v>
@@ -23605,13 +23608,13 @@
         <v>1358</v>
       </c>
       <c r="N379" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="O379" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P379" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="380" spans="1:17">
@@ -23625,7 +23628,7 @@
         <v>844</v>
       </c>
       <c r="D380" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E380" s="3" t="s">
         <v>1035</v>
@@ -23652,13 +23655,13 @@
         <v>1358</v>
       </c>
       <c r="N380" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="O380" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P380" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q380" t="s">
         <v>204</v>
@@ -23690,13 +23693,13 @@
         <v>1358</v>
       </c>
       <c r="N381" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="O381" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P381" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q381" t="s">
         <v>212</v>
@@ -23740,13 +23743,13 @@
         <v>1358</v>
       </c>
       <c r="N382" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="O382" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="P382" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="383" spans="1:17">
@@ -23787,13 +23790,13 @@
         <v>1358</v>
       </c>
       <c r="N383" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="O383" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P383" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="384" spans="1:17">
@@ -23804,7 +23807,7 @@
         <v>820</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G384" s="3" t="s">
         <v>1118</v>
@@ -23822,13 +23825,13 @@
         <v>1358</v>
       </c>
       <c r="N384" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="O384" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="P384" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -23869,13 +23872,13 @@
         <v>1358</v>
       </c>
       <c r="N385" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="O385" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="P385" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -23889,7 +23892,7 @@
         <v>844</v>
       </c>
       <c r="D386" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E386" s="3" t="s">
         <v>1055</v>
@@ -23916,13 +23919,13 @@
         <v>1358</v>
       </c>
       <c r="N386" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="O386" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P386" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q386" t="s">
         <v>295</v>
@@ -23939,7 +23942,7 @@
         <v>844</v>
       </c>
       <c r="D387" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E387" s="3" t="s">
         <v>1035</v>
@@ -23966,13 +23969,13 @@
         <v>1358</v>
       </c>
       <c r="N387" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="O387" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P387" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q387" t="s">
         <v>371</v>
@@ -23986,7 +23989,7 @@
         <v>824</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D388" t="s">
         <v>1030</v>
@@ -24016,13 +24019,13 @@
         <v>1358</v>
       </c>
       <c r="N388" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="O388" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P388" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -24063,13 +24066,13 @@
         <v>1358</v>
       </c>
       <c r="N389" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="O389" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="P389" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -24083,7 +24086,7 @@
         <v>844</v>
       </c>
       <c r="D390" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E390" s="3" t="s">
         <v>1035</v>
@@ -24110,13 +24113,13 @@
         <v>1358</v>
       </c>
       <c r="N390" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="O390" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P390" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="R390" t="s">
         <v>437</v>
@@ -24133,7 +24136,7 @@
         <v>844</v>
       </c>
       <c r="D391" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E391" s="3" t="s">
         <v>1035</v>
@@ -24160,13 +24163,13 @@
         <v>1358</v>
       </c>
       <c r="N391" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="O391" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P391" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R391" t="s">
         <v>174</v>
@@ -24210,13 +24213,13 @@
         <v>1358</v>
       </c>
       <c r="N392" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="O392" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="P392" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -24257,13 +24260,13 @@
         <v>1358</v>
       </c>
       <c r="N393" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="O393" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P393" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q393" t="s">
         <v>179</v>
@@ -24307,13 +24310,13 @@
         <v>1358</v>
       </c>
       <c r="N394" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="O394" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P394" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R394" t="s">
         <v>214</v>
@@ -24357,13 +24360,13 @@
         <v>1358</v>
       </c>
       <c r="N395" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="O395" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P395" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q395" t="s">
         <v>373</v>
@@ -24380,7 +24383,7 @@
         <v>844</v>
       </c>
       <c r="D396" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E396" s="3" t="s">
         <v>1035</v>
@@ -24407,13 +24410,13 @@
         <v>1358</v>
       </c>
       <c r="N396" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="O396" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P396" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -24427,7 +24430,7 @@
         <v>844</v>
       </c>
       <c r="D397" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E397" s="3" t="s">
         <v>1035</v>
@@ -24454,13 +24457,13 @@
         <v>1358</v>
       </c>
       <c r="N397" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="O397" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P397" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R397" t="s">
         <v>415</v>
@@ -24477,7 +24480,7 @@
         <v>844</v>
       </c>
       <c r="D398" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E398" s="3" t="s">
         <v>1035</v>
@@ -24504,13 +24507,13 @@
         <v>1358</v>
       </c>
       <c r="N398" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="O398" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P398" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q398" t="s">
         <v>431</v>
@@ -24548,13 +24551,13 @@
         <v>1358</v>
       </c>
       <c r="N399" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="O399" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P399" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -24568,7 +24571,7 @@
         <v>844</v>
       </c>
       <c r="D400" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E400" s="3" t="s">
         <v>1035</v>
@@ -24595,13 +24598,13 @@
         <v>1358</v>
       </c>
       <c r="N400" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="O400" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="P400" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q400" t="s">
         <v>420</v>
@@ -24618,7 +24621,7 @@
         <v>844</v>
       </c>
       <c r="D401" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E401" s="3" t="s">
         <v>1035</v>
@@ -24645,13 +24648,13 @@
         <v>1358</v>
       </c>
       <c r="N401" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="O401" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="P401" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="402" spans="1:17">
@@ -24680,13 +24683,13 @@
         <v>1358</v>
       </c>
       <c r="N402" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="O402" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P402" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q402" t="s">
         <v>431</v>
@@ -24730,13 +24733,13 @@
         <v>1358</v>
       </c>
       <c r="N403" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="O403" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="P403" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q403" t="s">
         <v>204</v>
@@ -24777,13 +24780,13 @@
         <v>1358</v>
       </c>
       <c r="N404" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="O404" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="P404" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q404" t="s">
         <v>431</v>
@@ -24821,29 +24824,30 @@
         <v>1288</v>
       </c>
       <c r="M405" s="2" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="N405" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="O405" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="P405" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M59" r:id="rId1"/>
-    <hyperlink ref="M75" r:id="rId2"/>
-    <hyperlink ref="M144" r:id="rId3"/>
-    <hyperlink ref="M183" r:id="rId4"/>
-    <hyperlink ref="E218" r:id="rId5"/>
-    <hyperlink ref="M228" r:id="rId6"/>
-    <hyperlink ref="M247" r:id="rId7"/>
-    <hyperlink ref="M249" r:id="rId8"/>
-    <hyperlink ref="M405" r:id="rId9"/>
+    <hyperlink ref="M61" r:id="rId2"/>
+    <hyperlink ref="M75" r:id="rId3"/>
+    <hyperlink ref="M144" r:id="rId4"/>
+    <hyperlink ref="M183" r:id="rId5"/>
+    <hyperlink ref="E218" r:id="rId6"/>
+    <hyperlink ref="M228" r:id="rId7"/>
+    <hyperlink ref="M247" r:id="rId8"/>
+    <hyperlink ref="M249" r:id="rId9"/>
+    <hyperlink ref="M405" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24867,22 +24871,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -24890,10 +24894,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="C2" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>45</v>
@@ -24907,10 +24911,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="C3" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>438</v>
@@ -24924,10 +24928,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="C4" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>842</v>
@@ -24941,10 +24945,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="C5" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>954</v>
@@ -24958,10 +24962,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="C6" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>1053</v>
@@ -24975,10 +24979,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="C7" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>1056</v>
@@ -24992,10 +24996,10 @@
         <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="C8" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>1066</v>
@@ -25009,10 +25013,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="C9" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>1170</v>
@@ -25026,10 +25030,10 @@
         <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="C10" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>1249</v>
@@ -25043,10 +25047,10 @@
         <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="C11" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="D11" s="3">
         <v>2022</v>
@@ -25060,10 +25064,10 @@
         <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="C12" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>1312</v>
@@ -25077,10 +25081,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="C13" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>1354</v>
@@ -25094,10 +25098,10 @@
         <v>30</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="C14" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>1358</v>
@@ -25111,13 +25115,13 @@
         <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="C15" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="E15" t="s">
         <v>1056</v>
@@ -25128,13 +25132,13 @@
         <v>32</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="C16" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="E16" t="s">
         <v>1056</v>
@@ -25145,13 +25149,13 @@
         <v>33</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="C17" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="E17" t="s">
         <v>1056</v>
@@ -25162,10 +25166,10 @@
         <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="C18" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>86</v>
@@ -25179,10 +25183,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="C19" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>85</v>
